--- a/Docs/06 Testing/标准工时分析管理系统测试课题汇总及处理表.xlsx
+++ b/Docs/06 Testing/标准工时分析管理系统测试课题汇总及处理表.xlsx
@@ -18,7 +18,7 @@
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId5"/>
+    <pivotCache cacheId="25" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -184,7 +184,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="388">
   <si>
     <t>备注</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -1660,10 +1660,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>如何确认输完了</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Tool默认值导致</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1672,18 +1668,6 @@
   </si>
   <si>
     <t>新增功能处理确定</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增功能处理确定</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要确认组件是否支持</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>需确认功能是否合适，因为会破坏路由</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -2480,83 +2464,6 @@
   </si>
   <si>
     <r>
-      <t>most系</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="DengXian"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>统</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>中无法</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="DengXian"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>识别</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>全部</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="DengXian"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>频</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>度及部</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="DengXian"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>份频</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>度；</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>分析表中作</t>
     </r>
     <r>
@@ -2656,20 +2563,6 @@
   <si>
     <t>处理中</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>处</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>理中</t>
-    </r>
   </si>
   <si>
     <r>
@@ -2772,10 +2665,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>需要确认可行性</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>见课题18(新增功能处理确定)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -2813,10 +2702,6 @@
   </si>
   <si>
     <t>纳期从3日延后到9日</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>批量复制的话如何处理唯一键问题</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -2911,6 +2796,156 @@
   </si>
   <si>
     <t>详细履历从操作日志查看（不含批量导入明细）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2人天</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1人天</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5人天</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2人天</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>见课题22</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已处理</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0人天</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5人天</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1人天</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10人天</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1人天</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5人天</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>most系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>中无法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>识别</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>全部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>度及部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>份频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>度；</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>需与用户确认如何算输完了</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>需与用户确认功能是否合适，因为会破坏路由</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>需与用户确定批量复制的话如何处理唯一键问题</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>多行在其他课题跟踪</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标值组合初始化时也会设置这两个值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已处理</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -3654,7 +3689,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="315">
+  <cellXfs count="314">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4468,9 +4503,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4480,15 +4512,9 @@
     <xf numFmtId="58" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4501,39 +4527,6 @@
     <xf numFmtId="0" fontId="66" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="7" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="59" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4587,6 +4580,45 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="6" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="59" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4693,15 +4725,15 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1142408</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>621712</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>26400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C98B2B81-BA32-4394-B169-793F8C3E02A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C98B2B81-BA32-4394-B169-793F8C3E02A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4737,15 +4769,15 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1273743</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>677224</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>590893</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBA739EC-426E-488C-8EB4-E9BFFCDD8554}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CBA739EC-426E-488C-8EB4-E9BFFCDD8554}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4781,15 +4813,15 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1148857</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>582438</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>462328</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67E59D5F-3A3D-4CC8-BC62-636223D083FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{67E59D5F-3A3D-4CC8-BC62-636223D083FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4838,7 +4870,7 @@
         <xdr:cNvPr id="14" name="组合 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED3142A9-7F63-479C-9720-07589AB2CE7F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ED3142A9-7F63-479C-9720-07589AB2CE7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4857,7 +4889,7 @@
           <xdr:cNvPr id="15" name="图片 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F21A3D8-CA0F-48DB-846B-4577426E88DB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3F21A3D8-CA0F-48DB-846B-4577426E88DB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4885,7 +4917,7 @@
           <xdr:cNvPr id="16" name="矩形 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8A8C184-1A17-4247-BB9C-68650D799358}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D8A8C184-1A17-4247-BB9C-68650D799358}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4952,7 +4984,7 @@
         <xdr:cNvPr id="7" name="组合 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C52A969-B543-4095-8357-9B29AA726D2A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9C52A969-B543-4095-8357-9B29AA726D2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4971,7 +5003,7 @@
           <xdr:cNvPr id="27" name="图片 26">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6AEFA32-3788-40F7-BEBA-24C5E9F08CB5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D6AEFA32-3788-40F7-BEBA-24C5E9F08CB5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4999,7 +5031,7 @@
           <xdr:cNvPr id="28" name="矩形 27">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D0E3554-6CC3-43CF-A6C2-99B0412D27C6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1D0E3554-6CC3-43CF-A6C2-99B0412D27C6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5066,7 +5098,7 @@
         <xdr:cNvPr id="17" name="组合 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82AF9E09-0798-485C-907F-F44410CAF4FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82AF9E09-0798-485C-907F-F44410CAF4FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5085,7 +5117,7 @@
           <xdr:cNvPr id="36" name="图片 35">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07457ED1-E75B-4492-AB11-171F75C37693}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07457ED1-E75B-4492-AB11-171F75C37693}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5113,7 +5145,7 @@
           <xdr:cNvPr id="37" name="矩形 36">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD4A936E-B663-4FEF-9170-AF86328014E3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CD4A936E-B663-4FEF-9170-AF86328014E3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5180,7 +5212,7 @@
         <xdr:cNvPr id="10" name="图片 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71CE1696-FFAC-4D0D-9BC6-623C84080B11}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{71CE1696-FFAC-4D0D-9BC6-623C84080B11}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5223,7 +5255,7 @@
         <xdr:cNvPr id="30" name="图片 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5922A382-D927-4B52-BEEB-C2668363FB35}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5922A382-D927-4B52-BEEB-C2668363FB35}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5266,7 +5298,7 @@
         <xdr:cNvPr id="62" name="图片 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD02A9C6-4197-440B-8FC2-A69BD1CF140A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BD02A9C6-4197-440B-8FC2-A69BD1CF140A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5304,7 +5336,7 @@
         <xdr:cNvPr id="56" name="图片 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3447B6E4-297B-4626-BEB1-4BD2E742BFB8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3447B6E4-297B-4626-BEB1-4BD2E742BFB8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5348,7 +5380,7 @@
         <xdr:cNvPr id="8" name="图片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21CD05AE-AB07-4A92-90DD-14CF4D5829B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{21CD05AE-AB07-4A92-90DD-14CF4D5829B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5392,7 +5424,7 @@
         <xdr:cNvPr id="18" name="图片 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23342E00-592E-4AA7-9123-4D5229A234A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{23342E00-592E-4AA7-9123-4D5229A234A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5431,7 +5463,7 @@
         <xdr:cNvPr id="57" name="图片 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1D352DE-53BF-42B9-B05C-32668E7F7DB2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1D352DE-53BF-42B9-B05C-32668E7F7DB2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5475,7 +5507,7 @@
         <xdr:cNvPr id="21" name="组合 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCAA580D-E6A2-4774-A96E-7EBCE998DBC4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CCAA580D-E6A2-4774-A96E-7EBCE998DBC4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5494,7 +5526,7 @@
           <xdr:cNvPr id="47" name="图片 46">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D75A2515-EDE2-40EE-B593-56435BAF7270}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D75A2515-EDE2-40EE-B593-56435BAF7270}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5522,7 +5554,7 @@
           <xdr:cNvPr id="20" name="直接箭头连接符 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F879196-4649-4521-9EDE-9B226B334913}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F879196-4649-4521-9EDE-9B226B334913}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5588,7 +5620,7 @@
         <xdr:cNvPr id="49" name="图片 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4C498E5-4FAD-466F-A44A-3D204083602A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4C498E5-4FAD-466F-A44A-3D204083602A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5624,7 +5656,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1038225</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>520476</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5632,7 +5664,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02ACE7F6-6C9F-49AB-B04A-8A2CA1B80091}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{02ACE7F6-6C9F-49AB-B04A-8A2CA1B80091}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5671,7 +5703,7 @@
         <xdr:cNvPr id="63" name="图片 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5B4F15F-D156-49C7-88C9-0C0546D8FF38}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E5B4F15F-D156-49C7-88C9-0C0546D8FF38}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5710,7 +5742,7 @@
         <xdr:cNvPr id="64" name="图片 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B72EDCD-D450-4A03-BD8A-6526BF3EF390}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5B72EDCD-D450-4A03-BD8A-6526BF3EF390}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5754,7 +5786,7 @@
         <xdr:cNvPr id="31" name="图片 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{265A18AF-7FD9-4852-A807-4A9065120A0A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{265A18AF-7FD9-4852-A807-4A9065120A0A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5798,7 +5830,7 @@
         <xdr:cNvPr id="39" name="图片 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A9C4C4A-8486-4FAD-A7B8-1DC65A159E7F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A9C4C4A-8486-4FAD-A7B8-1DC65A159E7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5833,15 +5865,15 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1141239</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>26399</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>26400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="40" name="图片 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A319DFA-C470-418C-AEC3-79A8CCAE0C02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8A319DFA-C470-418C-AEC3-79A8CCAE0C02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5885,7 +5917,7 @@
         <xdr:cNvPr id="41" name="图片 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CD369F4-FF89-4A08-B457-FAB4D314ABD5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3CD369F4-FF89-4A08-B457-FAB4D314ABD5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5929,7 +5961,7 @@
         <xdr:cNvPr id="11" name="组合 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AE260E9-029E-43AB-8368-B3A8C042A108}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0AE260E9-029E-43AB-8368-B3A8C042A108}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5948,7 +5980,7 @@
           <xdr:cNvPr id="6" name="图片 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF876CAB-ED8F-4688-986A-6F716B3BE4BE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AF876CAB-ED8F-4688-986A-6F716B3BE4BE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5977,7 +6009,7 @@
           <xdr:cNvPr id="9" name="矩形 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B7BD13C-8780-4606-B014-8D58A2F46294}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B7BD13C-8780-4606-B014-8D58A2F46294}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6051,7 +6083,7 @@
         <xdr:cNvPr id="19" name="组合 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F515AF4-F953-48AF-902A-6BC975EEA1D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5F515AF4-F953-48AF-902A-6BC975EEA1D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6059,7 +6091,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6927398" y="12195198"/>
+          <a:off x="6927398" y="4956198"/>
           <a:ext cx="2026104" cy="395373"/>
           <a:chOff x="2408208" y="88151179"/>
           <a:chExt cx="15167265" cy="9152865"/>
@@ -6070,7 +6102,7 @@
           <xdr:cNvPr id="12" name="图片 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C94C0F32-E18C-492A-93BB-8425EB434BDB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C94C0F32-E18C-492A-93BB-8425EB434BDB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6099,7 +6131,7 @@
           <xdr:cNvPr id="13" name="矩形 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79637C81-3D3E-491D-B411-5D000451A074}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{79637C81-3D3E-491D-B411-5D000451A074}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6173,7 +6205,7 @@
         <xdr:cNvPr id="24" name="组合 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE984409-5DBC-4D7F-A372-C8129A968FFD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FE984409-5DBC-4D7F-A372-C8129A968FFD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6192,7 +6224,7 @@
           <xdr:cNvPr id="22" name="图片 21">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0871BD9-0E76-4D99-AF3E-B6E7BC1DF220}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B0871BD9-0E76-4D99-AF3E-B6E7BC1DF220}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6221,7 +6253,7 @@
           <xdr:cNvPr id="23" name="矩形 22">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79F5AD6B-1E3E-4424-A984-922AB2C06EB0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{79F5AD6B-1E3E-4424-A984-922AB2C06EB0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6288,14 +6320,14 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>2567608</xdr:colOff>
       <xdr:row>122</xdr:row>
-      <xdr:rowOff>317846</xdr:rowOff>
+      <xdr:rowOff>748886</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="25" name="图片 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{985C047F-BECF-4440-BA4B-F26ED3B85A92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{985C047F-BECF-4440-BA4B-F26ED3B85A92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6339,7 +6371,7 @@
         <xdr:cNvPr id="32" name="组合 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39F818E0-42DD-40F7-93A9-2E2B78DACA36}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{39F818E0-42DD-40F7-93A9-2E2B78DACA36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6347,7 +6379,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6951870" y="13276332"/>
+          <a:off x="6951870" y="5537270"/>
           <a:ext cx="2415760" cy="220319"/>
           <a:chOff x="2429565" y="93841957"/>
           <a:chExt cx="15238095" cy="8571428"/>
@@ -6358,7 +6390,7 @@
           <xdr:cNvPr id="26" name="图片 25">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37418CA9-6E36-4C65-AA1F-7554F1F7BEAC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37418CA9-6E36-4C65-AA1F-7554F1F7BEAC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6387,7 +6419,7 @@
           <xdr:cNvPr id="29" name="矩形 28">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A90E1BB1-B4E4-44A2-B19E-5E4993F74310}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A90E1BB1-B4E4-44A2-B19E-5E4993F74310}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6461,7 +6493,7 @@
         <xdr:cNvPr id="38" name="组合 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ADE53DE-5AEE-4240-8BD6-C99835EE6166}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7ADE53DE-5AEE-4240-8BD6-C99835EE6166}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6480,7 +6512,7 @@
           <xdr:cNvPr id="33" name="图片 32">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAB102EB-9179-4433-B1E4-71FA232742BB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BAB102EB-9179-4433-B1E4-71FA232742BB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6509,7 +6541,7 @@
           <xdr:cNvPr id="34" name="矩形 33">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2A3E5A8-A3AD-4555-A10C-A9A82B4AF316}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2A3E5A8-A3AD-4555-A10C-A9A82B4AF316}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6567,7 +6599,7 @@
           <xdr:cNvPr id="35" name="文本框 34">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEC9E465-A313-42BD-B7FE-517D6814315B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DEC9E465-A313-42BD-B7FE-517D6814315B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6639,7 +6671,7 @@
         <xdr:cNvPr id="50" name="组合 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4059CF34-0F21-48BD-947D-EB8C821901ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4059CF34-0F21-48BD-947D-EB8C821901ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6647,7 +6679,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7030357" y="14316008"/>
+          <a:off x="7030357" y="6576945"/>
           <a:ext cx="2576286" cy="1145"/>
           <a:chOff x="0" y="93786738"/>
           <a:chExt cx="18887425" cy="8571428"/>
@@ -6658,7 +6690,7 @@
           <xdr:cNvPr id="51" name="图片 50">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F6CB871-708A-41DE-B3F1-2B704ECFA198}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8F6CB871-708A-41DE-B3F1-2B704ECFA198}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6687,7 +6719,7 @@
           <xdr:cNvPr id="52" name="矩形 51">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{885CB1DE-A625-4233-8B49-45E9761E4DD3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{885CB1DE-A625-4233-8B49-45E9761E4DD3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6745,7 +6777,7 @@
           <xdr:cNvPr id="53" name="文本框 52">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AC064EB-9D21-4C0D-B097-4FA6497D6A79}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7AC064EB-9D21-4C0D-B097-4FA6497D6A79}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6817,7 +6849,7 @@
         <xdr:cNvPr id="54" name="图片 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC63C4F2-2AF6-4C07-B84D-94B792F27C12}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AC63C4F2-2AF6-4C07-B84D-94B792F27C12}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6860,7 +6892,7 @@
         <xdr:cNvPr id="55" name="组合 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E5966F4-05E9-4855-8924-556794098C1E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2E5966F4-05E9-4855-8924-556794098C1E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6879,7 +6911,7 @@
           <xdr:cNvPr id="58" name="图片 57">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{659EBDDD-C8C7-4161-8812-10D2F732345B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{659EBDDD-C8C7-4161-8812-10D2F732345B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6908,7 +6940,7 @@
           <xdr:cNvPr id="59" name="矩形 58">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24ACAF84-4B10-451A-A5B1-8323AD1CBEEE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{24ACAF84-4B10-451A-A5B1-8323AD1CBEEE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6966,7 +6998,7 @@
           <xdr:cNvPr id="60" name="文本框 59">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60665E06-55A3-45B9-8E76-147F8252C0AD}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{60665E06-55A3-45B9-8E76-147F8252C0AD}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7043,7 +7075,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7087,7 +7119,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7126,7 +7158,7 @@
         <xdr:cNvPr id="7" name="文本框 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7185,7 +7217,7 @@
         <xdr:cNvPr id="8" name="文本框 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7244,7 +7276,7 @@
         <xdr:cNvPr id="9" name="文本框 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7308,7 +7340,7 @@
         <xdr:cNvPr id="4" name="组合 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38335C1B-0A42-4E87-BE4B-0D7C844D61A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{38335C1B-0A42-4E87-BE4B-0D7C844D61A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7327,7 +7359,7 @@
           <xdr:cNvPr id="5" name="直接连接符 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000005000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7377,7 +7409,7 @@
           <xdr:cNvPr id="10" name="文本框 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00000A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7449,7 +7481,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D677A19C-2F90-4BC1-B75D-0B55D0799A5A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D677A19C-2F90-4BC1-B75D-0B55D0799A5A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7497,7 +7529,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CA40D1F-E98D-4779-B5DE-75CD1D518257}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CA40D1F-E98D-4779-B5DE-75CD1D518257}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7541,7 +7573,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{133DA2AF-CF85-4D35-A997-D6C79DC256CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{133DA2AF-CF85-4D35-A997-D6C79DC256CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7585,7 +7617,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF5B035E-628C-415E-B319-34B092DDAE08}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF5B035E-628C-415E-B319-34B092DDAE08}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7634,7 +7666,7 @@
         <xdr:cNvPr id="5" name="组合 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FB9EB5F-B847-42D8-BBF5-052ADCAE8843}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3FB9EB5F-B847-42D8-BBF5-052ADCAE8843}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7653,7 +7685,7 @@
           <xdr:cNvPr id="6" name="图片 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD71EF5F-5D64-41DF-A7F2-141005249294}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD71EF5F-5D64-41DF-A7F2-141005249294}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7681,7 +7713,7 @@
           <xdr:cNvPr id="7" name="矩形 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75A4392B-E92B-4FC9-AC7D-371C5CB67A68}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{75A4392B-E92B-4FC9-AC7D-371C5CB67A68}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7748,7 +7780,7 @@
         <xdr:cNvPr id="8" name="组合 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1510FA4D-5D40-451D-904C-905ED5CBFC47}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1510FA4D-5D40-451D-904C-905ED5CBFC47}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7767,7 +7799,7 @@
           <xdr:cNvPr id="9" name="图片 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C5C40D5-1862-4CBB-B6E6-707F77D56720}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C5C40D5-1862-4CBB-B6E6-707F77D56720}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7795,7 +7827,7 @@
           <xdr:cNvPr id="10" name="矩形 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B433086-303A-422F-8D3D-B19E2223A5E1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B433086-303A-422F-8D3D-B19E2223A5E1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7862,7 +7894,7 @@
         <xdr:cNvPr id="11" name="组合 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73C96F5D-A571-4F92-808B-8054033C1C68}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{73C96F5D-A571-4F92-808B-8054033C1C68}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7881,7 +7913,7 @@
           <xdr:cNvPr id="12" name="图片 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{423F377D-F999-4903-8C47-B49A9E1BBB3F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{423F377D-F999-4903-8C47-B49A9E1BBB3F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7910,7 +7942,7 @@
           <xdr:cNvPr id="13" name="矩形 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DABC0045-0D37-4A0E-B990-65A433DF712A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DABC0045-0D37-4A0E-B990-65A433DF712A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7977,7 +8009,7 @@
         <xdr:cNvPr id="14" name="组合 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{695A3A22-8B01-4B94-AF82-D09D9BACA91A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{695A3A22-8B01-4B94-AF82-D09D9BACA91A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7996,7 +8028,7 @@
           <xdr:cNvPr id="15" name="图片 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B969C19A-37AF-4171-B52B-1822D75F97BA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B969C19A-37AF-4171-B52B-1822D75F97BA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8024,7 +8056,7 @@
           <xdr:cNvPr id="16" name="矩形 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{410C8424-D8D3-4E10-8379-A832596C88C4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{410C8424-D8D3-4E10-8379-A832596C88C4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8091,7 +8123,7 @@
         <xdr:cNvPr id="17" name="组合 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98B9C950-5851-4D2A-9571-45E922882540}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{98B9C950-5851-4D2A-9571-45E922882540}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8110,7 +8142,7 @@
           <xdr:cNvPr id="18" name="图片 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ED41D7D-F68A-4AC2-A1B0-07C11A05D254}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8ED41D7D-F68A-4AC2-A1B0-07C11A05D254}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8138,7 +8170,7 @@
           <xdr:cNvPr id="19" name="矩形 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DBBD272-C3EA-40B8-A221-2689DD5C211A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DBBD272-C3EA-40B8-A221-2689DD5C211A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8205,7 +8237,7 @@
         <xdr:cNvPr id="20" name="组合 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0263C938-2310-4948-8135-8890B8AFE85C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0263C938-2310-4948-8135-8890B8AFE85C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8224,7 +8256,7 @@
           <xdr:cNvPr id="21" name="图片 20">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFD97B7C-70BD-4117-B3DA-F86F086B4EC3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BFD97B7C-70BD-4117-B3DA-F86F086B4EC3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8252,7 +8284,7 @@
           <xdr:cNvPr id="22" name="矩形 21">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7FD535A-41D0-4995-BEF3-47E84293312B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F7FD535A-41D0-4995-BEF3-47E84293312B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8319,7 +8351,7 @@
         <xdr:cNvPr id="23" name="图片 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5D959CF-DCB6-43F2-BD17-E00A70826190}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F5D959CF-DCB6-43F2-BD17-E00A70826190}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8362,7 +8394,7 @@
         <xdr:cNvPr id="24" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D48FC70-CC73-4FFA-93EF-910DB168505F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2D48FC70-CC73-4FFA-93EF-910DB168505F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8405,7 +8437,7 @@
         <xdr:cNvPr id="25" name="组合 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A4520C-878D-41DA-ACC8-C753AB4EEC8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{01A4520C-878D-41DA-ACC8-C753AB4EEC8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8424,7 +8456,7 @@
           <xdr:cNvPr id="26" name="图片 25">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{539EBE1B-E593-4CF1-8E00-732DB21C57C7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{539EBE1B-E593-4CF1-8E00-732DB21C57C7}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8453,7 +8485,7 @@
           <xdr:cNvPr id="27" name="矩形 26">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E704DA5-79FB-4DCE-82CD-C7128EF5045D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5E704DA5-79FB-4DCE-82CD-C7128EF5045D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8520,7 +8552,7 @@
         <xdr:cNvPr id="28" name="图片 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F60F9300-474C-4B97-8CFA-FA6A232996BC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F60F9300-474C-4B97-8CFA-FA6A232996BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8563,7 +8595,7 @@
         <xdr:cNvPr id="29" name="图片 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{041F02E7-301A-4535-8E92-FCE7759A0E5B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{041F02E7-301A-4535-8E92-FCE7759A0E5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8606,7 +8638,7 @@
         <xdr:cNvPr id="30" name="组合 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4081C441-A16E-47A6-91AB-CE7259525E3C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4081C441-A16E-47A6-91AB-CE7259525E3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8625,7 +8657,7 @@
           <xdr:cNvPr id="31" name="图片 30">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50922B92-5CDB-4001-81FE-970A069D1776}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{50922B92-5CDB-4001-81FE-970A069D1776}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8654,7 +8686,7 @@
           <xdr:cNvPr id="32" name="矩形 31">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4D45F2F-BE07-4DD2-85CD-D54AAECFCF4A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4D45F2F-BE07-4DD2-85CD-D54AAECFCF4A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8728,7 +8760,7 @@
         <xdr:cNvPr id="33" name="组合 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{276B5F4B-7CC1-4301-8950-5FD9EA8CAF37}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{276B5F4B-7CC1-4301-8950-5FD9EA8CAF37}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8747,7 +8779,7 @@
           <xdr:cNvPr id="34" name="图片 33">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6B8C32B-6E2A-4807-A1D7-6F444FC24D6E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D6B8C32B-6E2A-4807-A1D7-6F444FC24D6E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8775,7 +8807,7 @@
           <xdr:cNvPr id="35" name="矩形 34">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23D2AE0D-123E-42DC-ABED-86AA7E367A25}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{23D2AE0D-123E-42DC-ABED-86AA7E367A25}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8849,7 +8881,7 @@
         <xdr:cNvPr id="36" name="图片 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAD693BB-8FF5-4C75-9399-B6802382149F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BAD693BB-8FF5-4C75-9399-B6802382149F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8892,7 +8924,7 @@
         <xdr:cNvPr id="37" name="图片 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3E1CE8D-148A-4110-B326-60CF5214D964}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B3E1CE8D-148A-4110-B326-60CF5214D964}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8935,7 +8967,7 @@
         <xdr:cNvPr id="38" name="图片 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAD76119-757D-4D4D-9EF0-428B965CA83D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FAD76119-757D-4D4D-9EF0-428B965CA83D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8973,7 +9005,7 @@
         <xdr:cNvPr id="39" name="图片 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45F58B90-C3E8-4CBD-923D-36B5F3F410CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{45F58B90-C3E8-4CBD-923D-36B5F3F410CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9017,7 +9049,7 @@
         <xdr:cNvPr id="40" name="图片 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B687413-23BF-4281-9D42-6D9D81EC9986}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B687413-23BF-4281-9D42-6D9D81EC9986}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9061,7 +9093,7 @@
         <xdr:cNvPr id="41" name="图片 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99954A59-2E00-4CDA-A0DC-610C9B6FF2C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{99954A59-2E00-4CDA-A0DC-610C9B6FF2C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9100,7 +9132,7 @@
         <xdr:cNvPr id="42" name="图片 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4DD4F50-D468-4FED-989B-6D6A38F1285C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4DD4F50-D468-4FED-989B-6D6A38F1285C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9144,7 +9176,7 @@
         <xdr:cNvPr id="43" name="组合 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D60B776-8290-4A05-8D0B-E49A20D889D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6D60B776-8290-4A05-8D0B-E49A20D889D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9163,7 +9195,7 @@
           <xdr:cNvPr id="44" name="图片 43">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57538BB3-6956-4C33-8DD0-A16EEBE15ECC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{57538BB3-6956-4C33-8DD0-A16EEBE15ECC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9191,7 +9223,7 @@
           <xdr:cNvPr id="45" name="直接箭头连接符 44">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B46ADCBE-FF68-4902-9EB2-648E3FE62B5C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B46ADCBE-FF68-4902-9EB2-648E3FE62B5C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9257,7 +9289,7 @@
         <xdr:cNvPr id="46" name="图片 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6366B4A9-4196-44F0-8E96-85299FE69047}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6366B4A9-4196-44F0-8E96-85299FE69047}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9301,7 +9333,7 @@
         <xdr:cNvPr id="47" name="图片 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3029897-09D5-4E82-88FE-30DA2683D8E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A3029897-09D5-4E82-88FE-30DA2683D8E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9336,7 +9368,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="DELL" refreshedDate="43834.488620601849" createdVersion="6" refreshedVersion="4" minRefreshableVersion="3" recordCount="130">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="DELL" refreshedDate="43836.730755092591" createdVersion="6" refreshedVersion="4" minRefreshableVersion="3" recordCount="130">
   <cacheSource type="worksheet">
     <worksheetSource ref="A3:R1048576" sheet="课题记录-原数据 "/>
   </cacheSource>
@@ -11799,7 +11831,7 @@
     <m/>
     <m/>
     <m/>
-    <s v="需要用户确认显示创建的还是修改的"/>
+    <s v="详细履历从操作日志查看（不含批量导入明细）"/>
     <s v="变更"/>
     <s v="改善"/>
   </r>
@@ -12147,7 +12179,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="课题处理状态">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="课题处理状态">
   <location ref="E3:F8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField dataField="1" showAll="0"/>
@@ -12728,7 +12760,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12736,7 +12768,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E3:F9"/>
+  <dimension ref="E3:F8"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
@@ -12751,10 +12783,10 @@
   <sheetData>
     <row r="3" spans="5:6" ht="30">
       <c r="E3" s="196" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="F3" s="197" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="5:6" ht="30">
@@ -12767,7 +12799,7 @@
     </row>
     <row r="5" spans="5:6" ht="30">
       <c r="E5" s="198" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F5" s="199">
         <v>22</v>
@@ -12783,19 +12815,18 @@
     </row>
     <row r="7" spans="5:6" ht="30">
       <c r="E7" s="198" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="F7" s="199"/>
     </row>
     <row r="8" spans="5:6" ht="30">
       <c r="E8" s="198" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F8" s="199">
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="5:6" ht="30"/>
   </sheetData>
   <phoneticPr fontId="65" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12808,10 +12839,10 @@
   <dimension ref="A1:R190"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="J97" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M116" sqref="M116"/>
+      <selection pane="bottomRight" activeCell="H133" sqref="H133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -12835,24 +12866,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" ht="69.75" customHeight="1" thickBot="1">
-      <c r="A1" s="312" t="s">
+      <c r="A1" s="298" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="313"/>
-      <c r="C1" s="313"/>
-      <c r="D1" s="313"/>
-      <c r="E1" s="313"/>
-      <c r="F1" s="313"/>
-      <c r="G1" s="313"/>
-      <c r="H1" s="313"/>
-      <c r="I1" s="313"/>
-      <c r="J1" s="313"/>
-      <c r="K1" s="313"/>
-      <c r="L1" s="313"/>
-      <c r="M1" s="313"/>
-      <c r="N1" s="313"/>
-      <c r="O1" s="313"/>
-      <c r="P1" s="314"/>
+      <c r="B1" s="299"/>
+      <c r="C1" s="299"/>
+      <c r="D1" s="299"/>
+      <c r="E1" s="299"/>
+      <c r="F1" s="299"/>
+      <c r="G1" s="299"/>
+      <c r="H1" s="299"/>
+      <c r="I1" s="299"/>
+      <c r="J1" s="299"/>
+      <c r="K1" s="299"/>
+      <c r="L1" s="299"/>
+      <c r="M1" s="299"/>
+      <c r="N1" s="299"/>
+      <c r="O1" s="299"/>
+      <c r="P1" s="300"/>
       <c r="Q1" s="120"/>
     </row>
     <row r="2" spans="1:18" s="2" customFormat="1" ht="28.2" thickBot="1">
@@ -12915,19 +12946,19 @@
         <v>11</v>
       </c>
       <c r="N3" s="117" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="O3" s="115" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="P3" s="118" t="s">
         <v>0</v>
       </c>
       <c r="Q3" s="121" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="R3" s="111" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="112" customFormat="1" ht="101.4" hidden="1" customHeight="1">
@@ -12955,7 +12986,7 @@
         <v>101</v>
       </c>
       <c r="J4" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K4" s="218"/>
       <c r="L4" s="219" t="s">
@@ -12996,7 +13027,7 @@
         <v>101</v>
       </c>
       <c r="J5" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K5" s="218"/>
       <c r="L5" s="224" t="s">
@@ -13010,7 +13041,7 @@
       </c>
       <c r="Q5" s="223"/>
     </row>
-    <row r="6" spans="1:18" s="112" customFormat="1" ht="58.5" customHeight="1">
+    <row r="6" spans="1:18" s="112" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A6" s="122">
         <v>3</v>
       </c>
@@ -13035,25 +13066,25 @@
         <v>101</v>
       </c>
       <c r="J6" s="122" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="K6" s="128">
         <v>43838</v>
       </c>
       <c r="L6" s="174" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="M6" s="130"/>
       <c r="N6" s="131"/>
       <c r="O6" s="122"/>
       <c r="P6" s="132" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q6" s="271" t="s">
         <v>147</v>
       </c>
       <c r="R6" s="112" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:18" s="112" customFormat="1" ht="73.5" hidden="1" customHeight="1">
@@ -13081,7 +13112,7 @@
         <v>101</v>
       </c>
       <c r="J7" s="137" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K7" s="144"/>
       <c r="L7" s="186" t="s">
@@ -13091,13 +13122,13 @@
       <c r="N7" s="146"/>
       <c r="O7" s="137"/>
       <c r="P7" s="147" t="s">
-        <v>256</v>
+        <v>369</v>
       </c>
       <c r="Q7" s="150" t="s">
         <v>146</v>
       </c>
       <c r="R7" s="112" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:18" s="112" customFormat="1" ht="58.5" hidden="1" customHeight="1">
@@ -13127,7 +13158,7 @@
         <v>16</v>
       </c>
       <c r="J8" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K8" s="218"/>
       <c r="L8" s="224" t="s">
@@ -13164,7 +13195,7 @@
         <v>16</v>
       </c>
       <c r="J9" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K9" s="216"/>
       <c r="L9" s="219" t="s">
@@ -13203,7 +13234,7 @@
         <v>16</v>
       </c>
       <c r="J10" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K10" s="233"/>
       <c r="L10" s="224" t="s">
@@ -13240,7 +13271,7 @@
         <v>16</v>
       </c>
       <c r="J11" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K11" s="233"/>
       <c r="L11" s="224" t="s">
@@ -13277,21 +13308,21 @@
         <v>16</v>
       </c>
       <c r="J12" s="133" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K12" s="157"/>
       <c r="L12" s="158" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M12" s="136"/>
       <c r="N12" s="159"/>
       <c r="O12" s="160"/>
       <c r="P12" s="161" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="Q12" s="162"/>
       <c r="R12" s="112" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="13" spans="1:18" s="112" customFormat="1" ht="47.25" customHeight="1">
@@ -13321,7 +13352,7 @@
         <v>16</v>
       </c>
       <c r="J13" s="122" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="K13" s="128">
         <v>43837</v>
@@ -13333,13 +13364,13 @@
       <c r="N13" s="131"/>
       <c r="O13" s="122"/>
       <c r="P13" s="132" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="Q13" s="151" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="112" customFormat="1" ht="47.25" customHeight="1">
+    <row r="14" spans="1:18" s="112" customFormat="1" ht="47.25" hidden="1" customHeight="1">
       <c r="A14" s="122">
         <v>11</v>
       </c>
@@ -13364,7 +13395,7 @@
         <v>16</v>
       </c>
       <c r="J14" s="122" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="K14" s="128">
         <v>43839</v>
@@ -13376,7 +13407,7 @@
       <c r="N14" s="131"/>
       <c r="O14" s="122"/>
       <c r="P14" s="132" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="Q14" s="151"/>
     </row>
@@ -13407,7 +13438,7 @@
         <v>16</v>
       </c>
       <c r="J15" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K15" s="218"/>
       <c r="L15" s="224" t="s">
@@ -13448,7 +13479,7 @@
         <v>16</v>
       </c>
       <c r="J16" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K16" s="218"/>
       <c r="L16" s="224" t="s">
@@ -13487,7 +13518,7 @@
         <v>16</v>
       </c>
       <c r="J17" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K17" s="218"/>
       <c r="L17" s="224" t="s">
@@ -13526,7 +13557,7 @@
         <v>16</v>
       </c>
       <c r="J18" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K18" s="218"/>
       <c r="L18" s="224" t="s">
@@ -13565,7 +13596,7 @@
         <v>16</v>
       </c>
       <c r="J19" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K19" s="218"/>
       <c r="L19" s="224" t="s">
@@ -13606,7 +13637,7 @@
         <v>16</v>
       </c>
       <c r="J20" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K20" s="218"/>
       <c r="L20" s="224" t="s">
@@ -13645,7 +13676,7 @@
         <v>101</v>
       </c>
       <c r="J21" s="137" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K21" s="144"/>
       <c r="L21" s="186" t="s">
@@ -13655,13 +13686,13 @@
       <c r="N21" s="146"/>
       <c r="O21" s="137"/>
       <c r="P21" s="147" t="s">
-        <v>256</v>
+        <v>370</v>
       </c>
       <c r="Q21" s="148" t="s">
         <v>145</v>
       </c>
       <c r="R21" s="112" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="22" spans="1:18" s="112" customFormat="1" ht="47.25" hidden="1" customHeight="1">
@@ -13689,7 +13720,7 @@
         <v>16</v>
       </c>
       <c r="J22" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K22" s="218"/>
       <c r="L22" s="224" t="s">
@@ -13728,7 +13759,7 @@
         <v>16</v>
       </c>
       <c r="J23" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K23" s="218"/>
       <c r="L23" s="224" t="s">
@@ -13765,13 +13796,13 @@
         <v>43804</v>
       </c>
       <c r="H24" s="143" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="I24" s="137" t="s">
         <v>16</v>
       </c>
       <c r="J24" s="137" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K24" s="144"/>
       <c r="L24" s="186" t="s">
@@ -13781,13 +13812,13 @@
       <c r="N24" s="146"/>
       <c r="O24" s="137"/>
       <c r="P24" s="147" t="s">
-        <v>256</v>
+        <v>371</v>
       </c>
       <c r="Q24" s="150" t="s">
         <v>145</v>
       </c>
       <c r="R24" s="112" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="25" spans="1:18" s="112" customFormat="1" ht="47.25" hidden="1" customHeight="1">
@@ -13815,7 +13846,7 @@
         <v>16</v>
       </c>
       <c r="J25" s="137" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K25" s="144"/>
       <c r="L25" s="186" t="s">
@@ -13825,13 +13856,13 @@
       <c r="N25" s="146"/>
       <c r="O25" s="137"/>
       <c r="P25" s="147" t="s">
-        <v>256</v>
+        <v>372</v>
       </c>
       <c r="Q25" s="150" t="s">
         <v>145</v>
       </c>
       <c r="R25" s="112" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="26" spans="1:18" s="112" customFormat="1" ht="63" hidden="1" customHeight="1">
@@ -13861,7 +13892,7 @@
         <v>16</v>
       </c>
       <c r="J26" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K26" s="218"/>
       <c r="L26" s="224" t="s">
@@ -13900,7 +13931,7 @@
         <v>16</v>
       </c>
       <c r="J27" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K27" s="218"/>
       <c r="L27" s="224" t="s">
@@ -13937,7 +13968,7 @@
         <v>16</v>
       </c>
       <c r="J28" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K28" s="218"/>
       <c r="L28" s="224" t="s">
@@ -13976,7 +14007,7 @@
         <v>16</v>
       </c>
       <c r="J29" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K29" s="218"/>
       <c r="L29" s="224" t="s">
@@ -14015,7 +14046,7 @@
         <v>16</v>
       </c>
       <c r="J30" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K30" s="218"/>
       <c r="L30" s="224" t="s">
@@ -14054,7 +14085,7 @@
         <v>16</v>
       </c>
       <c r="J31" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K31" s="216"/>
       <c r="L31" s="219" t="s">
@@ -14076,14 +14107,14 @@
         <v>205</v>
       </c>
       <c r="C32" s="123" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D32" s="124"/>
       <c r="E32" s="125" t="s">
         <v>20</v>
       </c>
       <c r="F32" s="125" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G32" s="126">
         <v>43802</v>
@@ -14095,7 +14126,7 @@
         <v>16</v>
       </c>
       <c r="J32" s="122" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="K32" s="128">
         <v>43837</v>
@@ -14107,13 +14138,13 @@
       <c r="N32" s="131"/>
       <c r="O32" s="122"/>
       <c r="P32" s="132" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q32" s="151" t="s">
         <v>145</v>
       </c>
       <c r="R32" s="112" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="33" spans="1:17" s="112" customFormat="1" ht="47.25" hidden="1" customHeight="1">
@@ -14143,7 +14174,7 @@
         <v>16</v>
       </c>
       <c r="J33" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K33" s="218"/>
       <c r="L33" s="224" t="s">
@@ -14184,7 +14215,7 @@
         <v>16</v>
       </c>
       <c r="J34" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K34" s="218"/>
       <c r="L34" s="224" t="s">
@@ -14223,7 +14254,7 @@
         <v>16</v>
       </c>
       <c r="J35" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K35" s="233"/>
       <c r="L35" s="245" t="s">
@@ -14260,7 +14291,7 @@
         <v>16</v>
       </c>
       <c r="J36" s="122" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="K36" s="167">
         <v>43837</v>
@@ -14272,7 +14303,7 @@
       <c r="N36" s="168"/>
       <c r="O36" s="169"/>
       <c r="P36" s="170" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="Q36" s="171"/>
     </row>
@@ -14301,7 +14332,7 @@
         <v>16</v>
       </c>
       <c r="J37" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K37" s="233"/>
       <c r="L37" s="224" t="s">
@@ -14340,7 +14371,7 @@
         <v>16</v>
       </c>
       <c r="J38" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K38" s="233"/>
       <c r="L38" s="224" t="s">
@@ -14377,7 +14408,7 @@
         <v>16</v>
       </c>
       <c r="J39" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K39" s="233"/>
       <c r="L39" s="224" t="s">
@@ -14414,7 +14445,7 @@
         <v>16</v>
       </c>
       <c r="J40" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K40" s="218"/>
       <c r="L40" s="224" t="s">
@@ -14451,7 +14482,7 @@
         <v>16</v>
       </c>
       <c r="J41" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K41" s="218"/>
       <c r="L41" s="219" t="s">
@@ -14488,7 +14519,7 @@
         <v>16</v>
       </c>
       <c r="J42" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K42" s="218"/>
       <c r="L42" s="224" t="s">
@@ -14527,7 +14558,7 @@
         <v>16</v>
       </c>
       <c r="J43" s="249" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K43" s="216"/>
       <c r="L43" s="219" t="s">
@@ -14566,7 +14597,7 @@
         <v>16</v>
       </c>
       <c r="J44" s="249" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K44" s="218"/>
       <c r="L44" s="224" t="s">
@@ -14590,10 +14621,10 @@
       </c>
       <c r="D45" s="229"/>
       <c r="E45" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F45" s="230" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G45" s="231">
         <v>43817</v>
@@ -14601,7 +14632,7 @@
       <c r="H45" s="232"/>
       <c r="I45" s="235"/>
       <c r="J45" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K45" s="233"/>
       <c r="L45" s="245" t="s">
@@ -14625,10 +14656,10 @@
       </c>
       <c r="D46" s="229"/>
       <c r="E46" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F46" s="230" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G46" s="231">
         <v>43817</v>
@@ -14636,7 +14667,7 @@
       <c r="H46" s="232"/>
       <c r="I46" s="235"/>
       <c r="J46" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K46" s="233"/>
       <c r="L46" s="245" t="s">
@@ -14662,10 +14693,10 @@
       </c>
       <c r="D47" s="229"/>
       <c r="E47" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F47" s="230" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G47" s="231">
         <v>43817</v>
@@ -14673,7 +14704,7 @@
       <c r="H47" s="232"/>
       <c r="I47" s="235"/>
       <c r="J47" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K47" s="233"/>
       <c r="L47" s="245" t="s">
@@ -14699,10 +14730,10 @@
       </c>
       <c r="D48" s="229"/>
       <c r="E48" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F48" s="230" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G48" s="231">
         <v>43817</v>
@@ -14710,7 +14741,7 @@
       <c r="H48" s="232"/>
       <c r="I48" s="235"/>
       <c r="J48" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K48" s="233"/>
       <c r="L48" s="245" t="s">
@@ -14736,10 +14767,10 @@
       </c>
       <c r="D49" s="229"/>
       <c r="E49" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F49" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G49" s="231">
         <v>43817</v>
@@ -14747,7 +14778,7 @@
       <c r="H49" s="232"/>
       <c r="I49" s="235"/>
       <c r="J49" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K49" s="233"/>
       <c r="L49" s="245" t="s">
@@ -14773,10 +14804,10 @@
       </c>
       <c r="D50" s="229"/>
       <c r="E50" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F50" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G50" s="231">
         <v>43817</v>
@@ -14784,7 +14815,7 @@
       <c r="H50" s="232"/>
       <c r="I50" s="235"/>
       <c r="J50" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K50" s="233">
         <v>43828</v>
@@ -14814,10 +14845,10 @@
       </c>
       <c r="D51" s="229"/>
       <c r="E51" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F51" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G51" s="231">
         <v>43817</v>
@@ -14825,7 +14856,7 @@
       <c r="H51" s="232"/>
       <c r="I51" s="235"/>
       <c r="J51" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K51" s="233">
         <v>43828</v>
@@ -14855,10 +14886,10 @@
       </c>
       <c r="D52" s="229"/>
       <c r="E52" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F52" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G52" s="231">
         <v>43817</v>
@@ -14866,7 +14897,7 @@
       <c r="H52" s="232"/>
       <c r="I52" s="235"/>
       <c r="J52" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K52" s="233"/>
       <c r="L52" s="245" t="s">
@@ -14892,10 +14923,10 @@
       </c>
       <c r="D53" s="229"/>
       <c r="E53" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F53" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G53" s="231">
         <v>43817</v>
@@ -14903,7 +14934,7 @@
       <c r="H53" s="232"/>
       <c r="I53" s="235"/>
       <c r="J53" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K53" s="233">
         <v>43828</v>
@@ -14933,10 +14964,10 @@
       </c>
       <c r="D54" s="229"/>
       <c r="E54" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F54" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G54" s="231">
         <v>43817</v>
@@ -14944,7 +14975,7 @@
       <c r="H54" s="232"/>
       <c r="I54" s="235"/>
       <c r="J54" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K54" s="233">
         <v>43828</v>
@@ -14972,10 +15003,10 @@
       </c>
       <c r="D55" s="229"/>
       <c r="E55" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F55" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G55" s="231">
         <v>43817</v>
@@ -14983,7 +15014,7 @@
       <c r="H55" s="232"/>
       <c r="I55" s="235"/>
       <c r="J55" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K55" s="233">
         <v>43828</v>
@@ -15013,20 +15044,20 @@
       </c>
       <c r="D56" s="229"/>
       <c r="E56" s="230" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F56" s="230" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G56" s="231">
         <v>43823</v>
       </c>
       <c r="H56" s="232" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I56" s="235"/>
       <c r="J56" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K56" s="233">
         <v>43828</v>
@@ -15052,10 +15083,10 @@
       </c>
       <c r="D57" s="229"/>
       <c r="E57" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F57" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G57" s="231">
         <v>43817</v>
@@ -15063,7 +15094,7 @@
       <c r="H57" s="232"/>
       <c r="I57" s="235"/>
       <c r="J57" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K57" s="233">
         <v>43828</v>
@@ -15089,10 +15120,10 @@
       </c>
       <c r="D58" s="229"/>
       <c r="E58" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F58" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G58" s="231">
         <v>43817</v>
@@ -15100,7 +15131,7 @@
       <c r="H58" s="232"/>
       <c r="I58" s="235"/>
       <c r="J58" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K58" s="233">
         <v>43828</v>
@@ -15114,7 +15145,7 @@
       <c r="P58" s="236"/>
       <c r="Q58" s="237"/>
     </row>
-    <row r="59" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="59" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A59" s="122">
         <v>56</v>
       </c>
@@ -15126,10 +15157,10 @@
       </c>
       <c r="D59" s="164"/>
       <c r="E59" s="173" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F59" s="173" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G59" s="165">
         <v>43817</v>
@@ -15137,7 +15168,7 @@
       <c r="H59" s="166"/>
       <c r="I59" s="169"/>
       <c r="J59" s="201" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="K59" s="167">
         <v>43837</v>
@@ -15149,7 +15180,7 @@
       <c r="N59" s="168"/>
       <c r="O59" s="169"/>
       <c r="P59" s="170" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="Q59" s="175"/>
     </row>
@@ -15165,10 +15196,10 @@
       </c>
       <c r="D60" s="229"/>
       <c r="E60" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F60" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G60" s="231">
         <v>43817</v>
@@ -15176,7 +15207,7 @@
       <c r="H60" s="232"/>
       <c r="I60" s="235"/>
       <c r="J60" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K60" s="233">
         <v>43828</v>
@@ -15202,10 +15233,10 @@
       </c>
       <c r="D61" s="229"/>
       <c r="E61" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F61" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G61" s="231">
         <v>43817</v>
@@ -15213,7 +15244,7 @@
       <c r="H61" s="232"/>
       <c r="I61" s="235"/>
       <c r="J61" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K61" s="233"/>
       <c r="L61" s="245" t="s">
@@ -15237,10 +15268,10 @@
       </c>
       <c r="D62" s="229"/>
       <c r="E62" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F62" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G62" s="231">
         <v>43817</v>
@@ -15248,7 +15279,7 @@
       <c r="H62" s="232"/>
       <c r="I62" s="235"/>
       <c r="J62" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K62" s="233"/>
       <c r="L62" s="245" t="s">
@@ -15260,7 +15291,7 @@
       <c r="P62" s="236"/>
       <c r="Q62" s="237"/>
     </row>
-    <row r="63" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="63" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A63" s="133">
         <v>60</v>
       </c>
@@ -15272,10 +15303,10 @@
       </c>
       <c r="D63" s="154"/>
       <c r="E63" s="155" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F63" s="155" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G63" s="156">
         <v>43817</v>
@@ -15283,19 +15314,19 @@
       <c r="H63" s="176"/>
       <c r="I63" s="160"/>
       <c r="J63" s="133" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="K63" s="157">
         <v>43468</v>
       </c>
       <c r="L63" s="158" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M63" s="136"/>
       <c r="N63" s="159"/>
       <c r="O63" s="160"/>
       <c r="P63" s="161" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q63" s="177"/>
     </row>
@@ -15307,14 +15338,14 @@
         <v>204</v>
       </c>
       <c r="C64" s="228" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D64" s="229"/>
       <c r="E64" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F64" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G64" s="231">
         <v>43817</v>
@@ -15322,7 +15353,7 @@
       <c r="H64" s="232"/>
       <c r="I64" s="235"/>
       <c r="J64" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K64" s="233"/>
       <c r="L64" s="245" t="s">
@@ -15348,10 +15379,10 @@
       </c>
       <c r="D65" s="229"/>
       <c r="E65" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F65" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G65" s="231">
         <v>43817</v>
@@ -15359,7 +15390,7 @@
       <c r="H65" s="232"/>
       <c r="I65" s="235"/>
       <c r="J65" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K65" s="233"/>
       <c r="L65" s="245" t="s">
@@ -15383,10 +15414,10 @@
       </c>
       <c r="D66" s="229"/>
       <c r="E66" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F66" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G66" s="231">
         <v>43817</v>
@@ -15394,7 +15425,7 @@
       <c r="H66" s="232"/>
       <c r="I66" s="235"/>
       <c r="J66" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K66" s="233"/>
       <c r="L66" s="245" t="s">
@@ -15418,10 +15449,10 @@
       </c>
       <c r="D67" s="229"/>
       <c r="E67" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F67" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G67" s="231">
         <v>43817</v>
@@ -15429,7 +15460,7 @@
       <c r="H67" s="232"/>
       <c r="I67" s="235"/>
       <c r="J67" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K67" s="233"/>
       <c r="L67" s="245" t="s">
@@ -15448,15 +15479,15 @@
       <c r="B68" s="190" t="s">
         <v>204</v>
       </c>
-      <c r="C68" s="311" t="s">
-        <v>297</v>
+      <c r="C68" s="297" t="s">
+        <v>293</v>
       </c>
       <c r="D68" s="154"/>
       <c r="E68" s="155" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F68" s="155" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G68" s="156">
         <v>43817</v>
@@ -15466,65 +15497,65 @@
         <v>16</v>
       </c>
       <c r="J68" s="133" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K68" s="157"/>
       <c r="L68" s="158" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="M68" s="136"/>
       <c r="N68" s="159"/>
       <c r="O68" s="160"/>
       <c r="P68" s="161" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q68" s="177"/>
       <c r="R68" s="112" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="69" spans="1:18" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
-      <c r="A69" s="119">
+      <c r="A69" s="133">
         <v>66</v>
       </c>
-      <c r="B69" s="178" t="s">
-        <v>298</v>
-      </c>
-      <c r="C69" s="179" t="s">
-        <v>299</v>
-      </c>
-      <c r="D69" s="180"/>
-      <c r="E69" s="181" t="s">
-        <v>277</v>
-      </c>
-      <c r="F69" s="181" t="s">
-        <v>277</v>
-      </c>
-      <c r="G69" s="182">
+      <c r="B69" s="152" t="s">
+        <v>294</v>
+      </c>
+      <c r="C69" s="153" t="s">
+        <v>295</v>
+      </c>
+      <c r="D69" s="154"/>
+      <c r="E69" s="155" t="s">
+        <v>273</v>
+      </c>
+      <c r="F69" s="155" t="s">
+        <v>273</v>
+      </c>
+      <c r="G69" s="156">
         <v>43817</v>
       </c>
-      <c r="H69" s="183"/>
-      <c r="I69" s="184" t="s">
+      <c r="H69" s="176"/>
+      <c r="I69" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="J69" s="137" t="s">
-        <v>290</v>
-      </c>
-      <c r="K69" s="185"/>
-      <c r="L69" s="186" t="s">
+      <c r="J69" s="133" t="s">
+        <v>286</v>
+      </c>
+      <c r="K69" s="157"/>
+      <c r="L69" s="158" t="s">
         <v>235</v>
       </c>
-      <c r="M69" s="145"/>
-      <c r="N69" s="187"/>
-      <c r="O69" s="184"/>
-      <c r="P69" s="188" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q69" s="189" t="s">
+      <c r="M69" s="136"/>
+      <c r="N69" s="159"/>
+      <c r="O69" s="160"/>
+      <c r="P69" s="161" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q69" s="177" t="s">
         <v>146</v>
       </c>
       <c r="R69" s="112" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="70" spans="1:18" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
@@ -15539,10 +15570,10 @@
       </c>
       <c r="D70" s="229"/>
       <c r="E70" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F70" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G70" s="231">
         <v>43817</v>
@@ -15550,7 +15581,7 @@
       <c r="H70" s="232"/>
       <c r="I70" s="235"/>
       <c r="J70" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K70" s="233">
         <v>43828</v>
@@ -15576,10 +15607,10 @@
       </c>
       <c r="D71" s="229"/>
       <c r="E71" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F71" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G71" s="231">
         <v>43817</v>
@@ -15587,7 +15618,7 @@
       <c r="H71" s="232"/>
       <c r="I71" s="235"/>
       <c r="J71" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K71" s="233"/>
       <c r="L71" s="245" t="s">
@@ -15611,10 +15642,10 @@
       </c>
       <c r="D72" s="180"/>
       <c r="E72" s="181" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F72" s="181" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G72" s="182">
         <v>43817</v>
@@ -15624,23 +15655,23 @@
         <v>16</v>
       </c>
       <c r="J72" s="137" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K72" s="185"/>
       <c r="L72" s="186" t="s">
-        <v>235</v>
+        <v>374</v>
       </c>
       <c r="M72" s="145"/>
       <c r="N72" s="187"/>
       <c r="O72" s="184"/>
       <c r="P72" s="188" t="s">
-        <v>256</v>
+        <v>375</v>
       </c>
       <c r="Q72" s="189" t="s">
         <v>190</v>
       </c>
       <c r="R72" s="112" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="73" spans="1:18" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
@@ -15655,10 +15686,10 @@
       </c>
       <c r="D73" s="229"/>
       <c r="E73" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F73" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G73" s="231">
         <v>43817</v>
@@ -15666,7 +15697,7 @@
       <c r="H73" s="232"/>
       <c r="I73" s="235"/>
       <c r="J73" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K73" s="233"/>
       <c r="L73" s="245" t="s">
@@ -15690,10 +15721,10 @@
       </c>
       <c r="D74" s="229"/>
       <c r="E74" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F74" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G74" s="231">
         <v>43817</v>
@@ -15701,7 +15732,7 @@
       <c r="H74" s="232"/>
       <c r="I74" s="235"/>
       <c r="J74" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K74" s="233"/>
       <c r="L74" s="245" t="s">
@@ -15725,10 +15756,10 @@
       </c>
       <c r="D75" s="229"/>
       <c r="E75" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F75" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G75" s="231">
         <v>43817</v>
@@ -15736,7 +15767,7 @@
       <c r="H75" s="232"/>
       <c r="I75" s="235"/>
       <c r="J75" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K75" s="233">
         <v>43828</v>
@@ -15766,10 +15797,10 @@
       </c>
       <c r="D76" s="229"/>
       <c r="E76" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F76" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G76" s="231">
         <v>43817</v>
@@ -15777,7 +15808,7 @@
       <c r="H76" s="232"/>
       <c r="I76" s="235"/>
       <c r="J76" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K76" s="233">
         <v>43828</v>
@@ -15805,10 +15836,10 @@
       </c>
       <c r="D77" s="180"/>
       <c r="E77" s="181" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F77" s="181" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G77" s="182">
         <v>43817</v>
@@ -15816,19 +15847,19 @@
       <c r="H77" s="183"/>
       <c r="I77" s="184"/>
       <c r="J77" s="137" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K77" s="185">
         <v>43828</v>
       </c>
       <c r="L77" s="186" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="M77" s="145"/>
       <c r="N77" s="187"/>
       <c r="O77" s="184"/>
       <c r="P77" s="188" t="s">
-        <v>357</v>
+        <v>384</v>
       </c>
       <c r="Q77" s="189" t="s">
         <v>146</v>
@@ -15846,10 +15877,10 @@
       </c>
       <c r="D78" s="229"/>
       <c r="E78" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F78" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G78" s="231">
         <v>43817</v>
@@ -15857,7 +15888,7 @@
       <c r="H78" s="232"/>
       <c r="I78" s="235"/>
       <c r="J78" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K78" s="233">
         <v>43828</v>
@@ -15879,14 +15910,14 @@
         <v>204</v>
       </c>
       <c r="C79" s="153" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D79" s="154"/>
       <c r="E79" s="155" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F79" s="155" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G79" s="156">
         <v>43817</v>
@@ -15896,21 +15927,21 @@
         <v>16</v>
       </c>
       <c r="J79" s="133" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K79" s="157"/>
       <c r="L79" s="158" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="M79" s="136"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
       <c r="P79" s="161" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Q79" s="177"/>
       <c r="R79" s="112" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="80" spans="1:18" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
@@ -15925,10 +15956,10 @@
       </c>
       <c r="D80" s="154"/>
       <c r="E80" s="155" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F80" s="155" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G80" s="156">
         <v>43817</v>
@@ -15936,11 +15967,11 @@
       <c r="H80" s="176"/>
       <c r="I80" s="160"/>
       <c r="J80" s="133" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K80" s="157"/>
       <c r="L80" s="158" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="M80" s="136"/>
       <c r="N80" s="159"/>
@@ -15958,14 +15989,14 @@
         <v>204</v>
       </c>
       <c r="C81" s="228" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D81" s="229"/>
       <c r="E81" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F81" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G81" s="231">
         <v>43817</v>
@@ -15973,7 +16004,7 @@
       <c r="H81" s="232"/>
       <c r="I81" s="235"/>
       <c r="J81" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K81" s="233"/>
       <c r="L81" s="245" t="s">
@@ -15997,22 +16028,22 @@
       </c>
       <c r="D82" s="180"/>
       <c r="E82" s="181" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F82" s="181" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G82" s="182">
         <v>43817</v>
       </c>
       <c r="H82" s="193" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I82" s="184" t="s">
         <v>16</v>
       </c>
       <c r="J82" s="137" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K82" s="185"/>
       <c r="L82" s="186" t="s">
@@ -16022,13 +16053,13 @@
       <c r="N82" s="187"/>
       <c r="O82" s="184"/>
       <c r="P82" s="188" t="s">
-        <v>256</v>
+        <v>379</v>
       </c>
       <c r="Q82" s="189" t="s">
         <v>147</v>
       </c>
       <c r="R82" s="112" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="83" spans="1:18" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
@@ -16043,20 +16074,20 @@
       </c>
       <c r="D83" s="180"/>
       <c r="E83" s="181" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F83" s="181" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G83" s="182">
         <v>43817</v>
       </c>
       <c r="H83" s="183"/>
       <c r="I83" s="184" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="J83" s="137" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K83" s="185"/>
       <c r="L83" s="186" t="s">
@@ -16066,11 +16097,11 @@
       <c r="N83" s="187"/>
       <c r="O83" s="184"/>
       <c r="P83" s="188" t="s">
-        <v>258</v>
+        <v>376</v>
       </c>
       <c r="Q83" s="189"/>
       <c r="R83" s="112" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="84" spans="1:18" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
@@ -16085,10 +16116,10 @@
       </c>
       <c r="D84" s="229"/>
       <c r="E84" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F84" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G84" s="231">
         <v>43817</v>
@@ -16096,7 +16127,7 @@
       <c r="H84" s="232"/>
       <c r="I84" s="235"/>
       <c r="J84" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K84" s="233">
         <v>43828</v>
@@ -16122,22 +16153,22 @@
       </c>
       <c r="D85" s="164"/>
       <c r="E85" s="173" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F85" s="173" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G85" s="165">
         <v>43817</v>
       </c>
       <c r="H85" s="166" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I85" s="169" t="s">
         <v>101</v>
       </c>
       <c r="J85" s="122" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="K85" s="167">
         <v>43837</v>
@@ -16149,16 +16180,16 @@
       <c r="N85" s="168"/>
       <c r="O85" s="169"/>
       <c r="P85" s="170" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q85" s="175" t="s">
         <v>146</v>
       </c>
       <c r="R85" s="112" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
-    <row r="86" spans="1:18" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="86" spans="1:18" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A86" s="122">
         <v>83</v>
       </c>
@@ -16170,10 +16201,10 @@
       </c>
       <c r="D86" s="164"/>
       <c r="E86" s="173" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F86" s="173" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G86" s="165">
         <v>43817</v>
@@ -16181,7 +16212,7 @@
       <c r="H86" s="166"/>
       <c r="I86" s="169"/>
       <c r="J86" s="122" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="K86" s="128">
         <v>43838</v>
@@ -16193,7 +16224,7 @@
       <c r="N86" s="168"/>
       <c r="O86" s="169"/>
       <c r="P86" s="170" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="Q86" s="175"/>
     </row>
@@ -16209,10 +16240,10 @@
       </c>
       <c r="D87" s="229"/>
       <c r="E87" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F87" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G87" s="231">
         <v>43817</v>
@@ -16220,7 +16251,7 @@
       <c r="H87" s="232"/>
       <c r="I87" s="235"/>
       <c r="J87" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K87" s="233"/>
       <c r="L87" s="245" t="s">
@@ -16233,43 +16264,43 @@
       <c r="Q87" s="237"/>
     </row>
     <row r="88" spans="1:18" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A88" s="122">
+      <c r="A88" s="119">
         <v>85</v>
       </c>
-      <c r="B88" s="172" t="s">
+      <c r="B88" s="227" t="s">
         <v>205</v>
       </c>
-      <c r="C88" s="163" t="s">
+      <c r="C88" s="228" t="s">
         <v>202</v>
       </c>
-      <c r="D88" s="164"/>
-      <c r="E88" s="173" t="s">
-        <v>277</v>
-      </c>
-      <c r="F88" s="173" t="s">
-        <v>277</v>
-      </c>
-      <c r="G88" s="165">
+      <c r="D88" s="229"/>
+      <c r="E88" s="230" t="s">
+        <v>273</v>
+      </c>
+      <c r="F88" s="230" t="s">
+        <v>273</v>
+      </c>
+      <c r="G88" s="231">
         <v>43817</v>
       </c>
-      <c r="H88" s="166"/>
-      <c r="I88" s="169"/>
-      <c r="J88" s="122" t="s">
-        <v>365</v>
-      </c>
-      <c r="K88" s="167">
+      <c r="H88" s="232"/>
+      <c r="I88" s="235"/>
+      <c r="J88" s="119" t="s">
+        <v>357</v>
+      </c>
+      <c r="K88" s="233">
         <v>43836</v>
       </c>
-      <c r="L88" s="174" t="s">
-        <v>232</v>
-      </c>
-      <c r="M88" s="130"/>
-      <c r="N88" s="168"/>
-      <c r="O88" s="169"/>
-      <c r="P88" s="170" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q88" s="175" t="s">
+      <c r="L88" s="245" t="s">
+        <v>387</v>
+      </c>
+      <c r="M88" s="220"/>
+      <c r="N88" s="234"/>
+      <c r="O88" s="235"/>
+      <c r="P88" s="236" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q88" s="237" t="s">
         <v>146</v>
       </c>
     </row>
@@ -16285,10 +16316,10 @@
       </c>
       <c r="D89" s="229"/>
       <c r="E89" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F89" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G89" s="231">
         <v>43817</v>
@@ -16296,7 +16327,7 @@
       <c r="H89" s="232"/>
       <c r="I89" s="235"/>
       <c r="J89" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K89" s="233">
         <v>43828</v>
@@ -16322,10 +16353,10 @@
       </c>
       <c r="D90" s="229"/>
       <c r="E90" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F90" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G90" s="231">
         <v>43817</v>
@@ -16333,7 +16364,7 @@
       <c r="H90" s="232"/>
       <c r="I90" s="235"/>
       <c r="J90" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K90" s="233"/>
       <c r="L90" s="245" t="s">
@@ -16345,7 +16376,7 @@
       <c r="P90" s="236"/>
       <c r="Q90" s="237"/>
     </row>
-    <row r="91" spans="1:18" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="91" spans="1:18" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A91" s="122">
         <v>88</v>
       </c>
@@ -16357,10 +16388,10 @@
       </c>
       <c r="D91" s="164"/>
       <c r="E91" s="173" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F91" s="173" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G91" s="165">
         <v>43817</v>
@@ -16368,7 +16399,7 @@
       <c r="H91" s="166"/>
       <c r="I91" s="169"/>
       <c r="J91" s="122" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="K91" s="167">
         <v>43837</v>
@@ -16380,7 +16411,7 @@
       <c r="N91" s="168"/>
       <c r="O91" s="169"/>
       <c r="P91" s="170" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="Q91" s="175"/>
     </row>
@@ -16396,10 +16427,10 @@
       </c>
       <c r="D92" s="154"/>
       <c r="E92" s="155" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F92" s="155" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G92" s="156">
         <v>43817</v>
@@ -16407,11 +16438,11 @@
       <c r="H92" s="176"/>
       <c r="I92" s="160"/>
       <c r="J92" s="133" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K92" s="157"/>
       <c r="L92" s="158" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="M92" s="136"/>
       <c r="N92" s="159"/>
@@ -16433,20 +16464,20 @@
       </c>
       <c r="D93" s="180"/>
       <c r="E93" s="181" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F93" s="181" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G93" s="182">
         <v>43817</v>
       </c>
       <c r="H93" s="183" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I93" s="184"/>
       <c r="J93" s="137" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K93" s="185"/>
       <c r="L93" s="186" t="s">
@@ -16456,13 +16487,13 @@
       <c r="N93" s="187"/>
       <c r="O93" s="184"/>
       <c r="P93" s="188" t="s">
-        <v>259</v>
+        <v>383</v>
       </c>
       <c r="Q93" s="189" t="s">
         <v>146</v>
       </c>
       <c r="R93" s="112" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="94" spans="1:18" s="17" customFormat="1" ht="57.6" hidden="1">
@@ -16477,10 +16508,10 @@
       </c>
       <c r="D94" s="154"/>
       <c r="E94" s="155" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F94" s="155" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G94" s="156">
         <v>43817</v>
@@ -16490,21 +16521,21 @@
         <v>101</v>
       </c>
       <c r="J94" s="133" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K94" s="157"/>
       <c r="L94" s="158" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="M94" s="136"/>
       <c r="N94" s="159"/>
       <c r="O94" s="160"/>
       <c r="P94" s="161" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="Q94" s="177"/>
       <c r="R94" s="112" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="95" spans="1:18" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
@@ -16515,24 +16546,24 @@
         <v>230</v>
       </c>
       <c r="C95" s="179" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D95" s="180"/>
       <c r="E95" s="181" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F95" s="181" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G95" s="182">
         <v>43801</v>
       </c>
       <c r="H95" s="183"/>
       <c r="I95" s="184" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="J95" s="137" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K95" s="185"/>
       <c r="L95" s="186" t="s">
@@ -16542,13 +16573,13 @@
       <c r="N95" s="187"/>
       <c r="O95" s="184"/>
       <c r="P95" s="188" t="s">
-        <v>256</v>
+        <v>378</v>
       </c>
       <c r="Q95" s="189" t="s">
         <v>146</v>
       </c>
       <c r="R95" s="112" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="96" spans="1:18" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
@@ -16559,14 +16590,14 @@
         <v>229</v>
       </c>
       <c r="C96" s="228" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D96" s="229"/>
       <c r="E96" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F96" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G96" s="231">
         <v>43817</v>
@@ -16574,7 +16605,7 @@
       <c r="H96" s="232"/>
       <c r="I96" s="235"/>
       <c r="J96" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K96" s="233"/>
       <c r="L96" s="245" t="s">
@@ -16586,7 +16617,7 @@
       <c r="P96" s="236"/>
       <c r="Q96" s="237"/>
     </row>
-    <row r="97" spans="1:18" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="97" spans="1:18" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A97" s="122">
         <v>94</v>
       </c>
@@ -16598,20 +16629,20 @@
       </c>
       <c r="D97" s="164"/>
       <c r="E97" s="173" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F97" s="173" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G97" s="165">
         <v>43817</v>
       </c>
       <c r="H97" s="166"/>
       <c r="I97" s="169" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="J97" s="122" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="K97" s="167">
         <v>43836</v>
@@ -16623,14 +16654,14 @@
       <c r="N97" s="168"/>
       <c r="O97" s="169"/>
       <c r="P97" s="170" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="Q97" s="175"/>
       <c r="R97" s="112" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
-    <row r="98" spans="1:18" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="98" spans="1:18" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A98" s="122">
         <v>95</v>
       </c>
@@ -16642,20 +16673,20 @@
       </c>
       <c r="D98" s="164"/>
       <c r="E98" s="173" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F98" s="173" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G98" s="165">
         <v>43817</v>
       </c>
       <c r="H98" s="166"/>
       <c r="I98" s="169" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="J98" s="122" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="K98" s="167">
         <v>43836</v>
@@ -16667,14 +16698,14 @@
       <c r="N98" s="168"/>
       <c r="O98" s="169"/>
       <c r="P98" s="170" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="Q98" s="175"/>
       <c r="R98" s="112" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
-    <row r="99" spans="1:18" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="99" spans="1:18" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A99" s="122">
         <v>96</v>
       </c>
@@ -16686,20 +16717,20 @@
       </c>
       <c r="D99" s="164"/>
       <c r="E99" s="173" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F99" s="173" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G99" s="165">
         <v>43817</v>
       </c>
       <c r="H99" s="166"/>
       <c r="I99" s="169" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="J99" s="122" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="K99" s="167">
         <v>43837</v>
@@ -16711,13 +16742,13 @@
       <c r="N99" s="168"/>
       <c r="O99" s="169"/>
       <c r="P99" s="170" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q99" s="175" t="s">
         <v>145</v>
       </c>
       <c r="R99" s="112" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="100" spans="1:18" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
@@ -16732,20 +16763,20 @@
       </c>
       <c r="D100" s="180"/>
       <c r="E100" s="181" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F100" s="181" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G100" s="182">
         <v>43817</v>
       </c>
       <c r="H100" s="183"/>
       <c r="I100" s="184" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="J100" s="137" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K100" s="185"/>
       <c r="L100" s="186" t="s">
@@ -16755,13 +16786,13 @@
       <c r="N100" s="187"/>
       <c r="O100" s="184"/>
       <c r="P100" s="188" t="s">
-        <v>255</v>
+        <v>377</v>
       </c>
       <c r="Q100" s="189" t="s">
         <v>147</v>
       </c>
       <c r="R100" s="112" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="101" spans="1:18" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
@@ -16776,10 +16807,10 @@
       </c>
       <c r="D101" s="229"/>
       <c r="E101" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F101" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G101" s="231">
         <v>43817</v>
@@ -16787,7 +16818,7 @@
       <c r="H101" s="232"/>
       <c r="I101" s="235"/>
       <c r="J101" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K101" s="233"/>
       <c r="L101" s="245" t="s">
@@ -16811,10 +16842,10 @@
       </c>
       <c r="D102" s="229"/>
       <c r="E102" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F102" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G102" s="231">
         <v>43817</v>
@@ -16822,7 +16853,7 @@
       <c r="H102" s="232"/>
       <c r="I102" s="235"/>
       <c r="J102" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K102" s="233"/>
       <c r="L102" s="245" t="s">
@@ -16846,10 +16877,10 @@
       </c>
       <c r="D103" s="229"/>
       <c r="E103" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F103" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G103" s="231">
         <v>43817</v>
@@ -16857,7 +16888,7 @@
       <c r="H103" s="232"/>
       <c r="I103" s="235"/>
       <c r="J103" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K103" s="233">
         <v>43828</v>
@@ -16885,10 +16916,10 @@
       </c>
       <c r="D104" s="229"/>
       <c r="E104" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F104" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G104" s="231">
         <v>43817</v>
@@ -16896,7 +16927,7 @@
       <c r="H104" s="232"/>
       <c r="I104" s="235"/>
       <c r="J104" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K104" s="233"/>
       <c r="L104" s="245" t="s">
@@ -16920,10 +16951,10 @@
       </c>
       <c r="D105" s="229"/>
       <c r="E105" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F105" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G105" s="231">
         <v>43817</v>
@@ -16931,7 +16962,7 @@
       <c r="H105" s="232"/>
       <c r="I105" s="235"/>
       <c r="J105" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K105" s="233">
         <v>43828</v>
@@ -16961,10 +16992,10 @@
       </c>
       <c r="D106" s="229"/>
       <c r="E106" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F106" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G106" s="231">
         <v>43817</v>
@@ -16972,7 +17003,7 @@
       <c r="H106" s="232"/>
       <c r="I106" s="235"/>
       <c r="J106" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K106" s="233">
         <v>43828</v>
@@ -16998,10 +17029,10 @@
       </c>
       <c r="D107" s="229"/>
       <c r="E107" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F107" s="230" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G107" s="231">
         <v>43817</v>
@@ -17009,7 +17040,7 @@
       <c r="H107" s="232"/>
       <c r="I107" s="235"/>
       <c r="J107" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K107" s="233">
         <v>43828</v>
@@ -17035,10 +17066,10 @@
       </c>
       <c r="D108" s="229"/>
       <c r="E108" s="230" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F108" s="230" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G108" s="231">
         <v>43824</v>
@@ -17046,7 +17077,7 @@
       <c r="H108" s="232"/>
       <c r="I108" s="235"/>
       <c r="J108" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K108" s="233">
         <v>43828</v>
@@ -17065,17 +17096,17 @@
         <v>106</v>
       </c>
       <c r="B109" s="178" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C109" s="179" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D109" s="180"/>
       <c r="E109" s="181" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F109" s="181" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G109" s="182">
         <v>43823</v>
@@ -17085,7 +17116,7 @@
         <v>101</v>
       </c>
       <c r="J109" s="137" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K109" s="185"/>
       <c r="L109" s="186" t="s">
@@ -17095,13 +17126,13 @@
       <c r="N109" s="187"/>
       <c r="O109" s="184"/>
       <c r="P109" s="188" t="s">
-        <v>257</v>
+        <v>379</v>
       </c>
       <c r="Q109" s="189" t="s">
         <v>251</v>
       </c>
       <c r="R109" s="112" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="110" spans="1:18" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
@@ -17109,17 +17140,17 @@
         <v>107</v>
       </c>
       <c r="B110" s="227" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C110" s="228" t="s">
         <v>242</v>
       </c>
       <c r="D110" s="229"/>
       <c r="E110" s="230" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F110" s="230" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G110" s="231">
         <v>43823</v>
@@ -17127,7 +17158,7 @@
       <c r="H110" s="232"/>
       <c r="I110" s="235"/>
       <c r="J110" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K110" s="233">
         <v>43828</v>
@@ -17146,17 +17177,17 @@
         <v>108</v>
       </c>
       <c r="B111" s="227" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C111" s="228" t="s">
         <v>243</v>
       </c>
       <c r="D111" s="229"/>
       <c r="E111" s="230" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F111" s="230" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G111" s="231">
         <v>43824</v>
@@ -17164,7 +17195,7 @@
       <c r="H111" s="232"/>
       <c r="I111" s="235"/>
       <c r="J111" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K111" s="233">
         <v>43828</v>
@@ -17183,17 +17214,17 @@
         <v>109</v>
       </c>
       <c r="B112" s="227" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C112" s="228" t="s">
         <v>244</v>
       </c>
       <c r="D112" s="229"/>
       <c r="E112" s="230" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F112" s="230" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G112" s="231">
         <v>43822</v>
@@ -17201,13 +17232,13 @@
       <c r="H112" s="232"/>
       <c r="I112" s="235"/>
       <c r="J112" s="119" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="K112" s="233">
         <v>43828</v>
       </c>
       <c r="L112" s="245" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="M112" s="220"/>
       <c r="N112" s="234"/>
@@ -17222,17 +17253,17 @@
         <v>110</v>
       </c>
       <c r="B113" s="152" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C113" s="153" t="s">
         <v>246</v>
       </c>
       <c r="D113" s="154"/>
       <c r="E113" s="155" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F113" s="155" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G113" s="156">
         <v>43822</v>
@@ -17240,7 +17271,7 @@
       <c r="H113" s="176"/>
       <c r="I113" s="160"/>
       <c r="J113" s="133" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K113" s="157">
         <v>43833</v>
@@ -17252,7 +17283,7 @@
       <c r="N113" s="159"/>
       <c r="O113" s="160"/>
       <c r="P113" s="161" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Q113" s="177"/>
     </row>
@@ -17261,29 +17292,29 @@
         <v>111</v>
       </c>
       <c r="B114" s="178" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C114" s="179" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D114" s="180"/>
       <c r="E114" s="181" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F114" s="181" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G114" s="182">
         <v>43822</v>
       </c>
       <c r="H114" s="193" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="I114" s="184" t="s">
         <v>101</v>
       </c>
       <c r="J114" s="137" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K114" s="185"/>
       <c r="L114" s="186" t="s">
@@ -17293,11 +17324,11 @@
       <c r="N114" s="187"/>
       <c r="O114" s="184"/>
       <c r="P114" s="188" t="s">
-        <v>253</v>
+        <v>382</v>
       </c>
       <c r="Q114" s="189"/>
       <c r="R114" s="112" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="115" spans="1:18" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
@@ -17305,17 +17336,17 @@
         <v>112</v>
       </c>
       <c r="B115" s="227" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C115" s="228" t="s">
         <v>247</v>
       </c>
       <c r="D115" s="229"/>
       <c r="E115" s="230" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F115" s="230" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G115" s="231">
         <v>43822</v>
@@ -17323,7 +17354,7 @@
       <c r="H115" s="232"/>
       <c r="I115" s="235"/>
       <c r="J115" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K115" s="233"/>
       <c r="L115" s="245" t="s">
@@ -17333,11 +17364,11 @@
       <c r="N115" s="234"/>
       <c r="O115" s="235"/>
       <c r="P115" s="236" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q115" s="237"/>
     </row>
-    <row r="116" spans="1:18" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="116" spans="1:18" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A116" s="122">
         <v>113</v>
       </c>
@@ -17345,26 +17376,26 @@
         <v>24</v>
       </c>
       <c r="C116" s="163" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D116" s="164"/>
       <c r="E116" s="173" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F116" s="173" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G116" s="165">
         <v>43822</v>
       </c>
       <c r="H116" s="272" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="I116" s="169" t="s">
         <v>101</v>
       </c>
       <c r="J116" s="273" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="K116" s="167">
         <v>43836</v>
@@ -17376,13 +17407,13 @@
       <c r="N116" s="168"/>
       <c r="O116" s="169"/>
       <c r="P116" s="170" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="Q116" s="175" t="s">
         <v>250</v>
       </c>
       <c r="R116" s="112" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="117" spans="1:18" ht="105.75" hidden="1" customHeight="1">
@@ -17390,23 +17421,23 @@
         <v>114</v>
       </c>
       <c r="B117" s="251" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C117" s="252" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D117" s="252"/>
       <c r="E117" s="253" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F117" s="253" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G117" s="254">
         <v>43825</v>
       </c>
       <c r="H117" s="255" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I117" s="256" t="s">
         <v>16</v>
@@ -17414,7 +17445,7 @@
       <c r="J117" s="251"/>
       <c r="K117" s="251"/>
       <c r="L117" s="251" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="M117" s="251"/>
       <c r="N117" s="251"/>
@@ -17423,60 +17454,62 @@
       <c r="Q117" s="257"/>
     </row>
     <row r="118" spans="1:18" ht="35.4" customHeight="1">
-      <c r="A118" s="130">
+      <c r="A118" s="220">
         <v>115</v>
       </c>
-      <c r="B118" s="274" t="s">
-        <v>318</v>
-      </c>
-      <c r="C118" s="275" t="s">
-        <v>319</v>
-      </c>
-      <c r="D118" s="276"/>
-      <c r="E118" s="277" t="s">
-        <v>289</v>
-      </c>
-      <c r="F118" s="277" t="s">
-        <v>288</v>
-      </c>
-      <c r="G118" s="278">
+      <c r="B118" s="251" t="s">
+        <v>314</v>
+      </c>
+      <c r="C118" s="302" t="s">
+        <v>315</v>
+      </c>
+      <c r="D118" s="252"/>
+      <c r="E118" s="253" t="s">
+        <v>285</v>
+      </c>
+      <c r="F118" s="253" t="s">
+        <v>284</v>
+      </c>
+      <c r="G118" s="254">
         <v>43825</v>
       </c>
-      <c r="H118" s="279"/>
-      <c r="I118" s="280" t="s">
+      <c r="H118" s="258"/>
+      <c r="I118" s="256" t="s">
         <v>16</v>
       </c>
-      <c r="J118" s="274" t="s">
-        <v>365</v>
-      </c>
-      <c r="K118" s="274">
+      <c r="J118" s="251" t="s">
+        <v>357</v>
+      </c>
+      <c r="K118" s="233">
         <v>43836</v>
       </c>
-      <c r="L118" s="281" t="s">
-        <v>342</v>
-      </c>
-      <c r="M118" s="274"/>
-      <c r="N118" s="274"/>
-      <c r="O118" s="274"/>
-      <c r="P118" s="170"/>
-      <c r="Q118" s="282"/>
+      <c r="L118" s="303" t="s">
+        <v>374</v>
+      </c>
+      <c r="M118" s="251"/>
+      <c r="N118" s="251"/>
+      <c r="O118" s="251"/>
+      <c r="P118" s="236" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q118" s="257"/>
     </row>
     <row r="119" spans="1:18" ht="40.200000000000003" hidden="1" customHeight="1">
       <c r="A119" s="220">
         <v>116</v>
       </c>
       <c r="B119" s="251" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C119" s="252" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D119" s="252"/>
       <c r="E119" s="253" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F119" s="253" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G119" s="254">
         <v>43825</v>
@@ -17488,304 +17521,304 @@
       <c r="J119" s="251"/>
       <c r="K119" s="251"/>
       <c r="L119" s="251" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="M119" s="251"/>
       <c r="N119" s="251"/>
       <c r="O119" s="251"/>
       <c r="P119" s="236" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="Q119" s="257"/>
     </row>
-    <row r="120" spans="1:18" ht="39.6" customHeight="1">
+    <row r="120" spans="1:18" ht="39.6" hidden="1" customHeight="1">
       <c r="A120" s="130">
         <v>117</v>
       </c>
       <c r="B120" s="274" t="s">
-        <v>315</v>
-      </c>
-      <c r="C120" s="283" t="s">
-        <v>320</v>
-      </c>
-      <c r="D120" s="276"/>
-      <c r="E120" s="277" t="s">
-        <v>277</v>
-      </c>
-      <c r="F120" s="277" t="s">
-        <v>277</v>
-      </c>
-      <c r="G120" s="278">
+        <v>311</v>
+      </c>
+      <c r="C120" s="280" t="s">
+        <v>316</v>
+      </c>
+      <c r="D120" s="275"/>
+      <c r="E120" s="276" t="s">
+        <v>273</v>
+      </c>
+      <c r="F120" s="276" t="s">
+        <v>273</v>
+      </c>
+      <c r="G120" s="277">
         <v>43825</v>
       </c>
-      <c r="H120" s="284" t="s">
-        <v>322</v>
-      </c>
-      <c r="I120" s="280" t="s">
+      <c r="H120" s="281" t="s">
+        <v>318</v>
+      </c>
+      <c r="I120" s="278" t="s">
         <v>16</v>
       </c>
       <c r="J120" s="200" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="K120" s="167">
         <v>43836</v>
       </c>
-      <c r="L120" s="285" t="s">
-        <v>342</v>
+      <c r="L120" s="282" t="s">
+        <v>337</v>
       </c>
       <c r="M120" s="274"/>
       <c r="N120" s="274"/>
       <c r="O120" s="274"/>
       <c r="P120" s="170" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q120" s="282"/>
+        <v>360</v>
+      </c>
+      <c r="Q120" s="279"/>
     </row>
     <row r="121" spans="1:18" ht="31.2" customHeight="1">
-      <c r="A121" s="130">
+      <c r="A121" s="220">
         <v>118</v>
       </c>
-      <c r="B121" s="274" t="s">
-        <v>318</v>
-      </c>
-      <c r="C121" s="286" t="s">
-        <v>323</v>
-      </c>
-      <c r="D121" s="276"/>
-      <c r="E121" s="277" t="s">
-        <v>277</v>
-      </c>
-      <c r="F121" s="277" t="s">
-        <v>277</v>
-      </c>
-      <c r="G121" s="278">
+      <c r="B121" s="251" t="s">
+        <v>314</v>
+      </c>
+      <c r="C121" s="244" t="s">
+        <v>319</v>
+      </c>
+      <c r="D121" s="252"/>
+      <c r="E121" s="253" t="s">
+        <v>273</v>
+      </c>
+      <c r="F121" s="253" t="s">
+        <v>273</v>
+      </c>
+      <c r="G121" s="254">
         <v>43825</v>
       </c>
-      <c r="H121" s="286" t="s">
-        <v>323</v>
-      </c>
-      <c r="I121" s="280" t="s">
+      <c r="H121" s="244" t="s">
+        <v>319</v>
+      </c>
+      <c r="I121" s="256" t="s">
         <v>16</v>
       </c>
-      <c r="J121" s="200" t="s">
-        <v>364</v>
-      </c>
-      <c r="K121" s="167">
+      <c r="J121" s="301" t="s">
+        <v>356</v>
+      </c>
+      <c r="K121" s="233">
         <v>43836</v>
       </c>
-      <c r="L121" s="285" t="s">
-        <v>342</v>
-      </c>
-      <c r="M121" s="274"/>
-      <c r="N121" s="274"/>
-      <c r="O121" s="274"/>
-      <c r="P121" s="170"/>
-      <c r="Q121" s="282"/>
+      <c r="L121" s="261" t="s">
+        <v>374</v>
+      </c>
+      <c r="M121" s="251"/>
+      <c r="N121" s="251"/>
+      <c r="O121" s="251"/>
+      <c r="P121" s="236"/>
+      <c r="Q121" s="257"/>
     </row>
     <row r="122" spans="1:18" ht="34.799999999999997" hidden="1" customHeight="1">
       <c r="A122" s="145">
         <v>119</v>
       </c>
-      <c r="B122" s="297" t="s">
-        <v>318</v>
-      </c>
-      <c r="C122" s="298" t="s">
-        <v>324</v>
-      </c>
-      <c r="D122" s="298"/>
-      <c r="E122" s="299" t="s">
-        <v>277</v>
-      </c>
-      <c r="F122" s="299" t="s">
-        <v>277</v>
-      </c>
-      <c r="G122" s="300">
+      <c r="B122" s="283" t="s">
+        <v>314</v>
+      </c>
+      <c r="C122" s="284" t="s">
+        <v>320</v>
+      </c>
+      <c r="D122" s="284"/>
+      <c r="E122" s="285" t="s">
+        <v>273</v>
+      </c>
+      <c r="F122" s="285" t="s">
+        <v>273</v>
+      </c>
+      <c r="G122" s="286">
         <v>43825</v>
       </c>
-      <c r="H122" s="298" t="s">
-        <v>324</v>
-      </c>
-      <c r="I122" s="302" t="s">
+      <c r="H122" s="284" t="s">
+        <v>320</v>
+      </c>
+      <c r="I122" s="288" t="s">
         <v>16</v>
       </c>
-      <c r="J122" s="297" t="s">
-        <v>341</v>
-      </c>
-      <c r="K122" s="297"/>
-      <c r="L122" s="297" t="s">
-        <v>345</v>
-      </c>
-      <c r="M122" s="297"/>
-      <c r="N122" s="297"/>
-      <c r="O122" s="297"/>
+      <c r="J122" s="283" t="s">
+        <v>336</v>
+      </c>
+      <c r="K122" s="283"/>
+      <c r="L122" s="283" t="s">
+        <v>339</v>
+      </c>
+      <c r="M122" s="283"/>
+      <c r="N122" s="283"/>
+      <c r="O122" s="283"/>
       <c r="P122" s="188" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q122" s="303" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q122" s="289" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="123" spans="1:18" ht="64.5" customHeight="1">
-      <c r="A123" s="130">
+      <c r="A123" s="220">
         <v>120</v>
       </c>
-      <c r="B123" s="274" t="s">
-        <v>318</v>
-      </c>
-      <c r="C123" s="276" t="s">
-        <v>325</v>
-      </c>
-      <c r="D123" s="276"/>
-      <c r="E123" s="277" t="s">
-        <v>277</v>
-      </c>
-      <c r="F123" s="277" t="s">
-        <v>277</v>
-      </c>
-      <c r="G123" s="278">
+      <c r="B123" s="251" t="s">
+        <v>314</v>
+      </c>
+      <c r="C123" s="252" t="s">
+        <v>321</v>
+      </c>
+      <c r="D123" s="252"/>
+      <c r="E123" s="253" t="s">
+        <v>273</v>
+      </c>
+      <c r="F123" s="253" t="s">
+        <v>273</v>
+      </c>
+      <c r="G123" s="254">
         <v>43825</v>
       </c>
-      <c r="H123" s="276" t="s">
-        <v>325</v>
-      </c>
-      <c r="I123" s="280" t="s">
+      <c r="H123" s="252" t="s">
+        <v>321</v>
+      </c>
+      <c r="I123" s="256" t="s">
         <v>16</v>
       </c>
-      <c r="J123" s="200" t="s">
-        <v>364</v>
-      </c>
-      <c r="K123" s="167">
+      <c r="J123" s="301" t="s">
+        <v>356</v>
+      </c>
+      <c r="K123" s="233">
         <v>43836</v>
       </c>
-      <c r="L123" s="285" t="s">
-        <v>343</v>
-      </c>
-      <c r="M123" s="274"/>
-      <c r="N123" s="274"/>
-      <c r="O123" s="274"/>
-      <c r="P123" s="170"/>
-      <c r="Q123" s="282"/>
+      <c r="L123" s="261" t="s">
+        <v>387</v>
+      </c>
+      <c r="M123" s="251"/>
+      <c r="N123" s="251"/>
+      <c r="O123" s="251"/>
+      <c r="P123" s="236"/>
+      <c r="Q123" s="257"/>
     </row>
     <row r="124" spans="1:18" ht="150" customHeight="1">
-      <c r="A124" s="130">
+      <c r="A124" s="220">
         <v>121</v>
       </c>
-      <c r="B124" s="274" t="s">
-        <v>318</v>
-      </c>
-      <c r="C124" s="287" t="s">
-        <v>326</v>
-      </c>
-      <c r="D124" s="276"/>
-      <c r="E124" s="277" t="s">
-        <v>277</v>
-      </c>
-      <c r="F124" s="277" t="s">
-        <v>277</v>
-      </c>
-      <c r="G124" s="278">
+      <c r="B124" s="251" t="s">
+        <v>314</v>
+      </c>
+      <c r="C124" s="304" t="s">
+        <v>322</v>
+      </c>
+      <c r="D124" s="252"/>
+      <c r="E124" s="253" t="s">
+        <v>273</v>
+      </c>
+      <c r="F124" s="253" t="s">
+        <v>273</v>
+      </c>
+      <c r="G124" s="254">
         <v>43825</v>
       </c>
-      <c r="H124" s="279" t="s">
-        <v>327</v>
-      </c>
-      <c r="I124" s="280" t="s">
+      <c r="H124" s="258" t="s">
+        <v>323</v>
+      </c>
+      <c r="I124" s="256" t="s">
         <v>16</v>
       </c>
-      <c r="J124" s="200" t="s">
-        <v>369</v>
-      </c>
-      <c r="K124" s="167">
+      <c r="J124" s="301" t="s">
+        <v>361</v>
+      </c>
+      <c r="K124" s="233">
         <v>43836</v>
       </c>
-      <c r="L124" s="285" t="s">
-        <v>342</v>
-      </c>
-      <c r="M124" s="274"/>
-      <c r="N124" s="274"/>
-      <c r="O124" s="274"/>
-      <c r="P124" s="170"/>
-      <c r="Q124" s="282"/>
+      <c r="L124" s="261" t="s">
+        <v>374</v>
+      </c>
+      <c r="M124" s="251"/>
+      <c r="N124" s="251"/>
+      <c r="O124" s="251"/>
+      <c r="P124" s="236"/>
+      <c r="Q124" s="257"/>
     </row>
     <row r="125" spans="1:18" ht="36.6" hidden="1" customHeight="1">
       <c r="A125" s="136">
         <v>122</v>
       </c>
-      <c r="B125" s="304" t="s">
-        <v>318</v>
-      </c>
-      <c r="C125" s="305" t="s">
-        <v>328</v>
-      </c>
-      <c r="D125" s="306"/>
-      <c r="E125" s="307" t="s">
-        <v>277</v>
-      </c>
-      <c r="F125" s="307" t="s">
-        <v>277</v>
-      </c>
-      <c r="G125" s="308">
+      <c r="B125" s="290" t="s">
+        <v>314</v>
+      </c>
+      <c r="C125" s="291" t="s">
+        <v>324</v>
+      </c>
+      <c r="D125" s="292"/>
+      <c r="E125" s="293" t="s">
+        <v>273</v>
+      </c>
+      <c r="F125" s="293" t="s">
+        <v>273</v>
+      </c>
+      <c r="G125" s="294">
         <v>43825</v>
       </c>
-      <c r="H125" s="305" t="s">
-        <v>328</v>
-      </c>
-      <c r="I125" s="309" t="s">
+      <c r="H125" s="291" t="s">
+        <v>324</v>
+      </c>
+      <c r="I125" s="295" t="s">
         <v>16</v>
       </c>
-      <c r="J125" s="304" t="s">
-        <v>341</v>
-      </c>
-      <c r="K125" s="304"/>
+      <c r="J125" s="290" t="s">
+        <v>336</v>
+      </c>
+      <c r="K125" s="290"/>
       <c r="L125" s="210" t="s">
-        <v>345</v>
-      </c>
-      <c r="M125" s="304"/>
-      <c r="N125" s="304"/>
-      <c r="O125" s="304"/>
+        <v>339</v>
+      </c>
+      <c r="M125" s="290"/>
+      <c r="N125" s="290"/>
+      <c r="O125" s="290"/>
       <c r="P125" s="161" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q125" s="310"/>
+        <v>340</v>
+      </c>
+      <c r="Q125" s="296"/>
     </row>
     <row r="126" spans="1:18" ht="112.5" hidden="1" customHeight="1">
       <c r="A126" s="220">
         <v>123</v>
       </c>
       <c r="B126" s="251" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C126" s="259" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D126" s="252"/>
       <c r="E126" s="253" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F126" s="253" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G126" s="254">
         <v>43825</v>
       </c>
       <c r="H126" s="260" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="I126" s="256" t="s">
         <v>16</v>
       </c>
       <c r="J126" s="251" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="K126" s="251"/>
       <c r="L126" s="261" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="M126" s="251"/>
       <c r="N126" s="251"/>
       <c r="O126" s="251"/>
       <c r="P126" s="236" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="Q126" s="257"/>
     </row>
@@ -17793,161 +17826,163 @@
       <c r="A127" s="145">
         <v>124</v>
       </c>
-      <c r="B127" s="297" t="s">
-        <v>318</v>
-      </c>
-      <c r="C127" s="298" t="s">
-        <v>330</v>
-      </c>
-      <c r="D127" s="298"/>
-      <c r="E127" s="299" t="s">
-        <v>289</v>
-      </c>
-      <c r="F127" s="299" t="s">
-        <v>288</v>
-      </c>
-      <c r="G127" s="300">
+      <c r="B127" s="283" t="s">
+        <v>314</v>
+      </c>
+      <c r="C127" s="284" t="s">
+        <v>381</v>
+      </c>
+      <c r="D127" s="284"/>
+      <c r="E127" s="285" t="s">
+        <v>285</v>
+      </c>
+      <c r="F127" s="285" t="s">
+        <v>284</v>
+      </c>
+      <c r="G127" s="286">
         <v>43825</v>
       </c>
-      <c r="H127" s="301"/>
-      <c r="I127" s="302" t="s">
+      <c r="H127" s="287"/>
+      <c r="I127" s="288" t="s">
         <v>16</v>
       </c>
-      <c r="J127" s="297"/>
-      <c r="K127" s="297"/>
-      <c r="L127" s="297" t="s">
-        <v>345</v>
-      </c>
-      <c r="M127" s="297"/>
-      <c r="N127" s="297"/>
-      <c r="O127" s="297"/>
+      <c r="J127" s="283"/>
+      <c r="K127" s="283"/>
+      <c r="L127" s="283" t="s">
+        <v>339</v>
+      </c>
+      <c r="M127" s="283"/>
+      <c r="N127" s="283"/>
+      <c r="O127" s="283"/>
       <c r="P127" s="188" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q127" s="303"/>
+        <v>343</v>
+      </c>
+      <c r="Q127" s="289"/>
     </row>
     <row r="128" spans="1:18" ht="42" hidden="1" customHeight="1">
       <c r="A128" s="145">
         <v>125</v>
       </c>
-      <c r="B128" s="297" t="s">
-        <v>318</v>
-      </c>
-      <c r="C128" s="298" t="s">
-        <v>331</v>
-      </c>
-      <c r="D128" s="298"/>
-      <c r="E128" s="299" t="s">
-        <v>289</v>
-      </c>
-      <c r="F128" s="299" t="s">
-        <v>288</v>
-      </c>
-      <c r="G128" s="300">
+      <c r="B128" s="283" t="s">
+        <v>314</v>
+      </c>
+      <c r="C128" s="284" t="s">
+        <v>326</v>
+      </c>
+      <c r="D128" s="284"/>
+      <c r="E128" s="285" t="s">
+        <v>285</v>
+      </c>
+      <c r="F128" s="285" t="s">
+        <v>284</v>
+      </c>
+      <c r="G128" s="286">
         <v>43825</v>
       </c>
-      <c r="H128" s="301"/>
-      <c r="I128" s="302" t="s">
+      <c r="H128" s="287"/>
+      <c r="I128" s="288" t="s">
         <v>16</v>
       </c>
-      <c r="J128" s="297" t="s">
-        <v>341</v>
-      </c>
-      <c r="K128" s="297"/>
-      <c r="L128" s="297" t="s">
-        <v>345</v>
-      </c>
-      <c r="M128" s="297"/>
-      <c r="N128" s="297"/>
-      <c r="O128" s="297"/>
+      <c r="J128" s="283" t="s">
+        <v>336</v>
+      </c>
+      <c r="K128" s="283"/>
+      <c r="L128" s="283" t="s">
+        <v>339</v>
+      </c>
+      <c r="M128" s="283"/>
+      <c r="N128" s="283"/>
+      <c r="O128" s="283"/>
       <c r="P128" s="188" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q128" s="303" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q128" s="289" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="129" spans="1:17" s="195" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A129" s="130">
+      <c r="A129" s="220">
         <v>126</v>
       </c>
-      <c r="B129" s="288" t="s">
+      <c r="B129" s="305" t="s">
         <v>24</v>
       </c>
-      <c r="C129" s="123" t="s">
-        <v>335</v>
-      </c>
-      <c r="D129" s="124"/>
-      <c r="E129" s="289" t="s">
+      <c r="C129" s="213" t="s">
+        <v>330</v>
+      </c>
+      <c r="D129" s="239"/>
+      <c r="E129" s="306" t="s">
+        <v>331</v>
+      </c>
+      <c r="F129" s="307" t="s">
+        <v>85</v>
+      </c>
+      <c r="G129" s="308">
+        <v>43825</v>
+      </c>
+      <c r="H129" s="309"/>
+      <c r="I129" s="310" t="s">
+        <v>16</v>
+      </c>
+      <c r="J129" s="311" t="s">
         <v>336</v>
       </c>
-      <c r="F129" s="290" t="s">
-        <v>85</v>
-      </c>
-      <c r="G129" s="291">
-        <v>43825</v>
-      </c>
-      <c r="H129" s="292"/>
-      <c r="I129" s="293" t="s">
-        <v>16</v>
-      </c>
-      <c r="J129" s="294" t="s">
-        <v>341</v>
-      </c>
-      <c r="K129" s="167">
+      <c r="K129" s="233">
         <v>43836</v>
       </c>
-      <c r="L129" s="285" t="s">
-        <v>342</v>
-      </c>
-      <c r="M129" s="294"/>
-      <c r="N129" s="294"/>
-      <c r="O129" s="294"/>
-      <c r="P129" s="295"/>
-      <c r="Q129" s="282"/>
+      <c r="L129" s="261" t="s">
+        <v>374</v>
+      </c>
+      <c r="M129" s="311"/>
+      <c r="N129" s="311"/>
+      <c r="O129" s="311"/>
+      <c r="P129" s="312" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q129" s="279"/>
     </row>
     <row r="130" spans="1:17" s="195" customFormat="1" ht="43.2">
-      <c r="A130" s="130">
+      <c r="A130" s="220">
         <v>127</v>
       </c>
-      <c r="B130" s="288" t="s">
+      <c r="B130" s="305" t="s">
         <v>24</v>
       </c>
-      <c r="C130" s="123" t="s">
-        <v>337</v>
-      </c>
-      <c r="D130" s="124"/>
-      <c r="E130" s="289" t="s">
+      <c r="C130" s="213" t="s">
+        <v>332</v>
+      </c>
+      <c r="D130" s="239"/>
+      <c r="E130" s="306" t="s">
+        <v>331</v>
+      </c>
+      <c r="F130" s="307" t="s">
+        <v>85</v>
+      </c>
+      <c r="G130" s="308">
+        <v>43825</v>
+      </c>
+      <c r="H130" s="313" t="s">
+        <v>333</v>
+      </c>
+      <c r="I130" s="310" t="s">
+        <v>16</v>
+      </c>
+      <c r="J130" s="311" t="s">
         <v>336</v>
       </c>
-      <c r="F130" s="290" t="s">
-        <v>85</v>
-      </c>
-      <c r="G130" s="291">
-        <v>43825</v>
-      </c>
-      <c r="H130" s="296" t="s">
-        <v>338</v>
-      </c>
-      <c r="I130" s="293" t="s">
-        <v>16</v>
-      </c>
-      <c r="J130" s="294" t="s">
-        <v>341</v>
-      </c>
-      <c r="K130" s="167">
+      <c r="K130" s="233">
         <v>43836</v>
       </c>
-      <c r="L130" s="285" t="s">
-        <v>342</v>
-      </c>
-      <c r="M130" s="294"/>
-      <c r="N130" s="294"/>
-      <c r="O130" s="294"/>
-      <c r="P130" s="295"/>
-      <c r="Q130" s="282"/>
+      <c r="L130" s="261" t="s">
+        <v>374</v>
+      </c>
+      <c r="M130" s="311"/>
+      <c r="N130" s="311"/>
+      <c r="O130" s="311"/>
+      <c r="P130" s="312"/>
+      <c r="Q130" s="257"/>
     </row>
-    <row r="131" spans="1:17" s="195" customFormat="1" ht="26.25" customHeight="1">
+    <row r="131" spans="1:17" s="195" customFormat="1" ht="26.25" hidden="1" customHeight="1">
       <c r="A131" s="136">
         <v>128</v>
       </c>
@@ -17955,11 +17990,11 @@
         <v>74</v>
       </c>
       <c r="C131" s="203" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D131" s="204"/>
       <c r="E131" s="205" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="F131" s="206" t="s">
         <v>85</v>
@@ -17974,15 +18009,15 @@
       <c r="J131" s="209"/>
       <c r="K131" s="157"/>
       <c r="L131" s="210" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="M131" s="208"/>
       <c r="N131" s="208"/>
       <c r="O131" s="211"/>
       <c r="P131" s="212" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q131" s="310"/>
+        <v>344</v>
+      </c>
+      <c r="Q131" s="296"/>
     </row>
     <row r="132" spans="1:17" s="195" customFormat="1" ht="26.25" hidden="1" customHeight="1">
       <c r="A132" s="220">
@@ -17992,11 +18027,11 @@
         <v>74</v>
       </c>
       <c r="C132" s="263" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D132" s="239"/>
       <c r="E132" s="264" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="F132" s="265" t="s">
         <v>85</v>
@@ -18022,9 +18057,15 @@
     <row r="190" ht="13.95" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A3:P132">
-    <filterColumn colId="11">
+    <filterColumn colId="9">
       <filters>
-        <filter val="处理中"/>
+        <filter val="何福睿"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="10">
+      <filters>
+        <dateGroupItem year="2020" month="1" day="6" dateTimeGrouping="day"/>
+        <dateGroupItem year="2020" month="1" day="7" dateTimeGrouping="day"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -18075,7 +18116,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="133.5" customHeight="1">
@@ -18083,7 +18124,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.4">
@@ -18091,7 +18132,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="191" customFormat="1" ht="14.4">
@@ -18099,7 +18140,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="194" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.4">
@@ -18107,7 +18148,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.4">
@@ -18115,7 +18156,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="192" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14.4">
@@ -18123,7 +18164,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14.4">
@@ -18131,7 +18172,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -18170,24 +18211,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="69.75" customHeight="1" thickBot="1">
-      <c r="A1" s="312" t="s">
+      <c r="A1" s="298" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="313"/>
-      <c r="C1" s="313"/>
-      <c r="D1" s="313"/>
-      <c r="E1" s="313"/>
-      <c r="F1" s="313"/>
-      <c r="G1" s="313"/>
-      <c r="H1" s="313"/>
-      <c r="I1" s="313"/>
-      <c r="J1" s="313"/>
-      <c r="K1" s="313"/>
-      <c r="L1" s="313"/>
-      <c r="M1" s="313"/>
-      <c r="N1" s="313"/>
-      <c r="O1" s="313"/>
-      <c r="P1" s="314"/>
+      <c r="B1" s="299"/>
+      <c r="C1" s="299"/>
+      <c r="D1" s="299"/>
+      <c r="E1" s="299"/>
+      <c r="F1" s="299"/>
+      <c r="G1" s="299"/>
+      <c r="H1" s="299"/>
+      <c r="I1" s="299"/>
+      <c r="J1" s="299"/>
+      <c r="K1" s="299"/>
+      <c r="L1" s="299"/>
+      <c r="M1" s="299"/>
+      <c r="N1" s="299"/>
+      <c r="O1" s="299"/>
+      <c r="P1" s="300"/>
     </row>
     <row r="2" spans="1:17" s="2" customFormat="1" ht="28.2" thickBot="1">
       <c r="A2" s="48"/>

--- a/Docs/06 Testing/标准工时分析管理系统测试课题汇总及处理表.xlsx
+++ b/Docs/06 Testing/标准工时分析管理系统测试课题汇总及处理表.xlsx
@@ -14,11 +14,11 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'课题记录  (2)'!$A$3:$H$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'课题记录-原数据 '!$A$3:$P$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'课题记录-原数据 '!$A$3:$T$139</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="35" r:id="rId5"/>
+    <pivotCache cacheId="67" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -184,7 +184,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="409">
   <si>
     <t>备注</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -2631,10 +2631,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>用户再确认</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>见课题126</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -2749,51 +2745,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>2人天</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1人天</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5人天</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2人天</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>见课题22</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>已处理</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>0人天</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5人天</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1人天</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>10人天</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1人天</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>5人天</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -3356,21 +3312,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>待</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>确认</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>播放视频需要转码，需要在性能和清晰度方面做个平衡</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -3391,7 +3332,53 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>2人天</t>
+    <t>取消</t>
+  </si>
+  <si>
+    <t xml:space="preserve">分析表中（ABGABPMXIA)栏目，用户输完数值后，光标能否自动跳转到下一格中；
+</t>
+  </si>
+  <si>
+    <t>系统无刷新功能，F5或者在界面添加一个刷新按钮</t>
+  </si>
+  <si>
+    <t>整行复制excel中的数据不能粘贴到系统中</t>
+  </si>
+  <si>
+    <t>开发时长
+评估（人天）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发测试总时长</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅日文，文本由ESL提供，分析表关键词保持为英文字符</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>已</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>处</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>理</t>
+    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -3966,7 +3953,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4018,12 +4005,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4219,7 +4200,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="380">
+  <cellXfs count="379">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -5105,6 +5086,237 @@
     <xf numFmtId="0" fontId="62" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="65" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="74" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="74" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="74" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="81" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="76" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="81" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="81" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="81" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="76" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="81" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="81" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="74" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="74" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="74" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="81" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -5113,240 +5325,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="74" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="74" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="74" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="81" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="76" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="81" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="81" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="81" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="76" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="81" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="81" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="74" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="74" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="74" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="81" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5354,7 +5332,40 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 26 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="14">
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="26"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="26"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="26"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="26"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="26"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="26"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <sz val="26"/>
@@ -5420,15 +5431,15 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1142408</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>688431</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>30042</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C98B2B81-BA32-4394-B169-793F8C3E02A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C98B2B81-BA32-4394-B169-793F8C3E02A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5464,15 +5475,15 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1273743</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>677224</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>590893</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBA739EC-426E-488C-8EB4-E9BFFCDD8554}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CBA739EC-426E-488C-8EB4-E9BFFCDD8554}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5508,15 +5519,15 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1148857</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>582438</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>462328</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67E59D5F-3A3D-4CC8-BC62-636223D083FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{67E59D5F-3A3D-4CC8-BC62-636223D083FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5565,7 +5576,7 @@
         <xdr:cNvPr id="14" name="组合 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED3142A9-7F63-479C-9720-07589AB2CE7F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ED3142A9-7F63-479C-9720-07589AB2CE7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5573,7 +5584,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6783400" y="28629887"/>
+          <a:off x="6779558" y="27157114"/>
           <a:ext cx="1090557" cy="505727"/>
           <a:chOff x="161924" y="422672"/>
           <a:chExt cx="6267451" cy="2786066"/>
@@ -5584,7 +5595,7 @@
           <xdr:cNvPr id="15" name="图片 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F21A3D8-CA0F-48DB-846B-4577426E88DB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3F21A3D8-CA0F-48DB-846B-4577426E88DB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5612,7 +5623,7 @@
           <xdr:cNvPr id="16" name="矩形 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8A8C184-1A17-4247-BB9C-68650D799358}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D8A8C184-1A17-4247-BB9C-68650D799358}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5679,7 +5690,7 @@
         <xdr:cNvPr id="7" name="组合 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C52A969-B543-4095-8357-9B29AA726D2A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9C52A969-B543-4095-8357-9B29AA726D2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5687,7 +5698,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6816824" y="15254887"/>
+          <a:off x="6812982" y="13849349"/>
           <a:ext cx="1090084" cy="555252"/>
           <a:chOff x="1979082" y="8911167"/>
           <a:chExt cx="13009526" cy="2694661"/>
@@ -5698,7 +5709,7 @@
           <xdr:cNvPr id="27" name="图片 26">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6AEFA32-3788-40F7-BEBA-24C5E9F08CB5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D6AEFA32-3788-40F7-BEBA-24C5E9F08CB5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5726,7 +5737,7 @@
           <xdr:cNvPr id="28" name="矩形 27">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D0E3554-6CC3-43CF-A6C2-99B0412D27C6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1D0E3554-6CC3-43CF-A6C2-99B0412D27C6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5793,7 +5804,7 @@
         <xdr:cNvPr id="17" name="组合 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82AF9E09-0798-485C-907F-F44410CAF4FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82AF9E09-0798-485C-907F-F44410CAF4FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5801,7 +5812,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6839236" y="29230064"/>
+          <a:off x="6835394" y="27750247"/>
           <a:ext cx="1030940" cy="504265"/>
           <a:chOff x="4840946" y="15710647"/>
           <a:chExt cx="13058787" cy="5819774"/>
@@ -5812,7 +5823,7 @@
           <xdr:cNvPr id="36" name="图片 35">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07457ED1-E75B-4492-AB11-171F75C37693}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07457ED1-E75B-4492-AB11-171F75C37693}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5840,7 +5851,7 @@
           <xdr:cNvPr id="37" name="矩形 36">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD4A936E-B663-4FEF-9170-AF86328014E3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CD4A936E-B663-4FEF-9170-AF86328014E3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5899,15 +5910,15 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1226530</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>556176</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>495300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="10" name="图片 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71CE1696-FFAC-4D0D-9BC6-623C84080B11}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{71CE1696-FFAC-4D0D-9BC6-623C84080B11}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5942,15 +5953,15 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1272243</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>739588</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>103094</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="30" name="图片 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5922A382-D927-4B52-BEEB-C2668363FB35}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5922A382-D927-4B52-BEEB-C2668363FB35}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5993,7 +6004,7 @@
         <xdr:cNvPr id="62" name="图片 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD02A9C6-4197-440B-8FC2-A69BD1CF140A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BD02A9C6-4197-440B-8FC2-A69BD1CF140A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6031,7 +6042,7 @@
         <xdr:cNvPr id="56" name="图片 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3447B6E4-297B-4626-BEB1-4BD2E742BFB8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3447B6E4-297B-4626-BEB1-4BD2E742BFB8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6067,7 +6078,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1101588</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>504253</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6075,7 +6086,7 @@
         <xdr:cNvPr id="8" name="图片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21CD05AE-AB07-4A92-90DD-14CF4D5829B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{21CD05AE-AB07-4A92-90DD-14CF4D5829B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6111,15 +6122,15 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1273479</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>794096</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="18" name="图片 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23342E00-592E-4AA7-9123-4D5229A234A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{23342E00-592E-4AA7-9123-4D5229A234A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6158,7 +6169,7 @@
         <xdr:cNvPr id="57" name="图片 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1D352DE-53BF-42B9-B05C-32668E7F7DB2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1D352DE-53BF-42B9-B05C-32668E7F7DB2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6202,7 +6213,7 @@
         <xdr:cNvPr id="21" name="组合 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCAA580D-E6A2-4774-A96E-7EBCE998DBC4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CCAA580D-E6A2-4774-A96E-7EBCE998DBC4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6210,7 +6221,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6823035" y="21596725"/>
+          <a:off x="6819193" y="20167495"/>
           <a:ext cx="1075911" cy="646871"/>
           <a:chOff x="3205370" y="17608826"/>
           <a:chExt cx="3889719" cy="3214139"/>
@@ -6221,7 +6232,7 @@
           <xdr:cNvPr id="47" name="图片 46">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D75A2515-EDE2-40EE-B593-56435BAF7270}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D75A2515-EDE2-40EE-B593-56435BAF7270}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6249,7 +6260,7 @@
           <xdr:cNvPr id="20" name="直接箭头连接符 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F879196-4649-4521-9EDE-9B226B334913}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F879196-4649-4521-9EDE-9B226B334913}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6307,15 +6318,15 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1272698</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>647904</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>502227</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="49" name="图片 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4C498E5-4FAD-466F-A44A-3D204083602A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4C498E5-4FAD-466F-A44A-3D204083602A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6351,15 +6362,15 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1038225</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>574264</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>520476</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02ACE7F6-6C9F-49AB-B04A-8A2CA1B80091}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{02ACE7F6-6C9F-49AB-B04A-8A2CA1B80091}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6398,7 +6409,7 @@
         <xdr:cNvPr id="63" name="图片 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5B4F15F-D156-49C7-88C9-0C0546D8FF38}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E5B4F15F-D156-49C7-88C9-0C0546D8FF38}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6437,7 +6448,7 @@
         <xdr:cNvPr id="64" name="图片 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B72EDCD-D450-4A03-BD8A-6526BF3EF390}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5B72EDCD-D450-4A03-BD8A-6526BF3EF390}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6473,15 +6484,15 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1270000</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>646145</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>588994</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="31" name="图片 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{265A18AF-7FD9-4852-A807-4A9065120A0A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{265A18AF-7FD9-4852-A807-4A9065120A0A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6517,15 +6528,15 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1133914</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>817613</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>542268</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="39" name="图片 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A9C4C4A-8486-4FAD-A7B8-1DC65A159E7F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A9C4C4A-8486-4FAD-A7B8-1DC65A159E7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6560,15 +6571,15 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1141239</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>687972</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>22999</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="40" name="图片 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A319DFA-C470-418C-AEC3-79A8CCAE0C02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8A319DFA-C470-418C-AEC3-79A8CCAE0C02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6604,15 +6615,15 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1270916</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>723415</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>590893</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="41" name="图片 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CD369F4-FF89-4A08-B457-FAB4D314ABD5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3CD369F4-FF89-4A08-B457-FAB4D314ABD5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6656,7 +6667,7 @@
         <xdr:cNvPr id="11" name="组合 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AE260E9-029E-43AB-8368-B3A8C042A108}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0AE260E9-029E-43AB-8368-B3A8C042A108}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6664,7 +6675,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7271424" y="85202746"/>
+          <a:off x="7267582" y="81883884"/>
           <a:ext cx="1382059" cy="1051671"/>
           <a:chOff x="2409265" y="85687647"/>
           <a:chExt cx="15275038" cy="8592362"/>
@@ -6675,7 +6686,7 @@
           <xdr:cNvPr id="6" name="图片 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF876CAB-ED8F-4688-986A-6F716B3BE4BE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AF876CAB-ED8F-4688-986A-6F716B3BE4BE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6704,7 +6715,7 @@
           <xdr:cNvPr id="9" name="矩形 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B7BD13C-8780-4606-B014-8D58A2F46294}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B7BD13C-8780-4606-B014-8D58A2F46294}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6778,7 +6789,7 @@
         <xdr:cNvPr id="19" name="组合 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F515AF4-F953-48AF-902A-6BC975EEA1D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5F515AF4-F953-48AF-902A-6BC975EEA1D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6786,7 +6797,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6923769" y="86439852"/>
+          <a:off x="6919927" y="83126752"/>
           <a:ext cx="2026104" cy="395373"/>
           <a:chOff x="2408208" y="88151179"/>
           <a:chExt cx="15167265" cy="9152865"/>
@@ -6797,7 +6808,7 @@
           <xdr:cNvPr id="12" name="图片 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C94C0F32-E18C-492A-93BB-8425EB434BDB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C94C0F32-E18C-492A-93BB-8425EB434BDB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6826,7 +6837,7 @@
           <xdr:cNvPr id="13" name="矩形 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79637C81-3D3E-491D-B411-5D000451A074}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{79637C81-3D3E-491D-B411-5D000451A074}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6900,7 +6911,7 @@
         <xdr:cNvPr id="24" name="组合 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE984409-5DBC-4D7F-A372-C8129A968FFD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FE984409-5DBC-4D7F-A372-C8129A968FFD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6908,7 +6919,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6934438" y="87056212"/>
+          <a:off x="6930596" y="83745034"/>
           <a:ext cx="2125867" cy="292101"/>
           <a:chOff x="993913" y="84938151"/>
           <a:chExt cx="15238095" cy="8190476"/>
@@ -6919,7 +6930,7 @@
           <xdr:cNvPr id="22" name="图片 21">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0871BD9-0E76-4D99-AF3E-B6E7BC1DF220}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B0871BD9-0E76-4D99-AF3E-B6E7BC1DF220}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6948,7 +6959,7 @@
           <xdr:cNvPr id="23" name="矩形 22">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79F5AD6B-1E3E-4424-A984-922AB2C06EB0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{79F5AD6B-1E3E-4424-A984-922AB2C06EB0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7014,15 +7025,15 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2567608</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>317846</xdr:rowOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>15608</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="25" name="图片 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{985C047F-BECF-4440-BA4B-F26ED3B85A92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{985C047F-BECF-4440-BA4B-F26ED3B85A92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7066,7 +7077,7 @@
         <xdr:cNvPr id="32" name="组合 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39F818E0-42DD-40F7-93A9-2E2B78DACA36}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{39F818E0-42DD-40F7-93A9-2E2B78DACA36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7074,7 +7085,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6948241" y="88027171"/>
+          <a:off x="6944399" y="84716633"/>
           <a:ext cx="2415760" cy="220319"/>
           <a:chOff x="2429565" y="93841957"/>
           <a:chExt cx="15238095" cy="8571428"/>
@@ -7085,7 +7096,7 @@
           <xdr:cNvPr id="26" name="图片 25">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37418CA9-6E36-4C65-AA1F-7554F1F7BEAC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37418CA9-6E36-4C65-AA1F-7554F1F7BEAC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7114,7 +7125,7 @@
           <xdr:cNvPr id="29" name="矩形 28">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A90E1BB1-B4E4-44A2-B19E-5E4993F74310}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A90E1BB1-B4E4-44A2-B19E-5E4993F74310}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7188,7 +7199,7 @@
         <xdr:cNvPr id="38" name="组合 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ADE53DE-5AEE-4240-8BD6-C99835EE6166}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7ADE53DE-5AEE-4240-8BD6-C99835EE6166}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7196,8 +7207,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7026728" y="88459288"/>
-          <a:ext cx="2577194" cy="225935"/>
+          <a:off x="7022886" y="85151312"/>
+          <a:ext cx="2575913" cy="225935"/>
           <a:chOff x="0" y="93786738"/>
           <a:chExt cx="18887425" cy="8571428"/>
         </a:xfrm>
@@ -7207,7 +7218,7 @@
           <xdr:cNvPr id="33" name="图片 32">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAB102EB-9179-4433-B1E4-71FA232742BB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BAB102EB-9179-4433-B1E4-71FA232742BB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7236,7 +7247,7 @@
           <xdr:cNvPr id="34" name="矩形 33">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2A3E5A8-A3AD-4555-A10C-A9A82B4AF316}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2A3E5A8-A3AD-4555-A10C-A9A82B4AF316}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7294,7 +7305,7 @@
           <xdr:cNvPr id="35" name="文本框 34">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEC9E465-A313-42BD-B7FE-517D6814315B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DEC9E465-A313-42BD-B7FE-517D6814315B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7366,7 +7377,7 @@
         <xdr:cNvPr id="50" name="组合 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4059CF34-0F21-48BD-947D-EB8C821901ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4059CF34-0F21-48BD-947D-EB8C821901ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7374,8 +7385,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7026728" y="89507038"/>
-          <a:ext cx="2577194" cy="1145"/>
+          <a:off x="7022886" y="86191377"/>
+          <a:ext cx="2575913" cy="1145"/>
           <a:chOff x="0" y="93786738"/>
           <a:chExt cx="18887425" cy="8571428"/>
         </a:xfrm>
@@ -7385,7 +7396,7 @@
           <xdr:cNvPr id="51" name="图片 50">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F6CB871-708A-41DE-B3F1-2B704ECFA198}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8F6CB871-708A-41DE-B3F1-2B704ECFA198}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7414,7 +7425,7 @@
           <xdr:cNvPr id="52" name="矩形 51">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{885CB1DE-A625-4233-8B49-45E9761E4DD3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{885CB1DE-A625-4233-8B49-45E9761E4DD3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7472,7 +7483,7 @@
           <xdr:cNvPr id="53" name="文本框 52">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AC064EB-9D21-4C0D-B097-4FA6497D6A79}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7AC064EB-9D21-4C0D-B097-4FA6497D6A79}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7536,15 +7547,15 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>35378</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>1787979</xdr:rowOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>71556</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="54" name="图片 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC63C4F2-2AF6-4C07-B84D-94B792F27C12}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AC63C4F2-2AF6-4C07-B84D-94B792F27C12}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7587,7 +7598,7 @@
         <xdr:cNvPr id="55" name="组合 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E5966F4-05E9-4855-8924-556794098C1E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2E5966F4-05E9-4855-8924-556794098C1E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7595,8 +7606,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7026728" y="91412038"/>
-          <a:ext cx="2577194" cy="1145"/>
+          <a:off x="7022886" y="88100860"/>
+          <a:ext cx="2575913" cy="1145"/>
           <a:chOff x="0" y="93786738"/>
           <a:chExt cx="18887425" cy="8571428"/>
         </a:xfrm>
@@ -7606,7 +7617,7 @@
           <xdr:cNvPr id="58" name="图片 57">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{659EBDDD-C8C7-4161-8812-10D2F732345B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{659EBDDD-C8C7-4161-8812-10D2F732345B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7635,7 +7646,7 @@
           <xdr:cNvPr id="59" name="矩形 58">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24ACAF84-4B10-451A-A5B1-8323AD1CBEEE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{24ACAF84-4B10-451A-A5B1-8323AD1CBEEE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7693,7 +7704,7 @@
           <xdr:cNvPr id="60" name="文本框 59">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60665E06-55A3-45B9-8E76-147F8252C0AD}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{60665E06-55A3-45B9-8E76-147F8252C0AD}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7757,15 +7768,15 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2694016</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>1270000</xdr:rowOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>33315</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="61" name="图片 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{30D01968-9869-4330-8703-81EE64B2E807}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30D01968-9869-4330-8703-81EE64B2E807}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7801,15 +7812,15 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2695337</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>1047750</xdr:rowOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>1348</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="65" name="图片 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD663A80-D315-49ED-968E-D9B45C310267}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD663A80-D315-49ED-968E-D9B45C310267}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7858,7 +7869,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7902,7 +7913,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7941,7 +7952,7 @@
         <xdr:cNvPr id="7" name="文本框 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8000,7 +8011,7 @@
         <xdr:cNvPr id="8" name="文本框 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8059,7 +8070,7 @@
         <xdr:cNvPr id="9" name="文本框 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8123,7 +8134,7 @@
         <xdr:cNvPr id="4" name="组合 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38335C1B-0A42-4E87-BE4B-0D7C844D61A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{38335C1B-0A42-4E87-BE4B-0D7C844D61A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8142,7 +8153,7 @@
           <xdr:cNvPr id="5" name="直接连接符 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000005000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8192,7 +8203,7 @@
           <xdr:cNvPr id="10" name="文本框 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00000A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8264,7 +8275,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D677A19C-2F90-4BC1-B75D-0B55D0799A5A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D677A19C-2F90-4BC1-B75D-0B55D0799A5A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8312,7 +8323,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CA40D1F-E98D-4779-B5DE-75CD1D518257}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CA40D1F-E98D-4779-B5DE-75CD1D518257}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8356,7 +8367,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{133DA2AF-CF85-4D35-A997-D6C79DC256CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{133DA2AF-CF85-4D35-A997-D6C79DC256CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8400,7 +8411,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF5B035E-628C-415E-B319-34B092DDAE08}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF5B035E-628C-415E-B319-34B092DDAE08}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8449,7 +8460,7 @@
         <xdr:cNvPr id="5" name="组合 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FB9EB5F-B847-42D8-BBF5-052ADCAE8843}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3FB9EB5F-B847-42D8-BBF5-052ADCAE8843}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8468,7 +8479,7 @@
           <xdr:cNvPr id="6" name="图片 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD71EF5F-5D64-41DF-A7F2-141005249294}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD71EF5F-5D64-41DF-A7F2-141005249294}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8496,7 +8507,7 @@
           <xdr:cNvPr id="7" name="矩形 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75A4392B-E92B-4FC9-AC7D-371C5CB67A68}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{75A4392B-E92B-4FC9-AC7D-371C5CB67A68}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8563,7 +8574,7 @@
         <xdr:cNvPr id="8" name="组合 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1510FA4D-5D40-451D-904C-905ED5CBFC47}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1510FA4D-5D40-451D-904C-905ED5CBFC47}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8582,7 +8593,7 @@
           <xdr:cNvPr id="9" name="图片 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C5C40D5-1862-4CBB-B6E6-707F77D56720}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C5C40D5-1862-4CBB-B6E6-707F77D56720}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8610,7 +8621,7 @@
           <xdr:cNvPr id="10" name="矩形 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B433086-303A-422F-8D3D-B19E2223A5E1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B433086-303A-422F-8D3D-B19E2223A5E1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8677,7 +8688,7 @@
         <xdr:cNvPr id="11" name="组合 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73C96F5D-A571-4F92-808B-8054033C1C68}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{73C96F5D-A571-4F92-808B-8054033C1C68}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8696,7 +8707,7 @@
           <xdr:cNvPr id="12" name="图片 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{423F377D-F999-4903-8C47-B49A9E1BBB3F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{423F377D-F999-4903-8C47-B49A9E1BBB3F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8725,7 +8736,7 @@
           <xdr:cNvPr id="13" name="矩形 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DABC0045-0D37-4A0E-B990-65A433DF712A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DABC0045-0D37-4A0E-B990-65A433DF712A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8792,7 +8803,7 @@
         <xdr:cNvPr id="14" name="组合 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{695A3A22-8B01-4B94-AF82-D09D9BACA91A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{695A3A22-8B01-4B94-AF82-D09D9BACA91A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8811,7 +8822,7 @@
           <xdr:cNvPr id="15" name="图片 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B969C19A-37AF-4171-B52B-1822D75F97BA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B969C19A-37AF-4171-B52B-1822D75F97BA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8839,7 +8850,7 @@
           <xdr:cNvPr id="16" name="矩形 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{410C8424-D8D3-4E10-8379-A832596C88C4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{410C8424-D8D3-4E10-8379-A832596C88C4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8906,7 +8917,7 @@
         <xdr:cNvPr id="17" name="组合 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98B9C950-5851-4D2A-9571-45E922882540}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{98B9C950-5851-4D2A-9571-45E922882540}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8925,7 +8936,7 @@
           <xdr:cNvPr id="18" name="图片 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ED41D7D-F68A-4AC2-A1B0-07C11A05D254}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8ED41D7D-F68A-4AC2-A1B0-07C11A05D254}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8953,7 +8964,7 @@
           <xdr:cNvPr id="19" name="矩形 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DBBD272-C3EA-40B8-A221-2689DD5C211A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DBBD272-C3EA-40B8-A221-2689DD5C211A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9020,7 +9031,7 @@
         <xdr:cNvPr id="20" name="组合 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0263C938-2310-4948-8135-8890B8AFE85C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0263C938-2310-4948-8135-8890B8AFE85C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9039,7 +9050,7 @@
           <xdr:cNvPr id="21" name="图片 20">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFD97B7C-70BD-4117-B3DA-F86F086B4EC3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BFD97B7C-70BD-4117-B3DA-F86F086B4EC3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9067,7 +9078,7 @@
           <xdr:cNvPr id="22" name="矩形 21">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7FD535A-41D0-4995-BEF3-47E84293312B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F7FD535A-41D0-4995-BEF3-47E84293312B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9134,7 +9145,7 @@
         <xdr:cNvPr id="23" name="图片 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5D959CF-DCB6-43F2-BD17-E00A70826190}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F5D959CF-DCB6-43F2-BD17-E00A70826190}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9177,7 +9188,7 @@
         <xdr:cNvPr id="24" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D48FC70-CC73-4FFA-93EF-910DB168505F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2D48FC70-CC73-4FFA-93EF-910DB168505F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9220,7 +9231,7 @@
         <xdr:cNvPr id="25" name="组合 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A4520C-878D-41DA-ACC8-C753AB4EEC8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{01A4520C-878D-41DA-ACC8-C753AB4EEC8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9239,7 +9250,7 @@
           <xdr:cNvPr id="26" name="图片 25">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{539EBE1B-E593-4CF1-8E00-732DB21C57C7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{539EBE1B-E593-4CF1-8E00-732DB21C57C7}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9268,7 +9279,7 @@
           <xdr:cNvPr id="27" name="矩形 26">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E704DA5-79FB-4DCE-82CD-C7128EF5045D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5E704DA5-79FB-4DCE-82CD-C7128EF5045D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9335,7 +9346,7 @@
         <xdr:cNvPr id="28" name="图片 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F60F9300-474C-4B97-8CFA-FA6A232996BC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F60F9300-474C-4B97-8CFA-FA6A232996BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9378,7 +9389,7 @@
         <xdr:cNvPr id="29" name="图片 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{041F02E7-301A-4535-8E92-FCE7759A0E5B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{041F02E7-301A-4535-8E92-FCE7759A0E5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9421,7 +9432,7 @@
         <xdr:cNvPr id="30" name="组合 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4081C441-A16E-47A6-91AB-CE7259525E3C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4081C441-A16E-47A6-91AB-CE7259525E3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9440,7 +9451,7 @@
           <xdr:cNvPr id="31" name="图片 30">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50922B92-5CDB-4001-81FE-970A069D1776}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{50922B92-5CDB-4001-81FE-970A069D1776}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9469,7 +9480,7 @@
           <xdr:cNvPr id="32" name="矩形 31">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4D45F2F-BE07-4DD2-85CD-D54AAECFCF4A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4D45F2F-BE07-4DD2-85CD-D54AAECFCF4A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9543,7 +9554,7 @@
         <xdr:cNvPr id="33" name="组合 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{276B5F4B-7CC1-4301-8950-5FD9EA8CAF37}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{276B5F4B-7CC1-4301-8950-5FD9EA8CAF37}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9562,7 +9573,7 @@
           <xdr:cNvPr id="34" name="图片 33">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6B8C32B-6E2A-4807-A1D7-6F444FC24D6E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D6B8C32B-6E2A-4807-A1D7-6F444FC24D6E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9590,7 +9601,7 @@
           <xdr:cNvPr id="35" name="矩形 34">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23D2AE0D-123E-42DC-ABED-86AA7E367A25}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{23D2AE0D-123E-42DC-ABED-86AA7E367A25}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9664,7 +9675,7 @@
         <xdr:cNvPr id="36" name="图片 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAD693BB-8FF5-4C75-9399-B6802382149F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BAD693BB-8FF5-4C75-9399-B6802382149F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9707,7 +9718,7 @@
         <xdr:cNvPr id="37" name="图片 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3E1CE8D-148A-4110-B326-60CF5214D964}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B3E1CE8D-148A-4110-B326-60CF5214D964}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9750,7 +9761,7 @@
         <xdr:cNvPr id="38" name="图片 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAD76119-757D-4D4D-9EF0-428B965CA83D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FAD76119-757D-4D4D-9EF0-428B965CA83D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9788,7 +9799,7 @@
         <xdr:cNvPr id="39" name="图片 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45F58B90-C3E8-4CBD-923D-36B5F3F410CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{45F58B90-C3E8-4CBD-923D-36B5F3F410CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9832,7 +9843,7 @@
         <xdr:cNvPr id="40" name="图片 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B687413-23BF-4281-9D42-6D9D81EC9986}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B687413-23BF-4281-9D42-6D9D81EC9986}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9876,7 +9887,7 @@
         <xdr:cNvPr id="41" name="图片 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99954A59-2E00-4CDA-A0DC-610C9B6FF2C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{99954A59-2E00-4CDA-A0DC-610C9B6FF2C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9915,7 +9926,7 @@
         <xdr:cNvPr id="42" name="图片 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4DD4F50-D468-4FED-989B-6D6A38F1285C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4DD4F50-D468-4FED-989B-6D6A38F1285C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9959,7 +9970,7 @@
         <xdr:cNvPr id="43" name="组合 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D60B776-8290-4A05-8D0B-E49A20D889D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6D60B776-8290-4A05-8D0B-E49A20D889D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9978,7 +9989,7 @@
           <xdr:cNvPr id="44" name="图片 43">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57538BB3-6956-4C33-8DD0-A16EEBE15ECC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{57538BB3-6956-4C33-8DD0-A16EEBE15ECC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10006,7 +10017,7 @@
           <xdr:cNvPr id="45" name="直接箭头连接符 44">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B46ADCBE-FF68-4902-9EB2-648E3FE62B5C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B46ADCBE-FF68-4902-9EB2-648E3FE62B5C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10072,7 +10083,7 @@
         <xdr:cNvPr id="46" name="图片 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6366B4A9-4196-44F0-8E96-85299FE69047}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6366B4A9-4196-44F0-8E96-85299FE69047}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10116,7 +10127,7 @@
         <xdr:cNvPr id="47" name="图片 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3029897-09D5-4E82-88FE-30DA2683D8E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A3029897-09D5-4E82-88FE-30DA2683D8E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10151,19 +10162,19 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="DELL" refreshedDate="43837.451189814812" createdVersion="6" refreshedVersion="4" minRefreshableVersion="3" recordCount="130">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="DELL" refreshedDate="43837.739275115739" createdVersion="6" refreshedVersion="4" minRefreshableVersion="3" recordCount="137">
   <cacheSource type="worksheet">
     <worksheetSource ref="A3:R1048576" sheet="课题记录-原数据 "/>
   </cacheSource>
   <cacheFields count="18">
     <cacheField name="序列" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="129"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="136"/>
     </cacheField>
     <cacheField name="功能" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="课题内容描述" numFmtId="0">
-      <sharedItems containsBlank="1" count="130">
+      <sharedItems containsBlank="1" count="137">
         <s v="登录界面的系统名称追加系统版本及系英文名称_x000a_①系统的名字没有_x000a_②日期时间没有_x000a_③语言版本没有(中文,英文,日语)_x000a_④系统使用说明手册没有"/>
         <s v="登录界面的风格与EPSON的色调、VI及系统的类型不是很搭"/>
         <s v="系统的模块层次不够清晰明了"/>
@@ -10293,6 +10304,13 @@
         <s v="分析表编辑页最下方没有总计算（参考分析资料Excel）"/>
         <s v="常用指标组合Tool和最后A未与分析表进行默认设置*0和0"/>
         <s v="手顺组合与分析表的功能一样实现"/>
+        <s v="分析表查询：选定4、5 页时系统会报错_x000a_分析表无法翻页跳转至最后页，跳转至最后页出错，且无法返回初始界面，需要重新登录系统操作；"/>
+        <s v="MPG 视频播放不清晰有，有波纹"/>
+        <s v="批量选择不支持翻页后批量选择；且批量选择没有展示已选中数量参考？"/>
+        <s v="该系统中各分析表、报表、Master data列表前均无序号展示；在部份或批量选择时无参考数据；"/>
+        <s v="有频度的返回值(Time value、TMU、Sec./conv栏目)未标注红色字体显示区分；"/>
+        <s v="分析表无法生成报表"/>
+        <s v="打开两个或多个系统，进入后系统数据或功能会出现查询分析表数据：无、功能点击无反应等异常现象"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -10306,7 +10324,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="测试时间" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2019-12-02T00:00:00" maxDate="2019-12-27T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2019-12-02T00:00:00" maxDate="2020-01-07T00:00:00"/>
     </cacheField>
     <cacheField name="要望" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -10318,14 +10336,16 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="对应纳期" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2019-01-03T00:00:00" maxDate="2020-01-10T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2019-01-03T00:00:00" maxDate="2020-01-15T00:00:00"/>
     </cacheField>
     <cacheField name="对应状态" numFmtId="0">
-      <sharedItems containsBlank="1" count="5">
+      <sharedItems containsBlank="1" count="7">
         <s v="已处理"/>
         <s v="处理中"/>
         <s v="待确定"/>
+        <s v="取消"/>
         <m/>
+        <s v="待确认" u="1"/>
         <s v="暂定" u="1"/>
       </sharedItems>
     </cacheField>
@@ -10357,7 +10377,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="130">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="137">
   <r>
     <n v="1"/>
     <s v="UI"/>
@@ -10434,7 +10454,7 @@
     <m/>
     <m/>
     <m/>
-    <s v="2人天"/>
+    <m/>
     <s v="新增"/>
     <s v="改善"/>
   </r>
@@ -10714,7 +10734,7 @@
     <m/>
     <m/>
     <m/>
-    <s v="1人天"/>
+    <m/>
     <s v="新增"/>
     <s v="改善"/>
   </r>
@@ -10774,7 +10794,7 @@
     <m/>
     <m/>
     <m/>
-    <s v="0.5人天"/>
+    <m/>
     <s v="新增"/>
     <s v="改善"/>
   </r>
@@ -10794,7 +10814,7 @@
     <m/>
     <m/>
     <m/>
-    <s v="2人天"/>
+    <m/>
     <s v="新增"/>
     <s v="改善"/>
   </r>
@@ -11734,7 +11754,7 @@
     <m/>
     <m/>
     <m/>
-    <s v="0人天"/>
+    <m/>
     <s v="新增"/>
     <s v="改善"/>
   </r>
@@ -11930,11 +11950,11 @@
     <s v="高"/>
     <s v="何福睿、李拓新"/>
     <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="1人天"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
     <s v="新增"/>
     <s v="改善"/>
   </r>
@@ -11954,7 +11974,7 @@
     <m/>
     <m/>
     <m/>
-    <s v="0.5人天"/>
+    <m/>
     <m/>
     <s v="改善"/>
   </r>
@@ -12150,7 +12170,7 @@
     <m/>
     <s v="何福睿、李拓新"/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <m/>
     <m/>
     <m/>
@@ -12194,7 +12214,7 @@
     <m/>
     <m/>
     <m/>
-    <s v="10人天"/>
+    <s v="仅日文，文本由ESL提供，分析表关键词保持为英文字符"/>
     <s v="新增"/>
     <s v="改善"/>
   </r>
@@ -12294,7 +12314,7 @@
     <m/>
     <m/>
     <m/>
-    <s v="1人天"/>
+    <m/>
     <s v="新增"/>
     <s v="改善"/>
   </r>
@@ -12474,7 +12494,7 @@
     <m/>
     <m/>
     <m/>
-    <s v="1人天"/>
+    <m/>
     <s v="新增"/>
     <s v="改善"/>
   </r>
@@ -12570,7 +12590,7 @@
     <s v="优先"/>
     <s v="何福睿、李拓新"/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <m/>
     <m/>
     <m/>
@@ -12734,7 +12754,7 @@
     <m/>
     <m/>
     <m/>
-    <s v="5人天"/>
+    <m/>
     <s v="新增"/>
     <m/>
   </r>
@@ -12830,11 +12850,11 @@
     <s v="高"/>
     <m/>
     <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="用户再确认"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -12854,7 +12874,7 @@
     <m/>
     <m/>
     <m/>
-    <s v="1人天"/>
+    <m/>
     <s v="新增"/>
     <m/>
   </r>
@@ -12939,18 +12959,158 @@
     <m/>
   </r>
   <r>
-    <m/>
-    <m/>
+    <n v="130"/>
+    <s v="分析表"/>
     <x v="129"/>
     <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
+    <s v="VP"/>
+    <s v="曾辉"/>
+    <d v="2020-01-06T00:00:00"/>
+    <m/>
+    <s v="高"/>
+    <s v="熊驰_x000a_罗钰"/>
+    <d v="2020-01-08T00:00:00"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="131"/>
+    <s v="分析表"/>
+    <x v="130"/>
+    <m/>
+    <s v="ISD"/>
+    <s v="吕鹏云"/>
+    <d v="2020-01-06T00:00:00"/>
+    <m/>
+    <s v="高"/>
+    <s v="何福睿"/>
+    <d v="2020-01-14T00:00:00"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="播放视频需要转码，需要在性能和清晰度方面做个平衡"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="132"/>
+    <s v="系统"/>
+    <x v="131"/>
+    <m/>
+    <s v="VP"/>
+    <s v="曾辉"/>
+    <d v="2020-01-06T00:00:00"/>
+    <m/>
+    <s v="高"/>
+    <s v="熊驰"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="新增"/>
+    <m/>
+  </r>
+  <r>
+    <n v="133"/>
+    <s v="分析表、报表、Master data"/>
+    <x v="132"/>
+    <m/>
+    <s v="VP"/>
+    <s v="曾辉"/>
+    <d v="2020-01-06T00:00:00"/>
+    <m/>
+    <s v="高"/>
+    <s v="熊驰"/>
+    <d v="2020-01-08T00:00:00"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="新增"/>
+    <m/>
+  </r>
+  <r>
+    <n v="134"/>
+    <s v="分析表"/>
+    <x v="133"/>
+    <m/>
+    <s v="VP"/>
+    <s v="曾辉"/>
+    <d v="2020-01-06T00:00:00"/>
+    <m/>
+    <s v="高"/>
+    <s v="何福睿"/>
+    <d v="2020-01-09T00:00:00"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="135"/>
+    <s v="分析表"/>
+    <x v="134"/>
+    <m/>
+    <s v="VP"/>
+    <s v="曾辉"/>
+    <d v="2020-01-06T00:00:00"/>
+    <m/>
+    <s v="高"/>
+    <s v="华明香"/>
+    <d v="2020-01-08T00:00:00"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="136"/>
+    <s v="系统"/>
+    <x v="135"/>
+    <m/>
+    <s v="ISD"/>
+    <s v="吕鹏云"/>
+    <d v="2020-01-06T00:00:00"/>
+    <s v="只能打开一个系统"/>
+    <s v="高"/>
+    <s v="何福睿"/>
+    <d v="2020-01-10T00:00:00"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="136"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4"/>
     <m/>
     <m/>
     <m/>
@@ -12962,13 +13122,13 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="课题处理状态">
-  <location ref="E3:F8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="67" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="课题处理状态">
+  <location ref="E3:F12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="131">
+      <items count="138">
         <item x="32"/>
         <item x="26"/>
         <item x="77"/>
@@ -13098,7 +13258,14 @@
         <item x="99"/>
         <item x="68"/>
         <item x="92"/>
+        <item x="136"/>
         <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -13111,12 +13278,14 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="6">
+      <items count="8">
         <item sd="0" x="1"/>
         <item sd="0" x="2"/>
         <item sd="0" x="0"/>
-        <item n="IT担当漏确认课题" sd="0" x="3"/>
-        <item sd="0" m="1" x="4"/>
+        <item n="IT担当漏确认课题" sd="0" x="4"/>
+        <item sd="0" m="1" x="6"/>
+        <item x="3"/>
+        <item m="1" x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -13131,7 +13300,7 @@
     <field x="11"/>
     <field x="2"/>
   </rowFields>
-  <rowItems count="5">
+  <rowItems count="9">
     <i>
       <x/>
     </i>
@@ -13144,6 +13313,18 @@
     <i>
       <x v="3"/>
     </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="55"/>
+    </i>
+    <i r="1">
+      <x v="108"/>
+    </i>
+    <i r="1">
+      <x v="121"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -13155,29 +13336,29 @@
     <dataField name="数量" fld="0" subtotal="count" baseField="11" baseItem="3"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="6">
+    <format dxfId="13">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="12">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="11">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="10">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="11" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -13543,7 +13724,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13551,7 +13732,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E3:F8"/>
+  <dimension ref="E3:F14"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
@@ -13559,7 +13740,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="5" max="5" width="46.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="188.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -13577,7 +13758,7 @@
         <v>231</v>
       </c>
       <c r="F4" s="195">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="5:6" ht="30">
@@ -13585,7 +13766,7 @@
         <v>253</v>
       </c>
       <c r="F5" s="195">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="5:6" ht="30">
@@ -13593,23 +13774,57 @@
         <v>123</v>
       </c>
       <c r="F6" s="195">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="5:6" ht="30">
       <c r="E7" s="194" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F7" s="195"/>
     </row>
     <row r="8" spans="5:6" ht="30">
       <c r="E8" s="194" t="s">
+        <v>401</v>
+      </c>
+      <c r="F8" s="195">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="5:6" ht="30">
+      <c r="E9" s="367" t="s">
+        <v>402</v>
+      </c>
+      <c r="F9" s="195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="5:6" ht="30">
+      <c r="E10" s="367" t="s">
+        <v>403</v>
+      </c>
+      <c r="F10" s="195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="5:6" ht="30">
+      <c r="E11" s="367" t="s">
+        <v>404</v>
+      </c>
+      <c r="F11" s="195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="5:6" ht="30">
+      <c r="E12" s="194" t="s">
         <v>254</v>
       </c>
-      <c r="F8" s="195">
-        <v>129</v>
+      <c r="F12" s="195">
+        <v>136</v>
       </c>
     </row>
+    <row r="13" spans="5:6" ht="30"/>
+    <row r="14" spans="5:6" ht="30"/>
   </sheetData>
   <phoneticPr fontId="64" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13618,13 +13833,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R190"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:T190"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="E132" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M134" sqref="M134"/>
+      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -13644,31 +13860,36 @@
     <col min="15" max="15" width="13.33203125" style="36" customWidth="1"/>
     <col min="16" max="16" width="24.109375" style="38" customWidth="1"/>
     <col min="17" max="17" width="21.33203125" style="36" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="3"/>
+    <col min="18" max="18" width="9" style="3"/>
+    <col min="19" max="19" width="14.5546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.21875" style="36" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="69.75" customHeight="1" thickBot="1">
-      <c r="A1" s="299" t="s">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="69.75" customHeight="1" thickBot="1">
+      <c r="A1" s="376" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="300"/>
-      <c r="C1" s="300"/>
-      <c r="D1" s="300"/>
-      <c r="E1" s="300"/>
-      <c r="F1" s="300"/>
-      <c r="G1" s="300"/>
-      <c r="H1" s="300"/>
-      <c r="I1" s="300"/>
-      <c r="J1" s="300"/>
-      <c r="K1" s="300"/>
-      <c r="L1" s="300"/>
-      <c r="M1" s="300"/>
-      <c r="N1" s="300"/>
-      <c r="O1" s="300"/>
-      <c r="P1" s="301"/>
+      <c r="B1" s="377"/>
+      <c r="C1" s="377"/>
+      <c r="D1" s="377"/>
+      <c r="E1" s="377"/>
+      <c r="F1" s="377"/>
+      <c r="G1" s="377"/>
+      <c r="H1" s="377"/>
+      <c r="I1" s="377"/>
+      <c r="J1" s="377"/>
+      <c r="K1" s="377"/>
+      <c r="L1" s="377"/>
+      <c r="M1" s="377"/>
+      <c r="N1" s="377"/>
+      <c r="O1" s="377"/>
+      <c r="P1" s="378"/>
       <c r="Q1" s="120"/>
+      <c r="S1" s="120"/>
+      <c r="T1" s="120"/>
     </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" ht="28.2" thickBot="1">
+    <row r="2" spans="1:20" s="2" customFormat="1" ht="28.2" thickBot="1">
       <c r="A2" s="48"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -13686,8 +13907,10 @@
       <c r="O2" s="29"/>
       <c r="P2" s="30"/>
       <c r="Q2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
     </row>
-    <row r="3" spans="1:18" s="111" customFormat="1" ht="32.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:20" s="111" customFormat="1" ht="32.25" customHeight="1" thickBot="1">
       <c r="A3" s="113" t="s">
         <v>1</v>
       </c>
@@ -13737,13 +13960,19 @@
         <v>0</v>
       </c>
       <c r="Q3" s="121" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="R3" s="111" t="s">
         <v>283</v>
       </c>
+      <c r="S3" s="373" t="s">
+        <v>405</v>
+      </c>
+      <c r="T3" s="121" t="s">
+        <v>406</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" s="112" customFormat="1" ht="101.4" customHeight="1">
+    <row r="4" spans="1:20" s="112" customFormat="1" ht="101.4" hidden="1" customHeight="1">
       <c r="A4" s="119">
         <v>1</v>
       </c>
@@ -13782,7 +14011,7 @@
       </c>
       <c r="Q4" s="219"/>
     </row>
-    <row r="5" spans="1:18" s="112" customFormat="1" ht="58.5" customHeight="1">
+    <row r="5" spans="1:20" s="112" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A5" s="119">
         <v>2</v>
       </c>
@@ -13823,53 +14052,53 @@
       </c>
       <c r="Q5" s="219"/>
     </row>
-    <row r="6" spans="1:18" s="112" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A6" s="345">
+    <row r="6" spans="1:20" s="112" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+      <c r="A6" s="342">
         <v>3</v>
       </c>
-      <c r="B6" s="345" t="s">
+      <c r="B6" s="342" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="346" t="s">
+      <c r="C6" s="343" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="347"/>
-      <c r="E6" s="348" t="s">
+      <c r="D6" s="344"/>
+      <c r="E6" s="345" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="348" t="s">
+      <c r="F6" s="345" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="349">
+      <c r="G6" s="346">
         <v>43801</v>
       </c>
-      <c r="H6" s="350"/>
-      <c r="I6" s="345" t="s">
+      <c r="H6" s="347"/>
+      <c r="I6" s="342" t="s">
         <v>101</v>
       </c>
-      <c r="J6" s="345" t="s">
-        <v>358</v>
-      </c>
-      <c r="K6" s="349">
+      <c r="J6" s="342" t="s">
+        <v>357</v>
+      </c>
+      <c r="K6" s="346">
         <v>43838</v>
       </c>
-      <c r="L6" s="351" t="s">
-        <v>356</v>
-      </c>
-      <c r="M6" s="352"/>
-      <c r="N6" s="353"/>
-      <c r="O6" s="345"/>
-      <c r="P6" s="354" t="s">
+      <c r="L6" s="348" t="s">
+        <v>355</v>
+      </c>
+      <c r="M6" s="349"/>
+      <c r="N6" s="350"/>
+      <c r="O6" s="342"/>
+      <c r="P6" s="351" t="s">
         <v>252</v>
       </c>
-      <c r="Q6" s="355" t="s">
+      <c r="Q6" s="352" t="s">
         <v>146</v>
       </c>
       <c r="R6" s="112" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="112" customFormat="1" ht="73.5" customHeight="1">
+    <row r="7" spans="1:20" s="112" customFormat="1" ht="73.5" hidden="1" customHeight="1">
       <c r="A7" s="119">
         <v>4</v>
       </c>
@@ -13903,17 +14132,22 @@
       <c r="M7" s="144"/>
       <c r="N7" s="145"/>
       <c r="O7" s="137"/>
-      <c r="P7" s="146" t="s">
-        <v>362</v>
-      </c>
+      <c r="P7" s="146"/>
       <c r="Q7" s="148" t="s">
         <v>145</v>
       </c>
       <c r="R7" s="112" t="s">
         <v>322</v>
       </c>
+      <c r="S7" s="374">
+        <v>2</v>
+      </c>
+      <c r="T7" s="374">
+        <f>S7*1.5</f>
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" s="112" customFormat="1" ht="58.5" customHeight="1">
+    <row r="8" spans="1:20" s="112" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A8" s="119">
         <v>5</v>
       </c>
@@ -13952,7 +14186,7 @@
       <c r="P8" s="218"/>
       <c r="Q8" s="219"/>
     </row>
-    <row r="9" spans="1:18" s="112" customFormat="1" ht="78.75" customHeight="1">
+    <row r="9" spans="1:20" s="112" customFormat="1" ht="78.75" hidden="1" customHeight="1">
       <c r="A9" s="119">
         <v>6</v>
       </c>
@@ -13991,7 +14225,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="65" customFormat="1" ht="58.5" customHeight="1">
+    <row r="10" spans="1:20" s="65" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A10" s="119">
         <v>7</v>
       </c>
@@ -14028,7 +14262,7 @@
       <c r="P10" s="232"/>
       <c r="Q10" s="219"/>
     </row>
-    <row r="11" spans="1:18" s="65" customFormat="1" ht="58.5" customHeight="1">
+    <row r="11" spans="1:20" s="65" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A11" s="119">
         <v>8</v>
       </c>
@@ -14065,7 +14299,7 @@
       <c r="P11" s="232"/>
       <c r="Q11" s="233"/>
     </row>
-    <row r="12" spans="1:18" s="65" customFormat="1" ht="78.75" customHeight="1">
+    <row r="12" spans="1:20" s="65" customFormat="1" ht="78.75" hidden="1" customHeight="1">
       <c r="A12" s="119">
         <v>9</v>
       </c>
@@ -14107,7 +14341,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="112" customFormat="1" ht="47.25" customHeight="1">
+    <row r="13" spans="1:20" s="112" customFormat="1" ht="47.25" customHeight="1">
       <c r="A13" s="122">
         <v>10</v>
       </c>
@@ -14134,7 +14368,7 @@
         <v>16</v>
       </c>
       <c r="J13" s="122" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K13" s="128">
         <v>43837</v>
@@ -14146,13 +14380,13 @@
       <c r="N13" s="131"/>
       <c r="O13" s="122"/>
       <c r="P13" s="132" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Q13" s="149" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="112" customFormat="1" ht="47.25" customHeight="1">
+    <row r="14" spans="1:20" s="112" customFormat="1" ht="47.25" hidden="1" customHeight="1">
       <c r="A14" s="122">
         <v>11</v>
       </c>
@@ -14177,7 +14411,7 @@
         <v>16</v>
       </c>
       <c r="J14" s="122" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K14" s="128">
         <v>43839</v>
@@ -14189,11 +14423,11 @@
       <c r="N14" s="131"/>
       <c r="O14" s="122"/>
       <c r="P14" s="132" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Q14" s="149"/>
     </row>
-    <row r="15" spans="1:18" s="112" customFormat="1" ht="47.25" customHeight="1">
+    <row r="15" spans="1:20" s="112" customFormat="1" ht="47.25" hidden="1" customHeight="1">
       <c r="A15" s="119">
         <v>12</v>
       </c>
@@ -14234,7 +14468,7 @@
       </c>
       <c r="Q15" s="219"/>
     </row>
-    <row r="16" spans="1:18" s="112" customFormat="1" ht="47.25" customHeight="1">
+    <row r="16" spans="1:20" s="112" customFormat="1" ht="47.25" hidden="1" customHeight="1">
       <c r="A16" s="119">
         <v>13</v>
       </c>
@@ -14275,7 +14509,7 @@
       </c>
       <c r="Q16" s="219"/>
     </row>
-    <row r="17" spans="1:18" s="112" customFormat="1" ht="47.25" customHeight="1">
+    <row r="17" spans="1:20" s="112" customFormat="1" ht="47.25" hidden="1" customHeight="1">
       <c r="A17" s="119">
         <v>14</v>
       </c>
@@ -14314,7 +14548,7 @@
       </c>
       <c r="Q17" s="219"/>
     </row>
-    <row r="18" spans="1:18" s="112" customFormat="1" ht="47.25" customHeight="1">
+    <row r="18" spans="1:20" s="112" customFormat="1" ht="47.25" hidden="1" customHeight="1">
       <c r="A18" s="119">
         <v>15</v>
       </c>
@@ -14353,7 +14587,7 @@
       </c>
       <c r="Q18" s="219"/>
     </row>
-    <row r="19" spans="1:18" s="112" customFormat="1" ht="47.25" customHeight="1">
+    <row r="19" spans="1:20" s="112" customFormat="1" ht="47.25" hidden="1" customHeight="1">
       <c r="A19" s="119">
         <v>16</v>
       </c>
@@ -14392,7 +14626,7 @@
       </c>
       <c r="Q19" s="219"/>
     </row>
-    <row r="20" spans="1:18" s="112" customFormat="1" ht="69" customHeight="1">
+    <row r="20" spans="1:20" s="112" customFormat="1" ht="69" hidden="1" customHeight="1">
       <c r="A20" s="119">
         <v>17</v>
       </c>
@@ -14431,53 +14665,58 @@
       <c r="P20" s="218"/>
       <c r="Q20" s="219"/>
     </row>
-    <row r="21" spans="1:18" s="112" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A21" s="304">
+    <row r="21" spans="1:20" s="112" customFormat="1" ht="47.25" hidden="1" customHeight="1">
+      <c r="A21" s="301">
         <v>18</v>
       </c>
-      <c r="B21" s="305" t="s">
+      <c r="B21" s="302" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="306" t="s">
+      <c r="C21" s="303" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="307"/>
-      <c r="E21" s="308" t="s">
+      <c r="D21" s="304"/>
+      <c r="E21" s="305" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="308" t="s">
+      <c r="F21" s="305" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="309">
+      <c r="G21" s="306">
         <v>43803</v>
       </c>
-      <c r="H21" s="310" t="s">
+      <c r="H21" s="307" t="s">
         <v>107</v>
       </c>
-      <c r="I21" s="304" t="s">
+      <c r="I21" s="301" t="s">
         <v>101</v>
       </c>
-      <c r="J21" s="304" t="s">
+      <c r="J21" s="301" t="s">
         <v>282</v>
       </c>
-      <c r="K21" s="309"/>
-      <c r="L21" s="311" t="s">
+      <c r="K21" s="306"/>
+      <c r="L21" s="308" t="s">
         <v>233</v>
       </c>
-      <c r="M21" s="312"/>
-      <c r="N21" s="313"/>
-      <c r="O21" s="304"/>
-      <c r="P21" s="314" t="s">
-        <v>363</v>
-      </c>
-      <c r="Q21" s="315" t="s">
+      <c r="M21" s="309"/>
+      <c r="N21" s="310"/>
+      <c r="O21" s="301"/>
+      <c r="P21" s="311"/>
+      <c r="Q21" s="312" t="s">
         <v>144</v>
       </c>
       <c r="R21" s="112" t="s">
         <v>322</v>
       </c>
+      <c r="S21" s="374">
+        <v>1</v>
+      </c>
+      <c r="T21" s="374">
+        <f>S21*1.5</f>
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="22" spans="1:18" s="112" customFormat="1" ht="47.25" customHeight="1">
+    <row r="22" spans="1:20" s="112" customFormat="1" ht="47.25" hidden="1" customHeight="1">
       <c r="A22" s="119">
         <v>19</v>
       </c>
@@ -14514,7 +14753,7 @@
       <c r="P22" s="218"/>
       <c r="Q22" s="219"/>
     </row>
-    <row r="23" spans="1:18" s="112" customFormat="1" ht="84" customHeight="1">
+    <row r="23" spans="1:20" s="112" customFormat="1" ht="84" hidden="1" customHeight="1">
       <c r="A23" s="119">
         <v>20</v>
       </c>
@@ -14557,97 +14796,107 @@
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="112" customFormat="1" ht="54" customHeight="1">
-      <c r="A24" s="316">
+    <row r="24" spans="1:20" s="112" customFormat="1" ht="54" hidden="1" customHeight="1">
+      <c r="A24" s="313">
         <v>21</v>
       </c>
-      <c r="B24" s="305" t="s">
+      <c r="B24" s="302" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="306" t="s">
-        <v>401</v>
-      </c>
-      <c r="D24" s="307"/>
-      <c r="E24" s="308" t="s">
+      <c r="C24" s="303" t="s">
+        <v>390</v>
+      </c>
+      <c r="D24" s="304"/>
+      <c r="E24" s="305" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="308" t="s">
+      <c r="F24" s="305" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="309">
+      <c r="G24" s="306">
         <v>43804</v>
       </c>
-      <c r="H24" s="310" t="s">
+      <c r="H24" s="307" t="s">
         <v>285</v>
       </c>
-      <c r="I24" s="304" t="s">
+      <c r="I24" s="301" t="s">
         <v>16</v>
       </c>
-      <c r="J24" s="304" t="s">
+      <c r="J24" s="301" t="s">
         <v>282</v>
       </c>
-      <c r="K24" s="309"/>
-      <c r="L24" s="311" t="s">
+      <c r="K24" s="306"/>
+      <c r="L24" s="308" t="s">
         <v>233</v>
       </c>
-      <c r="M24" s="312"/>
-      <c r="N24" s="313"/>
-      <c r="O24" s="304"/>
-      <c r="P24" s="314" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q24" s="317" t="s">
+      <c r="M24" s="309"/>
+      <c r="N24" s="310"/>
+      <c r="O24" s="301"/>
+      <c r="P24" s="311"/>
+      <c r="Q24" s="314" t="s">
         <v>144</v>
       </c>
       <c r="R24" s="112" t="s">
         <v>322</v>
       </c>
+      <c r="S24" s="374">
+        <v>0.5</v>
+      </c>
+      <c r="T24" s="374">
+        <f>S24*1.5</f>
+        <v>0.75</v>
+      </c>
     </row>
-    <row r="25" spans="1:18" s="112" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A25" s="316">
+    <row r="25" spans="1:20" s="112" customFormat="1" ht="47.25" hidden="1" customHeight="1">
+      <c r="A25" s="313">
         <v>22</v>
       </c>
-      <c r="B25" s="305" t="s">
+      <c r="B25" s="302" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="306" t="s">
+      <c r="C25" s="303" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="307"/>
-      <c r="E25" s="308" t="s">
+      <c r="D25" s="304"/>
+      <c r="E25" s="305" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="308" t="s">
+      <c r="F25" s="305" t="s">
         <v>23</v>
       </c>
-      <c r="G25" s="309">
+      <c r="G25" s="306">
         <v>43804</v>
       </c>
-      <c r="H25" s="310"/>
-      <c r="I25" s="304" t="s">
+      <c r="H25" s="307"/>
+      <c r="I25" s="301" t="s">
         <v>16</v>
       </c>
-      <c r="J25" s="304" t="s">
+      <c r="J25" s="301" t="s">
         <v>282</v>
       </c>
-      <c r="K25" s="309"/>
-      <c r="L25" s="311" t="s">
+      <c r="K25" s="306"/>
+      <c r="L25" s="308" t="s">
         <v>233</v>
       </c>
-      <c r="M25" s="312"/>
-      <c r="N25" s="313"/>
-      <c r="O25" s="304"/>
-      <c r="P25" s="314" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q25" s="317" t="s">
+      <c r="M25" s="309"/>
+      <c r="N25" s="310"/>
+      <c r="O25" s="301"/>
+      <c r="P25" s="311"/>
+      <c r="Q25" s="314" t="s">
         <v>144</v>
       </c>
       <c r="R25" s="112" t="s">
         <v>322</v>
       </c>
+      <c r="S25" s="374">
+        <v>2</v>
+      </c>
+      <c r="T25" s="374">
+        <f>S25*1.5</f>
+        <v>3</v>
+      </c>
     </row>
-    <row r="26" spans="1:18" s="112" customFormat="1" ht="63" customHeight="1">
+    <row r="26" spans="1:20" s="112" customFormat="1" ht="63" hidden="1" customHeight="1">
       <c r="A26" s="119">
         <v>23</v>
       </c>
@@ -14686,7 +14935,7 @@
       <c r="P26" s="218"/>
       <c r="Q26" s="219"/>
     </row>
-    <row r="27" spans="1:18" s="112" customFormat="1" ht="84.75" customHeight="1">
+    <row r="27" spans="1:20" s="112" customFormat="1" ht="84.75" hidden="1" customHeight="1">
       <c r="A27" s="119">
         <v>24</v>
       </c>
@@ -14725,7 +14974,7 @@
       <c r="P27" s="218"/>
       <c r="Q27" s="219"/>
     </row>
-    <row r="28" spans="1:18" s="112" customFormat="1" ht="47.25" customHeight="1">
+    <row r="28" spans="1:20" s="112" customFormat="1" ht="47.25" hidden="1" customHeight="1">
       <c r="A28" s="119">
         <v>25</v>
       </c>
@@ -14762,7 +15011,7 @@
       <c r="P28" s="218"/>
       <c r="Q28" s="219"/>
     </row>
-    <row r="29" spans="1:18" s="112" customFormat="1" ht="67.5" customHeight="1">
+    <row r="29" spans="1:20" s="112" customFormat="1" ht="67.5" hidden="1" customHeight="1">
       <c r="A29" s="119">
         <v>26</v>
       </c>
@@ -14801,7 +15050,7 @@
       <c r="P29" s="218"/>
       <c r="Q29" s="219"/>
     </row>
-    <row r="30" spans="1:18" s="112" customFormat="1" ht="71.25" customHeight="1">
+    <row r="30" spans="1:20" s="112" customFormat="1" ht="71.25" hidden="1" customHeight="1">
       <c r="A30" s="119">
         <v>27</v>
       </c>
@@ -14840,7 +15089,7 @@
       <c r="P30" s="218"/>
       <c r="Q30" s="219"/>
     </row>
-    <row r="31" spans="1:18" s="112" customFormat="1" ht="47.25" customHeight="1">
+    <row r="31" spans="1:20" s="112" customFormat="1" ht="47.25" hidden="1" customHeight="1">
       <c r="A31" s="119">
         <v>28</v>
       </c>
@@ -14881,7 +15130,7 @@
       </c>
       <c r="Q31" s="239"/>
     </row>
-    <row r="32" spans="1:18" s="112" customFormat="1" ht="47.25" customHeight="1">
+    <row r="32" spans="1:20" s="112" customFormat="1" ht="47.25" customHeight="1">
       <c r="A32" s="122">
         <v>29</v>
       </c>
@@ -14908,7 +15157,7 @@
         <v>16</v>
       </c>
       <c r="J32" s="122" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K32" s="128">
         <v>43837</v>
@@ -14929,7 +15178,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="33" spans="1:17" s="112" customFormat="1" ht="47.25" customHeight="1">
+    <row r="33" spans="1:17" s="112" customFormat="1" ht="47.25" hidden="1" customHeight="1">
       <c r="A33" s="119">
         <v>30</v>
       </c>
@@ -14970,7 +15219,7 @@
       </c>
       <c r="Q33" s="219"/>
     </row>
-    <row r="34" spans="1:17" s="112" customFormat="1" ht="61.2" customHeight="1">
+    <row r="34" spans="1:17" s="112" customFormat="1" ht="61.2" hidden="1" customHeight="1">
       <c r="A34" s="119">
         <v>31</v>
       </c>
@@ -15011,7 +15260,7 @@
       </c>
       <c r="Q34" s="219"/>
     </row>
-    <row r="35" spans="1:17" s="65" customFormat="1" ht="78.75" customHeight="1">
+    <row r="35" spans="1:17" s="65" customFormat="1" ht="78.75" hidden="1" customHeight="1">
       <c r="A35" s="119">
         <v>32</v>
       </c>
@@ -15073,7 +15322,7 @@
         <v>16</v>
       </c>
       <c r="J36" s="122" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K36" s="165">
         <v>43837</v>
@@ -15085,11 +15334,11 @@
       <c r="N36" s="166"/>
       <c r="O36" s="167"/>
       <c r="P36" s="168" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Q36" s="169"/>
     </row>
-    <row r="37" spans="1:17" s="65" customFormat="1" ht="47.25" customHeight="1">
+    <row r="37" spans="1:17" s="65" customFormat="1" ht="47.25" hidden="1" customHeight="1">
       <c r="A37" s="119">
         <v>34</v>
       </c>
@@ -15128,7 +15377,7 @@
       </c>
       <c r="Q37" s="242"/>
     </row>
-    <row r="38" spans="1:17" s="65" customFormat="1" ht="62.25" customHeight="1">
+    <row r="38" spans="1:17" s="65" customFormat="1" ht="62.25" hidden="1" customHeight="1">
       <c r="A38" s="119">
         <v>35</v>
       </c>
@@ -15165,7 +15414,7 @@
       <c r="P38" s="232"/>
       <c r="Q38" s="242"/>
     </row>
-    <row r="39" spans="1:17" s="65" customFormat="1" ht="47.25" customHeight="1">
+    <row r="39" spans="1:17" s="65" customFormat="1" ht="47.25" hidden="1" customHeight="1">
       <c r="A39" s="119">
         <v>36</v>
       </c>
@@ -15202,7 +15451,7 @@
       <c r="P39" s="232"/>
       <c r="Q39" s="242"/>
     </row>
-    <row r="40" spans="1:17" s="112" customFormat="1" ht="47.25" customHeight="1">
+    <row r="40" spans="1:17" s="112" customFormat="1" ht="47.25" hidden="1" customHeight="1">
       <c r="A40" s="119">
         <v>37</v>
       </c>
@@ -15239,7 +15488,7 @@
       <c r="P40" s="218"/>
       <c r="Q40" s="219"/>
     </row>
-    <row r="41" spans="1:17" s="112" customFormat="1" ht="47.25" customHeight="1">
+    <row r="41" spans="1:17" s="112" customFormat="1" ht="47.25" hidden="1" customHeight="1">
       <c r="A41" s="119">
         <v>38</v>
       </c>
@@ -15276,7 +15525,7 @@
       <c r="P41" s="218"/>
       <c r="Q41" s="219"/>
     </row>
-    <row r="42" spans="1:17" s="112" customFormat="1" ht="47.25" customHeight="1">
+    <row r="42" spans="1:17" s="112" customFormat="1" ht="47.25" hidden="1" customHeight="1">
       <c r="A42" s="119">
         <v>39</v>
       </c>
@@ -15313,7 +15562,7 @@
       <c r="P42" s="218"/>
       <c r="Q42" s="219"/>
     </row>
-    <row r="43" spans="1:17" s="112" customFormat="1" ht="47.25" customHeight="1">
+    <row r="43" spans="1:17" s="112" customFormat="1" ht="47.25" hidden="1" customHeight="1">
       <c r="A43" s="119">
         <v>40</v>
       </c>
@@ -15352,7 +15601,7 @@
       <c r="P43" s="218"/>
       <c r="Q43" s="219"/>
     </row>
-    <row r="44" spans="1:17" s="112" customFormat="1" ht="47.25" customHeight="1">
+    <row r="44" spans="1:17" s="112" customFormat="1" ht="47.25" hidden="1" customHeight="1">
       <c r="A44" s="119">
         <v>41</v>
       </c>
@@ -15391,7 +15640,7 @@
       <c r="P44" s="246"/>
       <c r="Q44" s="239"/>
     </row>
-    <row r="45" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="45" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A45" s="119">
         <v>42</v>
       </c>
@@ -15426,7 +15675,7 @@
       <c r="P45" s="232"/>
       <c r="Q45" s="233"/>
     </row>
-    <row r="46" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="46" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A46" s="119">
         <v>43</v>
       </c>
@@ -15463,7 +15712,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="47" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="47" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A47" s="119">
         <v>44</v>
       </c>
@@ -15500,7 +15749,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="48" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="48" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A48" s="119">
         <v>45</v>
       </c>
@@ -15537,7 +15786,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="49" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="49" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A49" s="119">
         <v>46</v>
       </c>
@@ -15574,7 +15823,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="50" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="50" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A50" s="119">
         <v>47</v>
       </c>
@@ -15615,7 +15864,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="51" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="51" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A51" s="119">
         <v>48</v>
       </c>
@@ -15656,7 +15905,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="52" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="52" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A52" s="119">
         <v>49</v>
       </c>
@@ -15693,7 +15942,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="53" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="53" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A53" s="119">
         <v>50</v>
       </c>
@@ -15734,7 +15983,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="54" spans="1:17" s="17" customFormat="1" ht="75.599999999999994" customHeight="1">
+    <row r="54" spans="1:17" s="17" customFormat="1" ht="75.599999999999994" hidden="1" customHeight="1">
       <c r="A54" s="119">
         <v>51</v>
       </c>
@@ -15773,7 +16022,7 @@
       </c>
       <c r="Q54" s="233"/>
     </row>
-    <row r="55" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="55" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A55" s="119">
         <v>52</v>
       </c>
@@ -15814,7 +16063,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="56" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="56" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A56" s="119">
         <v>53</v>
       </c>
@@ -15853,7 +16102,7 @@
       <c r="P56" s="232"/>
       <c r="Q56" s="233"/>
     </row>
-    <row r="57" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="57" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A57" s="119">
         <v>54</v>
       </c>
@@ -15890,7 +16139,7 @@
       <c r="P57" s="232"/>
       <c r="Q57" s="233"/>
     </row>
-    <row r="58" spans="1:17" s="17" customFormat="1" ht="57.6">
+    <row r="58" spans="1:17" s="17" customFormat="1" ht="57.6" hidden="1">
       <c r="A58" s="119">
         <v>55</v>
       </c>
@@ -15950,7 +16199,7 @@
       <c r="H59" s="164"/>
       <c r="I59" s="167"/>
       <c r="J59" s="197" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K59" s="165">
         <v>43837</v>
@@ -15962,11 +16211,11 @@
       <c r="N59" s="166"/>
       <c r="O59" s="167"/>
       <c r="P59" s="168" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Q59" s="173"/>
     </row>
-    <row r="60" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="60" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A60" s="119">
         <v>57</v>
       </c>
@@ -16003,7 +16252,7 @@
       <c r="P60" s="232"/>
       <c r="Q60" s="233"/>
     </row>
-    <row r="61" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="61" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A61" s="119">
         <v>58</v>
       </c>
@@ -16038,7 +16287,7 @@
       <c r="P61" s="232"/>
       <c r="Q61" s="233"/>
     </row>
-    <row r="62" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="62" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A62" s="119">
         <v>59</v>
       </c>
@@ -16096,7 +16345,7 @@
       <c r="H63" s="174"/>
       <c r="I63" s="158"/>
       <c r="J63" s="133" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K63" s="155">
         <v>43468</v>
@@ -16112,7 +16361,7 @@
       </c>
       <c r="Q63" s="175"/>
     </row>
-    <row r="64" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="64" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A64" s="119">
         <v>61</v>
       </c>
@@ -16149,7 +16398,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="65" spans="1:18" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="65" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A65" s="119">
         <v>62</v>
       </c>
@@ -16184,7 +16433,7 @@
       <c r="P65" s="232"/>
       <c r="Q65" s="233"/>
     </row>
-    <row r="66" spans="1:18" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="66" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A66" s="119">
         <v>63</v>
       </c>
@@ -16219,7 +16468,7 @@
       <c r="P66" s="232"/>
       <c r="Q66" s="233"/>
     </row>
-    <row r="67" spans="1:18" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="67" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A67" s="119">
         <v>64</v>
       </c>
@@ -16254,49 +16503,49 @@
       <c r="P67" s="232"/>
       <c r="Q67" s="233"/>
     </row>
-    <row r="68" spans="1:18" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A68" s="318">
+    <row r="68" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+      <c r="A68" s="315">
         <v>65</v>
       </c>
-      <c r="B68" s="319" t="s">
+      <c r="B68" s="316" t="s">
         <v>203</v>
       </c>
-      <c r="C68" s="320" t="s">
+      <c r="C68" s="317" t="s">
         <v>289</v>
       </c>
-      <c r="D68" s="321"/>
-      <c r="E68" s="322" t="s">
+      <c r="D68" s="318"/>
+      <c r="E68" s="319" t="s">
         <v>269</v>
       </c>
-      <c r="F68" s="322" t="s">
+      <c r="F68" s="319" t="s">
         <v>269</v>
       </c>
-      <c r="G68" s="323">
+      <c r="G68" s="320">
         <v>43817</v>
       </c>
-      <c r="H68" s="324"/>
-      <c r="I68" s="325" t="s">
+      <c r="H68" s="321"/>
+      <c r="I68" s="322" t="s">
         <v>16</v>
       </c>
-      <c r="J68" s="318" t="s">
+      <c r="J68" s="315" t="s">
         <v>282</v>
       </c>
-      <c r="K68" s="326"/>
-      <c r="L68" s="327" t="s">
+      <c r="K68" s="323"/>
+      <c r="L68" s="324" t="s">
         <v>265</v>
       </c>
-      <c r="M68" s="328"/>
-      <c r="N68" s="329"/>
-      <c r="O68" s="325"/>
-      <c r="P68" s="330" t="s">
+      <c r="M68" s="325"/>
+      <c r="N68" s="326"/>
+      <c r="O68" s="322"/>
+      <c r="P68" s="327" t="s">
         <v>259</v>
       </c>
-      <c r="Q68" s="331"/>
+      <c r="Q68" s="328"/>
       <c r="R68" s="112" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="69" spans="1:18" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="69" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A69" s="133">
         <v>66</v>
       </c>
@@ -16331,7 +16580,7 @@
       <c r="N69" s="157"/>
       <c r="O69" s="158"/>
       <c r="P69" s="159" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="Q69" s="175" t="s">
         <v>145</v>
@@ -16340,7 +16589,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="70" spans="1:18" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="70" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A70" s="119">
         <v>67</v>
       </c>
@@ -16377,7 +16626,7 @@
       <c r="P70" s="232"/>
       <c r="Q70" s="233"/>
     </row>
-    <row r="71" spans="1:18" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="71" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A71" s="119">
         <v>68</v>
       </c>
@@ -16412,51 +16661,56 @@
       <c r="P71" s="232"/>
       <c r="Q71" s="233"/>
     </row>
-    <row r="72" spans="1:18" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="72" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A72" s="119">
         <v>69</v>
       </c>
-      <c r="B72" s="176" t="s">
+      <c r="B72" s="223" t="s">
         <v>203</v>
       </c>
-      <c r="C72" s="177" t="s">
+      <c r="C72" s="224" t="s">
         <v>185</v>
       </c>
-      <c r="D72" s="178"/>
-      <c r="E72" s="179" t="s">
+      <c r="D72" s="225"/>
+      <c r="E72" s="226" t="s">
         <v>269</v>
       </c>
-      <c r="F72" s="179" t="s">
+      <c r="F72" s="226" t="s">
         <v>269</v>
       </c>
-      <c r="G72" s="180">
+      <c r="G72" s="227">
         <v>43817</v>
       </c>
-      <c r="H72" s="181"/>
-      <c r="I72" s="182" t="s">
+      <c r="H72" s="228"/>
+      <c r="I72" s="231" t="s">
         <v>16</v>
       </c>
-      <c r="J72" s="137" t="s">
+      <c r="J72" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K72" s="183"/>
-      <c r="L72" s="184" t="s">
-        <v>367</v>
-      </c>
-      <c r="M72" s="144"/>
-      <c r="N72" s="185"/>
-      <c r="O72" s="182"/>
-      <c r="P72" s="186" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q72" s="187" t="s">
+      <c r="K72" s="229"/>
+      <c r="L72" s="241" t="s">
+        <v>362</v>
+      </c>
+      <c r="M72" s="216"/>
+      <c r="N72" s="230"/>
+      <c r="O72" s="231"/>
+      <c r="P72" s="232"/>
+      <c r="Q72" s="233" t="s">
         <v>189</v>
       </c>
       <c r="R72" s="112" t="s">
         <v>322</v>
       </c>
+      <c r="S72" s="375">
+        <v>0</v>
+      </c>
+      <c r="T72" s="374">
+        <f>S72*1.5</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="73" spans="1:18" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="73" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A73" s="119">
         <v>70</v>
       </c>
@@ -16491,7 +16745,7 @@
       <c r="P73" s="232"/>
       <c r="Q73" s="233"/>
     </row>
-    <row r="74" spans="1:18" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="74" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A74" s="119">
         <v>71</v>
       </c>
@@ -16526,7 +16780,7 @@
       <c r="P74" s="232"/>
       <c r="Q74" s="233"/>
     </row>
-    <row r="75" spans="1:18" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="75" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A75" s="119">
         <v>72</v>
       </c>
@@ -16567,7 +16821,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="76" spans="1:18" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="76" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A76" s="119">
         <v>73</v>
       </c>
@@ -16606,48 +16860,48 @@
         <v>145</v>
       </c>
     </row>
-    <row r="77" spans="1:18" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A77" s="304">
+    <row r="77" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+      <c r="A77" s="301">
         <v>74</v>
       </c>
-      <c r="B77" s="332" t="s">
+      <c r="B77" s="329" t="s">
         <v>205</v>
       </c>
-      <c r="C77" s="333" t="s">
+      <c r="C77" s="330" t="s">
         <v>191</v>
       </c>
-      <c r="D77" s="334"/>
-      <c r="E77" s="335" t="s">
+      <c r="D77" s="331"/>
+      <c r="E77" s="332" t="s">
         <v>269</v>
       </c>
-      <c r="F77" s="335" t="s">
+      <c r="F77" s="332" t="s">
         <v>269</v>
       </c>
-      <c r="G77" s="336">
+      <c r="G77" s="333">
         <v>43817</v>
       </c>
-      <c r="H77" s="337"/>
-      <c r="I77" s="338"/>
-      <c r="J77" s="304" t="s">
+      <c r="H77" s="334"/>
+      <c r="I77" s="335"/>
+      <c r="J77" s="301" t="s">
         <v>282</v>
       </c>
-      <c r="K77" s="339">
+      <c r="K77" s="336">
         <v>43828</v>
       </c>
-      <c r="L77" s="311" t="s">
-        <v>344</v>
-      </c>
-      <c r="M77" s="312"/>
-      <c r="N77" s="340"/>
-      <c r="O77" s="338"/>
-      <c r="P77" s="341" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q77" s="342" t="s">
+      <c r="L77" s="308" t="s">
+        <v>343</v>
+      </c>
+      <c r="M77" s="309"/>
+      <c r="N77" s="337"/>
+      <c r="O77" s="335"/>
+      <c r="P77" s="338" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q77" s="339" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="78" spans="1:18" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="78" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A78" s="119">
         <v>75</v>
       </c>
@@ -16684,7 +16938,7 @@
       <c r="P78" s="232"/>
       <c r="Q78" s="233"/>
     </row>
-    <row r="79" spans="1:18" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="79" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A79" s="133">
         <v>76</v>
       </c>
@@ -16726,7 +16980,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="80" spans="1:18" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="80" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A80" s="133">
         <v>77</v>
       </c>
@@ -16763,7 +17017,7 @@
       </c>
       <c r="Q80" s="175"/>
     </row>
-    <row r="81" spans="1:18" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="81" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A81" s="119">
         <v>78</v>
       </c>
@@ -16798,7 +17052,7 @@
       <c r="P81" s="232"/>
       <c r="Q81" s="233"/>
     </row>
-    <row r="82" spans="1:18" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="82" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A82" s="133">
         <v>79</v>
       </c>
@@ -16818,7 +17072,7 @@
       <c r="G82" s="154">
         <v>43817</v>
       </c>
-      <c r="H82" s="302" t="s">
+      <c r="H82" s="299" t="s">
         <v>308</v>
       </c>
       <c r="I82" s="158" t="s">
@@ -16829,14 +17083,12 @@
       </c>
       <c r="K82" s="155"/>
       <c r="L82" s="156" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="M82" s="136"/>
       <c r="N82" s="157"/>
       <c r="O82" s="158"/>
-      <c r="P82" s="159" t="s">
-        <v>372</v>
-      </c>
+      <c r="P82" s="159"/>
       <c r="Q82" s="175" t="s">
         <v>146</v>
       </c>
@@ -16844,7 +17096,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="83" spans="1:18" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="83" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A83" s="119">
         <v>80</v>
       </c>
@@ -16878,15 +17130,20 @@
       <c r="M83" s="144"/>
       <c r="N83" s="185"/>
       <c r="O83" s="182"/>
-      <c r="P83" s="186" t="s">
-        <v>369</v>
-      </c>
+      <c r="P83" s="186"/>
       <c r="Q83" s="187"/>
       <c r="R83" s="112" t="s">
         <v>322</v>
       </c>
+      <c r="S83" s="375">
+        <v>0.5</v>
+      </c>
+      <c r="T83" s="374">
+        <f>S83*1.5</f>
+        <v>0.75</v>
+      </c>
     </row>
-    <row r="84" spans="1:18" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="84" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A84" s="119">
         <v>81</v>
       </c>
@@ -16923,7 +17180,7 @@
       <c r="P84" s="232"/>
       <c r="Q84" s="233"/>
     </row>
-    <row r="85" spans="1:18" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="85" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A85" s="122">
         <v>82</v>
       </c>
@@ -16950,7 +17207,7 @@
         <v>101</v>
       </c>
       <c r="J85" s="122" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K85" s="165">
         <v>43837</v>
@@ -16971,7 +17228,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="86" spans="1:18" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="86" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A86" s="122">
         <v>83</v>
       </c>
@@ -16994,7 +17251,7 @@
       <c r="H86" s="164"/>
       <c r="I86" s="167"/>
       <c r="J86" s="122" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K86" s="128">
         <v>43838</v>
@@ -17006,11 +17263,11 @@
       <c r="N86" s="166"/>
       <c r="O86" s="167"/>
       <c r="P86" s="168" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Q86" s="173"/>
     </row>
-    <row r="87" spans="1:18" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="87" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A87" s="119">
         <v>84</v>
       </c>
@@ -17045,7 +17302,7 @@
       <c r="P87" s="232"/>
       <c r="Q87" s="233"/>
     </row>
-    <row r="88" spans="1:18" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="88" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A88" s="119">
         <v>85</v>
       </c>
@@ -17068,25 +17325,25 @@
       <c r="H88" s="228"/>
       <c r="I88" s="231"/>
       <c r="J88" s="119" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K88" s="229">
         <v>43836</v>
       </c>
       <c r="L88" s="241" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="M88" s="216"/>
       <c r="N88" s="230"/>
       <c r="O88" s="231"/>
       <c r="P88" s="232" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q88" s="233" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="89" spans="1:18" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="89" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A89" s="119">
         <v>86</v>
       </c>
@@ -17123,7 +17380,7 @@
       <c r="P89" s="232"/>
       <c r="Q89" s="233"/>
     </row>
-    <row r="90" spans="1:18" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="90" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A90" s="119">
         <v>87</v>
       </c>
@@ -17158,7 +17415,7 @@
       <c r="P90" s="232"/>
       <c r="Q90" s="233"/>
     </row>
-    <row r="91" spans="1:18" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="91" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A91" s="122">
         <v>88</v>
       </c>
@@ -17181,7 +17438,7 @@
       <c r="H91" s="164"/>
       <c r="I91" s="167"/>
       <c r="J91" s="122" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K91" s="165">
         <v>43837</v>
@@ -17193,11 +17450,11 @@
       <c r="N91" s="166"/>
       <c r="O91" s="167"/>
       <c r="P91" s="168" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Q91" s="173"/>
     </row>
-    <row r="92" spans="1:18" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="92" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A92" s="133">
         <v>89</v>
       </c>
@@ -17234,7 +17491,7 @@
       </c>
       <c r="Q92" s="175"/>
     </row>
-    <row r="93" spans="1:18" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="93" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A93" s="133">
         <v>90</v>
       </c>
@@ -17263,13 +17520,13 @@
       </c>
       <c r="K93" s="155"/>
       <c r="L93" s="156" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="M93" s="136"/>
       <c r="N93" s="157"/>
       <c r="O93" s="158"/>
       <c r="P93" s="159" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="Q93" s="175" t="s">
         <v>145</v>
@@ -17278,49 +17535,49 @@
         <v>322</v>
       </c>
     </row>
-    <row r="94" spans="1:18" s="17" customFormat="1" ht="57.6">
-      <c r="A94" s="318">
+    <row r="94" spans="1:20" s="17" customFormat="1" ht="57.6" hidden="1">
+      <c r="A94" s="315">
         <v>91</v>
       </c>
-      <c r="B94" s="343" t="s">
+      <c r="B94" s="340" t="s">
         <v>226</v>
       </c>
-      <c r="C94" s="344" t="s">
+      <c r="C94" s="341" t="s">
         <v>213</v>
       </c>
-      <c r="D94" s="321"/>
-      <c r="E94" s="322" t="s">
+      <c r="D94" s="318"/>
+      <c r="E94" s="319" t="s">
         <v>269</v>
       </c>
-      <c r="F94" s="322" t="s">
+      <c r="F94" s="319" t="s">
         <v>269</v>
       </c>
-      <c r="G94" s="323">
+      <c r="G94" s="320">
         <v>43817</v>
       </c>
-      <c r="H94" s="324"/>
-      <c r="I94" s="325" t="s">
+      <c r="H94" s="321"/>
+      <c r="I94" s="322" t="s">
         <v>101</v>
       </c>
-      <c r="J94" s="318" t="s">
+      <c r="J94" s="315" t="s">
         <v>282</v>
       </c>
-      <c r="K94" s="326"/>
-      <c r="L94" s="327" t="s">
+      <c r="K94" s="323"/>
+      <c r="L94" s="324" t="s">
         <v>265</v>
       </c>
-      <c r="M94" s="328"/>
-      <c r="N94" s="329"/>
-      <c r="O94" s="325"/>
-      <c r="P94" s="330" t="s">
+      <c r="M94" s="325"/>
+      <c r="N94" s="326"/>
+      <c r="O94" s="322"/>
+      <c r="P94" s="327" t="s">
         <v>257</v>
       </c>
-      <c r="Q94" s="331"/>
+      <c r="Q94" s="328"/>
       <c r="R94" s="112" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="95" spans="1:18" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="95" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A95" s="119">
         <v>92</v>
       </c>
@@ -17355,7 +17612,7 @@
       <c r="N95" s="185"/>
       <c r="O95" s="182"/>
       <c r="P95" s="186" t="s">
-        <v>371</v>
+        <v>407</v>
       </c>
       <c r="Q95" s="187" t="s">
         <v>145</v>
@@ -17363,8 +17620,15 @@
       <c r="R95" s="112" t="s">
         <v>322</v>
       </c>
+      <c r="S95" s="375">
+        <v>40</v>
+      </c>
+      <c r="T95" s="374">
+        <f>S95*1.5</f>
+        <v>60</v>
+      </c>
     </row>
-    <row r="96" spans="1:18" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="96" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A96" s="119">
         <v>93</v>
       </c>
@@ -17399,7 +17663,7 @@
       <c r="P96" s="232"/>
       <c r="Q96" s="233"/>
     </row>
-    <row r="97" spans="1:18" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="97" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A97" s="119">
         <v>94</v>
       </c>
@@ -17424,26 +17688,26 @@
         <v>293</v>
       </c>
       <c r="J97" s="119" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K97" s="229">
         <v>43836</v>
       </c>
       <c r="L97" s="241" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="M97" s="216"/>
       <c r="N97" s="230"/>
       <c r="O97" s="231"/>
       <c r="P97" s="232" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="Q97" s="233"/>
       <c r="R97" s="112" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="98" spans="1:18" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="98" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A98" s="119">
         <v>95</v>
       </c>
@@ -17468,26 +17732,26 @@
         <v>293</v>
       </c>
       <c r="J98" s="119" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K98" s="229">
         <v>43836</v>
       </c>
       <c r="L98" s="241" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="M98" s="216"/>
       <c r="N98" s="230"/>
       <c r="O98" s="231"/>
       <c r="P98" s="232" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="Q98" s="233"/>
       <c r="R98" s="112" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="99" spans="1:18" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="99" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A99" s="122">
         <v>96</v>
       </c>
@@ -17512,7 +17776,7 @@
         <v>293</v>
       </c>
       <c r="J99" s="122" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K99" s="165">
         <v>43837</v>
@@ -17533,7 +17797,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="100" spans="1:18" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="100" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A100" s="119">
         <v>97</v>
       </c>
@@ -17567,17 +17831,22 @@
       <c r="M100" s="144"/>
       <c r="N100" s="185"/>
       <c r="O100" s="182"/>
-      <c r="P100" s="186" t="s">
-        <v>370</v>
-      </c>
+      <c r="P100" s="186"/>
       <c r="Q100" s="187" t="s">
         <v>146</v>
       </c>
       <c r="R100" s="112" t="s">
         <v>322</v>
       </c>
+      <c r="S100" s="375">
+        <v>1</v>
+      </c>
+      <c r="T100" s="374">
+        <f>S100*1.5</f>
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="101" spans="1:18" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="101" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A101" s="119">
         <v>98</v>
       </c>
@@ -17612,7 +17881,7 @@
       <c r="P101" s="232"/>
       <c r="Q101" s="233"/>
     </row>
-    <row r="102" spans="1:18" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="102" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A102" s="119">
         <v>99</v>
       </c>
@@ -17647,7 +17916,7 @@
       <c r="P102" s="232"/>
       <c r="Q102" s="233"/>
     </row>
-    <row r="103" spans="1:18" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="103" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A103" s="119">
         <v>100</v>
       </c>
@@ -17686,7 +17955,7 @@
       </c>
       <c r="Q103" s="233"/>
     </row>
-    <row r="104" spans="1:18" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="104" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A104" s="119">
         <v>101</v>
       </c>
@@ -17721,7 +17990,7 @@
       <c r="P104" s="232"/>
       <c r="Q104" s="233"/>
     </row>
-    <row r="105" spans="1:18" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="105" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A105" s="119">
         <v>102</v>
       </c>
@@ -17762,7 +18031,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="106" spans="1:18" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="106" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A106" s="119">
         <v>103</v>
       </c>
@@ -17799,7 +18068,7 @@
       <c r="P106" s="232"/>
       <c r="Q106" s="233"/>
     </row>
-    <row r="107" spans="1:18" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="107" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A107" s="119">
         <v>104</v>
       </c>
@@ -17836,7 +18105,7 @@
       <c r="P107" s="232"/>
       <c r="Q107" s="233"/>
     </row>
-    <row r="108" spans="1:18" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="108" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A108" s="119">
         <v>105</v>
       </c>
@@ -17873,7 +18142,7 @@
       <c r="P108" s="232"/>
       <c r="Q108" s="233"/>
     </row>
-    <row r="109" spans="1:18" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="109" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A109" s="119">
         <v>106</v>
       </c>
@@ -17907,17 +18176,22 @@
       <c r="M109" s="144"/>
       <c r="N109" s="185"/>
       <c r="O109" s="182"/>
-      <c r="P109" s="186" t="s">
-        <v>372</v>
-      </c>
+      <c r="P109" s="186"/>
       <c r="Q109" s="187" t="s">
         <v>248</v>
       </c>
       <c r="R109" s="112" t="s">
         <v>322</v>
       </c>
+      <c r="S109" s="375">
+        <v>1</v>
+      </c>
+      <c r="T109" s="374">
+        <f>S109*1.5</f>
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="110" spans="1:18" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="110" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A110" s="119">
         <v>107</v>
       </c>
@@ -17954,7 +18228,7 @@
       <c r="P110" s="232"/>
       <c r="Q110" s="233"/>
     </row>
-    <row r="111" spans="1:18" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="111" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A111" s="119">
         <v>108</v>
       </c>
@@ -17991,7 +18265,7 @@
       <c r="P111" s="232"/>
       <c r="Q111" s="233"/>
     </row>
-    <row r="112" spans="1:18" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="112" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A112" s="119">
         <v>109</v>
       </c>
@@ -18014,13 +18288,13 @@
       <c r="H112" s="228"/>
       <c r="I112" s="231"/>
       <c r="J112" s="119" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K112" s="229">
         <v>43828</v>
       </c>
       <c r="L112" s="241" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="M112" s="216"/>
       <c r="N112" s="230"/>
@@ -18030,7 +18304,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="113" spans="1:18" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="113" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A113" s="133">
         <v>110</v>
       </c>
@@ -18069,7 +18343,7 @@
       </c>
       <c r="Q113" s="175"/>
     </row>
-    <row r="114" spans="1:18" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="114" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A114" s="133">
         <v>111</v>
       </c>
@@ -18089,7 +18363,7 @@
       <c r="G114" s="154">
         <v>43822</v>
       </c>
-      <c r="H114" s="302" t="s">
+      <c r="H114" s="299" t="s">
         <v>304</v>
       </c>
       <c r="I114" s="158" t="s">
@@ -18100,20 +18374,20 @@
       </c>
       <c r="K114" s="155"/>
       <c r="L114" s="156" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="M114" s="136"/>
       <c r="N114" s="157"/>
       <c r="O114" s="158"/>
       <c r="P114" s="159" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="Q114" s="175"/>
       <c r="R114" s="112" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="115" spans="1:18" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="115" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A115" s="119">
         <v>112</v>
       </c>
@@ -18150,7 +18424,7 @@
       </c>
       <c r="Q115" s="233"/>
     </row>
-    <row r="116" spans="1:18" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="116" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A116" s="122">
         <v>113</v>
       </c>
@@ -18158,7 +18432,7 @@
         <v>24</v>
       </c>
       <c r="C116" s="161" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="D116" s="162"/>
       <c r="E116" s="171" t="s">
@@ -18171,13 +18445,13 @@
         <v>43822</v>
       </c>
       <c r="H116" s="267" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="I116" s="167" t="s">
         <v>101</v>
       </c>
       <c r="J116" s="268" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K116" s="165">
         <v>43836</v>
@@ -18189,7 +18463,7 @@
       <c r="N116" s="166"/>
       <c r="O116" s="167"/>
       <c r="P116" s="168" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="Q116" s="173" t="s">
         <v>247</v>
@@ -18198,7 +18472,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="117" spans="1:18" ht="105.75" customHeight="1">
+    <row r="117" spans="1:20" ht="105.75" hidden="1" customHeight="1">
       <c r="A117" s="216">
         <v>114</v>
       </c>
@@ -18227,15 +18501,17 @@
       <c r="J117" s="247"/>
       <c r="K117" s="247"/>
       <c r="L117" s="247" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M117" s="247"/>
       <c r="N117" s="247"/>
       <c r="O117" s="247"/>
       <c r="P117" s="232"/>
       <c r="Q117" s="253"/>
+      <c r="S117" s="3"/>
+      <c r="T117" s="3"/>
     </row>
-    <row r="118" spans="1:18" ht="35.4" customHeight="1">
+    <row r="118" spans="1:20" ht="35.4" hidden="1" customHeight="1">
       <c r="A118" s="216">
         <v>115</v>
       </c>
@@ -18260,23 +18536,25 @@
         <v>16</v>
       </c>
       <c r="J118" s="247" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K118" s="229">
         <v>43836</v>
       </c>
       <c r="L118" s="288" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="M118" s="247"/>
       <c r="N118" s="247"/>
       <c r="O118" s="247"/>
       <c r="P118" s="232" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="Q118" s="253"/>
+      <c r="S118" s="3"/>
+      <c r="T118" s="3"/>
     </row>
-    <row r="119" spans="1:18" ht="40.200000000000003" customHeight="1">
+    <row r="119" spans="1:20" ht="40.200000000000003" hidden="1" customHeight="1">
       <c r="A119" s="216">
         <v>116</v>
       </c>
@@ -18303,17 +18581,19 @@
       <c r="J119" s="247"/>
       <c r="K119" s="247"/>
       <c r="L119" s="247" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M119" s="247"/>
       <c r="N119" s="247"/>
       <c r="O119" s="247"/>
       <c r="P119" s="232" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q119" s="253"/>
+      <c r="S119" s="3"/>
+      <c r="T119" s="3"/>
     </row>
-    <row r="120" spans="1:18" ht="39.6" customHeight="1">
+    <row r="120" spans="1:20" ht="39.6" customHeight="1">
       <c r="A120" s="130">
         <v>117</v>
       </c>
@@ -18340,7 +18620,7 @@
         <v>16</v>
       </c>
       <c r="J120" s="196" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K120" s="165">
         <v>43836</v>
@@ -18352,11 +18632,13 @@
       <c r="N120" s="269"/>
       <c r="O120" s="269"/>
       <c r="P120" s="168" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Q120" s="274"/>
+      <c r="S120" s="3"/>
+      <c r="T120" s="3"/>
     </row>
-    <row r="121" spans="1:18" ht="31.2" customHeight="1">
+    <row r="121" spans="1:20" ht="31.2" hidden="1" customHeight="1">
       <c r="A121" s="216">
         <v>118</v>
       </c>
@@ -18383,21 +18665,23 @@
         <v>16</v>
       </c>
       <c r="J121" s="286" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K121" s="229">
         <v>43836</v>
       </c>
       <c r="L121" s="257" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="M121" s="247"/>
       <c r="N121" s="247"/>
       <c r="O121" s="247"/>
       <c r="P121" s="232"/>
       <c r="Q121" s="253"/>
+      <c r="S121" s="3"/>
+      <c r="T121" s="3"/>
     </row>
-    <row r="122" spans="1:18" ht="34.799999999999997" customHeight="1">
+    <row r="122" spans="1:20" ht="34.799999999999997" hidden="1" customHeight="1">
       <c r="A122" s="144">
         <v>119</v>
       </c>
@@ -18433,14 +18717,19 @@
       <c r="M122" s="278"/>
       <c r="N122" s="278"/>
       <c r="O122" s="278"/>
-      <c r="P122" s="186" t="s">
-        <v>373</v>
-      </c>
+      <c r="P122" s="186"/>
       <c r="Q122" s="284" t="s">
         <v>144</v>
       </c>
+      <c r="S122" s="36">
+        <v>5</v>
+      </c>
+      <c r="T122" s="374">
+        <f>S122*1.5</f>
+        <v>7.5</v>
+      </c>
     </row>
-    <row r="123" spans="1:18" ht="64.5" customHeight="1">
+    <row r="123" spans="1:20" ht="64.5" hidden="1" customHeight="1">
       <c r="A123" s="216">
         <v>120</v>
       </c>
@@ -18467,21 +18756,23 @@
         <v>16</v>
       </c>
       <c r="J123" s="286" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K123" s="229">
         <v>43836</v>
       </c>
       <c r="L123" s="257" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="M123" s="247"/>
       <c r="N123" s="247"/>
       <c r="O123" s="247"/>
       <c r="P123" s="232"/>
       <c r="Q123" s="253"/>
+      <c r="S123" s="3"/>
+      <c r="T123" s="3"/>
     </row>
-    <row r="124" spans="1:18" ht="150" customHeight="1">
+    <row r="124" spans="1:20" ht="150" hidden="1" customHeight="1">
       <c r="A124" s="216">
         <v>121</v>
       </c>
@@ -18508,62 +18799,66 @@
         <v>16</v>
       </c>
       <c r="J124" s="286" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K124" s="229">
         <v>43836</v>
       </c>
       <c r="L124" s="257" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="M124" s="247"/>
       <c r="N124" s="247"/>
       <c r="O124" s="247"/>
       <c r="P124" s="232"/>
       <c r="Q124" s="253"/>
+      <c r="S124" s="3"/>
+      <c r="T124" s="3"/>
     </row>
-    <row r="125" spans="1:18" ht="36.6" customHeight="1">
-      <c r="A125" s="328">
+    <row r="125" spans="1:20" ht="36.6" hidden="1" customHeight="1">
+      <c r="A125" s="325">
         <v>122</v>
       </c>
-      <c r="B125" s="356" t="s">
-        <v>402</v>
-      </c>
-      <c r="C125" s="357" t="s">
+      <c r="B125" s="353" t="s">
+        <v>391</v>
+      </c>
+      <c r="C125" s="354" t="s">
         <v>319</v>
       </c>
-      <c r="D125" s="358"/>
-      <c r="E125" s="359" t="s">
+      <c r="D125" s="355"/>
+      <c r="E125" s="356" t="s">
         <v>269</v>
       </c>
-      <c r="F125" s="359" t="s">
+      <c r="F125" s="356" t="s">
         <v>269</v>
       </c>
-      <c r="G125" s="360">
+      <c r="G125" s="357">
         <v>43825</v>
       </c>
-      <c r="H125" s="357" t="s">
+      <c r="H125" s="354" t="s">
         <v>319</v>
       </c>
-      <c r="I125" s="356" t="s">
+      <c r="I125" s="353" t="s">
         <v>16</v>
       </c>
-      <c r="J125" s="356" t="s">
+      <c r="J125" s="353" t="s">
         <v>330</v>
       </c>
-      <c r="K125" s="356"/>
-      <c r="L125" s="361" t="s">
+      <c r="K125" s="353"/>
+      <c r="L125" s="358" t="s">
         <v>333</v>
       </c>
-      <c r="M125" s="356"/>
-      <c r="N125" s="356"/>
-      <c r="O125" s="356"/>
-      <c r="P125" s="330" t="s">
+      <c r="M125" s="353"/>
+      <c r="N125" s="353"/>
+      <c r="O125" s="353"/>
+      <c r="P125" s="327" t="s">
         <v>334</v>
       </c>
-      <c r="Q125" s="362"/>
+      <c r="Q125" s="359"/>
+      <c r="S125" s="3"/>
+      <c r="T125" s="3"/>
     </row>
-    <row r="126" spans="1:18" ht="112.5" customHeight="1">
+    <row r="126" spans="1:20" ht="112.5" hidden="1" customHeight="1">
       <c r="A126" s="216">
         <v>123</v>
       </c>
@@ -18603,45 +18898,47 @@
         <v>336</v>
       </c>
       <c r="Q126" s="253"/>
+      <c r="S126" s="3"/>
+      <c r="T126" s="3"/>
     </row>
-    <row r="127" spans="1:18" ht="45" customHeight="1">
-      <c r="A127" s="144">
+    <row r="127" spans="1:20" ht="45" hidden="1" customHeight="1">
+      <c r="A127" s="216">
         <v>124</v>
       </c>
-      <c r="B127" s="278" t="s">
+      <c r="B127" s="247" t="s">
         <v>309</v>
       </c>
-      <c r="C127" s="279" t="s">
-        <v>374</v>
-      </c>
-      <c r="D127" s="279"/>
-      <c r="E127" s="280" t="s">
+      <c r="C127" s="248" t="s">
+        <v>363</v>
+      </c>
+      <c r="D127" s="248"/>
+      <c r="E127" s="249" t="s">
         <v>281</v>
       </c>
-      <c r="F127" s="280" t="s">
+      <c r="F127" s="249" t="s">
         <v>280</v>
       </c>
-      <c r="G127" s="281">
+      <c r="G127" s="250">
         <v>43825</v>
       </c>
-      <c r="H127" s="282"/>
-      <c r="I127" s="283" t="s">
+      <c r="H127" s="254"/>
+      <c r="I127" s="252" t="s">
         <v>16</v>
       </c>
-      <c r="J127" s="278"/>
-      <c r="K127" s="278"/>
-      <c r="L127" s="278" t="s">
-        <v>333</v>
-      </c>
-      <c r="M127" s="278"/>
-      <c r="N127" s="278"/>
-      <c r="O127" s="278"/>
-      <c r="P127" s="186" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q127" s="284"/>
+      <c r="J127" s="247"/>
+      <c r="K127" s="247"/>
+      <c r="L127" s="247" t="s">
+        <v>408</v>
+      </c>
+      <c r="M127" s="247"/>
+      <c r="N127" s="247"/>
+      <c r="O127" s="247"/>
+      <c r="P127" s="232"/>
+      <c r="Q127" s="253"/>
+      <c r="S127" s="3"/>
+      <c r="T127" s="3"/>
     </row>
-    <row r="128" spans="1:18" ht="42" customHeight="1">
+    <row r="128" spans="1:20" ht="42" hidden="1" customHeight="1">
       <c r="A128" s="144">
         <v>125</v>
       </c>
@@ -18675,14 +18972,19 @@
       <c r="M128" s="278"/>
       <c r="N128" s="278"/>
       <c r="O128" s="278"/>
-      <c r="P128" s="186" t="s">
-        <v>370</v>
-      </c>
+      <c r="P128" s="186"/>
       <c r="Q128" s="284" t="s">
         <v>144</v>
       </c>
+      <c r="S128" s="36">
+        <v>1</v>
+      </c>
+      <c r="T128" s="374">
+        <f>S128*1.5</f>
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="129" spans="1:18" s="191" customFormat="1" ht="26.25" customHeight="1">
+    <row r="129" spans="1:20" s="191" customFormat="1" ht="26.25" hidden="1" customHeight="1">
       <c r="A129" s="216">
         <v>126</v>
       </c>
@@ -18713,17 +19015,17 @@
         <v>43836</v>
       </c>
       <c r="L129" s="257" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="M129" s="296"/>
       <c r="N129" s="296"/>
       <c r="O129" s="296"/>
       <c r="P129" s="297" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="Q129" s="274"/>
     </row>
-    <row r="130" spans="1:18" s="191" customFormat="1" ht="43.2">
+    <row r="130" spans="1:20" s="191" customFormat="1" ht="43.2" hidden="1">
       <c r="A130" s="216">
         <v>127</v>
       </c>
@@ -18756,7 +19058,7 @@
         <v>43836</v>
       </c>
       <c r="L130" s="257" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="M130" s="296"/>
       <c r="N130" s="296"/>
@@ -18764,7 +19066,7 @@
       <c r="P130" s="297"/>
       <c r="Q130" s="253"/>
     </row>
-    <row r="131" spans="1:18" s="191" customFormat="1" ht="26.25" customHeight="1">
+    <row r="131" spans="1:20" s="191" customFormat="1" ht="26.25" customHeight="1">
       <c r="A131" s="136">
         <v>128</v>
       </c>
@@ -18797,11 +19099,11 @@
       <c r="N131" s="204"/>
       <c r="O131" s="207"/>
       <c r="P131" s="208" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Q131" s="285"/>
     </row>
-    <row r="132" spans="1:18" s="191" customFormat="1" ht="26.25" customHeight="1">
+    <row r="132" spans="1:20" s="191" customFormat="1" ht="26.25" hidden="1" customHeight="1">
       <c r="A132" s="216">
         <v>129</v>
       </c>
@@ -18836,297 +19138,327 @@
       <c r="P132" s="266"/>
       <c r="Q132" s="253"/>
     </row>
-    <row r="133" spans="1:18" ht="104.4" customHeight="1">
+    <row r="133" spans="1:20" ht="104.4" hidden="1" customHeight="1">
       <c r="A133" s="269">
         <v>130</v>
       </c>
-      <c r="B133" s="363" t="s">
+      <c r="B133" s="360" t="s">
         <v>306</v>
       </c>
-      <c r="C133" s="364" t="s">
-        <v>387</v>
+      <c r="C133" s="361" t="s">
+        <v>376</v>
       </c>
       <c r="D133" s="270"/>
-      <c r="E133" s="365" t="s">
-        <v>388</v>
+      <c r="E133" s="362" t="s">
+        <v>377</v>
       </c>
       <c r="F133" s="277" t="s">
-        <v>389</v>
-      </c>
-      <c r="G133" s="366">
+        <v>378</v>
+      </c>
+      <c r="G133" s="363">
         <v>43836</v>
       </c>
-      <c r="H133" s="367"/>
-      <c r="I133" s="368" t="s">
+      <c r="H133" s="364"/>
+      <c r="I133" s="365" t="s">
         <v>16</v>
       </c>
-      <c r="J133" s="367" t="s">
-        <v>412</v>
-      </c>
-      <c r="K133" s="366">
+      <c r="J133" s="364" t="s">
+        <v>400</v>
+      </c>
+      <c r="K133" s="363">
         <v>43838</v>
       </c>
       <c r="L133" s="269" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="M133" s="269"/>
       <c r="N133" s="269"/>
       <c r="O133" s="269"/>
       <c r="P133" s="168"/>
       <c r="Q133" s="269"/>
-      <c r="R133" s="303"/>
+      <c r="R133" s="300"/>
+      <c r="S133" s="3"/>
+      <c r="T133" s="3"/>
     </row>
-    <row r="134" spans="1:18" ht="93.6" customHeight="1">
+    <row r="134" spans="1:20" ht="93.6" hidden="1" customHeight="1">
       <c r="A134" s="269">
         <v>131</v>
       </c>
-      <c r="B134" s="363" t="s">
+      <c r="B134" s="360" t="s">
         <v>306</v>
       </c>
-      <c r="C134" s="365" t="s">
-        <v>390</v>
+      <c r="C134" s="362" t="s">
+        <v>379</v>
       </c>
       <c r="D134" s="270"/>
-      <c r="E134" s="365" t="s">
-        <v>391</v>
+      <c r="E134" s="362" t="s">
+        <v>380</v>
       </c>
       <c r="F134" s="277" t="s">
-        <v>392</v>
-      </c>
-      <c r="G134" s="366">
+        <v>381</v>
+      </c>
+      <c r="G134" s="363">
         <v>43836</v>
       </c>
-      <c r="H134" s="367"/>
-      <c r="I134" s="368" t="s">
+      <c r="H134" s="364"/>
+      <c r="I134" s="365" t="s">
         <v>16</v>
       </c>
       <c r="J134" s="269" t="s">
-        <v>404</v>
-      </c>
-      <c r="K134" s="366">
+        <v>393</v>
+      </c>
+      <c r="K134" s="363">
         <v>43844</v>
       </c>
       <c r="L134" s="269" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="M134" s="269"/>
       <c r="N134" s="269"/>
       <c r="O134" s="269"/>
       <c r="P134" s="168" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="Q134" s="269"/>
-      <c r="R134" s="303"/>
+      <c r="R134" s="300"/>
+      <c r="S134" s="3"/>
+      <c r="T134" s="3"/>
     </row>
-    <row r="135" spans="1:18" ht="40.799999999999997" customHeight="1">
-      <c r="A135" s="370">
+    <row r="135" spans="1:20" ht="40.799999999999997" hidden="1" customHeight="1">
+      <c r="A135" s="144">
         <v>132</v>
       </c>
-      <c r="B135" s="371" t="s">
-        <v>393</v>
-      </c>
-      <c r="C135" s="372" t="s">
-        <v>394</v>
-      </c>
-      <c r="D135" s="373"/>
-      <c r="E135" s="371" t="s">
-        <v>388</v>
-      </c>
-      <c r="F135" s="374" t="s">
-        <v>389</v>
-      </c>
-      <c r="G135" s="375">
+      <c r="B135" s="368" t="s">
+        <v>382</v>
+      </c>
+      <c r="C135" s="369" t="s">
+        <v>383</v>
+      </c>
+      <c r="D135" s="279"/>
+      <c r="E135" s="368" t="s">
+        <v>377</v>
+      </c>
+      <c r="F135" s="370" t="s">
+        <v>378</v>
+      </c>
+      <c r="G135" s="371">
         <v>43836</v>
       </c>
-      <c r="H135" s="376"/>
-      <c r="I135" s="377" t="s">
+      <c r="H135" s="282"/>
+      <c r="I135" s="372" t="s">
         <v>16</v>
       </c>
-      <c r="J135" s="378" t="s">
-        <v>409</v>
-      </c>
-      <c r="K135" s="378"/>
-      <c r="L135" s="378" t="s">
-        <v>410</v>
-      </c>
-      <c r="M135" s="378"/>
-      <c r="N135" s="378"/>
-      <c r="O135" s="378"/>
-      <c r="P135" s="379" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q135" s="378" t="s">
-        <v>407</v>
-      </c>
-      <c r="R135" s="303"/>
+      <c r="J135" s="278" t="s">
+        <v>398</v>
+      </c>
+      <c r="K135" s="278"/>
+      <c r="L135" s="278" t="s">
+        <v>333</v>
+      </c>
+      <c r="M135" s="278"/>
+      <c r="N135" s="278"/>
+      <c r="O135" s="278"/>
+      <c r="P135" s="186"/>
+      <c r="Q135" s="278" t="s">
+        <v>396</v>
+      </c>
+      <c r="R135" s="300"/>
+      <c r="S135" s="36">
+        <v>2</v>
+      </c>
+      <c r="T135" s="374">
+        <f>S135*1.5</f>
+        <v>3</v>
+      </c>
     </row>
-    <row r="136" spans="1:18" ht="33" customHeight="1">
+    <row r="136" spans="1:20" ht="33" hidden="1" customHeight="1">
       <c r="A136" s="269">
         <v>133</v>
       </c>
       <c r="B136" s="270" t="s">
-        <v>395</v>
-      </c>
-      <c r="C136" s="365" t="s">
-        <v>408</v>
+        <v>384</v>
+      </c>
+      <c r="C136" s="362" t="s">
+        <v>397</v>
       </c>
       <c r="D136" s="270"/>
-      <c r="E136" s="365" t="s">
-        <v>388</v>
+      <c r="E136" s="362" t="s">
+        <v>377</v>
       </c>
       <c r="F136" s="277" t="s">
-        <v>389</v>
-      </c>
-      <c r="G136" s="366">
+        <v>378</v>
+      </c>
+      <c r="G136" s="363">
         <v>43836</v>
       </c>
-      <c r="H136" s="367"/>
-      <c r="I136" s="368" t="s">
+      <c r="H136" s="364"/>
+      <c r="I136" s="365" t="s">
         <v>16</v>
       </c>
       <c r="J136" s="269" t="s">
-        <v>409</v>
-      </c>
-      <c r="K136" s="366">
+        <v>398</v>
+      </c>
+      <c r="K136" s="363">
         <v>43838</v>
       </c>
       <c r="L136" s="269" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="M136" s="269"/>
       <c r="N136" s="269"/>
       <c r="O136" s="269"/>
       <c r="P136" s="168"/>
       <c r="Q136" s="269" t="s">
-        <v>407</v>
-      </c>
-      <c r="R136" s="303"/>
+        <v>396</v>
+      </c>
+      <c r="R136" s="300"/>
+      <c r="S136" s="3"/>
+      <c r="T136" s="3"/>
     </row>
-    <row r="137" spans="1:18" ht="24.6" customHeight="1">
+    <row r="137" spans="1:20" ht="24.6" hidden="1" customHeight="1">
       <c r="A137" s="269">
         <v>134</v>
       </c>
       <c r="B137" s="270" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="C137" s="270" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="D137" s="270"/>
-      <c r="E137" s="365" t="s">
-        <v>388</v>
+      <c r="E137" s="362" t="s">
+        <v>377</v>
       </c>
       <c r="F137" s="277" t="s">
-        <v>389</v>
-      </c>
-      <c r="G137" s="366">
+        <v>378</v>
+      </c>
+      <c r="G137" s="363">
         <v>43836</v>
       </c>
-      <c r="H137" s="367"/>
-      <c r="I137" s="368" t="s">
+      <c r="H137" s="364"/>
+      <c r="I137" s="365" t="s">
         <v>16</v>
       </c>
       <c r="J137" s="269" t="s">
-        <v>404</v>
-      </c>
-      <c r="K137" s="366">
+        <v>393</v>
+      </c>
+      <c r="K137" s="363">
         <v>43839</v>
       </c>
       <c r="L137" s="130" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="M137" s="269"/>
       <c r="N137" s="269"/>
       <c r="O137" s="269"/>
       <c r="P137" s="168"/>
       <c r="Q137" s="269"/>
-      <c r="R137" s="303"/>
+      <c r="R137" s="300"/>
+      <c r="S137" s="3"/>
+      <c r="T137" s="3"/>
     </row>
-    <row r="138" spans="1:18" ht="32.4" customHeight="1">
+    <row r="138" spans="1:20" ht="32.4" hidden="1" customHeight="1">
       <c r="A138" s="269">
         <v>135</v>
       </c>
       <c r="B138" s="270" t="s">
-        <v>396</v>
-      </c>
-      <c r="C138" s="369" t="s">
-        <v>398</v>
+        <v>385</v>
+      </c>
+      <c r="C138" s="366" t="s">
+        <v>387</v>
       </c>
       <c r="D138" s="270"/>
-      <c r="E138" s="365" t="s">
-        <v>388</v>
+      <c r="E138" s="362" t="s">
+        <v>377</v>
       </c>
       <c r="F138" s="277" t="s">
-        <v>389</v>
-      </c>
-      <c r="G138" s="366">
+        <v>378</v>
+      </c>
+      <c r="G138" s="363">
         <v>43836</v>
       </c>
-      <c r="H138" s="367"/>
-      <c r="I138" s="368" t="s">
+      <c r="H138" s="364"/>
+      <c r="I138" s="365" t="s">
         <v>16</v>
       </c>
       <c r="J138" s="269" t="s">
-        <v>406</v>
-      </c>
-      <c r="K138" s="366">
+        <v>395</v>
+      </c>
+      <c r="K138" s="363">
         <v>43838</v>
       </c>
       <c r="L138" s="269" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="M138" s="269"/>
       <c r="N138" s="269"/>
       <c r="O138" s="269"/>
       <c r="P138" s="168"/>
       <c r="Q138" s="269"/>
-      <c r="R138" s="303"/>
+      <c r="R138" s="300"/>
+      <c r="S138" s="3"/>
+      <c r="T138" s="3"/>
     </row>
-    <row r="139" spans="1:18" ht="31.8" customHeight="1">
+    <row r="139" spans="1:20" ht="31.8" hidden="1" customHeight="1">
       <c r="A139" s="269">
         <v>136</v>
       </c>
-      <c r="B139" s="365" t="s">
+      <c r="B139" s="362" t="s">
+        <v>382</v>
+      </c>
+      <c r="C139" s="362" t="s">
+        <v>388</v>
+      </c>
+      <c r="D139" s="270"/>
+      <c r="E139" s="362" t="s">
+        <v>380</v>
+      </c>
+      <c r="F139" s="277" t="s">
+        <v>381</v>
+      </c>
+      <c r="G139" s="363">
+        <v>43836</v>
+      </c>
+      <c r="H139" s="364" t="s">
+        <v>389</v>
+      </c>
+      <c r="I139" s="365" t="s">
+        <v>16</v>
+      </c>
+      <c r="J139" s="269" t="s">
         <v>393</v>
       </c>
-      <c r="C139" s="365" t="s">
-        <v>399</v>
-      </c>
-      <c r="D139" s="270"/>
-      <c r="E139" s="365" t="s">
-        <v>391</v>
-      </c>
-      <c r="F139" s="277" t="s">
-        <v>392</v>
-      </c>
-      <c r="G139" s="366">
-        <v>43836</v>
-      </c>
-      <c r="H139" s="367" t="s">
-        <v>400</v>
-      </c>
-      <c r="I139" s="368" t="s">
-        <v>16</v>
-      </c>
-      <c r="J139" s="269" t="s">
-        <v>404</v>
-      </c>
-      <c r="K139" s="366">
+      <c r="K139" s="363">
         <v>43840</v>
       </c>
       <c r="L139" s="269" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="M139" s="269"/>
       <c r="N139" s="269"/>
       <c r="O139" s="269"/>
       <c r="P139" s="168"/>
       <c r="Q139" s="269"/>
-      <c r="R139" s="303"/>
+      <c r="R139" s="300"/>
+      <c r="S139" s="3"/>
+      <c r="T139" s="3"/>
     </row>
     <row r="190" ht="13.95" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A3:P132"/>
+  <autoFilter ref="A3:T139">
+    <filterColumn colId="10">
+      <filters blank="1">
+        <dateGroupItem year="2020" month="1" day="6" dateTimeGrouping="day"/>
+        <dateGroupItem year="2020" month="1" day="7" dateTimeGrouping="day"/>
+        <dateGroupItem year="2019" dateTimeGrouping="year"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="11">
+      <filters>
+        <filter val="处理中"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:P1"/>
   </mergeCells>
@@ -19269,24 +19601,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="69.75" customHeight="1" thickBot="1">
-      <c r="A1" s="299" t="s">
+      <c r="A1" s="376" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="300"/>
-      <c r="C1" s="300"/>
-      <c r="D1" s="300"/>
-      <c r="E1" s="300"/>
-      <c r="F1" s="300"/>
-      <c r="G1" s="300"/>
-      <c r="H1" s="300"/>
-      <c r="I1" s="300"/>
-      <c r="J1" s="300"/>
-      <c r="K1" s="300"/>
-      <c r="L1" s="300"/>
-      <c r="M1" s="300"/>
-      <c r="N1" s="300"/>
-      <c r="O1" s="300"/>
-      <c r="P1" s="301"/>
+      <c r="B1" s="377"/>
+      <c r="C1" s="377"/>
+      <c r="D1" s="377"/>
+      <c r="E1" s="377"/>
+      <c r="F1" s="377"/>
+      <c r="G1" s="377"/>
+      <c r="H1" s="377"/>
+      <c r="I1" s="377"/>
+      <c r="J1" s="377"/>
+      <c r="K1" s="377"/>
+      <c r="L1" s="377"/>
+      <c r="M1" s="377"/>
+      <c r="N1" s="377"/>
+      <c r="O1" s="377"/>
+      <c r="P1" s="378"/>
     </row>
     <row r="2" spans="1:17" s="2" customFormat="1" ht="28.2" thickBot="1">
       <c r="A2" s="48"/>

--- a/Docs/06 Testing/标准工时分析管理系统测试课题汇总及处理表.xlsx
+++ b/Docs/06 Testing/标准工时分析管理系统测试课题汇总及处理表.xlsx
@@ -184,7 +184,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="410">
   <si>
     <t>备注</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -3379,6 +3379,10 @@
       </rPr>
       <t>理</t>
     </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已处理</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -4780,9 +4784,6 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="62" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -5325,6 +5326,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5332,40 +5336,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 26 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="26"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="26"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="26"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="26"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="26"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="26"/>
-      </font>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <sz val="26"/>
@@ -5431,8 +5402,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1142408</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>30042</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>621712</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5475,8 +5446,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1273743</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>590893</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>677224</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5519,8 +5490,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1148857</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>462328</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>582438</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5910,7 +5881,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1226530</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>495300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5953,7 +5924,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1272243</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>103094</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6078,7 +6049,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1101588</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>504253</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6122,7 +6093,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1273479</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6362,7 +6333,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1038225</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>520476</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6484,7 +6455,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1270000</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>588994</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6571,7 +6542,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1141239</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>22999</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7025,8 +6996,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2567608</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>15608</xdr:rowOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>63128</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7547,8 +7518,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>35378</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>71556</xdr:rowOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>44662</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13336,29 +13307,29 @@
     <dataField name="数量" fld="0" subtotal="count" baseField="11" baseItem="3"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="13">
+    <format dxfId="6">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="5">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="3">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="11" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -13792,7 +13763,7 @@
       </c>
     </row>
     <row r="9" spans="5:6" ht="30">
-      <c r="E9" s="367" t="s">
+      <c r="E9" s="366" t="s">
         <v>402</v>
       </c>
       <c r="F9" s="195">
@@ -13800,7 +13771,7 @@
       </c>
     </row>
     <row r="10" spans="5:6" ht="30">
-      <c r="E10" s="367" t="s">
+      <c r="E10" s="366" t="s">
         <v>403</v>
       </c>
       <c r="F10" s="195">
@@ -13808,7 +13779,7 @@
       </c>
     </row>
     <row r="11" spans="5:6" ht="30">
-      <c r="E11" s="367" t="s">
+      <c r="E11" s="366" t="s">
         <v>404</v>
       </c>
       <c r="F11" s="195">
@@ -13837,10 +13808,10 @@
   <dimension ref="A1:T190"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomRight" activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -13867,24 +13838,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" ht="69.75" customHeight="1" thickBot="1">
-      <c r="A1" s="376" t="s">
+      <c r="A1" s="375" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="377"/>
-      <c r="C1" s="377"/>
-      <c r="D1" s="377"/>
-      <c r="E1" s="377"/>
-      <c r="F1" s="377"/>
-      <c r="G1" s="377"/>
-      <c r="H1" s="377"/>
-      <c r="I1" s="377"/>
-      <c r="J1" s="377"/>
-      <c r="K1" s="377"/>
-      <c r="L1" s="377"/>
-      <c r="M1" s="377"/>
-      <c r="N1" s="377"/>
-      <c r="O1" s="377"/>
-      <c r="P1" s="378"/>
+      <c r="B1" s="376"/>
+      <c r="C1" s="376"/>
+      <c r="D1" s="376"/>
+      <c r="E1" s="376"/>
+      <c r="F1" s="376"/>
+      <c r="G1" s="376"/>
+      <c r="H1" s="376"/>
+      <c r="I1" s="376"/>
+      <c r="J1" s="376"/>
+      <c r="K1" s="376"/>
+      <c r="L1" s="376"/>
+      <c r="M1" s="376"/>
+      <c r="N1" s="376"/>
+      <c r="O1" s="376"/>
+      <c r="P1" s="377"/>
       <c r="Q1" s="120"/>
       <c r="S1" s="120"/>
       <c r="T1" s="120"/>
@@ -13965,7 +13936,7 @@
       <c r="R3" s="111" t="s">
         <v>283</v>
       </c>
-      <c r="S3" s="373" t="s">
+      <c r="S3" s="372" t="s">
         <v>405</v>
       </c>
       <c r="T3" s="121" t="s">
@@ -13979,37 +13950,37 @@
       <c r="B4" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="209" t="s">
+      <c r="C4" s="208" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="210"/>
-      <c r="E4" s="211" t="s">
+      <c r="D4" s="209"/>
+      <c r="E4" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="211" t="s">
+      <c r="F4" s="210" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="212">
+      <c r="G4" s="211">
         <v>43801</v>
       </c>
-      <c r="H4" s="213"/>
+      <c r="H4" s="212"/>
       <c r="I4" s="119" t="s">
         <v>101</v>
       </c>
       <c r="J4" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K4" s="214"/>
-      <c r="L4" s="215" t="s">
+      <c r="K4" s="213"/>
+      <c r="L4" s="214" t="s">
         <v>123</v>
       </c>
-      <c r="M4" s="216"/>
-      <c r="N4" s="217"/>
+      <c r="M4" s="215"/>
+      <c r="N4" s="216"/>
       <c r="O4" s="119"/>
-      <c r="P4" s="218" t="s">
+      <c r="P4" s="217" t="s">
         <v>140</v>
       </c>
-      <c r="Q4" s="219"/>
+      <c r="Q4" s="218"/>
     </row>
     <row r="5" spans="1:20" s="112" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A5" s="119">
@@ -14018,20 +13989,20 @@
       <c r="B5" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="209" t="s">
+      <c r="C5" s="208" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="210"/>
-      <c r="E5" s="211" t="s">
+      <c r="D5" s="209"/>
+      <c r="E5" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="211" t="s">
+      <c r="F5" s="210" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="212">
+      <c r="G5" s="211">
         <v>43801</v>
       </c>
-      <c r="H5" s="213" t="s">
+      <c r="H5" s="212" t="s">
         <v>115</v>
       </c>
       <c r="I5" s="119" t="s">
@@ -14040,58 +14011,58 @@
       <c r="J5" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K5" s="214"/>
-      <c r="L5" s="220" t="s">
+      <c r="K5" s="213"/>
+      <c r="L5" s="219" t="s">
         <v>123</v>
       </c>
-      <c r="M5" s="216"/>
-      <c r="N5" s="217"/>
+      <c r="M5" s="215"/>
+      <c r="N5" s="216"/>
       <c r="O5" s="119"/>
-      <c r="P5" s="218" t="s">
+      <c r="P5" s="217" t="s">
         <v>236</v>
       </c>
-      <c r="Q5" s="219"/>
+      <c r="Q5" s="218"/>
     </row>
-    <row r="6" spans="1:20" s="112" customFormat="1" ht="58.5" hidden="1" customHeight="1">
-      <c r="A6" s="342">
+    <row r="6" spans="1:20" s="112" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A6" s="341">
         <v>3</v>
       </c>
-      <c r="B6" s="342" t="s">
+      <c r="B6" s="341" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="343" t="s">
+      <c r="C6" s="342" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="344"/>
-      <c r="E6" s="345" t="s">
+      <c r="D6" s="343"/>
+      <c r="E6" s="344" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="345" t="s">
+      <c r="F6" s="344" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="346">
+      <c r="G6" s="345">
         <v>43801</v>
       </c>
-      <c r="H6" s="347"/>
-      <c r="I6" s="342" t="s">
+      <c r="H6" s="346"/>
+      <c r="I6" s="341" t="s">
         <v>101</v>
       </c>
-      <c r="J6" s="342" t="s">
+      <c r="J6" s="341" t="s">
         <v>357</v>
       </c>
-      <c r="K6" s="346">
+      <c r="K6" s="345">
         <v>43838</v>
       </c>
-      <c r="L6" s="348" t="s">
+      <c r="L6" s="347" t="s">
         <v>355</v>
       </c>
-      <c r="M6" s="349"/>
-      <c r="N6" s="350"/>
-      <c r="O6" s="342"/>
-      <c r="P6" s="351" t="s">
+      <c r="M6" s="348"/>
+      <c r="N6" s="349"/>
+      <c r="O6" s="341"/>
+      <c r="P6" s="350" t="s">
         <v>252</v>
       </c>
-      <c r="Q6" s="352" t="s">
+      <c r="Q6" s="351" t="s">
         <v>146</v>
       </c>
       <c r="R6" s="112" t="s">
@@ -14139,10 +14110,10 @@
       <c r="R7" s="112" t="s">
         <v>322</v>
       </c>
-      <c r="S7" s="374">
+      <c r="S7" s="373">
         <v>2</v>
       </c>
-      <c r="T7" s="374">
+      <c r="T7" s="373">
         <f>S7*1.5</f>
         <v>3</v>
       </c>
@@ -14154,20 +14125,20 @@
       <c r="B8" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="209" t="s">
+      <c r="C8" s="208" t="s">
         <v>96</v>
       </c>
-      <c r="D8" s="210"/>
-      <c r="E8" s="211" t="s">
+      <c r="D8" s="209"/>
+      <c r="E8" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="211" t="s">
+      <c r="F8" s="210" t="s">
         <v>85</v>
       </c>
-      <c r="G8" s="212">
+      <c r="G8" s="211">
         <v>43804</v>
       </c>
-      <c r="H8" s="213" t="s">
+      <c r="H8" s="212" t="s">
         <v>97</v>
       </c>
       <c r="I8" s="119" t="s">
@@ -14176,15 +14147,15 @@
       <c r="J8" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K8" s="214"/>
-      <c r="L8" s="220" t="s">
+      <c r="K8" s="213"/>
+      <c r="L8" s="219" t="s">
         <v>123</v>
       </c>
-      <c r="M8" s="216"/>
-      <c r="N8" s="217"/>
+      <c r="M8" s="215"/>
+      <c r="N8" s="216"/>
       <c r="O8" s="119"/>
-      <c r="P8" s="218"/>
-      <c r="Q8" s="219"/>
+      <c r="P8" s="217"/>
+      <c r="Q8" s="218"/>
     </row>
     <row r="9" spans="1:20" s="112" customFormat="1" ht="78.75" hidden="1" customHeight="1">
       <c r="A9" s="119">
@@ -14193,35 +14164,35 @@
       <c r="B9" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="221" t="s">
+      <c r="C9" s="220" t="s">
         <v>131</v>
       </c>
-      <c r="D9" s="222"/>
-      <c r="E9" s="211" t="s">
+      <c r="D9" s="221"/>
+      <c r="E9" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="211" t="s">
+      <c r="F9" s="210" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="212">
+      <c r="G9" s="211">
         <v>43804</v>
       </c>
-      <c r="H9" s="221"/>
+      <c r="H9" s="220"/>
       <c r="I9" s="119" t="s">
         <v>16</v>
       </c>
       <c r="J9" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K9" s="212"/>
-      <c r="L9" s="215" t="s">
+      <c r="K9" s="211"/>
+      <c r="L9" s="214" t="s">
         <v>123</v>
       </c>
-      <c r="M9" s="216"/>
-      <c r="N9" s="217"/>
+      <c r="M9" s="215"/>
+      <c r="N9" s="216"/>
       <c r="O9" s="119"/>
-      <c r="P9" s="218"/>
-      <c r="Q9" s="219" t="s">
+      <c r="P9" s="217"/>
+      <c r="Q9" s="218" t="s">
         <v>145</v>
       </c>
     </row>
@@ -14229,75 +14200,75 @@
       <c r="A10" s="119">
         <v>7</v>
       </c>
-      <c r="B10" s="223" t="s">
+      <c r="B10" s="222" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="224" t="s">
+      <c r="C10" s="223" t="s">
         <v>130</v>
       </c>
-      <c r="D10" s="225"/>
-      <c r="E10" s="211" t="s">
+      <c r="D10" s="224"/>
+      <c r="E10" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="226" t="s">
+      <c r="F10" s="225" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="227">
+      <c r="G10" s="226">
         <v>43808</v>
       </c>
-      <c r="H10" s="228"/>
+      <c r="H10" s="227"/>
       <c r="I10" s="119" t="s">
         <v>16</v>
       </c>
       <c r="J10" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K10" s="229"/>
-      <c r="L10" s="220" t="s">
+      <c r="K10" s="228"/>
+      <c r="L10" s="219" t="s">
         <v>123</v>
       </c>
-      <c r="M10" s="216"/>
-      <c r="N10" s="230"/>
-      <c r="O10" s="231"/>
-      <c r="P10" s="232"/>
-      <c r="Q10" s="219"/>
+      <c r="M10" s="215"/>
+      <c r="N10" s="229"/>
+      <c r="O10" s="230"/>
+      <c r="P10" s="231"/>
+      <c r="Q10" s="218"/>
     </row>
     <row r="11" spans="1:20" s="65" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A11" s="119">
         <v>8</v>
       </c>
-      <c r="B11" s="223" t="s">
+      <c r="B11" s="222" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="224" t="s">
+      <c r="C11" s="223" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="225"/>
-      <c r="E11" s="211" t="s">
+      <c r="D11" s="224"/>
+      <c r="E11" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="226" t="s">
+      <c r="F11" s="225" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="227">
+      <c r="G11" s="226">
         <v>43808</v>
       </c>
-      <c r="H11" s="228"/>
+      <c r="H11" s="227"/>
       <c r="I11" s="119" t="s">
         <v>16</v>
       </c>
       <c r="J11" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K11" s="229"/>
-      <c r="L11" s="220" t="s">
+      <c r="K11" s="228"/>
+      <c r="L11" s="219" t="s">
         <v>123</v>
       </c>
-      <c r="M11" s="216"/>
-      <c r="N11" s="230"/>
-      <c r="O11" s="231"/>
-      <c r="P11" s="232"/>
-      <c r="Q11" s="233"/>
+      <c r="M11" s="215"/>
+      <c r="N11" s="229"/>
+      <c r="O11" s="230"/>
+      <c r="P11" s="231"/>
+      <c r="Q11" s="232"/>
     </row>
     <row r="12" spans="1:20" s="65" customFormat="1" ht="78.75" hidden="1" customHeight="1">
       <c r="A12" s="119">
@@ -14431,23 +14402,23 @@
       <c r="A15" s="119">
         <v>12</v>
       </c>
-      <c r="B15" s="234" t="s">
+      <c r="B15" s="233" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="209" t="s">
+      <c r="C15" s="208" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="235"/>
-      <c r="E15" s="211" t="s">
+      <c r="D15" s="234"/>
+      <c r="E15" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="211" t="s">
+      <c r="F15" s="210" t="s">
         <v>85</v>
       </c>
-      <c r="G15" s="212">
+      <c r="G15" s="211">
         <v>43803</v>
       </c>
-      <c r="H15" s="236" t="s">
+      <c r="H15" s="235" t="s">
         <v>112</v>
       </c>
       <c r="I15" s="119" t="s">
@@ -14456,39 +14427,39 @@
       <c r="J15" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K15" s="214"/>
-      <c r="L15" s="220" t="s">
+      <c r="K15" s="213"/>
+      <c r="L15" s="219" t="s">
         <v>123</v>
       </c>
-      <c r="M15" s="216"/>
-      <c r="N15" s="217"/>
+      <c r="M15" s="215"/>
+      <c r="N15" s="216"/>
       <c r="O15" s="119"/>
-      <c r="P15" s="218" t="s">
+      <c r="P15" s="217" t="s">
         <v>125</v>
       </c>
-      <c r="Q15" s="219"/>
+      <c r="Q15" s="218"/>
     </row>
     <row r="16" spans="1:20" s="112" customFormat="1" ht="47.25" hidden="1" customHeight="1">
       <c r="A16" s="119">
         <v>13</v>
       </c>
-      <c r="B16" s="234" t="s">
+      <c r="B16" s="233" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="209" t="s">
+      <c r="C16" s="208" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="235"/>
-      <c r="E16" s="211" t="s">
+      <c r="D16" s="234"/>
+      <c r="E16" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="211" t="s">
+      <c r="F16" s="210" t="s">
         <v>85</v>
       </c>
-      <c r="G16" s="212">
+      <c r="G16" s="211">
         <v>43803</v>
       </c>
-      <c r="H16" s="236" t="s">
+      <c r="H16" s="235" t="s">
         <v>113</v>
       </c>
       <c r="I16" s="119" t="s">
@@ -14497,156 +14468,156 @@
       <c r="J16" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K16" s="214"/>
-      <c r="L16" s="220" t="s">
+      <c r="K16" s="213"/>
+      <c r="L16" s="219" t="s">
         <v>123</v>
       </c>
-      <c r="M16" s="216"/>
-      <c r="N16" s="217"/>
+      <c r="M16" s="215"/>
+      <c r="N16" s="216"/>
       <c r="O16" s="119"/>
-      <c r="P16" s="218" t="s">
+      <c r="P16" s="217" t="s">
         <v>126</v>
       </c>
-      <c r="Q16" s="219"/>
+      <c r="Q16" s="218"/>
     </row>
     <row r="17" spans="1:20" s="112" customFormat="1" ht="47.25" hidden="1" customHeight="1">
       <c r="A17" s="119">
         <v>14</v>
       </c>
-      <c r="B17" s="234" t="s">
+      <c r="B17" s="233" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="209" t="s">
+      <c r="C17" s="208" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="235"/>
-      <c r="E17" s="211" t="s">
+      <c r="D17" s="234"/>
+      <c r="E17" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="211" t="s">
+      <c r="F17" s="210" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="212">
+      <c r="G17" s="211">
         <v>43803</v>
       </c>
-      <c r="H17" s="236"/>
+      <c r="H17" s="235"/>
       <c r="I17" s="119" t="s">
         <v>16</v>
       </c>
       <c r="J17" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K17" s="214"/>
-      <c r="L17" s="220" t="s">
+      <c r="K17" s="213"/>
+      <c r="L17" s="219" t="s">
         <v>123</v>
       </c>
-      <c r="M17" s="216"/>
-      <c r="N17" s="217"/>
+      <c r="M17" s="215"/>
+      <c r="N17" s="216"/>
       <c r="O17" s="119"/>
-      <c r="P17" s="218" t="s">
+      <c r="P17" s="217" t="s">
         <v>127</v>
       </c>
-      <c r="Q17" s="219"/>
+      <c r="Q17" s="218"/>
     </row>
     <row r="18" spans="1:20" s="112" customFormat="1" ht="47.25" hidden="1" customHeight="1">
       <c r="A18" s="119">
         <v>15</v>
       </c>
-      <c r="B18" s="234" t="s">
+      <c r="B18" s="233" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="209" t="s">
+      <c r="C18" s="208" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="235"/>
-      <c r="E18" s="211" t="s">
+      <c r="D18" s="234"/>
+      <c r="E18" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="211" t="s">
+      <c r="F18" s="210" t="s">
         <v>85</v>
       </c>
-      <c r="G18" s="212">
+      <c r="G18" s="211">
         <v>43805</v>
       </c>
-      <c r="H18" s="236"/>
+      <c r="H18" s="235"/>
       <c r="I18" s="119" t="s">
         <v>16</v>
       </c>
       <c r="J18" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K18" s="214"/>
-      <c r="L18" s="220" t="s">
+      <c r="K18" s="213"/>
+      <c r="L18" s="219" t="s">
         <v>123</v>
       </c>
-      <c r="M18" s="216"/>
-      <c r="N18" s="217"/>
+      <c r="M18" s="215"/>
+      <c r="N18" s="216"/>
       <c r="O18" s="119"/>
-      <c r="P18" s="218" t="s">
+      <c r="P18" s="217" t="s">
         <v>134</v>
       </c>
-      <c r="Q18" s="219"/>
+      <c r="Q18" s="218"/>
     </row>
     <row r="19" spans="1:20" s="112" customFormat="1" ht="47.25" hidden="1" customHeight="1">
       <c r="A19" s="119">
         <v>16</v>
       </c>
-      <c r="B19" s="234" t="s">
+      <c r="B19" s="233" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="221" t="s">
+      <c r="C19" s="220" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="237"/>
-      <c r="E19" s="211" t="s">
+      <c r="D19" s="236"/>
+      <c r="E19" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="211" t="s">
+      <c r="F19" s="210" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="212">
+      <c r="G19" s="211">
         <v>43802</v>
       </c>
-      <c r="H19" s="236"/>
+      <c r="H19" s="235"/>
       <c r="I19" s="119" t="s">
         <v>16</v>
       </c>
       <c r="J19" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K19" s="214"/>
-      <c r="L19" s="220" t="s">
+      <c r="K19" s="213"/>
+      <c r="L19" s="219" t="s">
         <v>123</v>
       </c>
-      <c r="M19" s="216"/>
-      <c r="N19" s="217"/>
+      <c r="M19" s="215"/>
+      <c r="N19" s="216"/>
       <c r="O19" s="119"/>
-      <c r="P19" s="218" t="s">
+      <c r="P19" s="217" t="s">
         <v>135</v>
       </c>
-      <c r="Q19" s="219"/>
+      <c r="Q19" s="218"/>
     </row>
     <row r="20" spans="1:20" s="112" customFormat="1" ht="69" hidden="1" customHeight="1">
       <c r="A20" s="119">
         <v>17</v>
       </c>
-      <c r="B20" s="234" t="s">
+      <c r="B20" s="233" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="209" t="s">
+      <c r="C20" s="208" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="235"/>
-      <c r="E20" s="211" t="s">
+      <c r="D20" s="234"/>
+      <c r="E20" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="211" t="s">
+      <c r="F20" s="210" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="212">
+      <c r="G20" s="211">
         <v>43803</v>
       </c>
-      <c r="H20" s="238" t="s">
+      <c r="H20" s="237" t="s">
         <v>48</v>
       </c>
       <c r="I20" s="119" t="s">
@@ -14655,63 +14626,63 @@
       <c r="J20" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K20" s="214"/>
-      <c r="L20" s="220" t="s">
+      <c r="K20" s="213"/>
+      <c r="L20" s="219" t="s">
         <v>123</v>
       </c>
-      <c r="M20" s="216"/>
-      <c r="N20" s="217"/>
+      <c r="M20" s="215"/>
+      <c r="N20" s="216"/>
       <c r="O20" s="119"/>
-      <c r="P20" s="218"/>
-      <c r="Q20" s="219"/>
+      <c r="P20" s="217"/>
+      <c r="Q20" s="218"/>
     </row>
     <row r="21" spans="1:20" s="112" customFormat="1" ht="47.25" hidden="1" customHeight="1">
-      <c r="A21" s="301">
+      <c r="A21" s="300">
         <v>18</v>
       </c>
-      <c r="B21" s="302" t="s">
+      <c r="B21" s="301" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="303" t="s">
+      <c r="C21" s="302" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="304"/>
-      <c r="E21" s="305" t="s">
+      <c r="D21" s="303"/>
+      <c r="E21" s="304" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="305" t="s">
+      <c r="F21" s="304" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="306">
+      <c r="G21" s="305">
         <v>43803</v>
       </c>
-      <c r="H21" s="307" t="s">
+      <c r="H21" s="306" t="s">
         <v>107</v>
       </c>
-      <c r="I21" s="301" t="s">
+      <c r="I21" s="300" t="s">
         <v>101</v>
       </c>
-      <c r="J21" s="301" t="s">
+      <c r="J21" s="300" t="s">
         <v>282</v>
       </c>
-      <c r="K21" s="306"/>
-      <c r="L21" s="308" t="s">
+      <c r="K21" s="305"/>
+      <c r="L21" s="307" t="s">
         <v>233</v>
       </c>
-      <c r="M21" s="309"/>
-      <c r="N21" s="310"/>
-      <c r="O21" s="301"/>
-      <c r="P21" s="311"/>
-      <c r="Q21" s="312" t="s">
+      <c r="M21" s="308"/>
+      <c r="N21" s="309"/>
+      <c r="O21" s="300"/>
+      <c r="P21" s="310"/>
+      <c r="Q21" s="311" t="s">
         <v>144</v>
       </c>
       <c r="R21" s="112" t="s">
         <v>322</v>
       </c>
-      <c r="S21" s="374">
+      <c r="S21" s="373">
         <v>1</v>
       </c>
-      <c r="T21" s="374">
+      <c r="T21" s="373">
         <f>S21*1.5</f>
         <v>1.5</v>
       </c>
@@ -14720,60 +14691,60 @@
       <c r="A22" s="119">
         <v>19</v>
       </c>
-      <c r="B22" s="234" t="s">
+      <c r="B22" s="233" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="209" t="s">
+      <c r="C22" s="208" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="235"/>
-      <c r="E22" s="211" t="s">
+      <c r="D22" s="234"/>
+      <c r="E22" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="211" t="s">
+      <c r="F22" s="210" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="212">
+      <c r="G22" s="211">
         <v>43803</v>
       </c>
-      <c r="H22" s="236"/>
+      <c r="H22" s="235"/>
       <c r="I22" s="119" t="s">
         <v>16</v>
       </c>
       <c r="J22" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K22" s="214"/>
-      <c r="L22" s="220" t="s">
+      <c r="K22" s="213"/>
+      <c r="L22" s="219" t="s">
         <v>123</v>
       </c>
-      <c r="M22" s="216"/>
-      <c r="N22" s="217"/>
+      <c r="M22" s="215"/>
+      <c r="N22" s="216"/>
       <c r="O22" s="119"/>
-      <c r="P22" s="218"/>
-      <c r="Q22" s="219"/>
+      <c r="P22" s="217"/>
+      <c r="Q22" s="218"/>
     </row>
     <row r="23" spans="1:20" s="112" customFormat="1" ht="84" hidden="1" customHeight="1">
       <c r="A23" s="119">
         <v>20</v>
       </c>
-      <c r="B23" s="234" t="s">
+      <c r="B23" s="233" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="209" t="s">
+      <c r="C23" s="208" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="235"/>
-      <c r="E23" s="211" t="s">
+      <c r="D23" s="234"/>
+      <c r="E23" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="211" t="s">
+      <c r="F23" s="210" t="s">
         <v>23</v>
       </c>
-      <c r="G23" s="212">
+      <c r="G23" s="211">
         <v>43803</v>
       </c>
-      <c r="H23" s="236" t="s">
+      <c r="H23" s="235" t="s">
         <v>111</v>
       </c>
       <c r="I23" s="119" t="s">
@@ -14782,116 +14753,116 @@
       <c r="J23" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K23" s="214"/>
-      <c r="L23" s="220" t="s">
+      <c r="K23" s="213"/>
+      <c r="L23" s="219" t="s">
         <v>123</v>
       </c>
-      <c r="M23" s="216"/>
-      <c r="N23" s="217"/>
+      <c r="M23" s="215"/>
+      <c r="N23" s="216"/>
       <c r="O23" s="119"/>
-      <c r="P23" s="218" t="s">
+      <c r="P23" s="217" t="s">
         <v>137</v>
       </c>
-      <c r="Q23" s="239" t="s">
+      <c r="Q23" s="238" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:20" s="112" customFormat="1" ht="54" hidden="1" customHeight="1">
-      <c r="A24" s="313">
+      <c r="A24" s="312">
         <v>21</v>
       </c>
-      <c r="B24" s="302" t="s">
+      <c r="B24" s="301" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="303" t="s">
+      <c r="C24" s="302" t="s">
         <v>390</v>
       </c>
-      <c r="D24" s="304"/>
-      <c r="E24" s="305" t="s">
+      <c r="D24" s="303"/>
+      <c r="E24" s="304" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="305" t="s">
+      <c r="F24" s="304" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="306">
+      <c r="G24" s="305">
         <v>43804</v>
       </c>
-      <c r="H24" s="307" t="s">
+      <c r="H24" s="306" t="s">
         <v>285</v>
       </c>
-      <c r="I24" s="301" t="s">
+      <c r="I24" s="300" t="s">
         <v>16</v>
       </c>
-      <c r="J24" s="301" t="s">
+      <c r="J24" s="300" t="s">
         <v>282</v>
       </c>
-      <c r="K24" s="306"/>
-      <c r="L24" s="308" t="s">
+      <c r="K24" s="305"/>
+      <c r="L24" s="307" t="s">
         <v>233</v>
       </c>
-      <c r="M24" s="309"/>
-      <c r="N24" s="310"/>
-      <c r="O24" s="301"/>
-      <c r="P24" s="311"/>
-      <c r="Q24" s="314" t="s">
+      <c r="M24" s="308"/>
+      <c r="N24" s="309"/>
+      <c r="O24" s="300"/>
+      <c r="P24" s="310"/>
+      <c r="Q24" s="313" t="s">
         <v>144</v>
       </c>
       <c r="R24" s="112" t="s">
         <v>322</v>
       </c>
-      <c r="S24" s="374">
+      <c r="S24" s="373">
         <v>0.5</v>
       </c>
-      <c r="T24" s="374">
+      <c r="T24" s="373">
         <f>S24*1.5</f>
         <v>0.75</v>
       </c>
     </row>
     <row r="25" spans="1:20" s="112" customFormat="1" ht="47.25" hidden="1" customHeight="1">
-      <c r="A25" s="313">
+      <c r="A25" s="312">
         <v>22</v>
       </c>
-      <c r="B25" s="302" t="s">
+      <c r="B25" s="301" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="303" t="s">
+      <c r="C25" s="302" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="304"/>
-      <c r="E25" s="305" t="s">
+      <c r="D25" s="303"/>
+      <c r="E25" s="304" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="305" t="s">
+      <c r="F25" s="304" t="s">
         <v>23</v>
       </c>
-      <c r="G25" s="306">
+      <c r="G25" s="305">
         <v>43804</v>
       </c>
-      <c r="H25" s="307"/>
-      <c r="I25" s="301" t="s">
+      <c r="H25" s="306"/>
+      <c r="I25" s="300" t="s">
         <v>16</v>
       </c>
-      <c r="J25" s="301" t="s">
+      <c r="J25" s="300" t="s">
         <v>282</v>
       </c>
-      <c r="K25" s="306"/>
-      <c r="L25" s="308" t="s">
+      <c r="K25" s="305"/>
+      <c r="L25" s="307" t="s">
         <v>233</v>
       </c>
-      <c r="M25" s="309"/>
-      <c r="N25" s="310"/>
-      <c r="O25" s="301"/>
-      <c r="P25" s="311"/>
-      <c r="Q25" s="314" t="s">
+      <c r="M25" s="308"/>
+      <c r="N25" s="309"/>
+      <c r="O25" s="300"/>
+      <c r="P25" s="310"/>
+      <c r="Q25" s="313" t="s">
         <v>144</v>
       </c>
       <c r="R25" s="112" t="s">
         <v>322</v>
       </c>
-      <c r="S25" s="374">
+      <c r="S25" s="373">
         <v>2</v>
       </c>
-      <c r="T25" s="374">
+      <c r="T25" s="373">
         <f>S25*1.5</f>
         <v>3</v>
       </c>
@@ -14900,23 +14871,23 @@
       <c r="A26" s="119">
         <v>23</v>
       </c>
-      <c r="B26" s="234" t="s">
+      <c r="B26" s="233" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="209" t="s">
+      <c r="C26" s="208" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="235"/>
-      <c r="E26" s="211" t="s">
+      <c r="D26" s="234"/>
+      <c r="E26" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="211" t="s">
+      <c r="F26" s="210" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="212">
+      <c r="G26" s="211">
         <v>43804</v>
       </c>
-      <c r="H26" s="236" t="s">
+      <c r="H26" s="235" t="s">
         <v>89</v>
       </c>
       <c r="I26" s="119" t="s">
@@ -14925,37 +14896,37 @@
       <c r="J26" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K26" s="214"/>
-      <c r="L26" s="220" t="s">
+      <c r="K26" s="213"/>
+      <c r="L26" s="219" t="s">
         <v>123</v>
       </c>
-      <c r="M26" s="216"/>
-      <c r="N26" s="217"/>
+      <c r="M26" s="215"/>
+      <c r="N26" s="216"/>
       <c r="O26" s="119"/>
-      <c r="P26" s="218"/>
-      <c r="Q26" s="219"/>
+      <c r="P26" s="217"/>
+      <c r="Q26" s="218"/>
     </row>
     <row r="27" spans="1:20" s="112" customFormat="1" ht="84.75" hidden="1" customHeight="1">
       <c r="A27" s="119">
         <v>24</v>
       </c>
-      <c r="B27" s="234" t="s">
+      <c r="B27" s="233" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="209" t="s">
+      <c r="C27" s="208" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="235"/>
-      <c r="E27" s="211" t="s">
+      <c r="D27" s="234"/>
+      <c r="E27" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="211" t="s">
+      <c r="F27" s="210" t="s">
         <v>42</v>
       </c>
-      <c r="G27" s="212">
+      <c r="G27" s="211">
         <v>43804</v>
       </c>
-      <c r="H27" s="238" t="s">
+      <c r="H27" s="237" t="s">
         <v>92</v>
       </c>
       <c r="I27" s="119" t="s">
@@ -14964,74 +14935,74 @@
       <c r="J27" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K27" s="214"/>
-      <c r="L27" s="220" t="s">
+      <c r="K27" s="213"/>
+      <c r="L27" s="219" t="s">
         <v>123</v>
       </c>
-      <c r="M27" s="216"/>
-      <c r="N27" s="217"/>
+      <c r="M27" s="215"/>
+      <c r="N27" s="216"/>
       <c r="O27" s="119"/>
-      <c r="P27" s="218"/>
-      <c r="Q27" s="219"/>
+      <c r="P27" s="217"/>
+      <c r="Q27" s="218"/>
     </row>
     <row r="28" spans="1:20" s="112" customFormat="1" ht="47.25" hidden="1" customHeight="1">
       <c r="A28" s="119">
         <v>25</v>
       </c>
-      <c r="B28" s="234" t="s">
+      <c r="B28" s="233" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="209" t="s">
+      <c r="C28" s="208" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="235"/>
-      <c r="E28" s="211" t="s">
+      <c r="D28" s="234"/>
+      <c r="E28" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="211" t="s">
+      <c r="F28" s="210" t="s">
         <v>42</v>
       </c>
-      <c r="G28" s="212">
+      <c r="G28" s="211">
         <v>43804</v>
       </c>
-      <c r="H28" s="236"/>
+      <c r="H28" s="235"/>
       <c r="I28" s="119" t="s">
         <v>16</v>
       </c>
       <c r="J28" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K28" s="214"/>
-      <c r="L28" s="220" t="s">
+      <c r="K28" s="213"/>
+      <c r="L28" s="219" t="s">
         <v>123</v>
       </c>
-      <c r="M28" s="216"/>
-      <c r="N28" s="217"/>
+      <c r="M28" s="215"/>
+      <c r="N28" s="216"/>
       <c r="O28" s="119"/>
-      <c r="P28" s="218"/>
-      <c r="Q28" s="219"/>
+      <c r="P28" s="217"/>
+      <c r="Q28" s="218"/>
     </row>
     <row r="29" spans="1:20" s="112" customFormat="1" ht="67.5" hidden="1" customHeight="1">
       <c r="A29" s="119">
         <v>26</v>
       </c>
-      <c r="B29" s="234" t="s">
+      <c r="B29" s="233" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="240" t="s">
+      <c r="C29" s="239" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="235"/>
-      <c r="E29" s="211" t="s">
+      <c r="D29" s="234"/>
+      <c r="E29" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="211" t="s">
+      <c r="F29" s="210" t="s">
         <v>42</v>
       </c>
-      <c r="G29" s="212">
+      <c r="G29" s="211">
         <v>43804</v>
       </c>
-      <c r="H29" s="236" t="s">
+      <c r="H29" s="235" t="s">
         <v>60</v>
       </c>
       <c r="I29" s="119" t="s">
@@ -15040,37 +15011,37 @@
       <c r="J29" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K29" s="214"/>
-      <c r="L29" s="220" t="s">
+      <c r="K29" s="213"/>
+      <c r="L29" s="219" t="s">
         <v>123</v>
       </c>
-      <c r="M29" s="216"/>
-      <c r="N29" s="217"/>
+      <c r="M29" s="215"/>
+      <c r="N29" s="216"/>
       <c r="O29" s="119"/>
-      <c r="P29" s="218"/>
-      <c r="Q29" s="219"/>
+      <c r="P29" s="217"/>
+      <c r="Q29" s="218"/>
     </row>
     <row r="30" spans="1:20" s="112" customFormat="1" ht="71.25" hidden="1" customHeight="1">
       <c r="A30" s="119">
         <v>27</v>
       </c>
-      <c r="B30" s="234" t="s">
+      <c r="B30" s="233" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="209" t="s">
+      <c r="C30" s="208" t="s">
         <v>98</v>
       </c>
-      <c r="D30" s="235"/>
-      <c r="E30" s="211" t="s">
+      <c r="D30" s="234"/>
+      <c r="E30" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="211" t="s">
+      <c r="F30" s="210" t="s">
         <v>42</v>
       </c>
-      <c r="G30" s="212">
+      <c r="G30" s="211">
         <v>43804</v>
       </c>
-      <c r="H30" s="238" t="s">
+      <c r="H30" s="237" t="s">
         <v>103</v>
       </c>
       <c r="I30" s="119" t="s">
@@ -15079,37 +15050,37 @@
       <c r="J30" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K30" s="214"/>
-      <c r="L30" s="220" t="s">
+      <c r="K30" s="213"/>
+      <c r="L30" s="219" t="s">
         <v>123</v>
       </c>
-      <c r="M30" s="216"/>
-      <c r="N30" s="217"/>
+      <c r="M30" s="215"/>
+      <c r="N30" s="216"/>
       <c r="O30" s="119"/>
-      <c r="P30" s="218"/>
-      <c r="Q30" s="219"/>
+      <c r="P30" s="217"/>
+      <c r="Q30" s="218"/>
     </row>
     <row r="31" spans="1:20" s="112" customFormat="1" ht="47.25" hidden="1" customHeight="1">
       <c r="A31" s="119">
         <v>28</v>
       </c>
-      <c r="B31" s="234" t="s">
+      <c r="B31" s="233" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="221" t="s">
+      <c r="C31" s="220" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="222"/>
-      <c r="E31" s="211" t="s">
+      <c r="D31" s="221"/>
+      <c r="E31" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="211" t="s">
+      <c r="F31" s="210" t="s">
         <v>42</v>
       </c>
-      <c r="G31" s="212">
+      <c r="G31" s="211">
         <v>43804</v>
       </c>
-      <c r="H31" s="236" t="s">
+      <c r="H31" s="235" t="s">
         <v>104</v>
       </c>
       <c r="I31" s="119" t="s">
@@ -15118,60 +15089,60 @@
       <c r="J31" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K31" s="212"/>
-      <c r="L31" s="215" t="s">
+      <c r="K31" s="211"/>
+      <c r="L31" s="214" t="s">
         <v>123</v>
       </c>
-      <c r="M31" s="216"/>
-      <c r="N31" s="217"/>
+      <c r="M31" s="215"/>
+      <c r="N31" s="216"/>
       <c r="O31" s="119"/>
-      <c r="P31" s="218" t="s">
+      <c r="P31" s="217" t="s">
         <v>128</v>
       </c>
-      <c r="Q31" s="239"/>
+      <c r="Q31" s="238"/>
     </row>
-    <row r="32" spans="1:20" s="112" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A32" s="122">
+    <row r="32" spans="1:20" s="112" customFormat="1" ht="47.25" hidden="1" customHeight="1">
+      <c r="A32" s="119">
         <v>29</v>
       </c>
-      <c r="B32" s="147" t="s">
+      <c r="B32" s="233" t="s">
         <v>204</v>
       </c>
-      <c r="C32" s="123" t="s">
+      <c r="C32" s="208" t="s">
         <v>288</v>
       </c>
-      <c r="D32" s="124"/>
-      <c r="E32" s="125" t="s">
+      <c r="D32" s="234"/>
+      <c r="E32" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="F32" s="125" t="s">
+      <c r="F32" s="210" t="s">
         <v>287</v>
       </c>
-      <c r="G32" s="126">
+      <c r="G32" s="211">
         <v>43802</v>
       </c>
-      <c r="H32" s="127" t="s">
+      <c r="H32" s="235" t="s">
         <v>106</v>
       </c>
-      <c r="I32" s="122" t="s">
+      <c r="I32" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="J32" s="122" t="s">
+      <c r="J32" s="119" t="s">
         <v>350</v>
       </c>
-      <c r="K32" s="128">
+      <c r="K32" s="213">
         <v>43837</v>
       </c>
-      <c r="L32" s="172" t="s">
-        <v>231</v>
-      </c>
-      <c r="M32" s="131"/>
-      <c r="N32" s="131"/>
-      <c r="O32" s="122"/>
-      <c r="P32" s="132" t="s">
+      <c r="L32" s="240" t="s">
+        <v>409</v>
+      </c>
+      <c r="M32" s="216"/>
+      <c r="N32" s="216"/>
+      <c r="O32" s="119"/>
+      <c r="P32" s="217" t="s">
         <v>252</v>
       </c>
-      <c r="Q32" s="149" t="s">
+      <c r="Q32" s="218" t="s">
         <v>144</v>
       </c>
       <c r="R32" s="112" t="s">
@@ -15182,23 +15153,23 @@
       <c r="A33" s="119">
         <v>30</v>
       </c>
-      <c r="B33" s="234" t="s">
+      <c r="B33" s="233" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="221" t="s">
+      <c r="C33" s="220" t="s">
         <v>114</v>
       </c>
-      <c r="D33" s="222"/>
-      <c r="E33" s="211" t="s">
+      <c r="D33" s="221"/>
+      <c r="E33" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="211" t="s">
+      <c r="F33" s="210" t="s">
         <v>23</v>
       </c>
-      <c r="G33" s="212">
+      <c r="G33" s="211">
         <v>43805</v>
       </c>
-      <c r="H33" s="236" t="s">
+      <c r="H33" s="235" t="s">
         <v>108</v>
       </c>
       <c r="I33" s="119" t="s">
@@ -15207,39 +15178,39 @@
       <c r="J33" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K33" s="214"/>
-      <c r="L33" s="220" t="s">
+      <c r="K33" s="213"/>
+      <c r="L33" s="219" t="s">
         <v>123</v>
       </c>
-      <c r="M33" s="216"/>
-      <c r="N33" s="217"/>
+      <c r="M33" s="215"/>
+      <c r="N33" s="216"/>
       <c r="O33" s="119"/>
-      <c r="P33" s="218" t="s">
+      <c r="P33" s="217" t="s">
         <v>132</v>
       </c>
-      <c r="Q33" s="219"/>
+      <c r="Q33" s="218"/>
     </row>
     <row r="34" spans="1:17" s="112" customFormat="1" ht="61.2" hidden="1" customHeight="1">
       <c r="A34" s="119">
         <v>31</v>
       </c>
-      <c r="B34" s="234" t="s">
+      <c r="B34" s="233" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="221" t="s">
+      <c r="C34" s="220" t="s">
         <v>109</v>
       </c>
-      <c r="D34" s="222"/>
-      <c r="E34" s="211" t="s">
+      <c r="D34" s="221"/>
+      <c r="E34" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="F34" s="211" t="s">
+      <c r="F34" s="210" t="s">
         <v>23</v>
       </c>
-      <c r="G34" s="212">
+      <c r="G34" s="211">
         <v>43805</v>
       </c>
-      <c r="H34" s="236" t="s">
+      <c r="H34" s="235" t="s">
         <v>110</v>
       </c>
       <c r="I34" s="119" t="s">
@@ -15248,54 +15219,54 @@
       <c r="J34" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K34" s="214"/>
-      <c r="L34" s="220" t="s">
+      <c r="K34" s="213"/>
+      <c r="L34" s="219" t="s">
         <v>123</v>
       </c>
-      <c r="M34" s="216"/>
-      <c r="N34" s="217"/>
+      <c r="M34" s="215"/>
+      <c r="N34" s="216"/>
       <c r="O34" s="119"/>
-      <c r="P34" s="218" t="s">
+      <c r="P34" s="217" t="s">
         <v>133</v>
       </c>
-      <c r="Q34" s="219"/>
+      <c r="Q34" s="218"/>
     </row>
     <row r="35" spans="1:17" s="65" customFormat="1" ht="78.75" hidden="1" customHeight="1">
       <c r="A35" s="119">
         <v>32</v>
       </c>
-      <c r="B35" s="234" t="s">
+      <c r="B35" s="233" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="224" t="s">
+      <c r="C35" s="223" t="s">
         <v>118</v>
       </c>
-      <c r="D35" s="225"/>
-      <c r="E35" s="211" t="s">
+      <c r="D35" s="224"/>
+      <c r="E35" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="F35" s="226" t="s">
+      <c r="F35" s="225" t="s">
         <v>21</v>
       </c>
-      <c r="G35" s="227">
+      <c r="G35" s="226">
         <v>43808</v>
       </c>
-      <c r="H35" s="224"/>
+      <c r="H35" s="223"/>
       <c r="I35" s="119" t="s">
         <v>16</v>
       </c>
       <c r="J35" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K35" s="229"/>
-      <c r="L35" s="241" t="s">
+      <c r="K35" s="228"/>
+      <c r="L35" s="240" t="s">
         <v>123</v>
       </c>
-      <c r="M35" s="216"/>
-      <c r="N35" s="230"/>
-      <c r="O35" s="231"/>
-      <c r="P35" s="232"/>
-      <c r="Q35" s="242"/>
+      <c r="M35" s="215"/>
+      <c r="N35" s="229"/>
+      <c r="O35" s="230"/>
+      <c r="P35" s="231"/>
+      <c r="Q35" s="241"/>
     </row>
     <row r="36" spans="1:17" s="65" customFormat="1" ht="47.25" customHeight="1">
       <c r="A36" s="122">
@@ -15342,373 +15313,373 @@
       <c r="A37" s="119">
         <v>34</v>
       </c>
-      <c r="B37" s="234" t="s">
+      <c r="B37" s="233" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="224" t="s">
+      <c r="C37" s="223" t="s">
         <v>120</v>
       </c>
-      <c r="D37" s="225"/>
-      <c r="E37" s="211" t="s">
+      <c r="D37" s="224"/>
+      <c r="E37" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="211" t="s">
+      <c r="F37" s="210" t="s">
         <v>42</v>
       </c>
-      <c r="G37" s="227">
+      <c r="G37" s="226">
         <v>43808</v>
       </c>
-      <c r="H37" s="243"/>
+      <c r="H37" s="242"/>
       <c r="I37" s="119" t="s">
         <v>16</v>
       </c>
       <c r="J37" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K37" s="229"/>
-      <c r="L37" s="220" t="s">
+      <c r="K37" s="228"/>
+      <c r="L37" s="219" t="s">
         <v>123</v>
       </c>
-      <c r="M37" s="216"/>
-      <c r="N37" s="230"/>
-      <c r="O37" s="231"/>
-      <c r="P37" s="232" t="s">
+      <c r="M37" s="215"/>
+      <c r="N37" s="229"/>
+      <c r="O37" s="230"/>
+      <c r="P37" s="231" t="s">
         <v>136</v>
       </c>
-      <c r="Q37" s="242"/>
+      <c r="Q37" s="241"/>
     </row>
     <row r="38" spans="1:17" s="65" customFormat="1" ht="62.25" hidden="1" customHeight="1">
       <c r="A38" s="119">
         <v>35</v>
       </c>
-      <c r="B38" s="234" t="s">
+      <c r="B38" s="233" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="224" t="s">
+      <c r="C38" s="223" t="s">
         <v>121</v>
       </c>
-      <c r="D38" s="225"/>
-      <c r="E38" s="211" t="s">
+      <c r="D38" s="224"/>
+      <c r="E38" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="226" t="s">
+      <c r="F38" s="225" t="s">
         <v>85</v>
       </c>
-      <c r="G38" s="227">
+      <c r="G38" s="226">
         <v>43808</v>
       </c>
-      <c r="H38" s="228"/>
+      <c r="H38" s="227"/>
       <c r="I38" s="119" t="s">
         <v>16</v>
       </c>
       <c r="J38" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K38" s="229"/>
-      <c r="L38" s="220" t="s">
+      <c r="K38" s="228"/>
+      <c r="L38" s="219" t="s">
         <v>123</v>
       </c>
-      <c r="M38" s="216"/>
-      <c r="N38" s="230"/>
-      <c r="O38" s="231"/>
-      <c r="P38" s="232"/>
-      <c r="Q38" s="242"/>
+      <c r="M38" s="215"/>
+      <c r="N38" s="229"/>
+      <c r="O38" s="230"/>
+      <c r="P38" s="231"/>
+      <c r="Q38" s="241"/>
     </row>
     <row r="39" spans="1:17" s="65" customFormat="1" ht="47.25" hidden="1" customHeight="1">
       <c r="A39" s="119">
         <v>36</v>
       </c>
-      <c r="B39" s="234" t="s">
+      <c r="B39" s="233" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="224" t="s">
+      <c r="C39" s="223" t="s">
         <v>122</v>
       </c>
-      <c r="D39" s="225"/>
-      <c r="E39" s="211" t="s">
+      <c r="D39" s="224"/>
+      <c r="E39" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="F39" s="226" t="s">
+      <c r="F39" s="225" t="s">
         <v>85</v>
       </c>
-      <c r="G39" s="227">
+      <c r="G39" s="226">
         <v>43808</v>
       </c>
-      <c r="H39" s="228"/>
+      <c r="H39" s="227"/>
       <c r="I39" s="119" t="s">
         <v>16</v>
       </c>
       <c r="J39" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K39" s="229"/>
-      <c r="L39" s="220" t="s">
+      <c r="K39" s="228"/>
+      <c r="L39" s="219" t="s">
         <v>123</v>
       </c>
-      <c r="M39" s="216"/>
-      <c r="N39" s="230"/>
-      <c r="O39" s="231"/>
-      <c r="P39" s="232"/>
-      <c r="Q39" s="242"/>
+      <c r="M39" s="215"/>
+      <c r="N39" s="229"/>
+      <c r="O39" s="230"/>
+      <c r="P39" s="231"/>
+      <c r="Q39" s="241"/>
     </row>
     <row r="40" spans="1:17" s="112" customFormat="1" ht="47.25" hidden="1" customHeight="1">
       <c r="A40" s="119">
         <v>37</v>
       </c>
-      <c r="B40" s="234" t="s">
+      <c r="B40" s="233" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="209" t="s">
+      <c r="C40" s="208" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="235"/>
-      <c r="E40" s="211" t="s">
+      <c r="D40" s="234"/>
+      <c r="E40" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="F40" s="211" t="s">
+      <c r="F40" s="210" t="s">
         <v>23</v>
       </c>
-      <c r="G40" s="212">
+      <c r="G40" s="211">
         <v>43802</v>
       </c>
-      <c r="H40" s="236"/>
+      <c r="H40" s="235"/>
       <c r="I40" s="119" t="s">
         <v>16</v>
       </c>
       <c r="J40" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K40" s="214"/>
-      <c r="L40" s="220" t="s">
+      <c r="K40" s="213"/>
+      <c r="L40" s="219" t="s">
         <v>123</v>
       </c>
-      <c r="M40" s="216"/>
-      <c r="N40" s="217"/>
+      <c r="M40" s="215"/>
+      <c r="N40" s="216"/>
       <c r="O40" s="119"/>
-      <c r="P40" s="218"/>
-      <c r="Q40" s="219"/>
+      <c r="P40" s="217"/>
+      <c r="Q40" s="218"/>
     </row>
     <row r="41" spans="1:17" s="112" customFormat="1" ht="47.25" hidden="1" customHeight="1">
       <c r="A41" s="119">
         <v>38</v>
       </c>
-      <c r="B41" s="234" t="s">
+      <c r="B41" s="233" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="244" t="s">
+      <c r="C41" s="243" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="235"/>
-      <c r="E41" s="211" t="s">
+      <c r="D41" s="234"/>
+      <c r="E41" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="F41" s="211" t="s">
+      <c r="F41" s="210" t="s">
         <v>23</v>
       </c>
-      <c r="G41" s="212">
+      <c r="G41" s="211">
         <v>43803</v>
       </c>
-      <c r="H41" s="236"/>
+      <c r="H41" s="235"/>
       <c r="I41" s="119" t="s">
         <v>16</v>
       </c>
       <c r="J41" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K41" s="214"/>
-      <c r="L41" s="215" t="s">
+      <c r="K41" s="213"/>
+      <c r="L41" s="214" t="s">
         <v>123</v>
       </c>
-      <c r="M41" s="216"/>
-      <c r="N41" s="217"/>
+      <c r="M41" s="215"/>
+      <c r="N41" s="216"/>
       <c r="O41" s="119"/>
-      <c r="P41" s="218"/>
-      <c r="Q41" s="219"/>
+      <c r="P41" s="217"/>
+      <c r="Q41" s="218"/>
     </row>
     <row r="42" spans="1:17" s="112" customFormat="1" ht="47.25" hidden="1" customHeight="1">
       <c r="A42" s="119">
         <v>39</v>
       </c>
-      <c r="B42" s="234" t="s">
+      <c r="B42" s="233" t="s">
         <v>79</v>
       </c>
-      <c r="C42" s="209" t="s">
+      <c r="C42" s="208" t="s">
         <v>37</v>
       </c>
-      <c r="D42" s="235"/>
-      <c r="E42" s="211" t="s">
+      <c r="D42" s="234"/>
+      <c r="E42" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="F42" s="211" t="s">
+      <c r="F42" s="210" t="s">
         <v>23</v>
       </c>
-      <c r="G42" s="212">
+      <c r="G42" s="211">
         <v>43803</v>
       </c>
-      <c r="H42" s="236"/>
+      <c r="H42" s="235"/>
       <c r="I42" s="119" t="s">
         <v>16</v>
       </c>
       <c r="J42" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K42" s="214"/>
-      <c r="L42" s="220" t="s">
+      <c r="K42" s="213"/>
+      <c r="L42" s="219" t="s">
         <v>123</v>
       </c>
-      <c r="M42" s="216"/>
-      <c r="N42" s="217"/>
+      <c r="M42" s="215"/>
+      <c r="N42" s="216"/>
       <c r="O42" s="119"/>
-      <c r="P42" s="218"/>
-      <c r="Q42" s="219"/>
+      <c r="P42" s="217"/>
+      <c r="Q42" s="218"/>
     </row>
     <row r="43" spans="1:17" s="112" customFormat="1" ht="47.25" hidden="1" customHeight="1">
       <c r="A43" s="119">
         <v>40</v>
       </c>
-      <c r="B43" s="234" t="s">
+      <c r="B43" s="233" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="221" t="s">
+      <c r="C43" s="220" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="222"/>
-      <c r="E43" s="211" t="s">
+      <c r="D43" s="221"/>
+      <c r="E43" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="F43" s="211" t="s">
+      <c r="F43" s="210" t="s">
         <v>42</v>
       </c>
-      <c r="G43" s="212">
+      <c r="G43" s="211">
         <v>43804</v>
       </c>
-      <c r="H43" s="236" t="s">
+      <c r="H43" s="235" t="s">
         <v>105</v>
       </c>
       <c r="I43" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="J43" s="245" t="s">
+      <c r="J43" s="244" t="s">
         <v>282</v>
       </c>
-      <c r="K43" s="212"/>
-      <c r="L43" s="215" t="s">
+      <c r="K43" s="211"/>
+      <c r="L43" s="214" t="s">
         <v>123</v>
       </c>
-      <c r="M43" s="216"/>
-      <c r="N43" s="217"/>
+      <c r="M43" s="215"/>
+      <c r="N43" s="216"/>
       <c r="O43" s="119"/>
-      <c r="P43" s="218"/>
-      <c r="Q43" s="219"/>
+      <c r="P43" s="217"/>
+      <c r="Q43" s="218"/>
     </row>
     <row r="44" spans="1:17" s="112" customFormat="1" ht="47.25" hidden="1" customHeight="1">
       <c r="A44" s="119">
         <v>41</v>
       </c>
-      <c r="B44" s="234" t="s">
+      <c r="B44" s="233" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="209" t="s">
+      <c r="C44" s="208" t="s">
         <v>67</v>
       </c>
-      <c r="D44" s="235"/>
-      <c r="E44" s="211" t="s">
+      <c r="D44" s="234"/>
+      <c r="E44" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="F44" s="211" t="s">
+      <c r="F44" s="210" t="s">
         <v>42</v>
       </c>
-      <c r="G44" s="212">
+      <c r="G44" s="211">
         <v>43804</v>
       </c>
-      <c r="H44" s="236" t="s">
+      <c r="H44" s="235" t="s">
         <v>68</v>
       </c>
       <c r="I44" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="J44" s="245" t="s">
+      <c r="J44" s="244" t="s">
         <v>282</v>
       </c>
-      <c r="K44" s="214"/>
-      <c r="L44" s="220" t="s">
+      <c r="K44" s="213"/>
+      <c r="L44" s="219" t="s">
         <v>123</v>
       </c>
-      <c r="M44" s="216"/>
-      <c r="N44" s="217"/>
+      <c r="M44" s="215"/>
+      <c r="N44" s="216"/>
       <c r="O44" s="119"/>
-      <c r="P44" s="246"/>
-      <c r="Q44" s="239"/>
+      <c r="P44" s="245"/>
+      <c r="Q44" s="238"/>
     </row>
     <row r="45" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A45" s="119">
         <v>42</v>
       </c>
-      <c r="B45" s="223" t="s">
+      <c r="B45" s="222" t="s">
         <v>141</v>
       </c>
-      <c r="C45" s="224" t="s">
+      <c r="C45" s="223" t="s">
         <v>142</v>
       </c>
-      <c r="D45" s="225"/>
-      <c r="E45" s="226" t="s">
+      <c r="D45" s="224"/>
+      <c r="E45" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="F45" s="226" t="s">
+      <c r="F45" s="225" t="s">
         <v>268</v>
       </c>
-      <c r="G45" s="227">
+      <c r="G45" s="226">
         <v>43817</v>
       </c>
-      <c r="H45" s="228"/>
-      <c r="I45" s="231"/>
+      <c r="H45" s="227"/>
+      <c r="I45" s="230"/>
       <c r="J45" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K45" s="229"/>
-      <c r="L45" s="241" t="s">
+      <c r="K45" s="228"/>
+      <c r="L45" s="240" t="s">
         <v>143</v>
       </c>
-      <c r="M45" s="216"/>
-      <c r="N45" s="230"/>
-      <c r="O45" s="231"/>
-      <c r="P45" s="232"/>
-      <c r="Q45" s="233"/>
+      <c r="M45" s="215"/>
+      <c r="N45" s="229"/>
+      <c r="O45" s="230"/>
+      <c r="P45" s="231"/>
+      <c r="Q45" s="232"/>
     </row>
     <row r="46" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A46" s="119">
         <v>43</v>
       </c>
-      <c r="B46" s="223" t="s">
+      <c r="B46" s="222" t="s">
         <v>147</v>
       </c>
-      <c r="C46" s="224" t="s">
+      <c r="C46" s="223" t="s">
         <v>148</v>
       </c>
-      <c r="D46" s="225"/>
-      <c r="E46" s="226" t="s">
+      <c r="D46" s="224"/>
+      <c r="E46" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="F46" s="226" t="s">
+      <c r="F46" s="225" t="s">
         <v>268</v>
       </c>
-      <c r="G46" s="227">
+      <c r="G46" s="226">
         <v>43817</v>
       </c>
-      <c r="H46" s="228"/>
-      <c r="I46" s="231"/>
+      <c r="H46" s="227"/>
+      <c r="I46" s="230"/>
       <c r="J46" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K46" s="229"/>
-      <c r="L46" s="241" t="s">
+      <c r="K46" s="228"/>
+      <c r="L46" s="240" t="s">
         <v>143</v>
       </c>
-      <c r="M46" s="216"/>
-      <c r="N46" s="230"/>
-      <c r="O46" s="231"/>
-      <c r="P46" s="232"/>
-      <c r="Q46" s="233" t="s">
+      <c r="M46" s="215"/>
+      <c r="N46" s="229"/>
+      <c r="O46" s="230"/>
+      <c r="P46" s="231"/>
+      <c r="Q46" s="232" t="s">
         <v>151</v>
       </c>
     </row>
@@ -15716,36 +15687,36 @@
       <c r="A47" s="119">
         <v>44</v>
       </c>
-      <c r="B47" s="223" t="s">
+      <c r="B47" s="222" t="s">
         <v>149</v>
       </c>
-      <c r="C47" s="224" t="s">
+      <c r="C47" s="223" t="s">
         <v>150</v>
       </c>
-      <c r="D47" s="225"/>
-      <c r="E47" s="226" t="s">
+      <c r="D47" s="224"/>
+      <c r="E47" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="F47" s="226" t="s">
+      <c r="F47" s="225" t="s">
         <v>268</v>
       </c>
-      <c r="G47" s="227">
+      <c r="G47" s="226">
         <v>43817</v>
       </c>
-      <c r="H47" s="228"/>
-      <c r="I47" s="231"/>
+      <c r="H47" s="227"/>
+      <c r="I47" s="230"/>
       <c r="J47" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K47" s="229"/>
-      <c r="L47" s="241" t="s">
+      <c r="K47" s="228"/>
+      <c r="L47" s="240" t="s">
         <v>143</v>
       </c>
-      <c r="M47" s="216"/>
-      <c r="N47" s="230"/>
-      <c r="O47" s="231"/>
-      <c r="P47" s="232"/>
-      <c r="Q47" s="233" t="s">
+      <c r="M47" s="215"/>
+      <c r="N47" s="229"/>
+      <c r="O47" s="230"/>
+      <c r="P47" s="231"/>
+      <c r="Q47" s="232" t="s">
         <v>145</v>
       </c>
     </row>
@@ -15753,36 +15724,36 @@
       <c r="A48" s="119">
         <v>45</v>
       </c>
-      <c r="B48" s="223" t="s">
+      <c r="B48" s="222" t="s">
         <v>152</v>
       </c>
-      <c r="C48" s="224" t="s">
+      <c r="C48" s="223" t="s">
         <v>153</v>
       </c>
-      <c r="D48" s="225"/>
-      <c r="E48" s="226" t="s">
+      <c r="D48" s="224"/>
+      <c r="E48" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="F48" s="226" t="s">
+      <c r="F48" s="225" t="s">
         <v>268</v>
       </c>
-      <c r="G48" s="227">
+      <c r="G48" s="226">
         <v>43817</v>
       </c>
-      <c r="H48" s="228"/>
-      <c r="I48" s="231"/>
+      <c r="H48" s="227"/>
+      <c r="I48" s="230"/>
       <c r="J48" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K48" s="229"/>
-      <c r="L48" s="241" t="s">
+      <c r="K48" s="228"/>
+      <c r="L48" s="240" t="s">
         <v>143</v>
       </c>
-      <c r="M48" s="216"/>
-      <c r="N48" s="230"/>
-      <c r="O48" s="231"/>
-      <c r="P48" s="232"/>
-      <c r="Q48" s="233" t="s">
+      <c r="M48" s="215"/>
+      <c r="N48" s="229"/>
+      <c r="O48" s="230"/>
+      <c r="P48" s="231"/>
+      <c r="Q48" s="232" t="s">
         <v>145</v>
       </c>
     </row>
@@ -15790,36 +15761,36 @@
       <c r="A49" s="119">
         <v>46</v>
       </c>
-      <c r="B49" s="223" t="s">
+      <c r="B49" s="222" t="s">
         <v>154</v>
       </c>
-      <c r="C49" s="224" t="s">
+      <c r="C49" s="223" t="s">
         <v>155</v>
       </c>
-      <c r="D49" s="225"/>
-      <c r="E49" s="226" t="s">
+      <c r="D49" s="224"/>
+      <c r="E49" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="F49" s="226" t="s">
+      <c r="F49" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="G49" s="227">
+      <c r="G49" s="226">
         <v>43817</v>
       </c>
-      <c r="H49" s="228"/>
-      <c r="I49" s="231"/>
+      <c r="H49" s="227"/>
+      <c r="I49" s="230"/>
       <c r="J49" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K49" s="229"/>
-      <c r="L49" s="241" t="s">
+      <c r="K49" s="228"/>
+      <c r="L49" s="240" t="s">
         <v>143</v>
       </c>
-      <c r="M49" s="216"/>
-      <c r="N49" s="230"/>
-      <c r="O49" s="231"/>
-      <c r="P49" s="232"/>
-      <c r="Q49" s="233" t="s">
+      <c r="M49" s="215"/>
+      <c r="N49" s="229"/>
+      <c r="O49" s="230"/>
+      <c r="P49" s="231"/>
+      <c r="Q49" s="232" t="s">
         <v>145</v>
       </c>
     </row>
@@ -15827,40 +15798,40 @@
       <c r="A50" s="119">
         <v>47</v>
       </c>
-      <c r="B50" s="223" t="s">
+      <c r="B50" s="222" t="s">
         <v>156</v>
       </c>
-      <c r="C50" s="224" t="s">
+      <c r="C50" s="223" t="s">
         <v>158</v>
       </c>
-      <c r="D50" s="225"/>
-      <c r="E50" s="226" t="s">
+      <c r="D50" s="224"/>
+      <c r="E50" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="F50" s="226" t="s">
+      <c r="F50" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="G50" s="227">
+      <c r="G50" s="226">
         <v>43817</v>
       </c>
-      <c r="H50" s="228"/>
-      <c r="I50" s="231"/>
+      <c r="H50" s="227"/>
+      <c r="I50" s="230"/>
       <c r="J50" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K50" s="229">
+      <c r="K50" s="228">
         <v>43828</v>
       </c>
-      <c r="L50" s="220" t="s">
+      <c r="L50" s="219" t="s">
         <v>123</v>
       </c>
-      <c r="M50" s="216"/>
-      <c r="N50" s="230"/>
-      <c r="O50" s="231"/>
-      <c r="P50" s="232" t="s">
+      <c r="M50" s="215"/>
+      <c r="N50" s="229"/>
+      <c r="O50" s="230"/>
+      <c r="P50" s="231" t="s">
         <v>163</v>
       </c>
-      <c r="Q50" s="233" t="s">
+      <c r="Q50" s="232" t="s">
         <v>151</v>
       </c>
     </row>
@@ -15868,40 +15839,40 @@
       <c r="A51" s="119">
         <v>48</v>
       </c>
-      <c r="B51" s="223" t="s">
+      <c r="B51" s="222" t="s">
         <v>157</v>
       </c>
-      <c r="C51" s="224" t="s">
+      <c r="C51" s="223" t="s">
         <v>159</v>
       </c>
-      <c r="D51" s="225"/>
-      <c r="E51" s="226" t="s">
+      <c r="D51" s="224"/>
+      <c r="E51" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="F51" s="226" t="s">
+      <c r="F51" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="G51" s="227">
+      <c r="G51" s="226">
         <v>43817</v>
       </c>
-      <c r="H51" s="228"/>
-      <c r="I51" s="231"/>
+      <c r="H51" s="227"/>
+      <c r="I51" s="230"/>
       <c r="J51" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K51" s="229">
+      <c r="K51" s="228">
         <v>43828</v>
       </c>
-      <c r="L51" s="220" t="s">
+      <c r="L51" s="219" t="s">
         <v>123</v>
       </c>
-      <c r="M51" s="216"/>
-      <c r="N51" s="230"/>
-      <c r="O51" s="231"/>
-      <c r="P51" s="232" t="s">
+      <c r="M51" s="215"/>
+      <c r="N51" s="229"/>
+      <c r="O51" s="230"/>
+      <c r="P51" s="231" t="s">
         <v>163</v>
       </c>
-      <c r="Q51" s="233" t="s">
+      <c r="Q51" s="232" t="s">
         <v>151</v>
       </c>
     </row>
@@ -15909,36 +15880,36 @@
       <c r="A52" s="119">
         <v>49</v>
       </c>
-      <c r="B52" s="223" t="s">
+      <c r="B52" s="222" t="s">
         <v>160</v>
       </c>
-      <c r="C52" s="224" t="s">
+      <c r="C52" s="223" t="s">
         <v>161</v>
       </c>
-      <c r="D52" s="225"/>
-      <c r="E52" s="226" t="s">
+      <c r="D52" s="224"/>
+      <c r="E52" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="F52" s="226" t="s">
+      <c r="F52" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="G52" s="227">
+      <c r="G52" s="226">
         <v>43817</v>
       </c>
-      <c r="H52" s="228"/>
-      <c r="I52" s="231"/>
+      <c r="H52" s="227"/>
+      <c r="I52" s="230"/>
       <c r="J52" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K52" s="229"/>
-      <c r="L52" s="241" t="s">
+      <c r="K52" s="228"/>
+      <c r="L52" s="240" t="s">
         <v>143</v>
       </c>
-      <c r="M52" s="216"/>
-      <c r="N52" s="230"/>
-      <c r="O52" s="231"/>
-      <c r="P52" s="232"/>
-      <c r="Q52" s="233" t="s">
+      <c r="M52" s="215"/>
+      <c r="N52" s="229"/>
+      <c r="O52" s="230"/>
+      <c r="P52" s="231"/>
+      <c r="Q52" s="232" t="s">
         <v>145</v>
       </c>
     </row>
@@ -15946,40 +15917,40 @@
       <c r="A53" s="119">
         <v>50</v>
       </c>
-      <c r="B53" s="223" t="s">
+      <c r="B53" s="222" t="s">
         <v>167</v>
       </c>
-      <c r="C53" s="224" t="s">
+      <c r="C53" s="223" t="s">
         <v>162</v>
       </c>
-      <c r="D53" s="225"/>
-      <c r="E53" s="226" t="s">
+      <c r="D53" s="224"/>
+      <c r="E53" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="F53" s="226" t="s">
+      <c r="F53" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="G53" s="227">
+      <c r="G53" s="226">
         <v>43817</v>
       </c>
-      <c r="H53" s="228"/>
-      <c r="I53" s="231"/>
+      <c r="H53" s="227"/>
+      <c r="I53" s="230"/>
       <c r="J53" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K53" s="229">
+      <c r="K53" s="228">
         <v>43828</v>
       </c>
-      <c r="L53" s="220" t="s">
+      <c r="L53" s="219" t="s">
         <v>123</v>
       </c>
-      <c r="M53" s="216"/>
-      <c r="N53" s="230"/>
-      <c r="O53" s="231"/>
-      <c r="P53" s="232" t="s">
+      <c r="M53" s="215"/>
+      <c r="N53" s="229"/>
+      <c r="O53" s="230"/>
+      <c r="P53" s="231" t="s">
         <v>164</v>
       </c>
-      <c r="Q53" s="233" t="s">
+      <c r="Q53" s="232" t="s">
         <v>145</v>
       </c>
     </row>
@@ -15987,79 +15958,79 @@
       <c r="A54" s="119">
         <v>51</v>
       </c>
-      <c r="B54" s="223" t="s">
+      <c r="B54" s="222" t="s">
         <v>168</v>
       </c>
-      <c r="C54" s="224" t="s">
+      <c r="C54" s="223" t="s">
         <v>165</v>
       </c>
-      <c r="D54" s="225"/>
-      <c r="E54" s="226" t="s">
+      <c r="D54" s="224"/>
+      <c r="E54" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="F54" s="226" t="s">
+      <c r="F54" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="G54" s="227">
+      <c r="G54" s="226">
         <v>43817</v>
       </c>
-      <c r="H54" s="228"/>
-      <c r="I54" s="231"/>
+      <c r="H54" s="227"/>
+      <c r="I54" s="230"/>
       <c r="J54" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K54" s="229">
+      <c r="K54" s="228">
         <v>43828</v>
       </c>
-      <c r="L54" s="220" t="s">
+      <c r="L54" s="219" t="s">
         <v>123</v>
       </c>
-      <c r="M54" s="216"/>
-      <c r="N54" s="230"/>
-      <c r="O54" s="231"/>
-      <c r="P54" s="232" t="s">
+      <c r="M54" s="215"/>
+      <c r="N54" s="229"/>
+      <c r="O54" s="230"/>
+      <c r="P54" s="231" t="s">
         <v>166</v>
       </c>
-      <c r="Q54" s="233"/>
+      <c r="Q54" s="232"/>
     </row>
     <row r="55" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A55" s="119">
         <v>52</v>
       </c>
-      <c r="B55" s="223" t="s">
+      <c r="B55" s="222" t="s">
         <v>169</v>
       </c>
-      <c r="C55" s="224" t="s">
+      <c r="C55" s="223" t="s">
         <v>170</v>
       </c>
-      <c r="D55" s="225"/>
-      <c r="E55" s="226" t="s">
+      <c r="D55" s="224"/>
+      <c r="E55" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="F55" s="226" t="s">
+      <c r="F55" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="G55" s="227">
+      <c r="G55" s="226">
         <v>43817</v>
       </c>
-      <c r="H55" s="228"/>
-      <c r="I55" s="231"/>
+      <c r="H55" s="227"/>
+      <c r="I55" s="230"/>
       <c r="J55" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K55" s="229">
+      <c r="K55" s="228">
         <v>43828</v>
       </c>
-      <c r="L55" s="220" t="s">
+      <c r="L55" s="219" t="s">
         <v>123</v>
       </c>
-      <c r="M55" s="216"/>
-      <c r="N55" s="230"/>
-      <c r="O55" s="231"/>
-      <c r="P55" s="232" t="s">
+      <c r="M55" s="215"/>
+      <c r="N55" s="229"/>
+      <c r="O55" s="230"/>
+      <c r="P55" s="231" t="s">
         <v>171</v>
       </c>
-      <c r="Q55" s="233" t="s">
+      <c r="Q55" s="232" t="s">
         <v>145</v>
       </c>
     </row>
@@ -16067,260 +16038,260 @@
       <c r="A56" s="119">
         <v>53</v>
       </c>
-      <c r="B56" s="223" t="s">
+      <c r="B56" s="222" t="s">
         <v>206</v>
       </c>
-      <c r="C56" s="224" t="s">
+      <c r="C56" s="223" t="s">
         <v>238</v>
       </c>
-      <c r="D56" s="225"/>
-      <c r="E56" s="226" t="s">
+      <c r="D56" s="224"/>
+      <c r="E56" s="225" t="s">
         <v>272</v>
       </c>
-      <c r="F56" s="226" t="s">
+      <c r="F56" s="225" t="s">
         <v>270</v>
       </c>
-      <c r="G56" s="227">
+      <c r="G56" s="226">
         <v>43823</v>
       </c>
-      <c r="H56" s="228" t="s">
+      <c r="H56" s="227" t="s">
         <v>273</v>
       </c>
-      <c r="I56" s="231"/>
+      <c r="I56" s="230"/>
       <c r="J56" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K56" s="229">
+      <c r="K56" s="228">
         <v>43828</v>
       </c>
-      <c r="L56" s="220" t="s">
+      <c r="L56" s="219" t="s">
         <v>123</v>
       </c>
-      <c r="M56" s="216"/>
-      <c r="N56" s="230"/>
-      <c r="O56" s="231"/>
-      <c r="P56" s="232"/>
-      <c r="Q56" s="233"/>
+      <c r="M56" s="215"/>
+      <c r="N56" s="229"/>
+      <c r="O56" s="230"/>
+      <c r="P56" s="231"/>
+      <c r="Q56" s="232"/>
     </row>
     <row r="57" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A57" s="119">
         <v>54</v>
       </c>
-      <c r="B57" s="223" t="s">
+      <c r="B57" s="222" t="s">
         <v>203</v>
       </c>
-      <c r="C57" s="224" t="s">
+      <c r="C57" s="223" t="s">
         <v>172</v>
       </c>
-      <c r="D57" s="225"/>
-      <c r="E57" s="226" t="s">
+      <c r="D57" s="224"/>
+      <c r="E57" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="F57" s="226" t="s">
+      <c r="F57" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="G57" s="227">
+      <c r="G57" s="226">
         <v>43817</v>
       </c>
-      <c r="H57" s="228"/>
-      <c r="I57" s="231"/>
+      <c r="H57" s="227"/>
+      <c r="I57" s="230"/>
       <c r="J57" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K57" s="229">
+      <c r="K57" s="228">
         <v>43828</v>
       </c>
-      <c r="L57" s="220" t="s">
+      <c r="L57" s="219" t="s">
         <v>123</v>
       </c>
-      <c r="M57" s="216"/>
-      <c r="N57" s="230"/>
-      <c r="O57" s="231"/>
-      <c r="P57" s="232"/>
-      <c r="Q57" s="233"/>
+      <c r="M57" s="215"/>
+      <c r="N57" s="229"/>
+      <c r="O57" s="230"/>
+      <c r="P57" s="231"/>
+      <c r="Q57" s="232"/>
     </row>
     <row r="58" spans="1:17" s="17" customFormat="1" ht="57.6" hidden="1">
       <c r="A58" s="119">
         <v>55</v>
       </c>
-      <c r="B58" s="223" t="s">
+      <c r="B58" s="222" t="s">
         <v>203</v>
       </c>
-      <c r="C58" s="224" t="s">
+      <c r="C58" s="223" t="s">
         <v>173</v>
       </c>
-      <c r="D58" s="225"/>
-      <c r="E58" s="226" t="s">
+      <c r="D58" s="224"/>
+      <c r="E58" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="F58" s="226" t="s">
+      <c r="F58" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="G58" s="227">
+      <c r="G58" s="226">
         <v>43817</v>
       </c>
-      <c r="H58" s="228"/>
-      <c r="I58" s="231"/>
+      <c r="H58" s="227"/>
+      <c r="I58" s="230"/>
       <c r="J58" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K58" s="229">
+      <c r="K58" s="228">
         <v>43828</v>
       </c>
-      <c r="L58" s="220" t="s">
+      <c r="L58" s="219" t="s">
         <v>123</v>
       </c>
-      <c r="M58" s="216"/>
-      <c r="N58" s="230"/>
-      <c r="O58" s="231"/>
-      <c r="P58" s="232"/>
-      <c r="Q58" s="233"/>
+      <c r="M58" s="215"/>
+      <c r="N58" s="229"/>
+      <c r="O58" s="230"/>
+      <c r="P58" s="231"/>
+      <c r="Q58" s="232"/>
     </row>
-    <row r="59" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A59" s="122">
+    <row r="59" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+      <c r="A59" s="119">
         <v>56</v>
       </c>
-      <c r="B59" s="170" t="s">
+      <c r="B59" s="222" t="s">
         <v>203</v>
       </c>
-      <c r="C59" s="161" t="s">
+      <c r="C59" s="223" t="s">
         <v>174</v>
       </c>
-      <c r="D59" s="162"/>
-      <c r="E59" s="171" t="s">
+      <c r="D59" s="224"/>
+      <c r="E59" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="F59" s="171" t="s">
+      <c r="F59" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="G59" s="163">
+      <c r="G59" s="226">
         <v>43817</v>
       </c>
-      <c r="H59" s="164"/>
-      <c r="I59" s="167"/>
-      <c r="J59" s="197" t="s">
+      <c r="H59" s="227"/>
+      <c r="I59" s="230"/>
+      <c r="J59" s="378" t="s">
         <v>356</v>
       </c>
-      <c r="K59" s="165">
+      <c r="K59" s="228">
         <v>43837</v>
       </c>
-      <c r="L59" s="129" t="s">
-        <v>231</v>
-      </c>
-      <c r="M59" s="130"/>
-      <c r="N59" s="166"/>
-      <c r="O59" s="167"/>
-      <c r="P59" s="168" t="s">
+      <c r="L59" s="219" t="s">
+        <v>409</v>
+      </c>
+      <c r="M59" s="215"/>
+      <c r="N59" s="229"/>
+      <c r="O59" s="230"/>
+      <c r="P59" s="231" t="s">
         <v>341</v>
       </c>
-      <c r="Q59" s="173"/>
+      <c r="Q59" s="232"/>
     </row>
     <row r="60" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A60" s="119">
         <v>57</v>
       </c>
-      <c r="B60" s="223" t="s">
+      <c r="B60" s="222" t="s">
         <v>203</v>
       </c>
-      <c r="C60" s="224" t="s">
+      <c r="C60" s="223" t="s">
         <v>175</v>
       </c>
-      <c r="D60" s="225"/>
-      <c r="E60" s="226" t="s">
+      <c r="D60" s="224"/>
+      <c r="E60" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="F60" s="226" t="s">
+      <c r="F60" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="G60" s="227">
+      <c r="G60" s="226">
         <v>43817</v>
       </c>
-      <c r="H60" s="228"/>
-      <c r="I60" s="231"/>
+      <c r="H60" s="227"/>
+      <c r="I60" s="230"/>
       <c r="J60" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K60" s="229">
+      <c r="K60" s="228">
         <v>43828</v>
       </c>
-      <c r="L60" s="220" t="s">
+      <c r="L60" s="219" t="s">
         <v>123</v>
       </c>
-      <c r="M60" s="216"/>
-      <c r="N60" s="230"/>
-      <c r="O60" s="231"/>
-      <c r="P60" s="232"/>
-      <c r="Q60" s="233"/>
+      <c r="M60" s="215"/>
+      <c r="N60" s="229"/>
+      <c r="O60" s="230"/>
+      <c r="P60" s="231"/>
+      <c r="Q60" s="232"/>
     </row>
     <row r="61" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A61" s="119">
         <v>58</v>
       </c>
-      <c r="B61" s="223" t="s">
+      <c r="B61" s="222" t="s">
         <v>203</v>
       </c>
-      <c r="C61" s="224" t="s">
+      <c r="C61" s="223" t="s">
         <v>176</v>
       </c>
-      <c r="D61" s="225"/>
-      <c r="E61" s="226" t="s">
+      <c r="D61" s="224"/>
+      <c r="E61" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="F61" s="226" t="s">
+      <c r="F61" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="G61" s="227">
+      <c r="G61" s="226">
         <v>43817</v>
       </c>
-      <c r="H61" s="228"/>
-      <c r="I61" s="231"/>
+      <c r="H61" s="227"/>
+      <c r="I61" s="230"/>
       <c r="J61" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K61" s="229"/>
-      <c r="L61" s="241" t="s">
+      <c r="K61" s="228"/>
+      <c r="L61" s="240" t="s">
         <v>143</v>
       </c>
-      <c r="M61" s="216"/>
-      <c r="N61" s="230"/>
-      <c r="O61" s="231"/>
-      <c r="P61" s="232"/>
-      <c r="Q61" s="233"/>
+      <c r="M61" s="215"/>
+      <c r="N61" s="229"/>
+      <c r="O61" s="230"/>
+      <c r="P61" s="231"/>
+      <c r="Q61" s="232"/>
     </row>
     <row r="62" spans="1:17" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A62" s="119">
         <v>59</v>
       </c>
-      <c r="B62" s="223" t="s">
+      <c r="B62" s="222" t="s">
         <v>203</v>
       </c>
-      <c r="C62" s="224" t="s">
+      <c r="C62" s="223" t="s">
         <v>177</v>
       </c>
-      <c r="D62" s="225"/>
-      <c r="E62" s="226" t="s">
+      <c r="D62" s="224"/>
+      <c r="E62" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="F62" s="226" t="s">
+      <c r="F62" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="G62" s="227">
+      <c r="G62" s="226">
         <v>43817</v>
       </c>
-      <c r="H62" s="228"/>
-      <c r="I62" s="231"/>
+      <c r="H62" s="227"/>
+      <c r="I62" s="230"/>
       <c r="J62" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K62" s="229"/>
-      <c r="L62" s="241" t="s">
+      <c r="K62" s="228"/>
+      <c r="L62" s="240" t="s">
         <v>143</v>
       </c>
-      <c r="M62" s="216"/>
-      <c r="N62" s="230"/>
-      <c r="O62" s="231"/>
-      <c r="P62" s="232"/>
-      <c r="Q62" s="233"/>
+      <c r="M62" s="215"/>
+      <c r="N62" s="229"/>
+      <c r="O62" s="230"/>
+      <c r="P62" s="231"/>
+      <c r="Q62" s="232"/>
     </row>
     <row r="63" spans="1:17" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A63" s="133">
@@ -16365,36 +16336,36 @@
       <c r="A64" s="119">
         <v>61</v>
       </c>
-      <c r="B64" s="223" t="s">
+      <c r="B64" s="222" t="s">
         <v>203</v>
       </c>
-      <c r="C64" s="224" t="s">
+      <c r="C64" s="223" t="s">
         <v>274</v>
       </c>
-      <c r="D64" s="225"/>
-      <c r="E64" s="226" t="s">
+      <c r="D64" s="224"/>
+      <c r="E64" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="F64" s="226" t="s">
+      <c r="F64" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="G64" s="227">
+      <c r="G64" s="226">
         <v>43817</v>
       </c>
-      <c r="H64" s="228"/>
-      <c r="I64" s="231"/>
+      <c r="H64" s="227"/>
+      <c r="I64" s="230"/>
       <c r="J64" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K64" s="229"/>
-      <c r="L64" s="241" t="s">
+      <c r="K64" s="228"/>
+      <c r="L64" s="240" t="s">
         <v>143</v>
       </c>
-      <c r="M64" s="216"/>
-      <c r="N64" s="230"/>
-      <c r="O64" s="231"/>
-      <c r="P64" s="232"/>
-      <c r="Q64" s="233" t="s">
+      <c r="M64" s="215"/>
+      <c r="N64" s="229"/>
+      <c r="O64" s="230"/>
+      <c r="P64" s="231"/>
+      <c r="Q64" s="232" t="s">
         <v>179</v>
       </c>
     </row>
@@ -16402,145 +16373,145 @@
       <c r="A65" s="119">
         <v>62</v>
       </c>
-      <c r="B65" s="223" t="s">
+      <c r="B65" s="222" t="s">
         <v>203</v>
       </c>
-      <c r="C65" s="224" t="s">
+      <c r="C65" s="223" t="s">
         <v>180</v>
       </c>
-      <c r="D65" s="225"/>
-      <c r="E65" s="226" t="s">
+      <c r="D65" s="224"/>
+      <c r="E65" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="F65" s="226" t="s">
+      <c r="F65" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="G65" s="227">
+      <c r="G65" s="226">
         <v>43817</v>
       </c>
-      <c r="H65" s="228"/>
-      <c r="I65" s="231"/>
+      <c r="H65" s="227"/>
+      <c r="I65" s="230"/>
       <c r="J65" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K65" s="229"/>
-      <c r="L65" s="241" t="s">
+      <c r="K65" s="228"/>
+      <c r="L65" s="240" t="s">
         <v>143</v>
       </c>
-      <c r="M65" s="216"/>
-      <c r="N65" s="230"/>
-      <c r="O65" s="231"/>
-      <c r="P65" s="232"/>
-      <c r="Q65" s="233"/>
+      <c r="M65" s="215"/>
+      <c r="N65" s="229"/>
+      <c r="O65" s="230"/>
+      <c r="P65" s="231"/>
+      <c r="Q65" s="232"/>
     </row>
     <row r="66" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A66" s="119">
         <v>63</v>
       </c>
-      <c r="B66" s="223" t="s">
+      <c r="B66" s="222" t="s">
         <v>203</v>
       </c>
-      <c r="C66" s="224" t="s">
+      <c r="C66" s="223" t="s">
         <v>182</v>
       </c>
-      <c r="D66" s="225"/>
-      <c r="E66" s="226" t="s">
+      <c r="D66" s="224"/>
+      <c r="E66" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="F66" s="226" t="s">
+      <c r="F66" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="G66" s="227">
+      <c r="G66" s="226">
         <v>43817</v>
       </c>
-      <c r="H66" s="228"/>
-      <c r="I66" s="231"/>
+      <c r="H66" s="227"/>
+      <c r="I66" s="230"/>
       <c r="J66" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K66" s="229"/>
-      <c r="L66" s="241" t="s">
+      <c r="K66" s="228"/>
+      <c r="L66" s="240" t="s">
         <v>143</v>
       </c>
-      <c r="M66" s="216"/>
-      <c r="N66" s="230"/>
-      <c r="O66" s="231"/>
-      <c r="P66" s="232"/>
-      <c r="Q66" s="233"/>
+      <c r="M66" s="215"/>
+      <c r="N66" s="229"/>
+      <c r="O66" s="230"/>
+      <c r="P66" s="231"/>
+      <c r="Q66" s="232"/>
     </row>
     <row r="67" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A67" s="119">
         <v>64</v>
       </c>
-      <c r="B67" s="223" t="s">
+      <c r="B67" s="222" t="s">
         <v>203</v>
       </c>
-      <c r="C67" s="224" t="s">
+      <c r="C67" s="223" t="s">
         <v>181</v>
       </c>
-      <c r="D67" s="225"/>
-      <c r="E67" s="226" t="s">
+      <c r="D67" s="224"/>
+      <c r="E67" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="F67" s="226" t="s">
+      <c r="F67" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="G67" s="227">
+      <c r="G67" s="226">
         <v>43817</v>
       </c>
-      <c r="H67" s="228"/>
-      <c r="I67" s="231"/>
+      <c r="H67" s="227"/>
+      <c r="I67" s="230"/>
       <c r="J67" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K67" s="229"/>
-      <c r="L67" s="241" t="s">
+      <c r="K67" s="228"/>
+      <c r="L67" s="240" t="s">
         <v>143</v>
       </c>
-      <c r="M67" s="216"/>
-      <c r="N67" s="230"/>
-      <c r="O67" s="231"/>
-      <c r="P67" s="232"/>
-      <c r="Q67" s="233"/>
+      <c r="M67" s="215"/>
+      <c r="N67" s="229"/>
+      <c r="O67" s="230"/>
+      <c r="P67" s="231"/>
+      <c r="Q67" s="232"/>
     </row>
     <row r="68" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
-      <c r="A68" s="315">
+      <c r="A68" s="314">
         <v>65</v>
       </c>
-      <c r="B68" s="316" t="s">
+      <c r="B68" s="315" t="s">
         <v>203</v>
       </c>
-      <c r="C68" s="317" t="s">
+      <c r="C68" s="316" t="s">
         <v>289</v>
       </c>
-      <c r="D68" s="318"/>
-      <c r="E68" s="319" t="s">
+      <c r="D68" s="317"/>
+      <c r="E68" s="318" t="s">
         <v>269</v>
       </c>
-      <c r="F68" s="319" t="s">
+      <c r="F68" s="318" t="s">
         <v>269</v>
       </c>
-      <c r="G68" s="320">
+      <c r="G68" s="319">
         <v>43817</v>
       </c>
-      <c r="H68" s="321"/>
-      <c r="I68" s="322" t="s">
+      <c r="H68" s="320"/>
+      <c r="I68" s="321" t="s">
         <v>16</v>
       </c>
-      <c r="J68" s="315" t="s">
+      <c r="J68" s="314" t="s">
         <v>282</v>
       </c>
-      <c r="K68" s="323"/>
-      <c r="L68" s="324" t="s">
+      <c r="K68" s="322"/>
+      <c r="L68" s="323" t="s">
         <v>265</v>
       </c>
-      <c r="M68" s="325"/>
-      <c r="N68" s="326"/>
-      <c r="O68" s="322"/>
-      <c r="P68" s="327" t="s">
+      <c r="M68" s="324"/>
+      <c r="N68" s="325"/>
+      <c r="O68" s="321"/>
+      <c r="P68" s="326" t="s">
         <v>259</v>
       </c>
-      <c r="Q68" s="328"/>
+      <c r="Q68" s="327"/>
       <c r="R68" s="112" t="s">
         <v>322</v>
       </c>
@@ -16593,119 +16564,119 @@
       <c r="A70" s="119">
         <v>67</v>
       </c>
-      <c r="B70" s="223" t="s">
+      <c r="B70" s="222" t="s">
         <v>203</v>
       </c>
-      <c r="C70" s="224" t="s">
+      <c r="C70" s="223" t="s">
         <v>183</v>
       </c>
-      <c r="D70" s="225"/>
-      <c r="E70" s="226" t="s">
+      <c r="D70" s="224"/>
+      <c r="E70" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="F70" s="226" t="s">
+      <c r="F70" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="G70" s="227">
+      <c r="G70" s="226">
         <v>43817</v>
       </c>
-      <c r="H70" s="228"/>
-      <c r="I70" s="231"/>
+      <c r="H70" s="227"/>
+      <c r="I70" s="230"/>
       <c r="J70" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K70" s="229">
+      <c r="K70" s="228">
         <v>43828</v>
       </c>
-      <c r="L70" s="241" t="s">
+      <c r="L70" s="240" t="s">
         <v>143</v>
       </c>
-      <c r="M70" s="216"/>
-      <c r="N70" s="230"/>
-      <c r="O70" s="231"/>
-      <c r="P70" s="232"/>
-      <c r="Q70" s="233"/>
+      <c r="M70" s="215"/>
+      <c r="N70" s="229"/>
+      <c r="O70" s="230"/>
+      <c r="P70" s="231"/>
+      <c r="Q70" s="232"/>
     </row>
     <row r="71" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A71" s="119">
         <v>68</v>
       </c>
-      <c r="B71" s="223" t="s">
+      <c r="B71" s="222" t="s">
         <v>203</v>
       </c>
-      <c r="C71" s="224" t="s">
+      <c r="C71" s="223" t="s">
         <v>184</v>
       </c>
-      <c r="D71" s="225"/>
-      <c r="E71" s="226" t="s">
+      <c r="D71" s="224"/>
+      <c r="E71" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="F71" s="226" t="s">
+      <c r="F71" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="G71" s="227">
+      <c r="G71" s="226">
         <v>43817</v>
       </c>
-      <c r="H71" s="228"/>
-      <c r="I71" s="231"/>
+      <c r="H71" s="227"/>
+      <c r="I71" s="230"/>
       <c r="J71" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K71" s="229"/>
-      <c r="L71" s="241" t="s">
+      <c r="K71" s="228"/>
+      <c r="L71" s="240" t="s">
         <v>143</v>
       </c>
-      <c r="M71" s="216"/>
-      <c r="N71" s="230"/>
-      <c r="O71" s="231"/>
-      <c r="P71" s="232"/>
-      <c r="Q71" s="233"/>
+      <c r="M71" s="215"/>
+      <c r="N71" s="229"/>
+      <c r="O71" s="230"/>
+      <c r="P71" s="231"/>
+      <c r="Q71" s="232"/>
     </row>
     <row r="72" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A72" s="119">
         <v>69</v>
       </c>
-      <c r="B72" s="223" t="s">
+      <c r="B72" s="222" t="s">
         <v>203</v>
       </c>
-      <c r="C72" s="224" t="s">
+      <c r="C72" s="223" t="s">
         <v>185</v>
       </c>
-      <c r="D72" s="225"/>
-      <c r="E72" s="226" t="s">
+      <c r="D72" s="224"/>
+      <c r="E72" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="F72" s="226" t="s">
+      <c r="F72" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="G72" s="227">
+      <c r="G72" s="226">
         <v>43817</v>
       </c>
-      <c r="H72" s="228"/>
-      <c r="I72" s="231" t="s">
+      <c r="H72" s="227"/>
+      <c r="I72" s="230" t="s">
         <v>16</v>
       </c>
       <c r="J72" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K72" s="229"/>
-      <c r="L72" s="241" t="s">
+      <c r="K72" s="228"/>
+      <c r="L72" s="240" t="s">
         <v>362</v>
       </c>
-      <c r="M72" s="216"/>
-      <c r="N72" s="230"/>
-      <c r="O72" s="231"/>
-      <c r="P72" s="232"/>
-      <c r="Q72" s="233" t="s">
+      <c r="M72" s="215"/>
+      <c r="N72" s="229"/>
+      <c r="O72" s="230"/>
+      <c r="P72" s="231"/>
+      <c r="Q72" s="232" t="s">
         <v>189</v>
       </c>
       <c r="R72" s="112" t="s">
         <v>322</v>
       </c>
-      <c r="S72" s="375">
+      <c r="S72" s="374">
         <v>0</v>
       </c>
-      <c r="T72" s="374">
+      <c r="T72" s="373">
         <f>S72*1.5</f>
         <v>0</v>
       </c>
@@ -16714,110 +16685,110 @@
       <c r="A73" s="119">
         <v>70</v>
       </c>
-      <c r="B73" s="223" t="s">
+      <c r="B73" s="222" t="s">
         <v>203</v>
       </c>
-      <c r="C73" s="224" t="s">
+      <c r="C73" s="223" t="s">
         <v>186</v>
       </c>
-      <c r="D73" s="225"/>
-      <c r="E73" s="226" t="s">
+      <c r="D73" s="224"/>
+      <c r="E73" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="F73" s="226" t="s">
+      <c r="F73" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="G73" s="227">
+      <c r="G73" s="226">
         <v>43817</v>
       </c>
-      <c r="H73" s="228"/>
-      <c r="I73" s="231"/>
+      <c r="H73" s="227"/>
+      <c r="I73" s="230"/>
       <c r="J73" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K73" s="229"/>
-      <c r="L73" s="241" t="s">
+      <c r="K73" s="228"/>
+      <c r="L73" s="240" t="s">
         <v>143</v>
       </c>
-      <c r="M73" s="216"/>
-      <c r="N73" s="230"/>
-      <c r="O73" s="231"/>
-      <c r="P73" s="232"/>
-      <c r="Q73" s="233"/>
+      <c r="M73" s="215"/>
+      <c r="N73" s="229"/>
+      <c r="O73" s="230"/>
+      <c r="P73" s="231"/>
+      <c r="Q73" s="232"/>
     </row>
     <row r="74" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A74" s="119">
         <v>71</v>
       </c>
-      <c r="B74" s="223" t="s">
+      <c r="B74" s="222" t="s">
         <v>203</v>
       </c>
-      <c r="C74" s="224" t="s">
+      <c r="C74" s="223" t="s">
         <v>187</v>
       </c>
-      <c r="D74" s="225"/>
-      <c r="E74" s="226" t="s">
+      <c r="D74" s="224"/>
+      <c r="E74" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="F74" s="226" t="s">
+      <c r="F74" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="G74" s="227">
+      <c r="G74" s="226">
         <v>43817</v>
       </c>
-      <c r="H74" s="228"/>
-      <c r="I74" s="231"/>
+      <c r="H74" s="227"/>
+      <c r="I74" s="230"/>
       <c r="J74" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K74" s="229"/>
-      <c r="L74" s="241" t="s">
+      <c r="K74" s="228"/>
+      <c r="L74" s="240" t="s">
         <v>143</v>
       </c>
-      <c r="M74" s="216"/>
-      <c r="N74" s="230"/>
-      <c r="O74" s="231"/>
-      <c r="P74" s="232"/>
-      <c r="Q74" s="233"/>
+      <c r="M74" s="215"/>
+      <c r="N74" s="229"/>
+      <c r="O74" s="230"/>
+      <c r="P74" s="231"/>
+      <c r="Q74" s="232"/>
     </row>
     <row r="75" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A75" s="119">
         <v>72</v>
       </c>
-      <c r="B75" s="223" t="s">
+      <c r="B75" s="222" t="s">
         <v>203</v>
       </c>
-      <c r="C75" s="224" t="s">
+      <c r="C75" s="223" t="s">
         <v>188</v>
       </c>
-      <c r="D75" s="225"/>
-      <c r="E75" s="226" t="s">
+      <c r="D75" s="224"/>
+      <c r="E75" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="F75" s="226" t="s">
+      <c r="F75" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="G75" s="227">
+      <c r="G75" s="226">
         <v>43817</v>
       </c>
-      <c r="H75" s="228"/>
-      <c r="I75" s="231"/>
+      <c r="H75" s="227"/>
+      <c r="I75" s="230"/>
       <c r="J75" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K75" s="229">
+      <c r="K75" s="228">
         <v>43828</v>
       </c>
-      <c r="L75" s="220" t="s">
+      <c r="L75" s="219" t="s">
         <v>123</v>
       </c>
-      <c r="M75" s="216"/>
-      <c r="N75" s="230"/>
-      <c r="O75" s="231"/>
-      <c r="P75" s="232" t="s">
+      <c r="M75" s="215"/>
+      <c r="N75" s="229"/>
+      <c r="O75" s="230"/>
+      <c r="P75" s="231" t="s">
         <v>242</v>
       </c>
-      <c r="Q75" s="233" t="s">
+      <c r="Q75" s="232" t="s">
         <v>145</v>
       </c>
     </row>
@@ -16825,79 +16796,79 @@
       <c r="A76" s="119">
         <v>73</v>
       </c>
-      <c r="B76" s="223" t="s">
+      <c r="B76" s="222" t="s">
         <v>203</v>
       </c>
-      <c r="C76" s="224" t="s">
+      <c r="C76" s="223" t="s">
         <v>190</v>
       </c>
-      <c r="D76" s="225"/>
-      <c r="E76" s="226" t="s">
+      <c r="D76" s="224"/>
+      <c r="E76" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="F76" s="226" t="s">
+      <c r="F76" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="G76" s="227">
+      <c r="G76" s="226">
         <v>43817</v>
       </c>
-      <c r="H76" s="228"/>
-      <c r="I76" s="231"/>
+      <c r="H76" s="227"/>
+      <c r="I76" s="230"/>
       <c r="J76" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K76" s="229">
+      <c r="K76" s="228">
         <v>43828</v>
       </c>
-      <c r="L76" s="220" t="s">
+      <c r="L76" s="219" t="s">
         <v>123</v>
       </c>
-      <c r="M76" s="216"/>
-      <c r="N76" s="230"/>
-      <c r="O76" s="231"/>
-      <c r="P76" s="232"/>
-      <c r="Q76" s="233" t="s">
+      <c r="M76" s="215"/>
+      <c r="N76" s="229"/>
+      <c r="O76" s="230"/>
+      <c r="P76" s="231"/>
+      <c r="Q76" s="232" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="77" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
-      <c r="A77" s="301">
+      <c r="A77" s="300">
         <v>74</v>
       </c>
-      <c r="B77" s="329" t="s">
+      <c r="B77" s="328" t="s">
         <v>205</v>
       </c>
-      <c r="C77" s="330" t="s">
+      <c r="C77" s="329" t="s">
         <v>191</v>
       </c>
-      <c r="D77" s="331"/>
-      <c r="E77" s="332" t="s">
+      <c r="D77" s="330"/>
+      <c r="E77" s="331" t="s">
         <v>269</v>
       </c>
-      <c r="F77" s="332" t="s">
+      <c r="F77" s="331" t="s">
         <v>269</v>
       </c>
-      <c r="G77" s="333">
+      <c r="G77" s="332">
         <v>43817</v>
       </c>
-      <c r="H77" s="334"/>
-      <c r="I77" s="335"/>
-      <c r="J77" s="301" t="s">
+      <c r="H77" s="333"/>
+      <c r="I77" s="334"/>
+      <c r="J77" s="300" t="s">
         <v>282</v>
       </c>
-      <c r="K77" s="336">
+      <c r="K77" s="335">
         <v>43828</v>
       </c>
-      <c r="L77" s="308" t="s">
+      <c r="L77" s="307" t="s">
         <v>343</v>
       </c>
-      <c r="M77" s="309"/>
-      <c r="N77" s="337"/>
-      <c r="O77" s="335"/>
-      <c r="P77" s="338" t="s">
+      <c r="M77" s="308"/>
+      <c r="N77" s="336"/>
+      <c r="O77" s="334"/>
+      <c r="P77" s="337" t="s">
         <v>366</v>
       </c>
-      <c r="Q77" s="339" t="s">
+      <c r="Q77" s="338" t="s">
         <v>145</v>
       </c>
     </row>
@@ -16905,38 +16876,38 @@
       <c r="A78" s="119">
         <v>75</v>
       </c>
-      <c r="B78" s="223" t="s">
+      <c r="B78" s="222" t="s">
         <v>203</v>
       </c>
-      <c r="C78" s="224" t="s">
+      <c r="C78" s="223" t="s">
         <v>192</v>
       </c>
-      <c r="D78" s="225"/>
-      <c r="E78" s="226" t="s">
+      <c r="D78" s="224"/>
+      <c r="E78" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="F78" s="226" t="s">
+      <c r="F78" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="G78" s="227">
+      <c r="G78" s="226">
         <v>43817</v>
       </c>
-      <c r="H78" s="228"/>
-      <c r="I78" s="231"/>
+      <c r="H78" s="227"/>
+      <c r="I78" s="230"/>
       <c r="J78" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K78" s="229">
+      <c r="K78" s="228">
         <v>43828</v>
       </c>
-      <c r="L78" s="220" t="s">
+      <c r="L78" s="219" t="s">
         <v>123</v>
       </c>
-      <c r="M78" s="216"/>
-      <c r="N78" s="230"/>
-      <c r="O78" s="231"/>
-      <c r="P78" s="232"/>
-      <c r="Q78" s="233"/>
+      <c r="M78" s="215"/>
+      <c r="N78" s="229"/>
+      <c r="O78" s="230"/>
+      <c r="P78" s="231"/>
+      <c r="Q78" s="232"/>
     </row>
     <row r="79" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A79" s="133">
@@ -17021,36 +16992,36 @@
       <c r="A81" s="119">
         <v>78</v>
       </c>
-      <c r="B81" s="223" t="s">
+      <c r="B81" s="222" t="s">
         <v>203</v>
       </c>
-      <c r="C81" s="224" t="s">
+      <c r="C81" s="223" t="s">
         <v>275</v>
       </c>
-      <c r="D81" s="225"/>
-      <c r="E81" s="226" t="s">
+      <c r="D81" s="224"/>
+      <c r="E81" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="F81" s="226" t="s">
+      <c r="F81" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="G81" s="227">
+      <c r="G81" s="226">
         <v>43817</v>
       </c>
-      <c r="H81" s="228"/>
-      <c r="I81" s="231"/>
+      <c r="H81" s="227"/>
+      <c r="I81" s="230"/>
       <c r="J81" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K81" s="229"/>
-      <c r="L81" s="241" t="s">
+      <c r="K81" s="228"/>
+      <c r="L81" s="240" t="s">
         <v>143</v>
       </c>
-      <c r="M81" s="216"/>
-      <c r="N81" s="230"/>
-      <c r="O81" s="231"/>
-      <c r="P81" s="232"/>
-      <c r="Q81" s="233"/>
+      <c r="M81" s="215"/>
+      <c r="N81" s="229"/>
+      <c r="O81" s="230"/>
+      <c r="P81" s="231"/>
+      <c r="Q81" s="232"/>
     </row>
     <row r="82" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A82" s="133">
@@ -17072,7 +17043,7 @@
       <c r="G82" s="154">
         <v>43817</v>
       </c>
-      <c r="H82" s="299" t="s">
+      <c r="H82" s="298" t="s">
         <v>308</v>
       </c>
       <c r="I82" s="158" t="s">
@@ -17135,10 +17106,10 @@
       <c r="R83" s="112" t="s">
         <v>322</v>
       </c>
-      <c r="S83" s="375">
+      <c r="S83" s="374">
         <v>0.5</v>
       </c>
-      <c r="T83" s="374">
+      <c r="T83" s="373">
         <f>S83*1.5</f>
         <v>0.75</v>
       </c>
@@ -17147,38 +17118,38 @@
       <c r="A84" s="119">
         <v>81</v>
       </c>
-      <c r="B84" s="223" t="s">
+      <c r="B84" s="222" t="s">
         <v>203</v>
       </c>
-      <c r="C84" s="224" t="s">
+      <c r="C84" s="223" t="s">
         <v>197</v>
       </c>
-      <c r="D84" s="225"/>
-      <c r="E84" s="226" t="s">
+      <c r="D84" s="224"/>
+      <c r="E84" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="F84" s="226" t="s">
+      <c r="F84" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="G84" s="227">
+      <c r="G84" s="226">
         <v>43817</v>
       </c>
-      <c r="H84" s="228"/>
-      <c r="I84" s="231"/>
+      <c r="H84" s="227"/>
+      <c r="I84" s="230"/>
       <c r="J84" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K84" s="229">
+      <c r="K84" s="228">
         <v>43828</v>
       </c>
-      <c r="L84" s="220" t="s">
+      <c r="L84" s="219" t="s">
         <v>123</v>
       </c>
-      <c r="M84" s="216"/>
-      <c r="N84" s="230"/>
-      <c r="O84" s="231"/>
-      <c r="P84" s="232"/>
-      <c r="Q84" s="233"/>
+      <c r="M84" s="215"/>
+      <c r="N84" s="229"/>
+      <c r="O84" s="230"/>
+      <c r="P84" s="231"/>
+      <c r="Q84" s="232"/>
     </row>
     <row r="85" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A85" s="122">
@@ -17228,7 +17199,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="86" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="86" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A86" s="122">
         <v>83</v>
       </c>
@@ -17271,75 +17242,75 @@
       <c r="A87" s="119">
         <v>84</v>
       </c>
-      <c r="B87" s="223" t="s">
+      <c r="B87" s="222" t="s">
         <v>230</v>
       </c>
-      <c r="C87" s="224" t="s">
+      <c r="C87" s="223" t="s">
         <v>200</v>
       </c>
-      <c r="D87" s="225"/>
-      <c r="E87" s="226" t="s">
+      <c r="D87" s="224"/>
+      <c r="E87" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="F87" s="226" t="s">
+      <c r="F87" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="G87" s="227">
+      <c r="G87" s="226">
         <v>43817</v>
       </c>
-      <c r="H87" s="228"/>
-      <c r="I87" s="231"/>
+      <c r="H87" s="227"/>
+      <c r="I87" s="230"/>
       <c r="J87" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K87" s="229"/>
-      <c r="L87" s="241" t="s">
+      <c r="K87" s="228"/>
+      <c r="L87" s="240" t="s">
         <v>143</v>
       </c>
-      <c r="M87" s="216"/>
-      <c r="N87" s="230"/>
-      <c r="O87" s="231"/>
-      <c r="P87" s="232"/>
-      <c r="Q87" s="233"/>
+      <c r="M87" s="215"/>
+      <c r="N87" s="229"/>
+      <c r="O87" s="230"/>
+      <c r="P87" s="231"/>
+      <c r="Q87" s="232"/>
     </row>
     <row r="88" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A88" s="119">
         <v>85</v>
       </c>
-      <c r="B88" s="223" t="s">
+      <c r="B88" s="222" t="s">
         <v>204</v>
       </c>
-      <c r="C88" s="224" t="s">
+      <c r="C88" s="223" t="s">
         <v>201</v>
       </c>
-      <c r="D88" s="225"/>
-      <c r="E88" s="226" t="s">
+      <c r="D88" s="224"/>
+      <c r="E88" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="F88" s="226" t="s">
+      <c r="F88" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="G88" s="227">
+      <c r="G88" s="226">
         <v>43817</v>
       </c>
-      <c r="H88" s="228"/>
-      <c r="I88" s="231"/>
+      <c r="H88" s="227"/>
+      <c r="I88" s="230"/>
       <c r="J88" s="119" t="s">
         <v>350</v>
       </c>
-      <c r="K88" s="229">
+      <c r="K88" s="228">
         <v>43836</v>
       </c>
-      <c r="L88" s="241" t="s">
+      <c r="L88" s="240" t="s">
         <v>369</v>
       </c>
-      <c r="M88" s="216"/>
-      <c r="N88" s="230"/>
-      <c r="O88" s="231"/>
-      <c r="P88" s="232" t="s">
+      <c r="M88" s="215"/>
+      <c r="N88" s="229"/>
+      <c r="O88" s="230"/>
+      <c r="P88" s="231" t="s">
         <v>344</v>
       </c>
-      <c r="Q88" s="233" t="s">
+      <c r="Q88" s="232" t="s">
         <v>145</v>
       </c>
     </row>
@@ -17347,75 +17318,75 @@
       <c r="A89" s="119">
         <v>86</v>
       </c>
-      <c r="B89" s="223" t="s">
+      <c r="B89" s="222" t="s">
         <v>208</v>
       </c>
-      <c r="C89" s="224" t="s">
+      <c r="C89" s="223" t="s">
         <v>202</v>
       </c>
-      <c r="D89" s="225"/>
-      <c r="E89" s="226" t="s">
+      <c r="D89" s="224"/>
+      <c r="E89" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="F89" s="226" t="s">
+      <c r="F89" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="G89" s="227">
+      <c r="G89" s="226">
         <v>43817</v>
       </c>
-      <c r="H89" s="228"/>
-      <c r="I89" s="231"/>
+      <c r="H89" s="227"/>
+      <c r="I89" s="230"/>
       <c r="J89" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K89" s="229">
+      <c r="K89" s="228">
         <v>43828</v>
       </c>
-      <c r="L89" s="220" t="s">
+      <c r="L89" s="219" t="s">
         <v>123</v>
       </c>
-      <c r="M89" s="216"/>
-      <c r="N89" s="230"/>
-      <c r="O89" s="231"/>
-      <c r="P89" s="232"/>
-      <c r="Q89" s="233"/>
+      <c r="M89" s="215"/>
+      <c r="N89" s="229"/>
+      <c r="O89" s="230"/>
+      <c r="P89" s="231"/>
+      <c r="Q89" s="232"/>
     </row>
     <row r="90" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A90" s="119">
         <v>87</v>
       </c>
-      <c r="B90" s="223" t="s">
+      <c r="B90" s="222" t="s">
         <v>226</v>
       </c>
-      <c r="C90" s="224" t="s">
+      <c r="C90" s="223" t="s">
         <v>207</v>
       </c>
-      <c r="D90" s="225"/>
-      <c r="E90" s="226" t="s">
+      <c r="D90" s="224"/>
+      <c r="E90" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="F90" s="226" t="s">
+      <c r="F90" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="G90" s="227">
+      <c r="G90" s="226">
         <v>43817</v>
       </c>
-      <c r="H90" s="228"/>
-      <c r="I90" s="231"/>
+      <c r="H90" s="227"/>
+      <c r="I90" s="230"/>
       <c r="J90" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K90" s="229"/>
-      <c r="L90" s="241" t="s">
+      <c r="K90" s="228"/>
+      <c r="L90" s="240" t="s">
         <v>143</v>
       </c>
-      <c r="M90" s="216"/>
-      <c r="N90" s="230"/>
-      <c r="O90" s="231"/>
-      <c r="P90" s="232"/>
-      <c r="Q90" s="233"/>
+      <c r="M90" s="215"/>
+      <c r="N90" s="229"/>
+      <c r="O90" s="230"/>
+      <c r="P90" s="231"/>
+      <c r="Q90" s="232"/>
     </row>
-    <row r="91" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="91" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A91" s="122">
         <v>88</v>
       </c>
@@ -17536,43 +17507,43 @@
       </c>
     </row>
     <row r="94" spans="1:20" s="17" customFormat="1" ht="57.6" hidden="1">
-      <c r="A94" s="315">
+      <c r="A94" s="314">
         <v>91</v>
       </c>
-      <c r="B94" s="340" t="s">
+      <c r="B94" s="339" t="s">
         <v>226</v>
       </c>
-      <c r="C94" s="341" t="s">
+      <c r="C94" s="340" t="s">
         <v>213</v>
       </c>
-      <c r="D94" s="318"/>
-      <c r="E94" s="319" t="s">
+      <c r="D94" s="317"/>
+      <c r="E94" s="318" t="s">
         <v>269</v>
       </c>
-      <c r="F94" s="319" t="s">
+      <c r="F94" s="318" t="s">
         <v>269</v>
       </c>
-      <c r="G94" s="320">
+      <c r="G94" s="319">
         <v>43817</v>
       </c>
-      <c r="H94" s="321"/>
-      <c r="I94" s="322" t="s">
+      <c r="H94" s="320"/>
+      <c r="I94" s="321" t="s">
         <v>101</v>
       </c>
-      <c r="J94" s="315" t="s">
+      <c r="J94" s="314" t="s">
         <v>282</v>
       </c>
-      <c r="K94" s="323"/>
-      <c r="L94" s="324" t="s">
+      <c r="K94" s="322"/>
+      <c r="L94" s="323" t="s">
         <v>265</v>
       </c>
-      <c r="M94" s="325"/>
-      <c r="N94" s="326"/>
-      <c r="O94" s="322"/>
-      <c r="P94" s="327" t="s">
+      <c r="M94" s="324"/>
+      <c r="N94" s="325"/>
+      <c r="O94" s="321"/>
+      <c r="P94" s="326" t="s">
         <v>257</v>
       </c>
-      <c r="Q94" s="328"/>
+      <c r="Q94" s="327"/>
       <c r="R94" s="112" t="s">
         <v>322</v>
       </c>
@@ -17620,10 +17591,10 @@
       <c r="R95" s="112" t="s">
         <v>322</v>
       </c>
-      <c r="S95" s="375">
+      <c r="S95" s="374">
         <v>40</v>
       </c>
-      <c r="T95" s="374">
+      <c r="T95" s="373">
         <f>S95*1.5</f>
         <v>60</v>
       </c>
@@ -17632,77 +17603,77 @@
       <c r="A96" s="119">
         <v>93</v>
       </c>
-      <c r="B96" s="223" t="s">
+      <c r="B96" s="222" t="s">
         <v>228</v>
       </c>
-      <c r="C96" s="224" t="s">
+      <c r="C96" s="223" t="s">
         <v>278</v>
       </c>
-      <c r="D96" s="225"/>
-      <c r="E96" s="226" t="s">
+      <c r="D96" s="224"/>
+      <c r="E96" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="F96" s="226" t="s">
+      <c r="F96" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="G96" s="227">
+      <c r="G96" s="226">
         <v>43817</v>
       </c>
-      <c r="H96" s="228"/>
-      <c r="I96" s="231"/>
+      <c r="H96" s="227"/>
+      <c r="I96" s="230"/>
       <c r="J96" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K96" s="229"/>
-      <c r="L96" s="241" t="s">
+      <c r="K96" s="228"/>
+      <c r="L96" s="240" t="s">
         <v>143</v>
       </c>
-      <c r="M96" s="216"/>
-      <c r="N96" s="230"/>
-      <c r="O96" s="231"/>
-      <c r="P96" s="232"/>
-      <c r="Q96" s="233"/>
+      <c r="M96" s="215"/>
+      <c r="N96" s="229"/>
+      <c r="O96" s="230"/>
+      <c r="P96" s="231"/>
+      <c r="Q96" s="232"/>
     </row>
     <row r="97" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A97" s="119">
         <v>94</v>
       </c>
-      <c r="B97" s="223" t="s">
+      <c r="B97" s="222" t="s">
         <v>227</v>
       </c>
-      <c r="C97" s="224" t="s">
+      <c r="C97" s="223" t="s">
         <v>214</v>
       </c>
-      <c r="D97" s="225"/>
-      <c r="E97" s="226" t="s">
+      <c r="D97" s="224"/>
+      <c r="E97" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="F97" s="226" t="s">
+      <c r="F97" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="G97" s="227">
+      <c r="G97" s="226">
         <v>43817</v>
       </c>
-      <c r="H97" s="228"/>
-      <c r="I97" s="231" t="s">
+      <c r="H97" s="227"/>
+      <c r="I97" s="230" t="s">
         <v>293</v>
       </c>
       <c r="J97" s="119" t="s">
         <v>346</v>
       </c>
-      <c r="K97" s="229">
+      <c r="K97" s="228">
         <v>43836</v>
       </c>
-      <c r="L97" s="241" t="s">
+      <c r="L97" s="240" t="s">
         <v>369</v>
       </c>
-      <c r="M97" s="216"/>
-      <c r="N97" s="230"/>
-      <c r="O97" s="231"/>
-      <c r="P97" s="232" t="s">
+      <c r="M97" s="215"/>
+      <c r="N97" s="229"/>
+      <c r="O97" s="230"/>
+      <c r="P97" s="231" t="s">
         <v>370</v>
       </c>
-      <c r="Q97" s="233"/>
+      <c r="Q97" s="232"/>
       <c r="R97" s="112" t="s">
         <v>322</v>
       </c>
@@ -17711,86 +17682,86 @@
       <c r="A98" s="119">
         <v>95</v>
       </c>
-      <c r="B98" s="223" t="s">
+      <c r="B98" s="222" t="s">
         <v>226</v>
       </c>
-      <c r="C98" s="224" t="s">
+      <c r="C98" s="223" t="s">
         <v>215</v>
       </c>
-      <c r="D98" s="225"/>
-      <c r="E98" s="226" t="s">
+      <c r="D98" s="224"/>
+      <c r="E98" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="F98" s="226" t="s">
+      <c r="F98" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="G98" s="227">
+      <c r="G98" s="226">
         <v>43817</v>
       </c>
-      <c r="H98" s="228"/>
-      <c r="I98" s="231" t="s">
+      <c r="H98" s="227"/>
+      <c r="I98" s="230" t="s">
         <v>293</v>
       </c>
       <c r="J98" s="119" t="s">
         <v>346</v>
       </c>
-      <c r="K98" s="229">
+      <c r="K98" s="228">
         <v>43836</v>
       </c>
-      <c r="L98" s="241" t="s">
+      <c r="L98" s="240" t="s">
         <v>362</v>
       </c>
-      <c r="M98" s="216"/>
-      <c r="N98" s="230"/>
-      <c r="O98" s="231"/>
-      <c r="P98" s="232" t="s">
+      <c r="M98" s="215"/>
+      <c r="N98" s="229"/>
+      <c r="O98" s="230"/>
+      <c r="P98" s="231" t="s">
         <v>371</v>
       </c>
-      <c r="Q98" s="233"/>
+      <c r="Q98" s="232"/>
       <c r="R98" s="112" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="99" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A99" s="122">
+    <row r="99" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+      <c r="A99" s="119">
         <v>96</v>
       </c>
-      <c r="B99" s="170" t="s">
+      <c r="B99" s="222" t="s">
         <v>226</v>
       </c>
-      <c r="C99" s="161" t="s">
+      <c r="C99" s="223" t="s">
         <v>216</v>
       </c>
-      <c r="D99" s="162"/>
-      <c r="E99" s="171" t="s">
+      <c r="D99" s="224"/>
+      <c r="E99" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="F99" s="171" t="s">
+      <c r="F99" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="G99" s="163">
+      <c r="G99" s="226">
         <v>43817</v>
       </c>
-      <c r="H99" s="164"/>
-      <c r="I99" s="167" t="s">
+      <c r="H99" s="227"/>
+      <c r="I99" s="230" t="s">
         <v>293</v>
       </c>
-      <c r="J99" s="122" t="s">
+      <c r="J99" s="119" t="s">
         <v>346</v>
       </c>
-      <c r="K99" s="165">
+      <c r="K99" s="228">
         <v>43837</v>
       </c>
-      <c r="L99" s="172" t="s">
-        <v>231</v>
-      </c>
-      <c r="M99" s="130"/>
-      <c r="N99" s="166"/>
-      <c r="O99" s="167"/>
-      <c r="P99" s="168" t="s">
+      <c r="L99" s="240" t="s">
+        <v>409</v>
+      </c>
+      <c r="M99" s="215"/>
+      <c r="N99" s="229"/>
+      <c r="O99" s="230"/>
+      <c r="P99" s="231" t="s">
         <v>251</v>
       </c>
-      <c r="Q99" s="173" t="s">
+      <c r="Q99" s="232" t="s">
         <v>144</v>
       </c>
       <c r="R99" s="112" t="s">
@@ -17838,10 +17809,10 @@
       <c r="R100" s="112" t="s">
         <v>322</v>
       </c>
-      <c r="S100" s="375">
+      <c r="S100" s="374">
         <v>1</v>
       </c>
-      <c r="T100" s="374">
+      <c r="T100" s="373">
         <f>S100*1.5</f>
         <v>1.5</v>
       </c>
@@ -17850,184 +17821,184 @@
       <c r="A101" s="119">
         <v>98</v>
       </c>
-      <c r="B101" s="223" t="s">
+      <c r="B101" s="222" t="s">
         <v>229</v>
       </c>
-      <c r="C101" s="224" t="s">
+      <c r="C101" s="223" t="s">
         <v>218</v>
       </c>
-      <c r="D101" s="225"/>
-      <c r="E101" s="226" t="s">
+      <c r="D101" s="224"/>
+      <c r="E101" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="F101" s="226" t="s">
+      <c r="F101" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="G101" s="227">
+      <c r="G101" s="226">
         <v>43817</v>
       </c>
-      <c r="H101" s="228"/>
-      <c r="I101" s="231"/>
+      <c r="H101" s="227"/>
+      <c r="I101" s="230"/>
       <c r="J101" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K101" s="229"/>
-      <c r="L101" s="241" t="s">
+      <c r="K101" s="228"/>
+      <c r="L101" s="240" t="s">
         <v>143</v>
       </c>
-      <c r="M101" s="216"/>
-      <c r="N101" s="230"/>
-      <c r="O101" s="231"/>
-      <c r="P101" s="232"/>
-      <c r="Q101" s="233"/>
+      <c r="M101" s="215"/>
+      <c r="N101" s="229"/>
+      <c r="O101" s="230"/>
+      <c r="P101" s="231"/>
+      <c r="Q101" s="232"/>
     </row>
     <row r="102" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A102" s="119">
         <v>99</v>
       </c>
-      <c r="B102" s="223" t="s">
+      <c r="B102" s="222" t="s">
         <v>226</v>
       </c>
-      <c r="C102" s="224" t="s">
+      <c r="C102" s="223" t="s">
         <v>219</v>
       </c>
-      <c r="D102" s="225"/>
-      <c r="E102" s="226" t="s">
+      <c r="D102" s="224"/>
+      <c r="E102" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="F102" s="226" t="s">
+      <c r="F102" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="G102" s="227">
+      <c r="G102" s="226">
         <v>43817</v>
       </c>
-      <c r="H102" s="228"/>
-      <c r="I102" s="231"/>
+      <c r="H102" s="227"/>
+      <c r="I102" s="230"/>
       <c r="J102" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K102" s="229"/>
-      <c r="L102" s="241" t="s">
+      <c r="K102" s="228"/>
+      <c r="L102" s="240" t="s">
         <v>143</v>
       </c>
-      <c r="M102" s="216"/>
-      <c r="N102" s="230"/>
-      <c r="O102" s="231"/>
-      <c r="P102" s="232"/>
-      <c r="Q102" s="233"/>
+      <c r="M102" s="215"/>
+      <c r="N102" s="229"/>
+      <c r="O102" s="230"/>
+      <c r="P102" s="231"/>
+      <c r="Q102" s="232"/>
     </row>
     <row r="103" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A103" s="119">
         <v>100</v>
       </c>
-      <c r="B103" s="223" t="s">
+      <c r="B103" s="222" t="s">
         <v>226</v>
       </c>
-      <c r="C103" s="224" t="s">
+      <c r="C103" s="223" t="s">
         <v>224</v>
       </c>
-      <c r="D103" s="225"/>
-      <c r="E103" s="226" t="s">
+      <c r="D103" s="224"/>
+      <c r="E103" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="F103" s="226" t="s">
+      <c r="F103" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="G103" s="227">
+      <c r="G103" s="226">
         <v>43817</v>
       </c>
-      <c r="H103" s="228"/>
-      <c r="I103" s="231"/>
+      <c r="H103" s="227"/>
+      <c r="I103" s="230"/>
       <c r="J103" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K103" s="229">
+      <c r="K103" s="228">
         <v>43828</v>
       </c>
-      <c r="L103" s="220" t="s">
+      <c r="L103" s="219" t="s">
         <v>123</v>
       </c>
-      <c r="M103" s="216"/>
-      <c r="N103" s="230"/>
-      <c r="O103" s="231"/>
-      <c r="P103" s="232" t="s">
+      <c r="M103" s="215"/>
+      <c r="N103" s="229"/>
+      <c r="O103" s="230"/>
+      <c r="P103" s="231" t="s">
         <v>232</v>
       </c>
-      <c r="Q103" s="233"/>
+      <c r="Q103" s="232"/>
     </row>
     <row r="104" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A104" s="119">
         <v>101</v>
       </c>
-      <c r="B104" s="223" t="s">
+      <c r="B104" s="222" t="s">
         <v>226</v>
       </c>
-      <c r="C104" s="224" t="s">
+      <c r="C104" s="223" t="s">
         <v>220</v>
       </c>
-      <c r="D104" s="225"/>
-      <c r="E104" s="226" t="s">
+      <c r="D104" s="224"/>
+      <c r="E104" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="F104" s="226" t="s">
+      <c r="F104" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="G104" s="227">
+      <c r="G104" s="226">
         <v>43817</v>
       </c>
-      <c r="H104" s="228"/>
-      <c r="I104" s="231"/>
+      <c r="H104" s="227"/>
+      <c r="I104" s="230"/>
       <c r="J104" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K104" s="229"/>
-      <c r="L104" s="241" t="s">
+      <c r="K104" s="228"/>
+      <c r="L104" s="240" t="s">
         <v>143</v>
       </c>
-      <c r="M104" s="216"/>
-      <c r="N104" s="230"/>
-      <c r="O104" s="231"/>
-      <c r="P104" s="232"/>
-      <c r="Q104" s="233"/>
+      <c r="M104" s="215"/>
+      <c r="N104" s="229"/>
+      <c r="O104" s="230"/>
+      <c r="P104" s="231"/>
+      <c r="Q104" s="232"/>
     </row>
     <row r="105" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A105" s="119">
         <v>102</v>
       </c>
-      <c r="B105" s="223" t="s">
+      <c r="B105" s="222" t="s">
         <v>226</v>
       </c>
-      <c r="C105" s="224" t="s">
+      <c r="C105" s="223" t="s">
         <v>221</v>
       </c>
-      <c r="D105" s="225"/>
-      <c r="E105" s="226" t="s">
+      <c r="D105" s="224"/>
+      <c r="E105" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="F105" s="226" t="s">
+      <c r="F105" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="G105" s="227">
+      <c r="G105" s="226">
         <v>43817</v>
       </c>
-      <c r="H105" s="228"/>
-      <c r="I105" s="231"/>
+      <c r="H105" s="227"/>
+      <c r="I105" s="230"/>
       <c r="J105" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K105" s="229">
+      <c r="K105" s="228">
         <v>43828</v>
       </c>
-      <c r="L105" s="220" t="s">
+      <c r="L105" s="219" t="s">
         <v>123</v>
       </c>
-      <c r="M105" s="216"/>
-      <c r="N105" s="230"/>
-      <c r="O105" s="231"/>
-      <c r="P105" s="232" t="s">
+      <c r="M105" s="215"/>
+      <c r="N105" s="229"/>
+      <c r="O105" s="230"/>
+      <c r="P105" s="231" t="s">
         <v>225</v>
       </c>
-      <c r="Q105" s="233" t="s">
+      <c r="Q105" s="232" t="s">
         <v>145</v>
       </c>
     </row>
@@ -18035,112 +18006,112 @@
       <c r="A106" s="119">
         <v>103</v>
       </c>
-      <c r="B106" s="223" t="s">
+      <c r="B106" s="222" t="s">
         <v>229</v>
       </c>
-      <c r="C106" s="224" t="s">
+      <c r="C106" s="223" t="s">
         <v>222</v>
       </c>
-      <c r="D106" s="225"/>
-      <c r="E106" s="226" t="s">
+      <c r="D106" s="224"/>
+      <c r="E106" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="F106" s="226" t="s">
+      <c r="F106" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="G106" s="227">
+      <c r="G106" s="226">
         <v>43817</v>
       </c>
-      <c r="H106" s="228"/>
-      <c r="I106" s="231"/>
+      <c r="H106" s="227"/>
+      <c r="I106" s="230"/>
       <c r="J106" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K106" s="229">
+      <c r="K106" s="228">
         <v>43828</v>
       </c>
-      <c r="L106" s="220" t="s">
+      <c r="L106" s="219" t="s">
         <v>123</v>
       </c>
-      <c r="M106" s="216"/>
-      <c r="N106" s="230"/>
-      <c r="O106" s="231"/>
-      <c r="P106" s="232"/>
-      <c r="Q106" s="233"/>
+      <c r="M106" s="215"/>
+      <c r="N106" s="229"/>
+      <c r="O106" s="230"/>
+      <c r="P106" s="231"/>
+      <c r="Q106" s="232"/>
     </row>
     <row r="107" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A107" s="119">
         <v>104</v>
       </c>
-      <c r="B107" s="223" t="s">
+      <c r="B107" s="222" t="s">
         <v>227</v>
       </c>
-      <c r="C107" s="224" t="s">
+      <c r="C107" s="223" t="s">
         <v>223</v>
       </c>
-      <c r="D107" s="225"/>
-      <c r="E107" s="226" t="s">
+      <c r="D107" s="224"/>
+      <c r="E107" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="F107" s="226" t="s">
+      <c r="F107" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="G107" s="227">
+      <c r="G107" s="226">
         <v>43817</v>
       </c>
-      <c r="H107" s="228"/>
-      <c r="I107" s="231"/>
+      <c r="H107" s="227"/>
+      <c r="I107" s="230"/>
       <c r="J107" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K107" s="229">
+      <c r="K107" s="228">
         <v>43828</v>
       </c>
-      <c r="L107" s="220" t="s">
+      <c r="L107" s="219" t="s">
         <v>123</v>
       </c>
-      <c r="M107" s="216"/>
-      <c r="N107" s="230"/>
-      <c r="O107" s="231"/>
-      <c r="P107" s="232"/>
-      <c r="Q107" s="233"/>
+      <c r="M107" s="215"/>
+      <c r="N107" s="229"/>
+      <c r="O107" s="230"/>
+      <c r="P107" s="231"/>
+      <c r="Q107" s="232"/>
     </row>
     <row r="108" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A108" s="119">
         <v>105</v>
       </c>
-      <c r="B108" s="223" t="s">
+      <c r="B108" s="222" t="s">
         <v>227</v>
       </c>
-      <c r="C108" s="224" t="s">
+      <c r="C108" s="223" t="s">
         <v>237</v>
       </c>
-      <c r="D108" s="225"/>
-      <c r="E108" s="226" t="s">
+      <c r="D108" s="224"/>
+      <c r="E108" s="225" t="s">
         <v>272</v>
       </c>
-      <c r="F108" s="226" t="s">
+      <c r="F108" s="225" t="s">
         <v>270</v>
       </c>
-      <c r="G108" s="227">
+      <c r="G108" s="226">
         <v>43824</v>
       </c>
-      <c r="H108" s="228"/>
-      <c r="I108" s="231"/>
+      <c r="H108" s="227"/>
+      <c r="I108" s="230"/>
       <c r="J108" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K108" s="229">
+      <c r="K108" s="228">
         <v>43828</v>
       </c>
-      <c r="L108" s="220" t="s">
+      <c r="L108" s="219" t="s">
         <v>123</v>
       </c>
-      <c r="M108" s="216"/>
-      <c r="N108" s="230"/>
-      <c r="O108" s="231"/>
-      <c r="P108" s="232"/>
-      <c r="Q108" s="233"/>
+      <c r="M108" s="215"/>
+      <c r="N108" s="229"/>
+      <c r="O108" s="230"/>
+      <c r="P108" s="231"/>
+      <c r="Q108" s="232"/>
     </row>
     <row r="109" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A109" s="119">
@@ -18183,10 +18154,10 @@
       <c r="R109" s="112" t="s">
         <v>322</v>
       </c>
-      <c r="S109" s="375">
+      <c r="S109" s="374">
         <v>1</v>
       </c>
-      <c r="T109" s="374">
+      <c r="T109" s="373">
         <f>S109*1.5</f>
         <v>1.5</v>
       </c>
@@ -18195,112 +18166,112 @@
       <c r="A110" s="119">
         <v>107</v>
       </c>
-      <c r="B110" s="223" t="s">
+      <c r="B110" s="222" t="s">
         <v>279</v>
       </c>
-      <c r="C110" s="224" t="s">
+      <c r="C110" s="223" t="s">
         <v>239</v>
       </c>
-      <c r="D110" s="225"/>
-      <c r="E110" s="226" t="s">
+      <c r="D110" s="224"/>
+      <c r="E110" s="225" t="s">
         <v>272</v>
       </c>
-      <c r="F110" s="226" t="s">
+      <c r="F110" s="225" t="s">
         <v>270</v>
       </c>
-      <c r="G110" s="227">
+      <c r="G110" s="226">
         <v>43823</v>
       </c>
-      <c r="H110" s="228"/>
-      <c r="I110" s="231"/>
+      <c r="H110" s="227"/>
+      <c r="I110" s="230"/>
       <c r="J110" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K110" s="229">
+      <c r="K110" s="228">
         <v>43828</v>
       </c>
-      <c r="L110" s="220" t="s">
+      <c r="L110" s="219" t="s">
         <v>123</v>
       </c>
-      <c r="M110" s="216"/>
-      <c r="N110" s="230"/>
-      <c r="O110" s="231"/>
-      <c r="P110" s="232"/>
-      <c r="Q110" s="233"/>
+      <c r="M110" s="215"/>
+      <c r="N110" s="229"/>
+      <c r="O110" s="230"/>
+      <c r="P110" s="231"/>
+      <c r="Q110" s="232"/>
     </row>
     <row r="111" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A111" s="119">
         <v>108</v>
       </c>
-      <c r="B111" s="223" t="s">
+      <c r="B111" s="222" t="s">
         <v>279</v>
       </c>
-      <c r="C111" s="224" t="s">
+      <c r="C111" s="223" t="s">
         <v>240</v>
       </c>
-      <c r="D111" s="225"/>
-      <c r="E111" s="226" t="s">
+      <c r="D111" s="224"/>
+      <c r="E111" s="225" t="s">
         <v>272</v>
       </c>
-      <c r="F111" s="226" t="s">
+      <c r="F111" s="225" t="s">
         <v>270</v>
       </c>
-      <c r="G111" s="227">
+      <c r="G111" s="226">
         <v>43824</v>
       </c>
-      <c r="H111" s="228"/>
-      <c r="I111" s="231"/>
+      <c r="H111" s="227"/>
+      <c r="I111" s="230"/>
       <c r="J111" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K111" s="229">
+      <c r="K111" s="228">
         <v>43828</v>
       </c>
-      <c r="L111" s="220" t="s">
+      <c r="L111" s="219" t="s">
         <v>123</v>
       </c>
-      <c r="M111" s="216"/>
-      <c r="N111" s="230"/>
-      <c r="O111" s="231"/>
-      <c r="P111" s="232"/>
-      <c r="Q111" s="233"/>
+      <c r="M111" s="215"/>
+      <c r="N111" s="229"/>
+      <c r="O111" s="230"/>
+      <c r="P111" s="231"/>
+      <c r="Q111" s="232"/>
     </row>
     <row r="112" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A112" s="119">
         <v>109</v>
       </c>
-      <c r="B112" s="223" t="s">
+      <c r="B112" s="222" t="s">
         <v>279</v>
       </c>
-      <c r="C112" s="224" t="s">
+      <c r="C112" s="223" t="s">
         <v>241</v>
       </c>
-      <c r="D112" s="225"/>
-      <c r="E112" s="226" t="s">
+      <c r="D112" s="224"/>
+      <c r="E112" s="225" t="s">
         <v>281</v>
       </c>
-      <c r="F112" s="226" t="s">
+      <c r="F112" s="225" t="s">
         <v>280</v>
       </c>
-      <c r="G112" s="227">
+      <c r="G112" s="226">
         <v>43822</v>
       </c>
-      <c r="H112" s="228"/>
-      <c r="I112" s="231"/>
+      <c r="H112" s="227"/>
+      <c r="I112" s="230"/>
       <c r="J112" s="119" t="s">
         <v>350</v>
       </c>
-      <c r="K112" s="229">
+      <c r="K112" s="228">
         <v>43828</v>
       </c>
-      <c r="L112" s="241" t="s">
+      <c r="L112" s="240" t="s">
         <v>360</v>
       </c>
-      <c r="M112" s="216"/>
-      <c r="N112" s="230"/>
-      <c r="O112" s="231"/>
-      <c r="P112" s="232"/>
-      <c r="Q112" s="233" t="s">
+      <c r="M112" s="215"/>
+      <c r="N112" s="229"/>
+      <c r="O112" s="230"/>
+      <c r="P112" s="231"/>
+      <c r="Q112" s="232" t="s">
         <v>249</v>
       </c>
     </row>
@@ -18363,7 +18334,7 @@
       <c r="G114" s="154">
         <v>43822</v>
       </c>
-      <c r="H114" s="299" t="s">
+      <c r="H114" s="298" t="s">
         <v>304</v>
       </c>
       <c r="I114" s="158" t="s">
@@ -18391,40 +18362,40 @@
       <c r="A115" s="119">
         <v>112</v>
       </c>
-      <c r="B115" s="223" t="s">
+      <c r="B115" s="222" t="s">
         <v>279</v>
       </c>
-      <c r="C115" s="224" t="s">
+      <c r="C115" s="223" t="s">
         <v>244</v>
       </c>
-      <c r="D115" s="225"/>
-      <c r="E115" s="226" t="s">
+      <c r="D115" s="224"/>
+      <c r="E115" s="225" t="s">
         <v>281</v>
       </c>
-      <c r="F115" s="226" t="s">
+      <c r="F115" s="225" t="s">
         <v>280</v>
       </c>
-      <c r="G115" s="227">
+      <c r="G115" s="226">
         <v>43822</v>
       </c>
-      <c r="H115" s="228"/>
-      <c r="I115" s="231"/>
+      <c r="H115" s="227"/>
+      <c r="I115" s="230"/>
       <c r="J115" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="K115" s="229"/>
-      <c r="L115" s="241" t="s">
+      <c r="K115" s="228"/>
+      <c r="L115" s="240" t="s">
         <v>246</v>
       </c>
-      <c r="M115" s="216"/>
-      <c r="N115" s="230"/>
-      <c r="O115" s="231"/>
-      <c r="P115" s="232" t="s">
+      <c r="M115" s="215"/>
+      <c r="N115" s="229"/>
+      <c r="O115" s="230"/>
+      <c r="P115" s="231" t="s">
         <v>250</v>
       </c>
-      <c r="Q115" s="233"/>
+      <c r="Q115" s="232"/>
     </row>
-    <row r="116" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
+    <row r="116" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A116" s="122">
         <v>113</v>
       </c>
@@ -18444,13 +18415,13 @@
       <c r="G116" s="163">
         <v>43822</v>
       </c>
-      <c r="H116" s="267" t="s">
+      <c r="H116" s="266" t="s">
         <v>373</v>
       </c>
       <c r="I116" s="167" t="s">
         <v>101</v>
       </c>
-      <c r="J116" s="268" t="s">
+      <c r="J116" s="267" t="s">
         <v>348</v>
       </c>
       <c r="K116" s="165">
@@ -18473,150 +18444,150 @@
       </c>
     </row>
     <row r="117" spans="1:20" ht="105.75" hidden="1" customHeight="1">
-      <c r="A117" s="216">
+      <c r="A117" s="215">
         <v>114</v>
       </c>
-      <c r="B117" s="247" t="s">
+      <c r="B117" s="246" t="s">
         <v>306</v>
       </c>
-      <c r="C117" s="248" t="s">
+      <c r="C117" s="247" t="s">
         <v>307</v>
       </c>
-      <c r="D117" s="248"/>
-      <c r="E117" s="249" t="s">
+      <c r="D117" s="247"/>
+      <c r="E117" s="248" t="s">
         <v>269</v>
       </c>
-      <c r="F117" s="249" t="s">
+      <c r="F117" s="248" t="s">
         <v>269</v>
       </c>
-      <c r="G117" s="250">
+      <c r="G117" s="249">
         <v>43825</v>
       </c>
-      <c r="H117" s="251" t="s">
+      <c r="H117" s="250" t="s">
         <v>312</v>
       </c>
-      <c r="I117" s="252" t="s">
+      <c r="I117" s="251" t="s">
         <v>16</v>
       </c>
-      <c r="J117" s="247"/>
-      <c r="K117" s="247"/>
-      <c r="L117" s="247" t="s">
+      <c r="J117" s="246"/>
+      <c r="K117" s="246"/>
+      <c r="L117" s="246" t="s">
         <v>347</v>
       </c>
-      <c r="M117" s="247"/>
-      <c r="N117" s="247"/>
-      <c r="O117" s="247"/>
-      <c r="P117" s="232"/>
-      <c r="Q117" s="253"/>
+      <c r="M117" s="246"/>
+      <c r="N117" s="246"/>
+      <c r="O117" s="246"/>
+      <c r="P117" s="231"/>
+      <c r="Q117" s="252"/>
       <c r="S117" s="3"/>
       <c r="T117" s="3"/>
     </row>
     <row r="118" spans="1:20" ht="35.4" hidden="1" customHeight="1">
-      <c r="A118" s="216">
+      <c r="A118" s="215">
         <v>115</v>
       </c>
-      <c r="B118" s="247" t="s">
+      <c r="B118" s="246" t="s">
         <v>309</v>
       </c>
-      <c r="C118" s="287" t="s">
+      <c r="C118" s="286" t="s">
         <v>310</v>
       </c>
-      <c r="D118" s="248"/>
-      <c r="E118" s="249" t="s">
+      <c r="D118" s="247"/>
+      <c r="E118" s="248" t="s">
         <v>281</v>
       </c>
-      <c r="F118" s="249" t="s">
+      <c r="F118" s="248" t="s">
         <v>280</v>
       </c>
-      <c r="G118" s="250">
+      <c r="G118" s="249">
         <v>43825</v>
       </c>
-      <c r="H118" s="254"/>
-      <c r="I118" s="252" t="s">
+      <c r="H118" s="253"/>
+      <c r="I118" s="251" t="s">
         <v>16</v>
       </c>
-      <c r="J118" s="247" t="s">
+      <c r="J118" s="246" t="s">
         <v>350</v>
       </c>
-      <c r="K118" s="229">
+      <c r="K118" s="228">
         <v>43836</v>
       </c>
-      <c r="L118" s="288" t="s">
+      <c r="L118" s="287" t="s">
         <v>362</v>
       </c>
-      <c r="M118" s="247"/>
-      <c r="N118" s="247"/>
-      <c r="O118" s="247"/>
-      <c r="P118" s="232" t="s">
+      <c r="M118" s="246"/>
+      <c r="N118" s="246"/>
+      <c r="O118" s="246"/>
+      <c r="P118" s="231" t="s">
         <v>367</v>
       </c>
-      <c r="Q118" s="253"/>
+      <c r="Q118" s="252"/>
       <c r="S118" s="3"/>
       <c r="T118" s="3"/>
     </row>
     <row r="119" spans="1:20" ht="40.200000000000003" hidden="1" customHeight="1">
-      <c r="A119" s="216">
+      <c r="A119" s="215">
         <v>116</v>
       </c>
-      <c r="B119" s="247" t="s">
+      <c r="B119" s="246" t="s">
         <v>309</v>
       </c>
-      <c r="C119" s="248" t="s">
+      <c r="C119" s="247" t="s">
         <v>332</v>
       </c>
-      <c r="D119" s="248"/>
-      <c r="E119" s="249" t="s">
+      <c r="D119" s="247"/>
+      <c r="E119" s="248" t="s">
         <v>269</v>
       </c>
-      <c r="F119" s="249" t="s">
+      <c r="F119" s="248" t="s">
         <v>269</v>
       </c>
-      <c r="G119" s="250">
+      <c r="G119" s="249">
         <v>43825</v>
       </c>
-      <c r="H119" s="254"/>
-      <c r="I119" s="252" t="s">
+      <c r="H119" s="253"/>
+      <c r="I119" s="251" t="s">
         <v>16</v>
       </c>
-      <c r="J119" s="247"/>
-      <c r="K119" s="247"/>
-      <c r="L119" s="247" t="s">
+      <c r="J119" s="246"/>
+      <c r="K119" s="246"/>
+      <c r="L119" s="246" t="s">
         <v>347</v>
       </c>
-      <c r="M119" s="247"/>
-      <c r="N119" s="247"/>
-      <c r="O119" s="247"/>
-      <c r="P119" s="232" t="s">
+      <c r="M119" s="246"/>
+      <c r="N119" s="246"/>
+      <c r="O119" s="246"/>
+      <c r="P119" s="231" t="s">
         <v>351</v>
       </c>
-      <c r="Q119" s="253"/>
+      <c r="Q119" s="252"/>
       <c r="S119" s="3"/>
       <c r="T119" s="3"/>
     </row>
-    <row r="120" spans="1:20" ht="39.6" customHeight="1">
+    <row r="120" spans="1:20" ht="39.6" hidden="1" customHeight="1">
       <c r="A120" s="130">
         <v>117</v>
       </c>
-      <c r="B120" s="269" t="s">
+      <c r="B120" s="268" t="s">
         <v>306</v>
       </c>
-      <c r="C120" s="275" t="s">
+      <c r="C120" s="274" t="s">
         <v>311</v>
       </c>
-      <c r="D120" s="270"/>
-      <c r="E120" s="271" t="s">
+      <c r="D120" s="269"/>
+      <c r="E120" s="270" t="s">
         <v>269</v>
       </c>
-      <c r="F120" s="271" t="s">
+      <c r="F120" s="270" t="s">
         <v>269</v>
       </c>
-      <c r="G120" s="272">
+      <c r="G120" s="271">
         <v>43825</v>
       </c>
-      <c r="H120" s="276" t="s">
+      <c r="H120" s="275" t="s">
         <v>313</v>
       </c>
-      <c r="I120" s="273" t="s">
+      <c r="I120" s="272" t="s">
         <v>16</v>
       </c>
       <c r="J120" s="196" t="s">
@@ -18625,59 +18596,59 @@
       <c r="K120" s="165">
         <v>43836</v>
       </c>
-      <c r="L120" s="277" t="s">
+      <c r="L120" s="276" t="s">
         <v>331</v>
       </c>
-      <c r="M120" s="269"/>
-      <c r="N120" s="269"/>
-      <c r="O120" s="269"/>
+      <c r="M120" s="268"/>
+      <c r="N120" s="268"/>
+      <c r="O120" s="268"/>
       <c r="P120" s="168" t="s">
         <v>353</v>
       </c>
-      <c r="Q120" s="274"/>
+      <c r="Q120" s="273"/>
       <c r="S120" s="3"/>
       <c r="T120" s="3"/>
     </row>
     <row r="121" spans="1:20" ht="31.2" hidden="1" customHeight="1">
-      <c r="A121" s="216">
+      <c r="A121" s="215">
         <v>118</v>
       </c>
-      <c r="B121" s="247" t="s">
+      <c r="B121" s="246" t="s">
         <v>309</v>
       </c>
-      <c r="C121" s="240" t="s">
+      <c r="C121" s="239" t="s">
         <v>314</v>
       </c>
-      <c r="D121" s="248"/>
-      <c r="E121" s="249" t="s">
+      <c r="D121" s="247"/>
+      <c r="E121" s="248" t="s">
         <v>269</v>
       </c>
-      <c r="F121" s="249" t="s">
+      <c r="F121" s="248" t="s">
         <v>269</v>
       </c>
-      <c r="G121" s="250">
+      <c r="G121" s="249">
         <v>43825</v>
       </c>
-      <c r="H121" s="240" t="s">
+      <c r="H121" s="239" t="s">
         <v>314</v>
       </c>
-      <c r="I121" s="252" t="s">
+      <c r="I121" s="251" t="s">
         <v>16</v>
       </c>
-      <c r="J121" s="286" t="s">
+      <c r="J121" s="285" t="s">
         <v>349</v>
       </c>
-      <c r="K121" s="229">
+      <c r="K121" s="228">
         <v>43836</v>
       </c>
-      <c r="L121" s="257" t="s">
+      <c r="L121" s="256" t="s">
         <v>362</v>
       </c>
-      <c r="M121" s="247"/>
-      <c r="N121" s="247"/>
-      <c r="O121" s="247"/>
-      <c r="P121" s="232"/>
-      <c r="Q121" s="253"/>
+      <c r="M121" s="246"/>
+      <c r="N121" s="246"/>
+      <c r="O121" s="246"/>
+      <c r="P121" s="231"/>
+      <c r="Q121" s="252"/>
       <c r="S121" s="3"/>
       <c r="T121" s="3"/>
     </row>
@@ -18685,256 +18656,256 @@
       <c r="A122" s="144">
         <v>119</v>
       </c>
-      <c r="B122" s="278" t="s">
+      <c r="B122" s="277" t="s">
         <v>309</v>
       </c>
-      <c r="C122" s="279" t="s">
+      <c r="C122" s="278" t="s">
         <v>315</v>
       </c>
-      <c r="D122" s="279"/>
-      <c r="E122" s="280" t="s">
+      <c r="D122" s="278"/>
+      <c r="E122" s="279" t="s">
         <v>269</v>
       </c>
-      <c r="F122" s="280" t="s">
+      <c r="F122" s="279" t="s">
         <v>269</v>
       </c>
-      <c r="G122" s="281">
+      <c r="G122" s="280">
         <v>43825</v>
       </c>
-      <c r="H122" s="279" t="s">
+      <c r="H122" s="278" t="s">
         <v>315</v>
       </c>
-      <c r="I122" s="283" t="s">
+      <c r="I122" s="282" t="s">
         <v>16</v>
       </c>
-      <c r="J122" s="278" t="s">
+      <c r="J122" s="277" t="s">
         <v>330</v>
       </c>
-      <c r="K122" s="278"/>
-      <c r="L122" s="278" t="s">
+      <c r="K122" s="277"/>
+      <c r="L122" s="277" t="s">
         <v>333</v>
       </c>
-      <c r="M122" s="278"/>
-      <c r="N122" s="278"/>
-      <c r="O122" s="278"/>
+      <c r="M122" s="277"/>
+      <c r="N122" s="277"/>
+      <c r="O122" s="277"/>
       <c r="P122" s="186"/>
-      <c r="Q122" s="284" t="s">
+      <c r="Q122" s="283" t="s">
         <v>144</v>
       </c>
       <c r="S122" s="36">
         <v>5</v>
       </c>
-      <c r="T122" s="374">
+      <c r="T122" s="373">
         <f>S122*1.5</f>
         <v>7.5</v>
       </c>
     </row>
     <row r="123" spans="1:20" ht="64.5" hidden="1" customHeight="1">
-      <c r="A123" s="216">
+      <c r="A123" s="215">
         <v>120</v>
       </c>
-      <c r="B123" s="247" t="s">
+      <c r="B123" s="246" t="s">
         <v>309</v>
       </c>
-      <c r="C123" s="248" t="s">
+      <c r="C123" s="247" t="s">
         <v>316</v>
       </c>
-      <c r="D123" s="248"/>
-      <c r="E123" s="249" t="s">
+      <c r="D123" s="247"/>
+      <c r="E123" s="248" t="s">
         <v>269</v>
       </c>
-      <c r="F123" s="249" t="s">
+      <c r="F123" s="248" t="s">
         <v>269</v>
       </c>
-      <c r="G123" s="250">
+      <c r="G123" s="249">
         <v>43825</v>
       </c>
-      <c r="H123" s="248" t="s">
+      <c r="H123" s="247" t="s">
         <v>316</v>
       </c>
-      <c r="I123" s="252" t="s">
+      <c r="I123" s="251" t="s">
         <v>16</v>
       </c>
-      <c r="J123" s="286" t="s">
+      <c r="J123" s="285" t="s">
         <v>349</v>
       </c>
-      <c r="K123" s="229">
+      <c r="K123" s="228">
         <v>43836</v>
       </c>
-      <c r="L123" s="257" t="s">
+      <c r="L123" s="256" t="s">
         <v>369</v>
       </c>
-      <c r="M123" s="247"/>
-      <c r="N123" s="247"/>
-      <c r="O123" s="247"/>
-      <c r="P123" s="232"/>
-      <c r="Q123" s="253"/>
+      <c r="M123" s="246"/>
+      <c r="N123" s="246"/>
+      <c r="O123" s="246"/>
+      <c r="P123" s="231"/>
+      <c r="Q123" s="252"/>
       <c r="S123" s="3"/>
       <c r="T123" s="3"/>
     </row>
     <row r="124" spans="1:20" ht="150" hidden="1" customHeight="1">
-      <c r="A124" s="216">
+      <c r="A124" s="215">
         <v>121</v>
       </c>
-      <c r="B124" s="247" t="s">
+      <c r="B124" s="246" t="s">
         <v>309</v>
       </c>
-      <c r="C124" s="289" t="s">
+      <c r="C124" s="288" t="s">
         <v>317</v>
       </c>
-      <c r="D124" s="248"/>
-      <c r="E124" s="249" t="s">
+      <c r="D124" s="247"/>
+      <c r="E124" s="248" t="s">
         <v>269</v>
       </c>
-      <c r="F124" s="249" t="s">
+      <c r="F124" s="248" t="s">
         <v>269</v>
       </c>
-      <c r="G124" s="250">
+      <c r="G124" s="249">
         <v>43825</v>
       </c>
-      <c r="H124" s="254" t="s">
+      <c r="H124" s="253" t="s">
         <v>318</v>
       </c>
-      <c r="I124" s="252" t="s">
+      <c r="I124" s="251" t="s">
         <v>16</v>
       </c>
-      <c r="J124" s="286" t="s">
+      <c r="J124" s="285" t="s">
         <v>354</v>
       </c>
-      <c r="K124" s="229">
+      <c r="K124" s="228">
         <v>43836</v>
       </c>
-      <c r="L124" s="257" t="s">
+      <c r="L124" s="256" t="s">
         <v>362</v>
       </c>
-      <c r="M124" s="247"/>
-      <c r="N124" s="247"/>
-      <c r="O124" s="247"/>
-      <c r="P124" s="232"/>
-      <c r="Q124" s="253"/>
+      <c r="M124" s="246"/>
+      <c r="N124" s="246"/>
+      <c r="O124" s="246"/>
+      <c r="P124" s="231"/>
+      <c r="Q124" s="252"/>
       <c r="S124" s="3"/>
       <c r="T124" s="3"/>
     </row>
     <row r="125" spans="1:20" ht="36.6" hidden="1" customHeight="1">
-      <c r="A125" s="325">
+      <c r="A125" s="324">
         <v>122</v>
       </c>
-      <c r="B125" s="353" t="s">
+      <c r="B125" s="352" t="s">
         <v>391</v>
       </c>
-      <c r="C125" s="354" t="s">
+      <c r="C125" s="353" t="s">
         <v>319</v>
       </c>
-      <c r="D125" s="355"/>
-      <c r="E125" s="356" t="s">
+      <c r="D125" s="354"/>
+      <c r="E125" s="355" t="s">
         <v>269</v>
       </c>
-      <c r="F125" s="356" t="s">
+      <c r="F125" s="355" t="s">
         <v>269</v>
       </c>
-      <c r="G125" s="357">
+      <c r="G125" s="356">
         <v>43825</v>
       </c>
-      <c r="H125" s="354" t="s">
+      <c r="H125" s="353" t="s">
         <v>319</v>
       </c>
-      <c r="I125" s="353" t="s">
+      <c r="I125" s="352" t="s">
         <v>16</v>
       </c>
-      <c r="J125" s="353" t="s">
+      <c r="J125" s="352" t="s">
         <v>330</v>
       </c>
-      <c r="K125" s="353"/>
-      <c r="L125" s="358" t="s">
+      <c r="K125" s="352"/>
+      <c r="L125" s="357" t="s">
         <v>333</v>
       </c>
-      <c r="M125" s="353"/>
-      <c r="N125" s="353"/>
-      <c r="O125" s="353"/>
-      <c r="P125" s="327" t="s">
+      <c r="M125" s="352"/>
+      <c r="N125" s="352"/>
+      <c r="O125" s="352"/>
+      <c r="P125" s="326" t="s">
         <v>334</v>
       </c>
-      <c r="Q125" s="359"/>
+      <c r="Q125" s="358"/>
       <c r="S125" s="3"/>
       <c r="T125" s="3"/>
     </row>
     <row r="126" spans="1:20" ht="112.5" hidden="1" customHeight="1">
-      <c r="A126" s="216">
+      <c r="A126" s="215">
         <v>123</v>
       </c>
-      <c r="B126" s="247" t="s">
+      <c r="B126" s="246" t="s">
         <v>309</v>
       </c>
-      <c r="C126" s="255" t="s">
+      <c r="C126" s="254" t="s">
         <v>320</v>
       </c>
-      <c r="D126" s="248"/>
-      <c r="E126" s="249" t="s">
+      <c r="D126" s="247"/>
+      <c r="E126" s="248" t="s">
         <v>281</v>
       </c>
-      <c r="F126" s="249" t="s">
+      <c r="F126" s="248" t="s">
         <v>280</v>
       </c>
-      <c r="G126" s="250">
+      <c r="G126" s="249">
         <v>43825</v>
       </c>
-      <c r="H126" s="256" t="s">
+      <c r="H126" s="255" t="s">
         <v>304</v>
       </c>
-      <c r="I126" s="252" t="s">
+      <c r="I126" s="251" t="s">
         <v>16</v>
       </c>
-      <c r="J126" s="247" t="s">
+      <c r="J126" s="246" t="s">
         <v>330</v>
       </c>
-      <c r="K126" s="247"/>
-      <c r="L126" s="257" t="s">
+      <c r="K126" s="246"/>
+      <c r="L126" s="256" t="s">
         <v>335</v>
       </c>
-      <c r="M126" s="247"/>
-      <c r="N126" s="247"/>
-      <c r="O126" s="247"/>
-      <c r="P126" s="232" t="s">
+      <c r="M126" s="246"/>
+      <c r="N126" s="246"/>
+      <c r="O126" s="246"/>
+      <c r="P126" s="231" t="s">
         <v>336</v>
       </c>
-      <c r="Q126" s="253"/>
+      <c r="Q126" s="252"/>
       <c r="S126" s="3"/>
       <c r="T126" s="3"/>
     </row>
     <row r="127" spans="1:20" ht="45" hidden="1" customHeight="1">
-      <c r="A127" s="216">
+      <c r="A127" s="215">
         <v>124</v>
       </c>
-      <c r="B127" s="247" t="s">
+      <c r="B127" s="246" t="s">
         <v>309</v>
       </c>
-      <c r="C127" s="248" t="s">
+      <c r="C127" s="247" t="s">
         <v>363</v>
       </c>
-      <c r="D127" s="248"/>
-      <c r="E127" s="249" t="s">
+      <c r="D127" s="247"/>
+      <c r="E127" s="248" t="s">
         <v>281</v>
       </c>
-      <c r="F127" s="249" t="s">
+      <c r="F127" s="248" t="s">
         <v>280</v>
       </c>
-      <c r="G127" s="250">
+      <c r="G127" s="249">
         <v>43825</v>
       </c>
-      <c r="H127" s="254"/>
-      <c r="I127" s="252" t="s">
+      <c r="H127" s="253"/>
+      <c r="I127" s="251" t="s">
         <v>16</v>
       </c>
-      <c r="J127" s="247"/>
-      <c r="K127" s="247"/>
-      <c r="L127" s="247" t="s">
+      <c r="J127" s="246"/>
+      <c r="K127" s="246"/>
+      <c r="L127" s="246" t="s">
         <v>408</v>
       </c>
-      <c r="M127" s="247"/>
-      <c r="N127" s="247"/>
-      <c r="O127" s="247"/>
-      <c r="P127" s="232"/>
-      <c r="Q127" s="253"/>
+      <c r="M127" s="246"/>
+      <c r="N127" s="246"/>
+      <c r="O127" s="246"/>
+      <c r="P127" s="231"/>
+      <c r="Q127" s="252"/>
       <c r="S127" s="3"/>
       <c r="T127" s="3"/>
     </row>
@@ -18942,285 +18913,285 @@
       <c r="A128" s="144">
         <v>125</v>
       </c>
-      <c r="B128" s="278" t="s">
+      <c r="B128" s="277" t="s">
         <v>309</v>
       </c>
-      <c r="C128" s="279" t="s">
+      <c r="C128" s="278" t="s">
         <v>321</v>
       </c>
-      <c r="D128" s="279"/>
-      <c r="E128" s="280" t="s">
+      <c r="D128" s="278"/>
+      <c r="E128" s="279" t="s">
         <v>281</v>
       </c>
-      <c r="F128" s="280" t="s">
+      <c r="F128" s="279" t="s">
         <v>280</v>
       </c>
-      <c r="G128" s="281">
+      <c r="G128" s="280">
         <v>43825</v>
       </c>
-      <c r="H128" s="282"/>
-      <c r="I128" s="283" t="s">
+      <c r="H128" s="281"/>
+      <c r="I128" s="282" t="s">
         <v>16</v>
       </c>
-      <c r="J128" s="278" t="s">
+      <c r="J128" s="277" t="s">
         <v>330</v>
       </c>
-      <c r="K128" s="278"/>
-      <c r="L128" s="278" t="s">
+      <c r="K128" s="277"/>
+      <c r="L128" s="277" t="s">
         <v>333</v>
       </c>
-      <c r="M128" s="278"/>
-      <c r="N128" s="278"/>
-      <c r="O128" s="278"/>
+      <c r="M128" s="277"/>
+      <c r="N128" s="277"/>
+      <c r="O128" s="277"/>
       <c r="P128" s="186"/>
-      <c r="Q128" s="284" t="s">
+      <c r="Q128" s="283" t="s">
         <v>144</v>
       </c>
       <c r="S128" s="36">
         <v>1</v>
       </c>
-      <c r="T128" s="374">
+      <c r="T128" s="373">
         <f>S128*1.5</f>
         <v>1.5</v>
       </c>
     </row>
     <row r="129" spans="1:20" s="191" customFormat="1" ht="26.25" hidden="1" customHeight="1">
-      <c r="A129" s="216">
+      <c r="A129" s="215">
         <v>126</v>
       </c>
-      <c r="B129" s="290" t="s">
+      <c r="B129" s="289" t="s">
         <v>24</v>
       </c>
-      <c r="C129" s="209" t="s">
+      <c r="C129" s="208" t="s">
         <v>324</v>
       </c>
-      <c r="D129" s="235"/>
-      <c r="E129" s="291" t="s">
+      <c r="D129" s="234"/>
+      <c r="E129" s="290" t="s">
         <v>325</v>
       </c>
-      <c r="F129" s="292" t="s">
+      <c r="F129" s="291" t="s">
         <v>85</v>
       </c>
-      <c r="G129" s="293">
+      <c r="G129" s="292">
         <v>43825</v>
       </c>
-      <c r="H129" s="294"/>
-      <c r="I129" s="295" t="s">
+      <c r="H129" s="293"/>
+      <c r="I129" s="294" t="s">
         <v>16</v>
       </c>
-      <c r="J129" s="296" t="s">
+      <c r="J129" s="295" t="s">
         <v>330</v>
       </c>
-      <c r="K129" s="229">
+      <c r="K129" s="228">
         <v>43836</v>
       </c>
-      <c r="L129" s="257" t="s">
+      <c r="L129" s="256" t="s">
         <v>362</v>
       </c>
-      <c r="M129" s="296"/>
-      <c r="N129" s="296"/>
-      <c r="O129" s="296"/>
-      <c r="P129" s="297" t="s">
+      <c r="M129" s="295"/>
+      <c r="N129" s="295"/>
+      <c r="O129" s="295"/>
+      <c r="P129" s="296" t="s">
         <v>368</v>
       </c>
-      <c r="Q129" s="274"/>
+      <c r="Q129" s="273"/>
     </row>
     <row r="130" spans="1:20" s="191" customFormat="1" ht="43.2" hidden="1">
-      <c r="A130" s="216">
+      <c r="A130" s="215">
         <v>127</v>
       </c>
-      <c r="B130" s="290" t="s">
+      <c r="B130" s="289" t="s">
         <v>24</v>
       </c>
-      <c r="C130" s="209" t="s">
+      <c r="C130" s="208" t="s">
         <v>326</v>
       </c>
-      <c r="D130" s="235"/>
-      <c r="E130" s="291" t="s">
+      <c r="D130" s="234"/>
+      <c r="E130" s="290" t="s">
         <v>325</v>
       </c>
-      <c r="F130" s="292" t="s">
+      <c r="F130" s="291" t="s">
         <v>85</v>
       </c>
-      <c r="G130" s="293">
+      <c r="G130" s="292">
         <v>43825</v>
       </c>
-      <c r="H130" s="298" t="s">
+      <c r="H130" s="297" t="s">
         <v>327</v>
       </c>
-      <c r="I130" s="295" t="s">
+      <c r="I130" s="294" t="s">
         <v>16</v>
       </c>
-      <c r="J130" s="296" t="s">
+      <c r="J130" s="295" t="s">
         <v>330</v>
       </c>
-      <c r="K130" s="229">
+      <c r="K130" s="228">
         <v>43836</v>
       </c>
-      <c r="L130" s="257" t="s">
+      <c r="L130" s="256" t="s">
         <v>362</v>
       </c>
-      <c r="M130" s="296"/>
-      <c r="N130" s="296"/>
-      <c r="O130" s="296"/>
-      <c r="P130" s="297"/>
-      <c r="Q130" s="253"/>
+      <c r="M130" s="295"/>
+      <c r="N130" s="295"/>
+      <c r="O130" s="295"/>
+      <c r="P130" s="296"/>
+      <c r="Q130" s="252"/>
     </row>
-    <row r="131" spans="1:20" s="191" customFormat="1" ht="26.25" customHeight="1">
+    <row r="131" spans="1:20" s="191" customFormat="1" ht="26.25" hidden="1" customHeight="1">
       <c r="A131" s="136">
         <v>128</v>
       </c>
-      <c r="B131" s="198" t="s">
+      <c r="B131" s="197" t="s">
         <v>74</v>
       </c>
-      <c r="C131" s="199" t="s">
+      <c r="C131" s="198" t="s">
         <v>328</v>
       </c>
-      <c r="D131" s="200"/>
-      <c r="E131" s="201" t="s">
+      <c r="D131" s="199"/>
+      <c r="E131" s="200" t="s">
         <v>325</v>
       </c>
-      <c r="F131" s="202" t="s">
+      <c r="F131" s="201" t="s">
         <v>85</v>
       </c>
-      <c r="G131" s="203">
+      <c r="G131" s="202">
         <v>43825</v>
       </c>
-      <c r="H131" s="204"/>
-      <c r="I131" s="205" t="s">
+      <c r="H131" s="203"/>
+      <c r="I131" s="204" t="s">
         <v>16</v>
       </c>
-      <c r="J131" s="205"/>
+      <c r="J131" s="204"/>
       <c r="K131" s="155"/>
-      <c r="L131" s="206" t="s">
+      <c r="L131" s="205" t="s">
         <v>331</v>
       </c>
-      <c r="M131" s="204"/>
-      <c r="N131" s="204"/>
-      <c r="O131" s="207"/>
-      <c r="P131" s="208" t="s">
+      <c r="M131" s="203"/>
+      <c r="N131" s="203"/>
+      <c r="O131" s="206"/>
+      <c r="P131" s="207" t="s">
         <v>337</v>
       </c>
-      <c r="Q131" s="285"/>
+      <c r="Q131" s="284"/>
     </row>
     <row r="132" spans="1:20" s="191" customFormat="1" ht="26.25" hidden="1" customHeight="1">
-      <c r="A132" s="216">
+      <c r="A132" s="215">
         <v>129</v>
       </c>
-      <c r="B132" s="258" t="s">
+      <c r="B132" s="257" t="s">
         <v>74</v>
       </c>
-      <c r="C132" s="259" t="s">
+      <c r="C132" s="258" t="s">
         <v>329</v>
       </c>
-      <c r="D132" s="235"/>
-      <c r="E132" s="260" t="s">
+      <c r="D132" s="234"/>
+      <c r="E132" s="259" t="s">
         <v>325</v>
       </c>
-      <c r="F132" s="261" t="s">
+      <c r="F132" s="260" t="s">
         <v>85</v>
       </c>
-      <c r="G132" s="262">
+      <c r="G132" s="261">
         <v>43825</v>
       </c>
-      <c r="H132" s="246"/>
-      <c r="I132" s="263" t="s">
+      <c r="H132" s="245"/>
+      <c r="I132" s="262" t="s">
         <v>16</v>
       </c>
-      <c r="J132" s="263"/>
-      <c r="K132" s="264"/>
-      <c r="L132" s="246" t="s">
+      <c r="J132" s="262"/>
+      <c r="K132" s="263"/>
+      <c r="L132" s="245" t="s">
         <v>123</v>
       </c>
-      <c r="M132" s="246"/>
-      <c r="N132" s="246"/>
-      <c r="O132" s="265"/>
-      <c r="P132" s="266"/>
-      <c r="Q132" s="253"/>
+      <c r="M132" s="245"/>
+      <c r="N132" s="245"/>
+      <c r="O132" s="264"/>
+      <c r="P132" s="265"/>
+      <c r="Q132" s="252"/>
     </row>
     <row r="133" spans="1:20" ht="104.4" hidden="1" customHeight="1">
-      <c r="A133" s="269">
+      <c r="A133" s="268">
         <v>130</v>
       </c>
-      <c r="B133" s="360" t="s">
+      <c r="B133" s="359" t="s">
         <v>306</v>
       </c>
-      <c r="C133" s="361" t="s">
+      <c r="C133" s="360" t="s">
         <v>376</v>
       </c>
-      <c r="D133" s="270"/>
-      <c r="E133" s="362" t="s">
+      <c r="D133" s="269"/>
+      <c r="E133" s="361" t="s">
         <v>377</v>
       </c>
-      <c r="F133" s="277" t="s">
+      <c r="F133" s="276" t="s">
         <v>378</v>
       </c>
-      <c r="G133" s="363">
+      <c r="G133" s="362">
         <v>43836</v>
       </c>
-      <c r="H133" s="364"/>
-      <c r="I133" s="365" t="s">
+      <c r="H133" s="363"/>
+      <c r="I133" s="364" t="s">
         <v>16</v>
       </c>
-      <c r="J133" s="364" t="s">
+      <c r="J133" s="363" t="s">
         <v>400</v>
       </c>
-      <c r="K133" s="363">
+      <c r="K133" s="362">
         <v>43838</v>
       </c>
-      <c r="L133" s="269" t="s">
+      <c r="L133" s="268" t="s">
         <v>394</v>
       </c>
-      <c r="M133" s="269"/>
-      <c r="N133" s="269"/>
-      <c r="O133" s="269"/>
+      <c r="M133" s="268"/>
+      <c r="N133" s="268"/>
+      <c r="O133" s="268"/>
       <c r="P133" s="168"/>
-      <c r="Q133" s="269"/>
-      <c r="R133" s="300"/>
+      <c r="Q133" s="268"/>
+      <c r="R133" s="299"/>
       <c r="S133" s="3"/>
       <c r="T133" s="3"/>
     </row>
     <row r="134" spans="1:20" ht="93.6" hidden="1" customHeight="1">
-      <c r="A134" s="269">
+      <c r="A134" s="268">
         <v>131</v>
       </c>
-      <c r="B134" s="360" t="s">
+      <c r="B134" s="359" t="s">
         <v>306</v>
       </c>
-      <c r="C134" s="362" t="s">
+      <c r="C134" s="361" t="s">
         <v>379</v>
       </c>
-      <c r="D134" s="270"/>
-      <c r="E134" s="362" t="s">
+      <c r="D134" s="269"/>
+      <c r="E134" s="361" t="s">
         <v>380</v>
       </c>
-      <c r="F134" s="277" t="s">
+      <c r="F134" s="276" t="s">
         <v>381</v>
       </c>
-      <c r="G134" s="363">
+      <c r="G134" s="362">
         <v>43836</v>
       </c>
-      <c r="H134" s="364"/>
-      <c r="I134" s="365" t="s">
+      <c r="H134" s="363"/>
+      <c r="I134" s="364" t="s">
         <v>16</v>
       </c>
-      <c r="J134" s="269" t="s">
+      <c r="J134" s="268" t="s">
         <v>393</v>
       </c>
-      <c r="K134" s="363">
+      <c r="K134" s="362">
         <v>43844</v>
       </c>
-      <c r="L134" s="269" t="s">
+      <c r="L134" s="268" t="s">
         <v>394</v>
       </c>
-      <c r="M134" s="269"/>
-      <c r="N134" s="269"/>
-      <c r="O134" s="269"/>
+      <c r="M134" s="268"/>
+      <c r="N134" s="268"/>
+      <c r="O134" s="268"/>
       <c r="P134" s="168" t="s">
         <v>399</v>
       </c>
-      <c r="Q134" s="269"/>
-      <c r="R134" s="300"/>
+      <c r="Q134" s="268"/>
+      <c r="R134" s="299"/>
       <c r="S134" s="3"/>
       <c r="T134" s="3"/>
     </row>
@@ -19228,228 +19199,233 @@
       <c r="A135" s="144">
         <v>132</v>
       </c>
-      <c r="B135" s="368" t="s">
+      <c r="B135" s="367" t="s">
         <v>382</v>
       </c>
-      <c r="C135" s="369" t="s">
+      <c r="C135" s="368" t="s">
         <v>383</v>
       </c>
-      <c r="D135" s="279"/>
-      <c r="E135" s="368" t="s">
+      <c r="D135" s="278"/>
+      <c r="E135" s="367" t="s">
         <v>377</v>
       </c>
-      <c r="F135" s="370" t="s">
+      <c r="F135" s="369" t="s">
         <v>378</v>
       </c>
-      <c r="G135" s="371">
+      <c r="G135" s="370">
         <v>43836</v>
       </c>
-      <c r="H135" s="282"/>
-      <c r="I135" s="372" t="s">
+      <c r="H135" s="281"/>
+      <c r="I135" s="371" t="s">
         <v>16</v>
       </c>
-      <c r="J135" s="278" t="s">
+      <c r="J135" s="277" t="s">
         <v>398</v>
       </c>
-      <c r="K135" s="278"/>
-      <c r="L135" s="278" t="s">
+      <c r="K135" s="277"/>
+      <c r="L135" s="277" t="s">
         <v>333</v>
       </c>
-      <c r="M135" s="278"/>
-      <c r="N135" s="278"/>
-      <c r="O135" s="278"/>
+      <c r="M135" s="277"/>
+      <c r="N135" s="277"/>
+      <c r="O135" s="277"/>
       <c r="P135" s="186"/>
-      <c r="Q135" s="278" t="s">
+      <c r="Q135" s="277" t="s">
         <v>396</v>
       </c>
-      <c r="R135" s="300"/>
+      <c r="R135" s="299"/>
       <c r="S135" s="36">
         <v>2</v>
       </c>
-      <c r="T135" s="374">
+      <c r="T135" s="373">
         <f>S135*1.5</f>
         <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:20" ht="33" hidden="1" customHeight="1">
-      <c r="A136" s="269">
+      <c r="A136" s="268">
         <v>133</v>
       </c>
-      <c r="B136" s="270" t="s">
+      <c r="B136" s="269" t="s">
         <v>384</v>
       </c>
-      <c r="C136" s="362" t="s">
+      <c r="C136" s="361" t="s">
         <v>397</v>
       </c>
-      <c r="D136" s="270"/>
-      <c r="E136" s="362" t="s">
+      <c r="D136" s="269"/>
+      <c r="E136" s="361" t="s">
         <v>377</v>
       </c>
-      <c r="F136" s="277" t="s">
+      <c r="F136" s="276" t="s">
         <v>378</v>
       </c>
-      <c r="G136" s="363">
+      <c r="G136" s="362">
         <v>43836</v>
       </c>
-      <c r="H136" s="364"/>
-      <c r="I136" s="365" t="s">
+      <c r="H136" s="363"/>
+      <c r="I136" s="364" t="s">
         <v>16</v>
       </c>
-      <c r="J136" s="269" t="s">
+      <c r="J136" s="268" t="s">
         <v>398</v>
       </c>
-      <c r="K136" s="363">
+      <c r="K136" s="362">
         <v>43838</v>
       </c>
-      <c r="L136" s="269" t="s">
+      <c r="L136" s="268" t="s">
         <v>394</v>
       </c>
-      <c r="M136" s="269"/>
-      <c r="N136" s="269"/>
-      <c r="O136" s="269"/>
+      <c r="M136" s="268"/>
+      <c r="N136" s="268"/>
+      <c r="O136" s="268"/>
       <c r="P136" s="168"/>
-      <c r="Q136" s="269" t="s">
+      <c r="Q136" s="268" t="s">
         <v>396</v>
       </c>
-      <c r="R136" s="300"/>
+      <c r="R136" s="299"/>
       <c r="S136" s="3"/>
       <c r="T136" s="3"/>
     </row>
     <row r="137" spans="1:20" ht="24.6" hidden="1" customHeight="1">
-      <c r="A137" s="269">
+      <c r="A137" s="268">
         <v>134</v>
       </c>
-      <c r="B137" s="270" t="s">
+      <c r="B137" s="269" t="s">
         <v>385</v>
       </c>
-      <c r="C137" s="270" t="s">
+      <c r="C137" s="269" t="s">
         <v>386</v>
       </c>
-      <c r="D137" s="270"/>
-      <c r="E137" s="362" t="s">
+      <c r="D137" s="269"/>
+      <c r="E137" s="361" t="s">
         <v>377</v>
       </c>
-      <c r="F137" s="277" t="s">
+      <c r="F137" s="276" t="s">
         <v>378</v>
       </c>
-      <c r="G137" s="363">
+      <c r="G137" s="362">
         <v>43836</v>
       </c>
-      <c r="H137" s="364"/>
-      <c r="I137" s="365" t="s">
+      <c r="H137" s="363"/>
+      <c r="I137" s="364" t="s">
         <v>16</v>
       </c>
-      <c r="J137" s="269" t="s">
+      <c r="J137" s="268" t="s">
         <v>393</v>
       </c>
-      <c r="K137" s="363">
+      <c r="K137" s="362">
         <v>43839</v>
       </c>
       <c r="L137" s="130" t="s">
         <v>392</v>
       </c>
-      <c r="M137" s="269"/>
-      <c r="N137" s="269"/>
-      <c r="O137" s="269"/>
+      <c r="M137" s="268"/>
+      <c r="N137" s="268"/>
+      <c r="O137" s="268"/>
       <c r="P137" s="168"/>
-      <c r="Q137" s="269"/>
-      <c r="R137" s="300"/>
+      <c r="Q137" s="268"/>
+      <c r="R137" s="299"/>
       <c r="S137" s="3"/>
       <c r="T137" s="3"/>
     </row>
     <row r="138" spans="1:20" ht="32.4" hidden="1" customHeight="1">
-      <c r="A138" s="269">
+      <c r="A138" s="268">
         <v>135</v>
       </c>
-      <c r="B138" s="270" t="s">
+      <c r="B138" s="269" t="s">
         <v>385</v>
       </c>
-      <c r="C138" s="366" t="s">
+      <c r="C138" s="365" t="s">
         <v>387</v>
       </c>
-      <c r="D138" s="270"/>
-      <c r="E138" s="362" t="s">
+      <c r="D138" s="269"/>
+      <c r="E138" s="361" t="s">
         <v>377</v>
       </c>
-      <c r="F138" s="277" t="s">
+      <c r="F138" s="276" t="s">
         <v>378</v>
       </c>
-      <c r="G138" s="363">
+      <c r="G138" s="362">
         <v>43836</v>
       </c>
-      <c r="H138" s="364"/>
-      <c r="I138" s="365" t="s">
+      <c r="H138" s="363"/>
+      <c r="I138" s="364" t="s">
         <v>16</v>
       </c>
-      <c r="J138" s="269" t="s">
+      <c r="J138" s="268" t="s">
         <v>395</v>
       </c>
-      <c r="K138" s="363">
+      <c r="K138" s="362">
         <v>43838</v>
       </c>
-      <c r="L138" s="269" t="s">
+      <c r="L138" s="268" t="s">
         <v>394</v>
       </c>
-      <c r="M138" s="269"/>
-      <c r="N138" s="269"/>
-      <c r="O138" s="269"/>
+      <c r="M138" s="268"/>
+      <c r="N138" s="268"/>
+      <c r="O138" s="268"/>
       <c r="P138" s="168"/>
-      <c r="Q138" s="269"/>
-      <c r="R138" s="300"/>
+      <c r="Q138" s="268"/>
+      <c r="R138" s="299"/>
       <c r="S138" s="3"/>
       <c r="T138" s="3"/>
     </row>
     <row r="139" spans="1:20" ht="31.8" hidden="1" customHeight="1">
-      <c r="A139" s="269">
+      <c r="A139" s="268">
         <v>136</v>
       </c>
-      <c r="B139" s="362" t="s">
+      <c r="B139" s="361" t="s">
         <v>382</v>
       </c>
-      <c r="C139" s="362" t="s">
+      <c r="C139" s="361" t="s">
         <v>388</v>
       </c>
-      <c r="D139" s="270"/>
-      <c r="E139" s="362" t="s">
+      <c r="D139" s="269"/>
+      <c r="E139" s="361" t="s">
         <v>380</v>
       </c>
-      <c r="F139" s="277" t="s">
+      <c r="F139" s="276" t="s">
         <v>381</v>
       </c>
-      <c r="G139" s="363">
+      <c r="G139" s="362">
         <v>43836</v>
       </c>
-      <c r="H139" s="364" t="s">
+      <c r="H139" s="363" t="s">
         <v>389</v>
       </c>
-      <c r="I139" s="365" t="s">
+      <c r="I139" s="364" t="s">
         <v>16</v>
       </c>
-      <c r="J139" s="269" t="s">
+      <c r="J139" s="268" t="s">
         <v>393</v>
       </c>
-      <c r="K139" s="363">
+      <c r="K139" s="362">
         <v>43840</v>
       </c>
-      <c r="L139" s="269" t="s">
+      <c r="L139" s="268" t="s">
         <v>394</v>
       </c>
-      <c r="M139" s="269"/>
-      <c r="N139" s="269"/>
-      <c r="O139" s="269"/>
+      <c r="M139" s="268"/>
+      <c r="N139" s="268"/>
+      <c r="O139" s="268"/>
       <c r="P139" s="168"/>
-      <c r="Q139" s="269"/>
-      <c r="R139" s="300"/>
+      <c r="Q139" s="268"/>
+      <c r="R139" s="299"/>
       <c r="S139" s="3"/>
       <c r="T139" s="3"/>
     </row>
     <row r="190" ht="13.95" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A3:T139">
+    <filterColumn colId="9">
+      <filters>
+        <filter val="何福睿"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="10">
-      <filters blank="1">
-        <dateGroupItem year="2020" month="1" day="6" dateTimeGrouping="day"/>
+      <filters>
         <dateGroupItem year="2020" month="1" day="7" dateTimeGrouping="day"/>
+        <dateGroupItem year="2020" month="1" day="8" dateTimeGrouping="day"/>
         <dateGroupItem year="2019" dateTimeGrouping="year"/>
       </filters>
     </filterColumn>
@@ -19601,24 +19577,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="69.75" customHeight="1" thickBot="1">
-      <c r="A1" s="376" t="s">
+      <c r="A1" s="375" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="377"/>
-      <c r="C1" s="377"/>
-      <c r="D1" s="377"/>
-      <c r="E1" s="377"/>
-      <c r="F1" s="377"/>
-      <c r="G1" s="377"/>
-      <c r="H1" s="377"/>
-      <c r="I1" s="377"/>
-      <c r="J1" s="377"/>
-      <c r="K1" s="377"/>
-      <c r="L1" s="377"/>
-      <c r="M1" s="377"/>
-      <c r="N1" s="377"/>
-      <c r="O1" s="377"/>
-      <c r="P1" s="378"/>
+      <c r="B1" s="376"/>
+      <c r="C1" s="376"/>
+      <c r="D1" s="376"/>
+      <c r="E1" s="376"/>
+      <c r="F1" s="376"/>
+      <c r="G1" s="376"/>
+      <c r="H1" s="376"/>
+      <c r="I1" s="376"/>
+      <c r="J1" s="376"/>
+      <c r="K1" s="376"/>
+      <c r="L1" s="376"/>
+      <c r="M1" s="376"/>
+      <c r="N1" s="376"/>
+      <c r="O1" s="376"/>
+      <c r="P1" s="377"/>
     </row>
     <row r="2" spans="1:17" s="2" customFormat="1" ht="28.2" thickBot="1">
       <c r="A2" s="48"/>

--- a/Docs/06 Testing/标准工时分析管理系统测试课题汇总及处理表.xlsx
+++ b/Docs/06 Testing/标准工时分析管理系统测试课题汇总及处理表.xlsx
@@ -9,16 +9,18 @@
   <sheets>
     <sheet name="课题处理状态&amp;数量" sheetId="30" r:id="rId1"/>
     <sheet name="课题记录-原数据 " sheetId="18" r:id="rId2"/>
-    <sheet name="12.26课题记录" sheetId="27" r:id="rId3"/>
-    <sheet name="课题记录  (2)" sheetId="21" state="hidden" r:id="rId4"/>
+    <sheet name="优先对应课题" sheetId="31" r:id="rId3"/>
+    <sheet name="12.26课题记录" sheetId="27" r:id="rId4"/>
+    <sheet name="课题记录  (2)" sheetId="21" state="hidden" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="33" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'课题记录  (2)'!$A$3:$H$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'课题记录-原数据 '!$A$3:$Q$153</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'课题记录  (2)'!$A$3:$H$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'课题记录-原数据 '!$A$3:$T$153</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="77" r:id="rId5"/>
+    <pivotCache cacheId="87" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -184,7 +186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="478">
   <si>
     <t>备注</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -2704,10 +2706,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>处理中</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>何福睿
 罗钰</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -3140,10 +3138,6 @@
     </r>
   </si>
   <si>
-    <t>处理中</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>何福睿</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -3191,6 +3185,515 @@
   </si>
   <si>
     <t>新增</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>熊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>驰</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>播放视频需要转码，需要在性能和清晰度方面做个平衡</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>熊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>驰
+罗钰</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消</t>
+  </si>
+  <si>
+    <t xml:space="preserve">分析表中（ABGABPMXIA)栏目，用户输完数值后，光标能否自动跳转到下一格中；
+</t>
+  </si>
+  <si>
+    <t>系统无刷新功能，F5或者在界面添加一个刷新按钮</t>
+  </si>
+  <si>
+    <t>整行复制excel中的数据不能粘贴到系统中</t>
+  </si>
+  <si>
+    <t>开发时长
+评估（人天）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发测试总时长</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅日文，文本由ESL提供，分析表关键词保持为英文字符</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>已</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>处</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>理</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已处理</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索返回结果时，按照最匹配的顺序排列</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已处理</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI（用户界面）</t>
+  </si>
+  <si>
+    <t>点击图标打开界面太小，需用鼠标再打开一次</t>
+  </si>
+  <si>
+    <t>UI（分析表界面）</t>
+  </si>
+  <si>
+    <t>当本人新增一个分析表时会多出一个“删除”按钮，“操作”下的命令菜单键排列就会不整齐</t>
+  </si>
+  <si>
+    <t>UI（登录界面）</t>
+  </si>
+  <si>
+    <t>输入的密码没有可见按钮</t>
+  </si>
+  <si>
+    <t>分析表列表查询点击到第4页时，提示异常</t>
+  </si>
+  <si>
+    <t>当退出录入界面提示是否进行保存，点击“放弃修改”，再进入此分析表观看，实际刚才不想保存数据已经保存了</t>
+  </si>
+  <si>
+    <t>Tool的数据未被计算</t>
+  </si>
+  <si>
+    <t>Ctrl+I按钮不方便，两个键之间间隔太远</t>
+  </si>
+  <si>
+    <t>输入一个"t"时，只要含“t"的都被搜索出来，不管”t“在哪个位置，我们只要以”t“开头的列表。</t>
+  </si>
+  <si>
+    <t>Master Data</t>
+  </si>
+  <si>
+    <t>部品导入功能，之前可以导入，现在又不能导入了(提示机种不存在异常）</t>
+  </si>
+  <si>
+    <t>手顺组合，有带频率参数时，无法保存，保存后自动删除内容</t>
+  </si>
+  <si>
+    <t>常用指标值组合里不同组合同一个编码存在，在分析表中输入快捷方式就会出现两个选择</t>
+  </si>
+  <si>
+    <t>机种显示顺序不对</t>
+  </si>
+  <si>
+    <t>关键词导出信息不完善（缺部门）</t>
+  </si>
+  <si>
+    <r>
+      <t>需用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>户确认，是否</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>打</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开就</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>全屏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>么</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>待</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>确</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>定</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>处</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>理中</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>何福睿</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>熊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>驰</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>熊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>驰</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>上一行数值输入完成后，编辑状态下按回车键，跳到下一行的Work method输入位置时，无法输入内容</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>需用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>户协同确定是否历史数据原因</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗钰</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>周述文</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>熊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>驰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+周述文</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>已</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>处</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>理</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>何福睿</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗钰
+周述文</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>需用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>户确认自动保存的处理</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法重现，需用户协助</t>
+  </si>
+  <si>
+    <t>邓木清</t>
+  </si>
+  <si>
+    <t>盘冬华</t>
+  </si>
+  <si>
+    <t>邓雲燕</t>
+  </si>
+  <si>
+    <t>Ctrl+L</t>
+  </si>
+  <si>
+    <t>林国军</t>
+  </si>
+  <si>
+    <t>t开头的优先</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已处理</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>序列</t>
+  </si>
+  <si>
+    <t>功能</t>
+  </si>
+  <si>
+    <t>课题内容描述</t>
+  </si>
+  <si>
+    <t>截图</t>
+  </si>
+  <si>
+    <t>部门</t>
+  </si>
+  <si>
+    <t>担当</t>
+  </si>
+  <si>
+    <t>测试时间</t>
+  </si>
+  <si>
+    <t>要望</t>
+  </si>
+  <si>
+    <t>解决级别</t>
+  </si>
+  <si>
+    <t>IT担当</t>
+  </si>
+  <si>
+    <t>对应纳期</t>
+  </si>
+  <si>
+    <t>对应状态</t>
+  </si>
+  <si>
+    <t>用户担当</t>
+  </si>
+  <si>
+    <t>用户
+再测试日期</t>
+  </si>
+  <si>
+    <t>测试结果</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>输入给值后，只可以Tab键移动，不能按右键"→"到下一单元格</t>
+    <phoneticPr fontId="64" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望输入给值后在编辑状态下，按方向键可以到左、右、上、下单元格</t>
+  </si>
+  <si>
+    <t>只支持文本复制，不支持单元格复制和粘贴（要求支持单元格复制和粘贴）</t>
+    <phoneticPr fontId="64" type="noConversion"/>
+  </si>
+  <si>
+    <t>多个单元格、整行或多行都可以复制</t>
+  </si>
+  <si>
+    <t>输入0加小数点后，数值不变红</t>
+    <phoneticPr fontId="64" type="noConversion"/>
+  </si>
+  <si>
+    <t>不支持多行复制和粘贴（要求支持多行复制）</t>
+    <phoneticPr fontId="64" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后的A和频度栏不支持公式计算，简单的加减乘除，即输入公式，离开编辑后，计算结果自动将公式替换</t>
+    <phoneticPr fontId="64" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析表数据录入搜索Master的时候不要区分大小写字母</t>
+  </si>
+  <si>
+    <t>使用Key快捷键时，Tool与最后A 默认*0和0消失了(应该和Master设定有关)</t>
+  </si>
+  <si>
+    <t>分析表编辑页最下方没有总计算（参考分析资料Excel）</t>
+  </si>
+  <si>
+    <t>总计算数可见，不可被覆盖（疑问请联络）</t>
+  </si>
+  <si>
+    <t>上一行数值输入完成后，编辑状态下按回车键，跳到下一行的Work method输入位置时，无法输入内容</t>
+  </si>
+  <si>
+    <t>常用指标值组合里不同组合同一个编码存在，在分析表中输入快捷方式就会出现两个选择</t>
+    <phoneticPr fontId="64" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳期从3日延后到10日</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>机种不存在不能导入，正常现象</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>拒绝</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -3280,411 +3783,12 @@
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
-  <si>
-    <r>
-      <t>熊</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>驰</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>播放视频需要转码，需要在性能和清晰度方面做个平衡</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>熊</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>驰
-罗钰</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消</t>
-  </si>
-  <si>
-    <t xml:space="preserve">分析表中（ABGABPMXIA)栏目，用户输完数值后，光标能否自动跳转到下一格中；
-</t>
-  </si>
-  <si>
-    <t>系统无刷新功能，F5或者在界面添加一个刷新按钮</t>
-  </si>
-  <si>
-    <t>整行复制excel中的数据不能粘贴到系统中</t>
-  </si>
-  <si>
-    <t>开发时长
-评估（人天）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发测试总时长</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>仅日文，文本由ESL提供，分析表关键词保持为英文字符</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>已</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>处</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>理</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>已处理</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索返回结果时，按照最匹配的顺序排列</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>已处理</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI（用户界面）</t>
-  </si>
-  <si>
-    <t>点击图标打开界面太小，需用鼠标再打开一次</t>
-  </si>
-  <si>
-    <t>UI（分析表界面）</t>
-  </si>
-  <si>
-    <t>当本人新增一个分析表时会多出一个“删除”按钮，“操作”下的命令菜单键排列就会不整齐</t>
-  </si>
-  <si>
-    <t>UI（登录界面）</t>
-  </si>
-  <si>
-    <t>输入的密码没有可见按钮</t>
-  </si>
-  <si>
-    <t>分析表列表查询点击到第4页时，提示异常</t>
-  </si>
-  <si>
-    <t>当退出录入界面提示是否进行保存，点击“放弃修改”，再进入此分析表观看，实际刚才不想保存数据已经保存了</t>
-  </si>
-  <si>
-    <t>Tool的数据未被计算</t>
-  </si>
-  <si>
-    <t>Ctrl+I按钮不方便，两个键之间间隔太远</t>
-  </si>
-  <si>
-    <t>输入一个"t"时，只要含“t"的都被搜索出来，不管”t“在哪个位置，我们只要以”t“开头的列表。</t>
-  </si>
-  <si>
-    <t>Master Data</t>
-  </si>
-  <si>
-    <t>部品导入功能，之前可以导入，现在又不能导入了(提示机种不存在异常）</t>
-  </si>
-  <si>
-    <t>手顺组合，有带频率参数时，无法保存，保存后自动删除内容</t>
-  </si>
-  <si>
-    <t>常用指标值组合里不同组合同一个编码存在，在分析表中输入快捷方式就会出现两个选择</t>
-  </si>
-  <si>
-    <t>机种显示顺序不对</t>
-  </si>
-  <si>
-    <t>关键词导出信息不完善（缺部门）</t>
-  </si>
-  <si>
-    <r>
-      <t>需用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>户确认，是否</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>打</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开就</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>全屏</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>么</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>待</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>确</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>定</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>处</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>理中</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>何福睿</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>熊</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>驰</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>熊</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>驰</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>上一行数值输入完成后，编辑状态下按回车键，跳到下一行的Work method输入位置时，无法输入内容</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>需用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>户协同确定是否历史数据原因</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗钰</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>周述文</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>熊</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>驰</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-周述文</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>已</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>处</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>理</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>何福睿</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗钰
-周述文</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>需用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>户确认自动保存的处理</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法重现，需用户协助</t>
-  </si>
-  <si>
-    <t>邓木清</t>
-  </si>
-  <si>
-    <t>盘冬华</t>
-  </si>
-  <si>
-    <t>邓雲燕</t>
-  </si>
-  <si>
-    <t>Ctrl+L</t>
-  </si>
-  <si>
-    <t>林国军</t>
-  </si>
-  <si>
-    <t>t开头的优先</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="84">
+  <fonts count="86">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -4257,6 +4361,19 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -4505,7 +4622,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="397">
+  <cellXfs count="417">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -5493,39 +5610,6 @@
     <xf numFmtId="0" fontId="79" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="74" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="74" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="74" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="81" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5565,9 +5649,6 @@
     <xf numFmtId="0" fontId="62" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -5604,6 +5685,78 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -5613,77 +5766,87 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="85" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="17" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="58" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="62" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="75" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="74" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="74" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="76" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="74" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="74" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="74" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="73" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5757,15 +5920,15 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1142408</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>621712</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>30042</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C98B2B81-BA32-4394-B169-793F8C3E02A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C98B2B81-BA32-4394-B169-793F8C3E02A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5801,7 +5964,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1273743</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>590893</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5809,7 +5972,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBA739EC-426E-488C-8EB4-E9BFFCDD8554}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CBA739EC-426E-488C-8EB4-E9BFFCDD8554}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5845,7 +6008,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1148857</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>462328</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5853,7 +6016,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67E59D5F-3A3D-4CC8-BC62-636223D083FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{67E59D5F-3A3D-4CC8-BC62-636223D083FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5902,7 +6065,7 @@
         <xdr:cNvPr id="14" name="组合 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED3142A9-7F63-479C-9720-07589AB2CE7F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ED3142A9-7F63-479C-9720-07589AB2CE7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5921,7 +6084,7 @@
           <xdr:cNvPr id="15" name="图片 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F21A3D8-CA0F-48DB-846B-4577426E88DB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3F21A3D8-CA0F-48DB-846B-4577426E88DB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5949,7 +6112,7 @@
           <xdr:cNvPr id="16" name="矩形 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8A8C184-1A17-4247-BB9C-68650D799358}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D8A8C184-1A17-4247-BB9C-68650D799358}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6016,7 +6179,7 @@
         <xdr:cNvPr id="7" name="组合 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C52A969-B543-4095-8357-9B29AA726D2A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9C52A969-B543-4095-8357-9B29AA726D2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6035,7 +6198,7 @@
           <xdr:cNvPr id="27" name="图片 26">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6AEFA32-3788-40F7-BEBA-24C5E9F08CB5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D6AEFA32-3788-40F7-BEBA-24C5E9F08CB5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6063,7 +6226,7 @@
           <xdr:cNvPr id="28" name="矩形 27">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D0E3554-6CC3-43CF-A6C2-99B0412D27C6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1D0E3554-6CC3-43CF-A6C2-99B0412D27C6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6130,7 +6293,7 @@
         <xdr:cNvPr id="17" name="组合 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82AF9E09-0798-485C-907F-F44410CAF4FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82AF9E09-0798-485C-907F-F44410CAF4FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6149,7 +6312,7 @@
           <xdr:cNvPr id="36" name="图片 35">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07457ED1-E75B-4492-AB11-171F75C37693}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07457ED1-E75B-4492-AB11-171F75C37693}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6177,7 +6340,7 @@
           <xdr:cNvPr id="37" name="矩形 36">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD4A936E-B663-4FEF-9170-AF86328014E3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CD4A936E-B663-4FEF-9170-AF86328014E3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6236,7 +6399,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1226530</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>495300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6244,7 +6407,7 @@
         <xdr:cNvPr id="10" name="图片 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71CE1696-FFAC-4D0D-9BC6-623C84080B11}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{71CE1696-FFAC-4D0D-9BC6-623C84080B11}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6279,15 +6442,15 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1272243</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>694765</xdr:rowOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>103094</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="30" name="图片 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5922A382-D927-4B52-BEEB-C2668363FB35}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5922A382-D927-4B52-BEEB-C2668363FB35}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6330,7 +6493,7 @@
         <xdr:cNvPr id="62" name="图片 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD02A9C6-4197-440B-8FC2-A69BD1CF140A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BD02A9C6-4197-440B-8FC2-A69BD1CF140A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6368,7 +6531,7 @@
         <xdr:cNvPr id="56" name="图片 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3447B6E4-297B-4626-BEB1-4BD2E742BFB8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3447B6E4-297B-4626-BEB1-4BD2E742BFB8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6404,7 +6567,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1101588</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>504253</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6412,7 +6575,7 @@
         <xdr:cNvPr id="8" name="图片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21CD05AE-AB07-4A92-90DD-14CF4D5829B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{21CD05AE-AB07-4A92-90DD-14CF4D5829B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6448,15 +6611,15 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1273479</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>591671</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="18" name="图片 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23342E00-592E-4AA7-9123-4D5229A234A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{23342E00-592E-4AA7-9123-4D5229A234A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6495,7 +6658,7 @@
         <xdr:cNvPr id="57" name="图片 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1D352DE-53BF-42B9-B05C-32668E7F7DB2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1D352DE-53BF-42B9-B05C-32668E7F7DB2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6539,7 +6702,7 @@
         <xdr:cNvPr id="21" name="组合 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCAA580D-E6A2-4774-A96E-7EBCE998DBC4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CCAA580D-E6A2-4774-A96E-7EBCE998DBC4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6558,7 +6721,7 @@
           <xdr:cNvPr id="47" name="图片 46">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D75A2515-EDE2-40EE-B593-56435BAF7270}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D75A2515-EDE2-40EE-B593-56435BAF7270}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6586,7 +6749,7 @@
           <xdr:cNvPr id="20" name="直接箭头连接符 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F879196-4649-4521-9EDE-9B226B334913}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F879196-4649-4521-9EDE-9B226B334913}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6644,7 +6807,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1272698</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>502227</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6652,7 +6815,7 @@
         <xdr:cNvPr id="49" name="图片 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4C498E5-4FAD-466F-A44A-3D204083602A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4C498E5-4FAD-466F-A44A-3D204083602A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6688,7 +6851,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1038225</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>520476</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6696,7 +6859,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02ACE7F6-6C9F-49AB-B04A-8A2CA1B80091}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{02ACE7F6-6C9F-49AB-B04A-8A2CA1B80091}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6735,7 +6898,7 @@
         <xdr:cNvPr id="63" name="图片 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5B4F15F-D156-49C7-88C9-0C0546D8FF38}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E5B4F15F-D156-49C7-88C9-0C0546D8FF38}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6774,7 +6937,7 @@
         <xdr:cNvPr id="64" name="图片 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B72EDCD-D450-4A03-BD8A-6526BF3EF390}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5B72EDCD-D450-4A03-BD8A-6526BF3EF390}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6810,7 +6973,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1270000</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>588994</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6818,7 +6981,7 @@
         <xdr:cNvPr id="31" name="图片 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{265A18AF-7FD9-4852-A807-4A9065120A0A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{265A18AF-7FD9-4852-A807-4A9065120A0A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6854,7 +7017,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1133914</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>542268</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6862,7 +7025,7 @@
         <xdr:cNvPr id="39" name="图片 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A9C4C4A-8486-4FAD-A7B8-1DC65A159E7F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A9C4C4A-8486-4FAD-A7B8-1DC65A159E7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6897,15 +7060,15 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1141239</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>614669</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>22999</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="40" name="图片 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A319DFA-C470-418C-AEC3-79A8CCAE0C02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8A319DFA-C470-418C-AEC3-79A8CCAE0C02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6941,7 +7104,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1270916</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>590893</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6949,7 +7112,7 @@
         <xdr:cNvPr id="41" name="图片 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CD369F4-FF89-4A08-B457-FAB4D314ABD5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3CD369F4-FF89-4A08-B457-FAB4D314ABD5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6993,7 +7156,7 @@
         <xdr:cNvPr id="11" name="组合 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AE260E9-029E-43AB-8368-B3A8C042A108}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0AE260E9-029E-43AB-8368-B3A8C042A108}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7012,7 +7175,7 @@
           <xdr:cNvPr id="6" name="图片 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF876CAB-ED8F-4688-986A-6F716B3BE4BE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AF876CAB-ED8F-4688-986A-6F716B3BE4BE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7041,7 +7204,7 @@
           <xdr:cNvPr id="9" name="矩形 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B7BD13C-8780-4606-B014-8D58A2F46294}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B7BD13C-8780-4606-B014-8D58A2F46294}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7115,7 +7278,7 @@
         <xdr:cNvPr id="19" name="组合 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F515AF4-F953-48AF-902A-6BC975EEA1D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5F515AF4-F953-48AF-902A-6BC975EEA1D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7134,7 +7297,7 @@
           <xdr:cNvPr id="12" name="图片 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C94C0F32-E18C-492A-93BB-8425EB434BDB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C94C0F32-E18C-492A-93BB-8425EB434BDB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7163,7 +7326,7 @@
           <xdr:cNvPr id="13" name="矩形 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79637C81-3D3E-491D-B411-5D000451A074}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{79637C81-3D3E-491D-B411-5D000451A074}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7237,7 +7400,7 @@
         <xdr:cNvPr id="24" name="组合 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE984409-5DBC-4D7F-A372-C8129A968FFD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FE984409-5DBC-4D7F-A372-C8129A968FFD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7256,7 +7419,7 @@
           <xdr:cNvPr id="22" name="图片 21">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0871BD9-0E76-4D99-AF3E-B6E7BC1DF220}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B0871BD9-0E76-4D99-AF3E-B6E7BC1DF220}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7285,7 +7448,7 @@
           <xdr:cNvPr id="23" name="矩形 22">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79F5AD6B-1E3E-4424-A984-922AB2C06EB0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{79F5AD6B-1E3E-4424-A984-922AB2C06EB0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7351,7 +7514,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2567608</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>1138892</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7359,7 +7522,7 @@
         <xdr:cNvPr id="25" name="图片 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{985C047F-BECF-4440-BA4B-F26ED3B85A92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{985C047F-BECF-4440-BA4B-F26ED3B85A92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7403,7 +7566,7 @@
         <xdr:cNvPr id="32" name="组合 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39F818E0-42DD-40F7-93A9-2E2B78DACA36}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{39F818E0-42DD-40F7-93A9-2E2B78DACA36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7422,7 +7585,7 @@
           <xdr:cNvPr id="26" name="图片 25">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37418CA9-6E36-4C65-AA1F-7554F1F7BEAC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37418CA9-6E36-4C65-AA1F-7554F1F7BEAC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7451,7 +7614,7 @@
           <xdr:cNvPr id="29" name="矩形 28">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A90E1BB1-B4E4-44A2-B19E-5E4993F74310}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A90E1BB1-B4E4-44A2-B19E-5E4993F74310}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7525,7 +7688,7 @@
         <xdr:cNvPr id="38" name="组合 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ADE53DE-5AEE-4240-8BD6-C99835EE6166}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7ADE53DE-5AEE-4240-8BD6-C99835EE6166}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7544,7 +7707,7 @@
           <xdr:cNvPr id="33" name="图片 32">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAB102EB-9179-4433-B1E4-71FA232742BB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BAB102EB-9179-4433-B1E4-71FA232742BB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7573,7 +7736,7 @@
           <xdr:cNvPr id="34" name="矩形 33">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2A3E5A8-A3AD-4555-A10C-A9A82B4AF316}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2A3E5A8-A3AD-4555-A10C-A9A82B4AF316}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7631,7 +7794,7 @@
           <xdr:cNvPr id="35" name="文本框 34">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEC9E465-A313-42BD-B7FE-517D6814315B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DEC9E465-A313-42BD-B7FE-517D6814315B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7703,7 +7866,7 @@
         <xdr:cNvPr id="50" name="组合 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4059CF34-0F21-48BD-947D-EB8C821901ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4059CF34-0F21-48BD-947D-EB8C821901ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7722,7 +7885,7 @@
           <xdr:cNvPr id="51" name="图片 50">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F6CB871-708A-41DE-B3F1-2B704ECFA198}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8F6CB871-708A-41DE-B3F1-2B704ECFA198}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7751,7 +7914,7 @@
           <xdr:cNvPr id="52" name="矩形 51">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{885CB1DE-A625-4233-8B49-45E9761E4DD3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{885CB1DE-A625-4233-8B49-45E9761E4DD3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7809,7 +7972,7 @@
           <xdr:cNvPr id="53" name="文本框 52">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AC064EB-9D21-4C0D-B097-4FA6497D6A79}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7AC064EB-9D21-4C0D-B097-4FA6497D6A79}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7873,15 +8036,15 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>35378</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>331533</xdr:rowOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>62591</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="54" name="图片 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC63C4F2-2AF6-4C07-B84D-94B792F27C12}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AC63C4F2-2AF6-4C07-B84D-94B792F27C12}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7924,7 +8087,7 @@
         <xdr:cNvPr id="55" name="组合 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E5966F4-05E9-4855-8924-556794098C1E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2E5966F4-05E9-4855-8924-556794098C1E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7943,7 +8106,7 @@
           <xdr:cNvPr id="58" name="图片 57">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{659EBDDD-C8C7-4161-8812-10D2F732345B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{659EBDDD-C8C7-4161-8812-10D2F732345B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7972,7 +8135,7 @@
           <xdr:cNvPr id="59" name="矩形 58">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24ACAF84-4B10-451A-A5B1-8323AD1CBEEE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{24ACAF84-4B10-451A-A5B1-8323AD1CBEEE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8030,7 +8193,7 @@
           <xdr:cNvPr id="60" name="文本框 59">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60665E06-55A3-45B9-8E76-147F8252C0AD}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{60665E06-55A3-45B9-8E76-147F8252C0AD}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8094,15 +8257,15 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2694016</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>1250149</xdr:rowOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>1109079</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="61" name="图片 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{30D01968-9869-4330-8703-81EE64B2E807}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30D01968-9869-4330-8703-81EE64B2E807}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8138,15 +8301,15 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2695337</xdr:colOff>
-      <xdr:row>140</xdr:row>
-      <xdr:rowOff>64100</xdr:rowOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>1033662</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="65" name="图片 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD663A80-D315-49ED-968E-D9B45C310267}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD663A80-D315-49ED-968E-D9B45C310267}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8195,7 +8358,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8239,7 +8402,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8278,7 +8441,7 @@
         <xdr:cNvPr id="7" name="文本框 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8337,7 +8500,7 @@
         <xdr:cNvPr id="8" name="文本框 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8396,7 +8559,7 @@
         <xdr:cNvPr id="9" name="文本框 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8460,7 +8623,7 @@
         <xdr:cNvPr id="4" name="组合 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38335C1B-0A42-4E87-BE4B-0D7C844D61A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{38335C1B-0A42-4E87-BE4B-0D7C844D61A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8479,7 +8642,7 @@
           <xdr:cNvPr id="5" name="直接连接符 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000005000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8529,7 +8692,7 @@
           <xdr:cNvPr id="10" name="文本框 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00000A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8601,7 +8764,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D677A19C-2F90-4BC1-B75D-0B55D0799A5A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D677A19C-2F90-4BC1-B75D-0B55D0799A5A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8649,7 +8812,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CA40D1F-E98D-4779-B5DE-75CD1D518257}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CA40D1F-E98D-4779-B5DE-75CD1D518257}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8693,7 +8856,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{133DA2AF-CF85-4D35-A997-D6C79DC256CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{133DA2AF-CF85-4D35-A997-D6C79DC256CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8737,7 +8900,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF5B035E-628C-415E-B319-34B092DDAE08}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF5B035E-628C-415E-B319-34B092DDAE08}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8786,7 +8949,7 @@
         <xdr:cNvPr id="5" name="组合 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FB9EB5F-B847-42D8-BBF5-052ADCAE8843}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3FB9EB5F-B847-42D8-BBF5-052ADCAE8843}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8805,7 +8968,7 @@
           <xdr:cNvPr id="6" name="图片 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD71EF5F-5D64-41DF-A7F2-141005249294}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD71EF5F-5D64-41DF-A7F2-141005249294}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8833,7 +8996,7 @@
           <xdr:cNvPr id="7" name="矩形 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75A4392B-E92B-4FC9-AC7D-371C5CB67A68}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{75A4392B-E92B-4FC9-AC7D-371C5CB67A68}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8900,7 +9063,7 @@
         <xdr:cNvPr id="8" name="组合 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1510FA4D-5D40-451D-904C-905ED5CBFC47}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1510FA4D-5D40-451D-904C-905ED5CBFC47}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8919,7 +9082,7 @@
           <xdr:cNvPr id="9" name="图片 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C5C40D5-1862-4CBB-B6E6-707F77D56720}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C5C40D5-1862-4CBB-B6E6-707F77D56720}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8947,7 +9110,7 @@
           <xdr:cNvPr id="10" name="矩形 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B433086-303A-422F-8D3D-B19E2223A5E1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B433086-303A-422F-8D3D-B19E2223A5E1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9014,7 +9177,7 @@
         <xdr:cNvPr id="11" name="组合 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73C96F5D-A571-4F92-808B-8054033C1C68}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{73C96F5D-A571-4F92-808B-8054033C1C68}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9033,7 +9196,7 @@
           <xdr:cNvPr id="12" name="图片 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{423F377D-F999-4903-8C47-B49A9E1BBB3F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{423F377D-F999-4903-8C47-B49A9E1BBB3F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9062,7 +9225,7 @@
           <xdr:cNvPr id="13" name="矩形 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DABC0045-0D37-4A0E-B990-65A433DF712A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DABC0045-0D37-4A0E-B990-65A433DF712A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9129,7 +9292,7 @@
         <xdr:cNvPr id="14" name="组合 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{695A3A22-8B01-4B94-AF82-D09D9BACA91A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{695A3A22-8B01-4B94-AF82-D09D9BACA91A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9148,7 +9311,7 @@
           <xdr:cNvPr id="15" name="图片 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B969C19A-37AF-4171-B52B-1822D75F97BA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B969C19A-37AF-4171-B52B-1822D75F97BA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9176,7 +9339,7 @@
           <xdr:cNvPr id="16" name="矩形 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{410C8424-D8D3-4E10-8379-A832596C88C4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{410C8424-D8D3-4E10-8379-A832596C88C4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9243,7 +9406,7 @@
         <xdr:cNvPr id="17" name="组合 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98B9C950-5851-4D2A-9571-45E922882540}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{98B9C950-5851-4D2A-9571-45E922882540}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9262,7 +9425,7 @@
           <xdr:cNvPr id="18" name="图片 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ED41D7D-F68A-4AC2-A1B0-07C11A05D254}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8ED41D7D-F68A-4AC2-A1B0-07C11A05D254}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9290,7 +9453,7 @@
           <xdr:cNvPr id="19" name="矩形 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DBBD272-C3EA-40B8-A221-2689DD5C211A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DBBD272-C3EA-40B8-A221-2689DD5C211A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9357,7 +9520,7 @@
         <xdr:cNvPr id="20" name="组合 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0263C938-2310-4948-8135-8890B8AFE85C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0263C938-2310-4948-8135-8890B8AFE85C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9376,7 +9539,7 @@
           <xdr:cNvPr id="21" name="图片 20">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFD97B7C-70BD-4117-B3DA-F86F086B4EC3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BFD97B7C-70BD-4117-B3DA-F86F086B4EC3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9404,7 +9567,7 @@
           <xdr:cNvPr id="22" name="矩形 21">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7FD535A-41D0-4995-BEF3-47E84293312B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F7FD535A-41D0-4995-BEF3-47E84293312B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9471,7 +9634,7 @@
         <xdr:cNvPr id="23" name="图片 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5D959CF-DCB6-43F2-BD17-E00A70826190}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F5D959CF-DCB6-43F2-BD17-E00A70826190}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9514,7 +9677,7 @@
         <xdr:cNvPr id="24" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D48FC70-CC73-4FFA-93EF-910DB168505F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2D48FC70-CC73-4FFA-93EF-910DB168505F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9557,7 +9720,7 @@
         <xdr:cNvPr id="25" name="组合 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A4520C-878D-41DA-ACC8-C753AB4EEC8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{01A4520C-878D-41DA-ACC8-C753AB4EEC8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9576,7 +9739,7 @@
           <xdr:cNvPr id="26" name="图片 25">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{539EBE1B-E593-4CF1-8E00-732DB21C57C7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{539EBE1B-E593-4CF1-8E00-732DB21C57C7}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9605,7 +9768,7 @@
           <xdr:cNvPr id="27" name="矩形 26">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E704DA5-79FB-4DCE-82CD-C7128EF5045D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5E704DA5-79FB-4DCE-82CD-C7128EF5045D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9672,7 +9835,7 @@
         <xdr:cNvPr id="28" name="图片 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F60F9300-474C-4B97-8CFA-FA6A232996BC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F60F9300-474C-4B97-8CFA-FA6A232996BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9715,7 +9878,7 @@
         <xdr:cNvPr id="29" name="图片 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{041F02E7-301A-4535-8E92-FCE7759A0E5B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{041F02E7-301A-4535-8E92-FCE7759A0E5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9758,7 +9921,7 @@
         <xdr:cNvPr id="30" name="组合 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4081C441-A16E-47A6-91AB-CE7259525E3C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4081C441-A16E-47A6-91AB-CE7259525E3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9777,7 +9940,7 @@
           <xdr:cNvPr id="31" name="图片 30">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50922B92-5CDB-4001-81FE-970A069D1776}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{50922B92-5CDB-4001-81FE-970A069D1776}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9806,7 +9969,7 @@
           <xdr:cNvPr id="32" name="矩形 31">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4D45F2F-BE07-4DD2-85CD-D54AAECFCF4A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4D45F2F-BE07-4DD2-85CD-D54AAECFCF4A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9880,7 +10043,7 @@
         <xdr:cNvPr id="33" name="组合 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{276B5F4B-7CC1-4301-8950-5FD9EA8CAF37}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{276B5F4B-7CC1-4301-8950-5FD9EA8CAF37}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9899,7 +10062,7 @@
           <xdr:cNvPr id="34" name="图片 33">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6B8C32B-6E2A-4807-A1D7-6F444FC24D6E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D6B8C32B-6E2A-4807-A1D7-6F444FC24D6E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9927,7 +10090,7 @@
           <xdr:cNvPr id="35" name="矩形 34">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23D2AE0D-123E-42DC-ABED-86AA7E367A25}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{23D2AE0D-123E-42DC-ABED-86AA7E367A25}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10001,7 +10164,7 @@
         <xdr:cNvPr id="36" name="图片 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAD693BB-8FF5-4C75-9399-B6802382149F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BAD693BB-8FF5-4C75-9399-B6802382149F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10044,7 +10207,7 @@
         <xdr:cNvPr id="37" name="图片 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3E1CE8D-148A-4110-B326-60CF5214D964}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B3E1CE8D-148A-4110-B326-60CF5214D964}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10087,7 +10250,7 @@
         <xdr:cNvPr id="38" name="图片 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAD76119-757D-4D4D-9EF0-428B965CA83D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FAD76119-757D-4D4D-9EF0-428B965CA83D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10125,7 +10288,7 @@
         <xdr:cNvPr id="39" name="图片 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45F58B90-C3E8-4CBD-923D-36B5F3F410CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{45F58B90-C3E8-4CBD-923D-36B5F3F410CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10169,7 +10332,7 @@
         <xdr:cNvPr id="40" name="图片 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B687413-23BF-4281-9D42-6D9D81EC9986}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B687413-23BF-4281-9D42-6D9D81EC9986}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10213,7 +10376,7 @@
         <xdr:cNvPr id="41" name="图片 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99954A59-2E00-4CDA-A0DC-610C9B6FF2C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{99954A59-2E00-4CDA-A0DC-610C9B6FF2C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10252,7 +10415,7 @@
         <xdr:cNvPr id="42" name="图片 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4DD4F50-D468-4FED-989B-6D6A38F1285C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4DD4F50-D468-4FED-989B-6D6A38F1285C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10296,7 +10459,7 @@
         <xdr:cNvPr id="43" name="组合 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D60B776-8290-4A05-8D0B-E49A20D889D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6D60B776-8290-4A05-8D0B-E49A20D889D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10315,7 +10478,7 @@
           <xdr:cNvPr id="44" name="图片 43">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57538BB3-6956-4C33-8DD0-A16EEBE15ECC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{57538BB3-6956-4C33-8DD0-A16EEBE15ECC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10343,7 +10506,7 @@
           <xdr:cNvPr id="45" name="直接箭头连接符 44">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B46ADCBE-FF68-4902-9EB2-648E3FE62B5C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B46ADCBE-FF68-4902-9EB2-648E3FE62B5C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10409,7 +10572,7 @@
         <xdr:cNvPr id="46" name="图片 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6366B4A9-4196-44F0-8E96-85299FE69047}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6366B4A9-4196-44F0-8E96-85299FE69047}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10453,7 +10616,7 @@
         <xdr:cNvPr id="47" name="图片 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3029897-09D5-4E82-88FE-30DA2683D8E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A3029897-09D5-4E82-88FE-30DA2683D8E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10488,19 +10651,19 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="DELL" refreshedDate="43838.622879282404" createdVersion="6" refreshedVersion="4" minRefreshableVersion="3" recordCount="137">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="DELL" refreshedDate="43839.26062361111" createdVersion="6" refreshedVersion="4" minRefreshableVersion="3" recordCount="151">
   <cacheSource type="worksheet">
     <worksheetSource ref="A3:R1048576" sheet="课题记录-原数据 "/>
   </cacheSource>
   <cacheFields count="18">
     <cacheField name="序列" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="136"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="152"/>
     </cacheField>
     <cacheField name="功能" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="课题内容描述" numFmtId="0">
-      <sharedItems containsBlank="1" count="137">
+      <sharedItems containsBlank="1" count="151">
         <s v="登录界面的系统名称追加系统版本及系英文名称_x000a_①系统的名字没有_x000a_②日期时间没有_x000a_③语言版本没有(中文,英文,日语)_x000a_④系统使用说明手册没有"/>
         <s v="登录界面的风格与EPSON的色调、VI及系统的类型不是很搭"/>
         <s v="系统的模块层次不够清晰明了"/>
@@ -10637,6 +10800,20 @@
         <s v="有频度的返回值(Time value、TMU、Sec./conv栏目)未标注红色字体显示区分；"/>
         <s v="分析表无法生成报表"/>
         <s v="打开两个或多个系统，进入后系统数据或功能会出现查询分析表数据：无、功能点击无反应等异常现象"/>
+        <s v="点击图标打开界面太小，需用鼠标再打开一次"/>
+        <s v="当本人新增一个分析表时会多出一个“删除”按钮，“操作”下的命令菜单键排列就会不整齐"/>
+        <s v="输入的密码没有可见按钮"/>
+        <s v="上一行数值输入完成后，编辑状态下按回车键，跳到下一行的Work method输入位置时，无法输入内容"/>
+        <s v="分析表列表查询点击到第4页时，提示异常"/>
+        <s v="当退出录入界面提示是否进行保存，点击“放弃修改”，再进入此分析表观看，实际刚才不想保存数据已经保存了"/>
+        <s v="Tool的数据未被计算"/>
+        <s v="Ctrl+I按钮不方便，两个键之间间隔太远"/>
+        <s v="输入一个&quot;t&quot;时，只要含“t&quot;的都被搜索出来，不管”t“在哪个位置，我们只要以”t“开头的列表。"/>
+        <s v="部品导入功能，之前可以导入，现在又不能导入了(提示机种不存在异常）"/>
+        <s v="手顺组合，有带频率参数时，无法保存，保存后自动删除内容"/>
+        <s v="常用指标值组合里不同组合同一个编码存在，在分析表中输入快捷方式就会出现两个选择"/>
+        <s v="机种显示顺序不对"/>
+        <s v="关键词导出信息不完善（缺部门）"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -10669,8 +10846,8 @@
         <s v="已处理"/>
         <s v="处理中"/>
         <s v="待确定"/>
+        <m/>
         <s v="取消"/>
-        <m/>
         <s v="待确认" u="1"/>
         <s v="暂定" u="1"/>
       </sharedItems>
@@ -10703,7 +10880,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="137">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="151">
   <r>
     <n v="1"/>
     <s v="UI"/>
@@ -11896,7 +12073,7 @@
     <m/>
     <s v="何福睿"/>
     <d v="2019-01-03T00:00:00"/>
-    <x v="1"/>
+    <x v="3"/>
     <m/>
     <m/>
     <m/>
@@ -12276,7 +12453,7 @@
     <s v="高"/>
     <s v="何福睿、李拓新"/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
     <m/>
     <m/>
     <m/>
@@ -12496,7 +12673,7 @@
     <m/>
     <s v="何福睿、李拓新"/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
     <m/>
     <m/>
     <m/>
@@ -12916,7 +13093,7 @@
     <s v="优先"/>
     <s v="何福睿、李拓新"/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
     <m/>
     <m/>
     <m/>
@@ -13256,7 +13433,7 @@
     <s v="高"/>
     <m/>
     <m/>
-    <x v="1"/>
+    <x v="3"/>
     <m/>
     <m/>
     <m/>
@@ -13425,18 +13602,298 @@
     <m/>
   </r>
   <r>
-    <m/>
-    <m/>
+    <n v="139"/>
+    <s v="UI（用户界面）"/>
     <x v="136"/>
     <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="4"/>
+    <s v="EPD"/>
+    <s v="邓雲燕"/>
+    <d v="2020-01-04T00:00:00"/>
+    <m/>
+    <m/>
+    <s v="何福睿"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="需用户确认，是否打开就全屏么"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="140"/>
+    <s v="UI（分析表界面）"/>
+    <x v="137"/>
+    <m/>
+    <s v="EPD"/>
+    <s v="盘冬华"/>
+    <d v="2020-01-04T00:00:00"/>
+    <m/>
+    <m/>
+    <s v="熊驰"/>
+    <d v="2020-01-09T00:00:00"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="141"/>
+    <s v="UI（登录界面）"/>
+    <x v="138"/>
+    <m/>
+    <s v="EPD"/>
+    <s v="盘冬华"/>
+    <d v="2020-01-06T00:00:00"/>
+    <m/>
+    <m/>
+    <s v="熊驰"/>
+    <d v="2020-01-09T00:00:00"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="142"/>
+    <s v="分析表录入模块"/>
+    <x v="139"/>
+    <m/>
+    <s v="EPD"/>
+    <s v="邓木清"/>
+    <d v="2020-01-04T00:00:00"/>
+    <m/>
+    <m/>
+    <s v="何福睿"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="无法重现，需用户协助"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="143"/>
+    <s v="分析表录入模块"/>
+    <x v="140"/>
+    <m/>
+    <s v="EPD"/>
+    <s v="邓木清"/>
+    <d v="2020-01-04T00:00:00"/>
+    <m/>
+    <m/>
+    <s v="罗钰_x000a_周述文"/>
+    <d v="2020-01-09T00:00:00"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="需用户协同确定是否历史数据原因"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="144"/>
+    <s v="分析表录入模块"/>
+    <x v="141"/>
+    <m/>
+    <s v="EPD"/>
+    <s v="盘冬华"/>
+    <d v="2020-01-04T00:00:00"/>
+    <m/>
+    <m/>
+    <s v="何福睿"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="需用户确认自动保存的处理"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="145"/>
+    <s v="分析表录入模块"/>
+    <x v="142"/>
+    <m/>
+    <s v="EPD"/>
+    <s v="邓木清"/>
+    <d v="2020-01-06T00:00:00"/>
+    <m/>
+    <m/>
+    <s v="何福睿"/>
+    <d v="2020-01-09T00:00:00"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="146"/>
+    <s v="分析表录入模块"/>
+    <x v="143"/>
+    <m/>
+    <s v="EPD"/>
+    <s v="邓木清"/>
+    <d v="2020-01-06T00:00:00"/>
+    <s v="Ctrl+L"/>
+    <m/>
+    <s v="何福睿"/>
+    <d v="2020-01-09T00:00:00"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="147"/>
+    <s v="分析表录入模块"/>
+    <x v="144"/>
+    <m/>
+    <s v="EPD"/>
+    <s v="林国军"/>
+    <d v="2020-01-06T00:00:00"/>
+    <m/>
+    <m/>
+    <s v="罗钰"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="t开头的优先"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="148"/>
+    <s v="Master Data"/>
+    <x v="145"/>
+    <m/>
+    <s v="EPD"/>
+    <s v="邓木清"/>
+    <d v="2020-01-04T00:00:00"/>
+    <m/>
+    <m/>
+    <s v="周述文"/>
+    <d v="2020-01-09T00:00:00"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="149"/>
+    <s v="Master Data"/>
+    <x v="146"/>
+    <m/>
+    <s v="EPD"/>
+    <s v="邓木清"/>
+    <d v="2020-01-04T00:00:00"/>
+    <m/>
+    <m/>
+    <s v="熊驰_x000a_周述文"/>
+    <d v="2020-01-09T00:00:00"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="150"/>
+    <s v="Master Data"/>
+    <x v="147"/>
+    <m/>
+    <s v="EPD"/>
+    <s v="盘冬华"/>
+    <d v="2020-01-04T00:00:00"/>
+    <m/>
+    <m/>
+    <s v="周述文"/>
+    <d v="2020-01-09T00:00:00"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="151"/>
+    <s v="Master Data"/>
+    <x v="148"/>
+    <m/>
+    <s v="EPD"/>
+    <s v="盘冬华"/>
+    <d v="2020-01-06T00:00:00"/>
+    <m/>
+    <m/>
+    <s v="周述文"/>
+    <d v="2020-01-09T00:00:00"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="152"/>
+    <s v="Master Data"/>
+    <x v="149"/>
+    <m/>
+    <s v="EPD"/>
+    <s v="盘冬华"/>
+    <d v="2020-01-06T00:00:00"/>
+    <m/>
+    <m/>
+    <s v="周述文"/>
+    <d v="2020-01-09T00:00:00"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="150"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="3"/>
     <m/>
     <m/>
     <m/>
@@ -13448,13 +13905,13 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="77" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="课题处理状态">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="87" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="课题处理状态">
   <location ref="E3:F12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="138">
+      <items count="152">
         <item x="32"/>
         <item x="26"/>
         <item x="77"/>
@@ -13584,7 +14041,7 @@
         <item x="99"/>
         <item x="68"/>
         <item x="92"/>
-        <item x="136"/>
+        <item x="150"/>
         <item x="129"/>
         <item x="130"/>
         <item x="131"/>
@@ -13592,6 +14049,20 @@
         <item x="133"/>
         <item x="134"/>
         <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -13608,9 +14079,9 @@
         <item sd="0" x="1"/>
         <item sd="0" x="2"/>
         <item sd="0" x="0"/>
-        <item n="IT担当漏确认课题" sd="0" x="4"/>
+        <item n="IT担当漏确认课题" sd="0" x="3"/>
         <item sd="0" m="1" x="6"/>
-        <item x="3"/>
+        <item x="4"/>
         <item m="1" x="5"/>
         <item t="default"/>
       </items>
@@ -14050,7 +14521,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -14084,7 +14555,7 @@
         <v>230</v>
       </c>
       <c r="F4" s="195">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="5:6" ht="30">
@@ -14092,7 +14563,7 @@
         <v>251</v>
       </c>
       <c r="F5" s="195">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="5:6" ht="30">
@@ -14100,42 +14571,44 @@
         <v>123</v>
       </c>
       <c r="F6" s="195">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="5:6" ht="30">
       <c r="E7" s="194" t="s">
         <v>334</v>
       </c>
-      <c r="F7" s="195"/>
+      <c r="F7" s="195">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="5:6" ht="30">
       <c r="E8" s="194" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F8" s="195">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="5:6" ht="30">
-      <c r="E9" s="358" t="s">
-        <v>398</v>
+      <c r="E9" s="346" t="s">
+        <v>395</v>
       </c>
       <c r="F9" s="195">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="5:6" ht="30">
-      <c r="E10" s="358" t="s">
-        <v>399</v>
+      <c r="E10" s="346" t="s">
+        <v>396</v>
       </c>
       <c r="F10" s="195">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="5:6" ht="30">
-      <c r="E11" s="358" t="s">
-        <v>400</v>
+      <c r="E11" s="346" t="s">
+        <v>397</v>
       </c>
       <c r="F11" s="195">
         <v>1</v>
@@ -14146,7 +14619,7 @@
         <v>252</v>
       </c>
       <c r="F12" s="195">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -14161,10 +14634,10 @@
   <dimension ref="A1:T190"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M133" sqref="M133"/>
+      <selection pane="bottomRight" activeCell="G134" sqref="G134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -14191,24 +14664,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" ht="69.75" customHeight="1" thickBot="1">
-      <c r="A1" s="370" t="s">
+      <c r="A1" s="382" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="371"/>
-      <c r="C1" s="371"/>
-      <c r="D1" s="371"/>
-      <c r="E1" s="371"/>
-      <c r="F1" s="371"/>
-      <c r="G1" s="371"/>
-      <c r="H1" s="371"/>
-      <c r="I1" s="371"/>
-      <c r="J1" s="371"/>
-      <c r="K1" s="371"/>
-      <c r="L1" s="371"/>
-      <c r="M1" s="371"/>
-      <c r="N1" s="371"/>
-      <c r="O1" s="371"/>
-      <c r="P1" s="372"/>
+      <c r="B1" s="383"/>
+      <c r="C1" s="383"/>
+      <c r="D1" s="383"/>
+      <c r="E1" s="383"/>
+      <c r="F1" s="383"/>
+      <c r="G1" s="383"/>
+      <c r="H1" s="383"/>
+      <c r="I1" s="383"/>
+      <c r="J1" s="383"/>
+      <c r="K1" s="383"/>
+      <c r="L1" s="383"/>
+      <c r="M1" s="383"/>
+      <c r="N1" s="383"/>
+      <c r="O1" s="383"/>
+      <c r="P1" s="384"/>
       <c r="Q1" s="120"/>
       <c r="S1" s="120"/>
       <c r="T1" s="120"/>
@@ -14289,11 +14762,11 @@
       <c r="R3" s="111" t="s">
         <v>280</v>
       </c>
-      <c r="S3" s="364" t="s">
-        <v>401</v>
+      <c r="S3" s="352" t="s">
+        <v>398</v>
       </c>
       <c r="T3" s="121" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="112" customFormat="1" ht="101.4" hidden="1" customHeight="1">
@@ -14377,45 +14850,45 @@
       <c r="Q5" s="217"/>
     </row>
     <row r="6" spans="1:20" s="112" customFormat="1" ht="58.5" hidden="1" customHeight="1">
-      <c r="A6" s="333">
+      <c r="A6" s="304">
         <v>3</v>
       </c>
-      <c r="B6" s="333" t="s">
+      <c r="B6" s="304" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="334" t="s">
+      <c r="C6" s="398" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="335"/>
-      <c r="E6" s="336" t="s">
+      <c r="D6" s="399"/>
+      <c r="E6" s="400" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="336" t="s">
+      <c r="F6" s="400" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="337">
+      <c r="G6" s="401">
         <v>43801</v>
       </c>
-      <c r="H6" s="338"/>
-      <c r="I6" s="333" t="s">
+      <c r="H6" s="402"/>
+      <c r="I6" s="304" t="s">
         <v>101</v>
       </c>
-      <c r="J6" s="333" t="s">
-        <v>353</v>
-      </c>
-      <c r="K6" s="337">
+      <c r="J6" s="304" t="s">
+        <v>352</v>
+      </c>
+      <c r="K6" s="401">
         <v>43838</v>
       </c>
-      <c r="L6" s="339" t="s">
-        <v>351</v>
-      </c>
-      <c r="M6" s="340"/>
-      <c r="N6" s="341"/>
-      <c r="O6" s="333"/>
-      <c r="P6" s="342" t="s">
+      <c r="L6" s="403" t="s">
+        <v>444</v>
+      </c>
+      <c r="M6" s="404"/>
+      <c r="N6" s="405"/>
+      <c r="O6" s="304"/>
+      <c r="P6" s="406" t="s">
         <v>250</v>
       </c>
-      <c r="Q6" s="343" t="s">
+      <c r="Q6" s="407" t="s">
         <v>146</v>
       </c>
       <c r="R6" s="112" t="s">
@@ -14463,10 +14936,10 @@
       <c r="R7" s="112" t="s">
         <v>319</v>
       </c>
-      <c r="S7" s="365">
+      <c r="S7" s="353">
         <v>2</v>
       </c>
-      <c r="T7" s="365">
+      <c r="T7" s="353">
         <f>S7*1.5</f>
         <v>3</v>
       </c>
@@ -14698,7 +15171,7 @@
         <v>43837</v>
       </c>
       <c r="L13" s="218" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="M13" s="214"/>
       <c r="N13" s="215"/>
@@ -14710,7 +15183,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="112" customFormat="1" ht="47.25" hidden="1" customHeight="1">
+    <row r="14" spans="1:20" s="112" customFormat="1" ht="47.25" customHeight="1">
       <c r="A14" s="122">
         <v>11</v>
       </c>
@@ -14735,7 +15208,7 @@
         <v>16</v>
       </c>
       <c r="J14" s="122" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K14" s="128">
         <v>43839</v>
@@ -15032,10 +15505,10 @@
       <c r="R21" s="112" t="s">
         <v>319</v>
       </c>
-      <c r="S21" s="365">
+      <c r="S21" s="353">
         <v>1</v>
       </c>
-      <c r="T21" s="365">
+      <c r="T21" s="353">
         <f>S21*1.5</f>
         <v>1.5</v>
       </c>
@@ -15128,7 +15601,7 @@
         <v>24</v>
       </c>
       <c r="C24" s="294" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D24" s="295"/>
       <c r="E24" s="296" t="s">
@@ -15163,10 +15636,10 @@
       <c r="R24" s="112" t="s">
         <v>319</v>
       </c>
-      <c r="S24" s="365">
+      <c r="S24" s="353">
         <v>0.5</v>
       </c>
-      <c r="T24" s="365">
+      <c r="T24" s="353">
         <f>S24*1.5</f>
         <v>0.75</v>
       </c>
@@ -15212,10 +15685,10 @@
       <c r="R25" s="112" t="s">
         <v>319</v>
       </c>
-      <c r="S25" s="365">
+      <c r="S25" s="353">
         <v>2</v>
       </c>
-      <c r="T25" s="365">
+      <c r="T25" s="353">
         <f>S25*1.5</f>
         <v>3</v>
       </c>
@@ -15487,7 +15960,7 @@
         <v>43837</v>
       </c>
       <c r="L32" s="239" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="M32" s="215"/>
       <c r="N32" s="215"/>
@@ -15621,7 +16094,7 @@
       <c r="P35" s="230"/>
       <c r="Q35" s="240"/>
     </row>
-    <row r="36" spans="1:17" s="65" customFormat="1" ht="47.25" hidden="1" customHeight="1">
+    <row r="36" spans="1:17" s="65" customFormat="1" ht="47.25" customHeight="1">
       <c r="A36" s="122">
         <v>33</v>
       </c>
@@ -15649,7 +16122,7 @@
         <v>346</v>
       </c>
       <c r="K36" s="165">
-        <v>43837</v>
+        <v>43840</v>
       </c>
       <c r="L36" s="129" t="s">
         <v>230</v>
@@ -15658,7 +16131,7 @@
       <c r="N36" s="166"/>
       <c r="O36" s="167"/>
       <c r="P36" s="168" t="s">
-        <v>337</v>
+        <v>474</v>
       </c>
       <c r="Q36" s="169"/>
     </row>
@@ -16522,14 +16995,14 @@
       </c>
       <c r="H59" s="226"/>
       <c r="I59" s="229"/>
-      <c r="J59" s="367" t="s">
-        <v>352</v>
+      <c r="J59" s="355" t="s">
+        <v>351</v>
       </c>
       <c r="K59" s="227">
         <v>43837</v>
       </c>
       <c r="L59" s="218" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="M59" s="214"/>
       <c r="N59" s="228"/>
@@ -16669,7 +17142,7 @@
       <c r="H63" s="174"/>
       <c r="I63" s="158"/>
       <c r="J63" s="133" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K63" s="155">
         <v>43468</v>
@@ -16902,7 +17375,7 @@
       <c r="N69" s="157"/>
       <c r="O69" s="158"/>
       <c r="P69" s="159" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q69" s="175" t="s">
         <v>145</v>
@@ -17012,7 +17485,7 @@
       </c>
       <c r="K72" s="227"/>
       <c r="L72" s="239" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M72" s="214"/>
       <c r="N72" s="228"/>
@@ -17024,10 +17497,10 @@
       <c r="R72" s="112" t="s">
         <v>319</v>
       </c>
-      <c r="S72" s="366">
+      <c r="S72" s="354">
         <v>0</v>
       </c>
-      <c r="T72" s="365">
+      <c r="T72" s="353">
         <f>S72*1.5</f>
         <v>0</v>
       </c>
@@ -17217,7 +17690,7 @@
       <c r="N77" s="328"/>
       <c r="O77" s="326"/>
       <c r="P77" s="329" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="Q77" s="330" t="s">
         <v>145</v>
@@ -17405,7 +17878,7 @@
       </c>
       <c r="K82" s="155"/>
       <c r="L82" s="156" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M82" s="136"/>
       <c r="N82" s="157"/>
@@ -17457,10 +17930,10 @@
       <c r="R83" s="112" t="s">
         <v>319</v>
       </c>
-      <c r="S83" s="366">
+      <c r="S83" s="354">
         <v>0.5</v>
       </c>
-      <c r="T83" s="365">
+      <c r="T83" s="353">
         <f>S83*1.5</f>
         <v>0.75</v>
       </c>
@@ -17535,7 +18008,7 @@
         <v>43837</v>
       </c>
       <c r="L85" s="239" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="M85" s="214"/>
       <c r="N85" s="228"/>
@@ -17550,7 +18023,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="86" spans="1:20" s="17" customFormat="1" ht="58.5" hidden="1" customHeight="1">
+    <row r="86" spans="1:20" s="17" customFormat="1" ht="58.5" customHeight="1">
       <c r="A86" s="122">
         <v>83</v>
       </c>
@@ -17576,7 +18049,7 @@
         <v>346</v>
       </c>
       <c r="K86" s="128">
-        <v>43838</v>
+        <v>43840</v>
       </c>
       <c r="L86" s="172" t="s">
         <v>230</v>
@@ -17585,7 +18058,7 @@
       <c r="N86" s="166"/>
       <c r="O86" s="167"/>
       <c r="P86" s="168" t="s">
-        <v>337</v>
+        <v>474</v>
       </c>
       <c r="Q86" s="173"/>
     </row>
@@ -17653,7 +18126,7 @@
         <v>43836</v>
       </c>
       <c r="L88" s="239" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M88" s="214"/>
       <c r="N88" s="228"/>
@@ -17745,7 +18218,7 @@
         <v>206</v>
       </c>
       <c r="C91" s="222" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D91" s="223"/>
       <c r="E91" s="224" t="s">
@@ -17760,13 +18233,13 @@
       <c r="H91" s="226"/>
       <c r="I91" s="229"/>
       <c r="J91" s="119" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K91" s="227">
         <v>43837</v>
       </c>
       <c r="L91" s="239" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="M91" s="214"/>
       <c r="N91" s="228"/>
@@ -17842,13 +18315,13 @@
       </c>
       <c r="K93" s="155"/>
       <c r="L93" s="156" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M93" s="136"/>
       <c r="N93" s="157"/>
       <c r="O93" s="158"/>
       <c r="P93" s="159" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="Q93" s="175" t="s">
         <v>145</v>
@@ -17934,7 +18407,7 @@
       <c r="N95" s="185"/>
       <c r="O95" s="182"/>
       <c r="P95" s="186" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="Q95" s="187" t="s">
         <v>145</v>
@@ -17942,10 +18415,10 @@
       <c r="R95" s="112" t="s">
         <v>319</v>
       </c>
-      <c r="S95" s="366">
+      <c r="S95" s="354">
         <v>40</v>
       </c>
-      <c r="T95" s="365">
+      <c r="T95" s="353">
         <f>S95*1.5</f>
         <v>60</v>
       </c>
@@ -18016,13 +18489,13 @@
         <v>43836</v>
       </c>
       <c r="L97" s="239" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M97" s="214"/>
       <c r="N97" s="228"/>
       <c r="O97" s="229"/>
       <c r="P97" s="230" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="Q97" s="231"/>
       <c r="R97" s="112" t="s">
@@ -18060,13 +18533,13 @@
         <v>43836</v>
       </c>
       <c r="L98" s="239" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M98" s="214"/>
       <c r="N98" s="228"/>
       <c r="O98" s="229"/>
       <c r="P98" s="230" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="Q98" s="231"/>
       <c r="R98" s="112" t="s">
@@ -18104,7 +18577,7 @@
         <v>43837</v>
       </c>
       <c r="L99" s="239" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="M99" s="214"/>
       <c r="N99" s="228"/>
@@ -18160,10 +18633,10 @@
       <c r="R100" s="112" t="s">
         <v>319</v>
       </c>
-      <c r="S100" s="366">
+      <c r="S100" s="354">
         <v>1</v>
       </c>
-      <c r="T100" s="365">
+      <c r="T100" s="353">
         <f>S100*1.5</f>
         <v>1.5</v>
       </c>
@@ -18505,10 +18978,10 @@
       <c r="R109" s="112" t="s">
         <v>319</v>
       </c>
-      <c r="S109" s="366">
+      <c r="S109" s="354">
         <v>1</v>
       </c>
-      <c r="T109" s="365">
+      <c r="T109" s="353">
         <f>S109*1.5</f>
         <v>1.5</v>
       </c>
@@ -18616,7 +19089,7 @@
         <v>43828</v>
       </c>
       <c r="L112" s="239" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M112" s="214"/>
       <c r="N112" s="228"/>
@@ -18696,13 +19169,13 @@
       </c>
       <c r="K114" s="155"/>
       <c r="L114" s="156" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M114" s="136"/>
       <c r="N114" s="157"/>
       <c r="O114" s="158"/>
       <c r="P114" s="159" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Q114" s="175"/>
       <c r="R114" s="112" t="s">
@@ -18754,7 +19227,7 @@
         <v>24</v>
       </c>
       <c r="C116" s="222" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D116" s="223"/>
       <c r="E116" s="224" t="s">
@@ -18766,8 +19239,8 @@
       <c r="G116" s="225">
         <v>43822</v>
       </c>
-      <c r="H116" s="368" t="s">
-        <v>369</v>
+      <c r="H116" s="356" t="s">
+        <v>368</v>
       </c>
       <c r="I116" s="229" t="s">
         <v>101</v>
@@ -18779,13 +19252,13 @@
         <v>43836</v>
       </c>
       <c r="L116" s="239" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="M116" s="214"/>
       <c r="N116" s="228"/>
       <c r="O116" s="229"/>
       <c r="P116" s="230" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Q116" s="231" t="s">
         <v>245</v>
@@ -18864,13 +19337,13 @@
         <v>43836</v>
       </c>
       <c r="L118" s="279" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M118" s="245"/>
       <c r="N118" s="245"/>
       <c r="O118" s="245"/>
       <c r="P118" s="230" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Q118" s="251"/>
       <c r="S118" s="3"/>
@@ -18922,7 +19395,7 @@
       <c r="B120" s="245" t="s">
         <v>303</v>
       </c>
-      <c r="C120" s="369" t="s">
+      <c r="C120" s="357" t="s">
         <v>308</v>
       </c>
       <c r="D120" s="246"/>
@@ -18948,7 +19421,7 @@
         <v>43836</v>
       </c>
       <c r="L120" s="255" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="M120" s="245"/>
       <c r="N120" s="245"/>
@@ -18993,7 +19466,7 @@
         <v>43836</v>
       </c>
       <c r="L121" s="255" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M121" s="245"/>
       <c r="N121" s="245"/>
@@ -19046,7 +19519,7 @@
       <c r="S122" s="36">
         <v>5</v>
       </c>
-      <c r="T122" s="365">
+      <c r="T122" s="353">
         <f>S122*1.5</f>
         <v>7.5</v>
       </c>
@@ -19084,7 +19557,7 @@
         <v>43836</v>
       </c>
       <c r="L123" s="255" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M123" s="245"/>
       <c r="N123" s="245"/>
@@ -19127,7 +19600,7 @@
         <v>43836</v>
       </c>
       <c r="L124" s="255" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M124" s="245"/>
       <c r="N124" s="245"/>
@@ -19141,42 +19614,42 @@
       <c r="A125" s="316">
         <v>122</v>
       </c>
-      <c r="B125" s="344" t="s">
-        <v>387</v>
-      </c>
-      <c r="C125" s="345" t="s">
+      <c r="B125" s="333" t="s">
+        <v>386</v>
+      </c>
+      <c r="C125" s="334" t="s">
         <v>316</v>
       </c>
-      <c r="D125" s="346"/>
-      <c r="E125" s="347" t="s">
+      <c r="D125" s="335"/>
+      <c r="E125" s="336" t="s">
         <v>266</v>
       </c>
-      <c r="F125" s="347" t="s">
+      <c r="F125" s="336" t="s">
         <v>266</v>
       </c>
-      <c r="G125" s="348">
+      <c r="G125" s="337">
         <v>43825</v>
       </c>
-      <c r="H125" s="345" t="s">
+      <c r="H125" s="334" t="s">
         <v>316</v>
       </c>
-      <c r="I125" s="344" t="s">
+      <c r="I125" s="333" t="s">
         <v>16</v>
       </c>
-      <c r="J125" s="344" t="s">
+      <c r="J125" s="333" t="s">
         <v>327</v>
       </c>
-      <c r="K125" s="344"/>
-      <c r="L125" s="349" t="s">
+      <c r="K125" s="333"/>
+      <c r="L125" s="338" t="s">
         <v>329</v>
       </c>
-      <c r="M125" s="344"/>
-      <c r="N125" s="344"/>
-      <c r="O125" s="344"/>
+      <c r="M125" s="333"/>
+      <c r="N125" s="333"/>
+      <c r="O125" s="333"/>
       <c r="P125" s="318" t="s">
         <v>330</v>
       </c>
-      <c r="Q125" s="350"/>
+      <c r="Q125" s="339"/>
       <c r="S125" s="3"/>
       <c r="T125" s="3"/>
     </row>
@@ -19231,7 +19704,7 @@
         <v>306</v>
       </c>
       <c r="C127" s="246" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D127" s="246"/>
       <c r="E127" s="247" t="s">
@@ -19250,7 +19723,7 @@
       <c r="J127" s="245"/>
       <c r="K127" s="245"/>
       <c r="L127" s="245" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="M127" s="245"/>
       <c r="N127" s="245"/>
@@ -19301,7 +19774,7 @@
       <c r="S128" s="36">
         <v>1</v>
       </c>
-      <c r="T128" s="365">
+      <c r="T128" s="353">
         <f>S128*1.5</f>
         <v>1.5</v>
       </c>
@@ -19337,13 +19810,13 @@
         <v>43836</v>
       </c>
       <c r="L129" s="255" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M129" s="287"/>
       <c r="N129" s="287"/>
       <c r="O129" s="287"/>
       <c r="P129" s="288" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Q129" s="267"/>
     </row>
@@ -19380,7 +19853,7 @@
         <v>43836</v>
       </c>
       <c r="L130" s="255" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M130" s="287"/>
       <c r="N130" s="287"/>
@@ -19458,86 +19931,86 @@
       <c r="P132" s="264"/>
       <c r="Q132" s="251"/>
     </row>
-    <row r="133" spans="1:20" ht="104.4" customHeight="1">
-      <c r="A133" s="265">
+    <row r="133" spans="1:20" ht="103.2" hidden="1" customHeight="1">
+      <c r="A133" s="245">
         <v>130</v>
       </c>
-      <c r="B133" s="351" t="s">
+      <c r="B133" s="416" t="s">
         <v>303</v>
       </c>
-      <c r="C133" s="352" t="s">
+      <c r="C133" s="374" t="s">
+        <v>371</v>
+      </c>
+      <c r="D133" s="246"/>
+      <c r="E133" s="280" t="s">
         <v>372</v>
       </c>
-      <c r="D133" s="266"/>
-      <c r="E133" s="353" t="s">
+      <c r="F133" s="255" t="s">
         <v>373</v>
       </c>
-      <c r="F133" s="268" t="s">
-        <v>374</v>
-      </c>
-      <c r="G133" s="354">
+      <c r="G133" s="395">
         <v>43836</v>
       </c>
-      <c r="H133" s="355"/>
-      <c r="I133" s="356" t="s">
+      <c r="H133" s="252"/>
+      <c r="I133" s="396" t="s">
         <v>16</v>
       </c>
-      <c r="J133" s="355" t="s">
-        <v>396</v>
-      </c>
-      <c r="K133" s="354">
+      <c r="J133" s="252" t="s">
+        <v>393</v>
+      </c>
+      <c r="K133" s="395">
         <v>43838</v>
       </c>
-      <c r="L133" s="265" t="s">
-        <v>390</v>
-      </c>
-      <c r="M133" s="265"/>
-      <c r="N133" s="265"/>
-      <c r="O133" s="265"/>
-      <c r="P133" s="168"/>
-      <c r="Q133" s="265"/>
+      <c r="L133" s="403" t="s">
+        <v>444</v>
+      </c>
+      <c r="M133" s="245"/>
+      <c r="N133" s="245"/>
+      <c r="O133" s="245"/>
+      <c r="P133" s="230"/>
+      <c r="Q133" s="245"/>
       <c r="R133" s="291"/>
       <c r="S133" s="3"/>
       <c r="T133" s="3"/>
     </row>
-    <row r="134" spans="1:20" ht="93.6" hidden="1" customHeight="1">
+    <row r="134" spans="1:20" ht="93.6" customHeight="1">
       <c r="A134" s="265">
         <v>131</v>
       </c>
-      <c r="B134" s="351" t="s">
+      <c r="B134" s="340" t="s">
         <v>303</v>
       </c>
-      <c r="C134" s="353" t="s">
+      <c r="C134" s="342" t="s">
+        <v>374</v>
+      </c>
+      <c r="D134" s="266"/>
+      <c r="E134" s="342" t="s">
         <v>375</v>
       </c>
-      <c r="D134" s="266"/>
-      <c r="E134" s="353" t="s">
+      <c r="F134" s="268" t="s">
         <v>376</v>
       </c>
-      <c r="F134" s="268" t="s">
-        <v>377</v>
-      </c>
-      <c r="G134" s="354">
+      <c r="G134" s="343">
         <v>43836</v>
       </c>
-      <c r="H134" s="355"/>
-      <c r="I134" s="356" t="s">
+      <c r="H134" s="344"/>
+      <c r="I134" s="345" t="s">
         <v>16</v>
       </c>
       <c r="J134" s="265" t="s">
-        <v>389</v>
-      </c>
-      <c r="K134" s="354">
+        <v>387</v>
+      </c>
+      <c r="K134" s="343">
         <v>43844</v>
       </c>
       <c r="L134" s="265" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="M134" s="265"/>
       <c r="N134" s="265"/>
       <c r="O134" s="265"/>
       <c r="P134" s="168" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="Q134" s="265"/>
       <c r="R134" s="291"/>
@@ -19548,28 +20021,28 @@
       <c r="A135" s="144">
         <v>132</v>
       </c>
-      <c r="B135" s="359" t="s">
+      <c r="B135" s="347" t="s">
+        <v>377</v>
+      </c>
+      <c r="C135" s="348" t="s">
         <v>378</v>
       </c>
-      <c r="C135" s="360" t="s">
-        <v>379</v>
-      </c>
       <c r="D135" s="270"/>
-      <c r="E135" s="359" t="s">
+      <c r="E135" s="347" t="s">
+        <v>372</v>
+      </c>
+      <c r="F135" s="349" t="s">
         <v>373</v>
       </c>
-      <c r="F135" s="361" t="s">
-        <v>374</v>
-      </c>
-      <c r="G135" s="362">
+      <c r="G135" s="350">
         <v>43836</v>
       </c>
       <c r="H135" s="273"/>
-      <c r="I135" s="363" t="s">
+      <c r="I135" s="351" t="s">
         <v>16</v>
       </c>
       <c r="J135" s="269" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K135" s="269"/>
       <c r="L135" s="269" t="s">
@@ -19580,207 +20053,207 @@
       <c r="O135" s="269"/>
       <c r="P135" s="186"/>
       <c r="Q135" s="269" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="R135" s="291"/>
       <c r="S135" s="36">
         <v>2</v>
       </c>
-      <c r="T135" s="365">
+      <c r="T135" s="353">
         <f>S135*1.5</f>
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="33" customHeight="1">
-      <c r="A136" s="265">
+    <row r="136" spans="1:20" ht="33" hidden="1" customHeight="1">
+      <c r="A136" s="245">
         <v>133</v>
       </c>
-      <c r="B136" s="266" t="s">
-        <v>380</v>
-      </c>
-      <c r="C136" s="353" t="s">
-        <v>393</v>
-      </c>
-      <c r="D136" s="266"/>
-      <c r="E136" s="353" t="s">
+      <c r="B136" s="246" t="s">
+        <v>379</v>
+      </c>
+      <c r="C136" s="280" t="s">
+        <v>477</v>
+      </c>
+      <c r="D136" s="246"/>
+      <c r="E136" s="280" t="s">
+        <v>372</v>
+      </c>
+      <c r="F136" s="255" t="s">
         <v>373</v>
       </c>
-      <c r="F136" s="268" t="s">
-        <v>374</v>
-      </c>
-      <c r="G136" s="354">
+      <c r="G136" s="395">
         <v>43836</v>
       </c>
-      <c r="H136" s="355"/>
-      <c r="I136" s="356" t="s">
+      <c r="H136" s="252"/>
+      <c r="I136" s="396" t="s">
         <v>16</v>
       </c>
-      <c r="J136" s="265" t="s">
-        <v>430</v>
-      </c>
-      <c r="K136" s="354">
+      <c r="J136" s="245" t="s">
+        <v>427</v>
+      </c>
+      <c r="K136" s="395">
         <v>43838</v>
       </c>
-      <c r="L136" s="265" t="s">
+      <c r="L136" s="214" t="s">
+        <v>444</v>
+      </c>
+      <c r="M136" s="245"/>
+      <c r="N136" s="245"/>
+      <c r="O136" s="245"/>
+      <c r="P136" s="230"/>
+      <c r="Q136" s="245" t="s">
         <v>390</v>
-      </c>
-      <c r="M136" s="265"/>
-      <c r="N136" s="265"/>
-      <c r="O136" s="265"/>
-      <c r="P136" s="168"/>
-      <c r="Q136" s="265" t="s">
-        <v>392</v>
       </c>
       <c r="R136" s="291"/>
       <c r="S136" s="3"/>
       <c r="T136" s="3"/>
     </row>
     <row r="137" spans="1:20" ht="24.6" hidden="1" customHeight="1">
-      <c r="A137" s="265">
+      <c r="A137" s="245">
         <v>134</v>
       </c>
-      <c r="B137" s="266" t="s">
+      <c r="B137" s="246" t="s">
+        <v>380</v>
+      </c>
+      <c r="C137" s="246" t="s">
         <v>381</v>
       </c>
-      <c r="C137" s="266" t="s">
-        <v>382</v>
-      </c>
-      <c r="D137" s="266"/>
-      <c r="E137" s="353" t="s">
+      <c r="D137" s="246"/>
+      <c r="E137" s="280" t="s">
+        <v>372</v>
+      </c>
+      <c r="F137" s="255" t="s">
         <v>373</v>
       </c>
-      <c r="F137" s="268" t="s">
-        <v>374</v>
-      </c>
-      <c r="G137" s="354">
+      <c r="G137" s="395">
         <v>43836</v>
       </c>
-      <c r="H137" s="355"/>
-      <c r="I137" s="356" t="s">
+      <c r="H137" s="252"/>
+      <c r="I137" s="396" t="s">
         <v>16</v>
       </c>
-      <c r="J137" s="265" t="s">
-        <v>389</v>
-      </c>
-      <c r="K137" s="354">
+      <c r="J137" s="245" t="s">
+        <v>387</v>
+      </c>
+      <c r="K137" s="395">
         <v>43839</v>
       </c>
-      <c r="L137" s="130" t="s">
-        <v>388</v>
-      </c>
-      <c r="M137" s="265"/>
-      <c r="N137" s="265"/>
-      <c r="O137" s="265"/>
-      <c r="P137" s="168"/>
+      <c r="L137" s="216" t="s">
+        <v>444</v>
+      </c>
+      <c r="M137" s="245"/>
+      <c r="N137" s="245"/>
+      <c r="O137" s="245"/>
+      <c r="P137" s="230"/>
       <c r="Q137" s="265"/>
       <c r="R137" s="291"/>
       <c r="S137" s="3"/>
       <c r="T137" s="3"/>
     </row>
-    <row r="138" spans="1:20" ht="32.4" customHeight="1">
-      <c r="A138" s="265">
+    <row r="138" spans="1:20" ht="32.4" hidden="1" customHeight="1">
+      <c r="A138" s="245">
         <v>135</v>
       </c>
-      <c r="B138" s="266" t="s">
-        <v>381</v>
-      </c>
-      <c r="C138" s="357" t="s">
-        <v>383</v>
-      </c>
-      <c r="D138" s="266"/>
-      <c r="E138" s="353" t="s">
+      <c r="B138" s="246" t="s">
+        <v>380</v>
+      </c>
+      <c r="C138" s="397" t="s">
+        <v>382</v>
+      </c>
+      <c r="D138" s="246"/>
+      <c r="E138" s="280" t="s">
+        <v>372</v>
+      </c>
+      <c r="F138" s="255" t="s">
         <v>373</v>
       </c>
-      <c r="F138" s="268" t="s">
-        <v>374</v>
-      </c>
-      <c r="G138" s="354">
+      <c r="G138" s="395">
         <v>43836</v>
       </c>
-      <c r="H138" s="355"/>
-      <c r="I138" s="356" t="s">
+      <c r="H138" s="252"/>
+      <c r="I138" s="396" t="s">
         <v>16</v>
       </c>
-      <c r="J138" s="265" t="s">
-        <v>391</v>
-      </c>
-      <c r="K138" s="354">
+      <c r="J138" s="245" t="s">
+        <v>389</v>
+      </c>
+      <c r="K138" s="395">
         <v>43838</v>
       </c>
-      <c r="L138" s="265" t="s">
-        <v>390</v>
-      </c>
-      <c r="M138" s="265"/>
-      <c r="N138" s="265"/>
-      <c r="O138" s="265"/>
-      <c r="P138" s="168"/>
-      <c r="Q138" s="265"/>
+      <c r="L138" s="214" t="s">
+        <v>444</v>
+      </c>
+      <c r="M138" s="245"/>
+      <c r="N138" s="245"/>
+      <c r="O138" s="245"/>
+      <c r="P138" s="230"/>
+      <c r="Q138" s="245"/>
       <c r="R138" s="291"/>
       <c r="S138" s="3"/>
       <c r="T138" s="3"/>
     </row>
-    <row r="139" spans="1:20" ht="31.8" hidden="1" customHeight="1">
-      <c r="A139" s="373">
+    <row r="139" spans="1:20" ht="31.8" customHeight="1">
+      <c r="A139" s="358">
         <v>136</v>
       </c>
-      <c r="B139" s="374" t="s">
-        <v>378</v>
-      </c>
-      <c r="C139" s="374" t="s">
+      <c r="B139" s="359" t="s">
+        <v>377</v>
+      </c>
+      <c r="C139" s="359" t="s">
+        <v>383</v>
+      </c>
+      <c r="D139" s="360"/>
+      <c r="E139" s="359" t="s">
+        <v>375</v>
+      </c>
+      <c r="F139" s="361" t="s">
+        <v>376</v>
+      </c>
+      <c r="G139" s="362">
+        <v>43836</v>
+      </c>
+      <c r="H139" s="363" t="s">
         <v>384</v>
       </c>
-      <c r="D139" s="375"/>
-      <c r="E139" s="374" t="s">
-        <v>376</v>
-      </c>
-      <c r="F139" s="376" t="s">
-        <v>377</v>
-      </c>
-      <c r="G139" s="377">
-        <v>43836</v>
-      </c>
-      <c r="H139" s="378" t="s">
-        <v>385</v>
-      </c>
-      <c r="I139" s="356" t="s">
+      <c r="I139" s="345" t="s">
         <v>16</v>
       </c>
-      <c r="J139" s="373" t="s">
-        <v>428</v>
-      </c>
-      <c r="K139" s="377">
+      <c r="J139" s="358" t="s">
+        <v>425</v>
+      </c>
+      <c r="K139" s="362">
         <v>43840</v>
       </c>
-      <c r="L139" s="373" t="s">
-        <v>390</v>
-      </c>
-      <c r="M139" s="373"/>
-      <c r="N139" s="373"/>
-      <c r="O139" s="373"/>
-      <c r="P139" s="379"/>
-      <c r="Q139" s="373"/>
-      <c r="R139" s="380"/>
+      <c r="L139" s="358" t="s">
+        <v>388</v>
+      </c>
+      <c r="M139" s="358"/>
+      <c r="N139" s="358"/>
+      <c r="O139" s="358"/>
+      <c r="P139" s="364"/>
+      <c r="Q139" s="358"/>
+      <c r="R139" s="365"/>
       <c r="S139" s="3"/>
       <c r="T139" s="3"/>
     </row>
-    <row r="140" spans="1:20" ht="28.8" hidden="1">
-      <c r="A140" s="390">
+    <row r="140" spans="1:20" ht="28.8" hidden="1" customHeight="1">
+      <c r="A140" s="375">
         <v>139</v>
       </c>
-      <c r="B140" s="391" t="s">
-        <v>408</v>
-      </c>
-      <c r="C140" s="392" t="s">
-        <v>409</v>
-      </c>
-      <c r="D140" s="393"/>
-      <c r="E140" s="393" t="s">
+      <c r="B140" s="376" t="s">
+        <v>405</v>
+      </c>
+      <c r="C140" s="377" t="s">
+        <v>406</v>
+      </c>
+      <c r="D140" s="378"/>
+      <c r="E140" s="378" t="s">
         <v>268</v>
       </c>
       <c r="F140" s="273" t="s">
-        <v>443</v>
-      </c>
-      <c r="G140" s="395">
+        <v>440</v>
+      </c>
+      <c r="G140" s="380">
         <v>43834</v>
       </c>
       <c r="H140" s="273"/>
@@ -19790,111 +20263,111 @@
       </c>
       <c r="K140" s="273"/>
       <c r="L140" s="273" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="M140" s="273"/>
       <c r="N140" s="273"/>
       <c r="O140" s="273"/>
       <c r="P140" s="273" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="Q140" s="273"/>
-      <c r="R140" s="381"/>
-    </row>
-    <row r="141" spans="1:20" ht="31.2">
-      <c r="A141" s="382">
+      <c r="R140" s="366"/>
+    </row>
+    <row r="141" spans="1:20" ht="31.2" hidden="1" customHeight="1">
+      <c r="A141" s="371">
         <v>140</v>
       </c>
-      <c r="B141" s="383" t="s">
-        <v>410</v>
-      </c>
-      <c r="C141" s="384" t="s">
-        <v>411</v>
-      </c>
-      <c r="D141" s="352"/>
-      <c r="E141" s="352" t="s">
+      <c r="B141" s="372" t="s">
+        <v>407</v>
+      </c>
+      <c r="C141" s="373" t="s">
+        <v>408</v>
+      </c>
+      <c r="D141" s="374"/>
+      <c r="E141" s="374" t="s">
         <v>268</v>
       </c>
-      <c r="F141" s="355" t="s">
-        <v>442</v>
-      </c>
-      <c r="G141" s="377">
+      <c r="F141" s="252" t="s">
+        <v>439</v>
+      </c>
+      <c r="G141" s="381">
         <v>43834</v>
       </c>
-      <c r="H141" s="355"/>
-      <c r="I141" s="355"/>
-      <c r="J141" s="355" t="s">
-        <v>429</v>
+      <c r="H141" s="252"/>
+      <c r="I141" s="252"/>
+      <c r="J141" s="252" t="s">
+        <v>426</v>
       </c>
       <c r="K141" s="385">
         <v>43839</v>
       </c>
-      <c r="L141" s="355" t="s">
-        <v>427</v>
-      </c>
-      <c r="M141" s="355"/>
-      <c r="N141" s="355"/>
-      <c r="O141" s="355"/>
-      <c r="P141" s="355"/>
-      <c r="Q141" s="355"/>
-      <c r="R141" s="381"/>
-    </row>
-    <row r="142" spans="1:20" ht="15.6">
-      <c r="A142" s="382">
+      <c r="L141" s="216" t="s">
+        <v>444</v>
+      </c>
+      <c r="M141" s="252"/>
+      <c r="N141" s="252"/>
+      <c r="O141" s="252"/>
+      <c r="P141" s="252"/>
+      <c r="Q141" s="252"/>
+      <c r="R141" s="366"/>
+    </row>
+    <row r="142" spans="1:20" ht="15.6" hidden="1" customHeight="1">
+      <c r="A142" s="371">
         <v>141</v>
       </c>
-      <c r="B142" s="383" t="s">
-        <v>412</v>
-      </c>
-      <c r="C142" s="384" t="s">
-        <v>413</v>
-      </c>
-      <c r="D142" s="352"/>
-      <c r="E142" s="352" t="s">
+      <c r="B142" s="372" t="s">
+        <v>409</v>
+      </c>
+      <c r="C142" s="373" t="s">
+        <v>410</v>
+      </c>
+      <c r="D142" s="374"/>
+      <c r="E142" s="374" t="s">
         <v>268</v>
       </c>
-      <c r="F142" s="355" t="s">
-        <v>442</v>
-      </c>
-      <c r="G142" s="377">
+      <c r="F142" s="252" t="s">
+        <v>439</v>
+      </c>
+      <c r="G142" s="381">
         <v>43836</v>
       </c>
-      <c r="H142" s="355"/>
-      <c r="I142" s="355"/>
-      <c r="J142" s="355" t="s">
-        <v>429</v>
+      <c r="H142" s="252"/>
+      <c r="I142" s="252"/>
+      <c r="J142" s="252" t="s">
+        <v>426</v>
       </c>
       <c r="K142" s="385">
         <v>43839</v>
       </c>
-      <c r="L142" s="355" t="s">
-        <v>427</v>
-      </c>
-      <c r="M142" s="355"/>
-      <c r="N142" s="355"/>
-      <c r="O142" s="355"/>
-      <c r="P142" s="355"/>
-      <c r="Q142" s="355"/>
-      <c r="R142" s="381"/>
-    </row>
-    <row r="143" spans="1:20" ht="31.2" hidden="1">
-      <c r="A143" s="390">
+      <c r="L142" s="216" t="s">
+        <v>444</v>
+      </c>
+      <c r="M142" s="252"/>
+      <c r="N142" s="252"/>
+      <c r="O142" s="252"/>
+      <c r="P142" s="252"/>
+      <c r="Q142" s="252"/>
+      <c r="R142" s="366"/>
+    </row>
+    <row r="143" spans="1:20" ht="31.2" hidden="1" customHeight="1">
+      <c r="A143" s="375">
         <v>142</v>
       </c>
-      <c r="B143" s="391" t="s">
+      <c r="B143" s="376" t="s">
         <v>203</v>
       </c>
-      <c r="C143" s="392" t="s">
-        <v>431</v>
-      </c>
-      <c r="D143" s="393"/>
-      <c r="E143" s="393" t="s">
+      <c r="C143" s="377" t="s">
+        <v>428</v>
+      </c>
+      <c r="D143" s="378"/>
+      <c r="E143" s="378" t="s">
         <v>268</v>
       </c>
       <c r="F143" s="273" t="s">
-        <v>441</v>
-      </c>
-      <c r="G143" s="395">
+        <v>438</v>
+      </c>
+      <c r="G143" s="380">
         <v>43834</v>
       </c>
       <c r="H143" s="273"/>
@@ -19904,75 +20377,75 @@
       </c>
       <c r="K143" s="273"/>
       <c r="L143" s="273" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="M143" s="273"/>
       <c r="N143" s="273"/>
       <c r="O143" s="273"/>
       <c r="P143" s="273" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="Q143" s="273"/>
-      <c r="R143" s="381"/>
-    </row>
-    <row r="144" spans="1:20" ht="28.8" hidden="1">
-      <c r="A144" s="390">
+      <c r="R143" s="366"/>
+    </row>
+    <row r="144" spans="1:20" ht="28.8" hidden="1" customHeight="1">
+      <c r="A144" s="375">
         <v>143</v>
       </c>
-      <c r="B144" s="391" t="s">
+      <c r="B144" s="376" t="s">
         <v>203</v>
       </c>
-      <c r="C144" s="392" t="s">
-        <v>414</v>
-      </c>
-      <c r="D144" s="393"/>
-      <c r="E144" s="393" t="s">
+      <c r="C144" s="377" t="s">
+        <v>411</v>
+      </c>
+      <c r="D144" s="378"/>
+      <c r="E144" s="378" t="s">
         <v>268</v>
       </c>
       <c r="F144" s="273" t="s">
-        <v>441</v>
-      </c>
-      <c r="G144" s="395">
+        <v>438</v>
+      </c>
+      <c r="G144" s="380">
         <v>43834</v>
       </c>
       <c r="H144" s="273"/>
       <c r="I144" s="273"/>
       <c r="J144" s="146" t="s">
-        <v>438</v>
-      </c>
-      <c r="K144" s="394">
+        <v>435</v>
+      </c>
+      <c r="K144" s="379">
         <v>43839</v>
       </c>
       <c r="L144" s="273" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="M144" s="273"/>
       <c r="N144" s="273"/>
       <c r="O144" s="273"/>
       <c r="P144" s="273" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="Q144" s="273"/>
-      <c r="R144" s="381"/>
-    </row>
-    <row r="145" spans="1:18" ht="31.2" hidden="1">
-      <c r="A145" s="390">
+      <c r="R144" s="366"/>
+    </row>
+    <row r="145" spans="1:18" ht="31.2" hidden="1" customHeight="1">
+      <c r="A145" s="375">
         <v>144</v>
       </c>
-      <c r="B145" s="391" t="s">
+      <c r="B145" s="376" t="s">
         <v>203</v>
       </c>
-      <c r="C145" s="392" t="s">
-        <v>415</v>
-      </c>
-      <c r="D145" s="393"/>
-      <c r="E145" s="393" t="s">
+      <c r="C145" s="377" t="s">
+        <v>412</v>
+      </c>
+      <c r="D145" s="378"/>
+      <c r="E145" s="378" t="s">
         <v>268</v>
       </c>
       <c r="F145" s="273" t="s">
-        <v>442</v>
-      </c>
-      <c r="G145" s="395">
+        <v>439</v>
+      </c>
+      <c r="G145" s="380">
         <v>43834</v>
       </c>
       <c r="H145" s="273"/>
@@ -19982,342 +20455,328 @@
       </c>
       <c r="K145" s="273"/>
       <c r="L145" s="273" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="M145" s="273"/>
       <c r="N145" s="273"/>
       <c r="O145" s="273"/>
       <c r="P145" s="273" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="Q145" s="273"/>
-      <c r="R145" s="381"/>
+      <c r="R145" s="366"/>
     </row>
     <row r="146" spans="1:18" ht="15.6" hidden="1">
-      <c r="A146" s="382">
+      <c r="A146" s="371">
         <v>145</v>
       </c>
-      <c r="B146" s="383" t="s">
+      <c r="B146" s="372" t="s">
         <v>203</v>
       </c>
-      <c r="C146" s="384" t="s">
-        <v>416</v>
-      </c>
-      <c r="D146" s="352"/>
-      <c r="E146" s="352" t="s">
+      <c r="C146" s="373" t="s">
+        <v>413</v>
+      </c>
+      <c r="D146" s="374"/>
+      <c r="E146" s="374" t="s">
         <v>268</v>
       </c>
-      <c r="F146" s="355" t="s">
-        <v>441</v>
-      </c>
-      <c r="G146" s="377">
+      <c r="F146" s="252" t="s">
+        <v>438</v>
+      </c>
+      <c r="G146" s="381">
         <v>43836</v>
       </c>
-      <c r="H146" s="355"/>
-      <c r="I146" s="355"/>
-      <c r="J146" s="355" t="s">
+      <c r="H146" s="252"/>
+      <c r="I146" s="252"/>
+      <c r="J146" s="252" t="s">
         <v>346</v>
       </c>
       <c r="K146" s="385">
         <v>43839</v>
       </c>
-      <c r="L146" s="355" t="s">
-        <v>427</v>
-      </c>
-      <c r="M146" s="355"/>
-      <c r="N146" s="355"/>
-      <c r="O146" s="355"/>
-      <c r="P146" s="168"/>
-      <c r="Q146" s="355"/>
-      <c r="R146" s="381"/>
-    </row>
-    <row r="147" spans="1:18" ht="15.6" hidden="1">
-      <c r="A147" s="382">
+      <c r="L146" s="216" t="s">
+        <v>444</v>
+      </c>
+      <c r="M146" s="252"/>
+      <c r="N146" s="252"/>
+      <c r="O146" s="252"/>
+      <c r="P146" s="230"/>
+      <c r="Q146" s="344"/>
+      <c r="R146" s="366"/>
+    </row>
+    <row r="147" spans="1:18" ht="15.6" hidden="1" customHeight="1">
+      <c r="A147" s="371">
         <v>146</v>
       </c>
-      <c r="B147" s="383" t="s">
+      <c r="B147" s="372" t="s">
         <v>203</v>
       </c>
-      <c r="C147" s="384" t="s">
-        <v>417</v>
-      </c>
-      <c r="D147" s="352"/>
-      <c r="E147" s="352" t="s">
+      <c r="C147" s="373" t="s">
+        <v>414</v>
+      </c>
+      <c r="D147" s="374"/>
+      <c r="E147" s="374" t="s">
         <v>268</v>
       </c>
-      <c r="F147" s="355" t="s">
+      <c r="F147" s="252" t="s">
+        <v>438</v>
+      </c>
+      <c r="G147" s="381">
+        <v>43836</v>
+      </c>
+      <c r="H147" s="252" t="s">
         <v>441</v>
       </c>
-      <c r="G147" s="377">
-        <v>43836</v>
-      </c>
-      <c r="H147" s="355" t="s">
-        <v>444</v>
-      </c>
-      <c r="I147" s="355"/>
-      <c r="J147" s="355" t="s">
-        <v>437</v>
+      <c r="I147" s="252"/>
+      <c r="J147" s="252" t="s">
+        <v>434</v>
       </c>
       <c r="K147" s="385">
         <v>43839</v>
       </c>
-      <c r="L147" s="355" t="s">
-        <v>427</v>
-      </c>
-      <c r="M147" s="355"/>
-      <c r="N147" s="355"/>
-      <c r="O147" s="355"/>
-      <c r="P147" s="168"/>
-      <c r="Q147" s="355"/>
-      <c r="R147" s="381"/>
-    </row>
-    <row r="148" spans="1:18" ht="31.2" hidden="1">
-      <c r="A148" s="386">
+      <c r="L147" s="216" t="s">
+        <v>444</v>
+      </c>
+      <c r="M147" s="252"/>
+      <c r="N147" s="252"/>
+      <c r="O147" s="252"/>
+      <c r="P147" s="230"/>
+      <c r="Q147" s="252"/>
+      <c r="R147" s="366"/>
+    </row>
+    <row r="148" spans="1:18" ht="31.2" hidden="1" customHeight="1">
+      <c r="A148" s="371">
         <v>147</v>
       </c>
-      <c r="B148" s="387" t="s">
+      <c r="B148" s="372" t="s">
         <v>203</v>
       </c>
-      <c r="C148" s="388" t="s">
-        <v>418</v>
-      </c>
-      <c r="D148" s="389"/>
-      <c r="E148" s="389" t="s">
+      <c r="C148" s="373" t="s">
+        <v>415</v>
+      </c>
+      <c r="D148" s="374"/>
+      <c r="E148" s="374" t="s">
         <v>268</v>
       </c>
       <c r="F148" s="252" t="s">
-        <v>445</v>
-      </c>
-      <c r="G148" s="396">
+        <v>442</v>
+      </c>
+      <c r="G148" s="381">
         <v>43836</v>
       </c>
       <c r="H148" s="252"/>
       <c r="I148" s="252"/>
       <c r="J148" s="216" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="K148" s="252"/>
       <c r="L148" s="252" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="M148" s="252"/>
       <c r="N148" s="252"/>
       <c r="O148" s="252"/>
       <c r="P148" s="230" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Q148" s="252"/>
-      <c r="R148" s="381"/>
-    </row>
-    <row r="149" spans="1:18" ht="15.6">
-      <c r="A149" s="382">
+      <c r="R148" s="366"/>
+    </row>
+    <row r="149" spans="1:18" ht="28.8" hidden="1">
+      <c r="A149" s="408">
         <v>148</v>
       </c>
-      <c r="B149" s="383" t="s">
-        <v>419</v>
-      </c>
-      <c r="C149" s="384" t="s">
-        <v>420</v>
-      </c>
-      <c r="D149" s="352"/>
-      <c r="E149" s="352" t="s">
+      <c r="B149" s="409" t="s">
+        <v>416</v>
+      </c>
+      <c r="C149" s="410" t="s">
+        <v>417</v>
+      </c>
+      <c r="D149" s="411"/>
+      <c r="E149" s="411" t="s">
         <v>268</v>
       </c>
-      <c r="F149" s="355" t="s">
-        <v>441</v>
-      </c>
-      <c r="G149" s="377">
+      <c r="F149" s="412" t="s">
+        <v>438</v>
+      </c>
+      <c r="G149" s="413">
         <v>43834</v>
       </c>
-      <c r="H149" s="355"/>
-      <c r="I149" s="355"/>
-      <c r="J149" s="355" t="s">
-        <v>434</v>
-      </c>
-      <c r="K149" s="385">
+      <c r="H149" s="412"/>
+      <c r="I149" s="412"/>
+      <c r="J149" s="412" t="s">
+        <v>431</v>
+      </c>
+      <c r="K149" s="414">
         <v>43839</v>
       </c>
-      <c r="L149" s="355" t="s">
-        <v>427</v>
-      </c>
-      <c r="M149" s="355"/>
-      <c r="N149" s="355"/>
-      <c r="O149" s="355"/>
-      <c r="P149" s="168"/>
-      <c r="Q149" s="355"/>
-      <c r="R149" s="381"/>
-    </row>
-    <row r="150" spans="1:18" ht="27.6">
-      <c r="A150" s="382">
+      <c r="L149" s="415" t="s">
+        <v>476</v>
+      </c>
+      <c r="M149" s="412"/>
+      <c r="N149" s="412"/>
+      <c r="O149" s="412"/>
+      <c r="P149" s="159" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q149" s="412"/>
+      <c r="R149" s="366"/>
+    </row>
+    <row r="150" spans="1:18" ht="27.6" hidden="1" customHeight="1">
+      <c r="A150" s="371">
         <v>149</v>
       </c>
-      <c r="B150" s="383" t="s">
-        <v>419</v>
-      </c>
-      <c r="C150" s="384" t="s">
-        <v>421</v>
-      </c>
-      <c r="D150" s="352"/>
-      <c r="E150" s="352" t="s">
+      <c r="B150" s="372" t="s">
+        <v>416</v>
+      </c>
+      <c r="C150" s="373" t="s">
+        <v>418</v>
+      </c>
+      <c r="D150" s="374"/>
+      <c r="E150" s="374" t="s">
         <v>268</v>
       </c>
-      <c r="F150" s="355" t="s">
-        <v>441</v>
-      </c>
-      <c r="G150" s="377">
+      <c r="F150" s="252" t="s">
+        <v>438</v>
+      </c>
+      <c r="G150" s="381">
         <v>43834</v>
       </c>
-      <c r="H150" s="355"/>
-      <c r="I150" s="355"/>
-      <c r="J150" s="355" t="s">
-        <v>435</v>
+      <c r="H150" s="252"/>
+      <c r="I150" s="252"/>
+      <c r="J150" s="252" t="s">
+        <v>432</v>
       </c>
       <c r="K150" s="385">
         <v>43839</v>
       </c>
-      <c r="L150" s="355" t="s">
-        <v>427</v>
-      </c>
-      <c r="M150" s="355"/>
-      <c r="N150" s="355"/>
-      <c r="O150" s="355"/>
-      <c r="P150" s="168"/>
-      <c r="Q150" s="355"/>
-      <c r="R150" s="381"/>
-    </row>
-    <row r="151" spans="1:18" ht="31.2">
-      <c r="A151" s="382">
+      <c r="L150" s="216" t="s">
+        <v>444</v>
+      </c>
+      <c r="M150" s="252"/>
+      <c r="N150" s="252"/>
+      <c r="O150" s="252"/>
+      <c r="P150" s="230"/>
+      <c r="Q150" s="252"/>
+      <c r="R150" s="366"/>
+    </row>
+    <row r="151" spans="1:18" ht="31.2" customHeight="1">
+      <c r="A151" s="367">
         <v>150</v>
       </c>
-      <c r="B151" s="383" t="s">
+      <c r="B151" s="368" t="s">
+        <v>416</v>
+      </c>
+      <c r="C151" s="369" t="s">
         <v>419</v>
       </c>
-      <c r="C151" s="384" t="s">
-        <v>422</v>
-      </c>
-      <c r="D151" s="352"/>
-      <c r="E151" s="352" t="s">
+      <c r="D151" s="341"/>
+      <c r="E151" s="341" t="s">
         <v>268</v>
       </c>
-      <c r="F151" s="355" t="s">
-        <v>442</v>
-      </c>
-      <c r="G151" s="377">
+      <c r="F151" s="344" t="s">
+        <v>439</v>
+      </c>
+      <c r="G151" s="362">
         <v>43834</v>
       </c>
-      <c r="H151" s="355"/>
-      <c r="I151" s="355"/>
-      <c r="J151" s="355" t="s">
-        <v>434</v>
-      </c>
-      <c r="K151" s="385">
+      <c r="H151" s="344"/>
+      <c r="I151" s="344"/>
+      <c r="J151" s="344" t="s">
+        <v>431</v>
+      </c>
+      <c r="K151" s="370">
         <v>43839</v>
       </c>
-      <c r="L151" s="355" t="s">
-        <v>427</v>
-      </c>
-      <c r="M151" s="355"/>
-      <c r="N151" s="355"/>
-      <c r="O151" s="355"/>
+      <c r="L151" s="344" t="s">
+        <v>424</v>
+      </c>
+      <c r="M151" s="344"/>
+      <c r="N151" s="344"/>
+      <c r="O151" s="344"/>
       <c r="P151" s="168"/>
-      <c r="Q151" s="355"/>
-      <c r="R151" s="381"/>
-    </row>
-    <row r="152" spans="1:18" ht="15.6">
-      <c r="A152" s="382">
+      <c r="Q151" s="344"/>
+      <c r="R151" s="366"/>
+    </row>
+    <row r="152" spans="1:18" ht="31.2" customHeight="1">
+      <c r="A152" s="367">
         <v>151</v>
       </c>
-      <c r="B152" s="383" t="s">
-        <v>419</v>
-      </c>
-      <c r="C152" s="384" t="s">
-        <v>423</v>
-      </c>
-      <c r="D152" s="352"/>
-      <c r="E152" s="352" t="s">
+      <c r="B152" s="368" t="s">
+        <v>416</v>
+      </c>
+      <c r="C152" s="369" t="s">
+        <v>420</v>
+      </c>
+      <c r="D152" s="341"/>
+      <c r="E152" s="341" t="s">
         <v>268</v>
       </c>
-      <c r="F152" s="355" t="s">
-        <v>442</v>
-      </c>
-      <c r="G152" s="377">
+      <c r="F152" s="344" t="s">
+        <v>439</v>
+      </c>
+      <c r="G152" s="362">
         <v>43836</v>
       </c>
-      <c r="H152" s="355"/>
-      <c r="I152" s="355"/>
-      <c r="J152" s="355" t="s">
-        <v>434</v>
-      </c>
-      <c r="K152" s="385">
+      <c r="H152" s="344"/>
+      <c r="I152" s="344"/>
+      <c r="J152" s="344" t="s">
+        <v>431</v>
+      </c>
+      <c r="K152" s="370">
         <v>43839</v>
       </c>
-      <c r="L152" s="355" t="s">
-        <v>427</v>
-      </c>
-      <c r="M152" s="355"/>
-      <c r="N152" s="355"/>
-      <c r="O152" s="355"/>
+      <c r="L152" s="344" t="s">
+        <v>424</v>
+      </c>
+      <c r="M152" s="344"/>
+      <c r="N152" s="344"/>
+      <c r="O152" s="344"/>
       <c r="P152" s="168"/>
-      <c r="Q152" s="355"/>
-      <c r="R152" s="381"/>
-    </row>
-    <row r="153" spans="1:18" ht="15.6">
-      <c r="A153" s="382">
+      <c r="Q152" s="344"/>
+      <c r="R152" s="366"/>
+    </row>
+    <row r="153" spans="1:18" ht="15.6" hidden="1" customHeight="1">
+      <c r="A153" s="371">
         <v>152</v>
       </c>
-      <c r="B153" s="383" t="s">
-        <v>419</v>
-      </c>
-      <c r="C153" s="384" t="s">
-        <v>424</v>
-      </c>
-      <c r="D153" s="352"/>
-      <c r="E153" s="352" t="s">
+      <c r="B153" s="372" t="s">
+        <v>416</v>
+      </c>
+      <c r="C153" s="373" t="s">
+        <v>421</v>
+      </c>
+      <c r="D153" s="374"/>
+      <c r="E153" s="374" t="s">
         <v>268</v>
       </c>
-      <c r="F153" s="355" t="s">
-        <v>442</v>
-      </c>
-      <c r="G153" s="377">
+      <c r="F153" s="252" t="s">
+        <v>439</v>
+      </c>
+      <c r="G153" s="381">
         <v>43836</v>
       </c>
-      <c r="H153" s="355"/>
-      <c r="I153" s="355"/>
-      <c r="J153" s="355" t="s">
-        <v>434</v>
+      <c r="H153" s="252"/>
+      <c r="I153" s="252"/>
+      <c r="J153" s="252" t="s">
+        <v>431</v>
       </c>
       <c r="K153" s="385">
         <v>43839</v>
       </c>
-      <c r="L153" s="355" t="s">
-        <v>427</v>
-      </c>
-      <c r="M153" s="355"/>
-      <c r="N153" s="355"/>
-      <c r="O153" s="355"/>
-      <c r="P153" s="168"/>
-      <c r="Q153" s="355"/>
-      <c r="R153" s="381"/>
+      <c r="L153" s="216" t="s">
+        <v>444</v>
+      </c>
+      <c r="M153" s="252"/>
+      <c r="N153" s="252"/>
+      <c r="O153" s="252"/>
+      <c r="P153" s="230"/>
+      <c r="Q153" s="252"/>
+      <c r="R153" s="366"/>
     </row>
     <row r="190" ht="13.95" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A3:Q153">
-    <filterColumn colId="9">
-      <filters>
-        <filter val="华明香"/>
-        <filter val="熊驰"/>
-        <filter val="熊驰_x000a_罗钰"/>
-        <filter val="熊驰_x000a_周述文"/>
-        <filter val="周述文"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="10">
-      <filters>
-        <dateGroupItem year="2020" month="1" day="7" dateTimeGrouping="day"/>
-        <dateGroupItem year="2020" month="1" day="8" dateTimeGrouping="day"/>
-        <dateGroupItem year="2020" month="1" day="9" dateTimeGrouping="day"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A3:T153">
     <filterColumn colId="11">
       <filters>
         <filter val="处理中"/>
@@ -20328,7 +20787,7 @@
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="5">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L50:L51 L33:L44 L22:L23 L26:L31 L53:L60 L4:L5 L8:L11 L13:L20 L113 L75:L76 L78 L84 L89 L103 L105:L108 L110:L111 L132">
       <formula1>"已处理,未处理"</formula1>
     </dataValidation>
@@ -20354,6 +20813,510 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="95.44140625" customWidth="1"/>
+    <col min="4" max="4" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="65.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="387" customFormat="1" ht="49.5" customHeight="1">
+      <c r="A1" s="386" t="s">
+        <v>445</v>
+      </c>
+      <c r="B1" s="386" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1" s="386" t="s">
+        <v>447</v>
+      </c>
+      <c r="D1" s="386" t="s">
+        <v>448</v>
+      </c>
+      <c r="E1" s="386" t="s">
+        <v>449</v>
+      </c>
+      <c r="F1" s="386" t="s">
+        <v>450</v>
+      </c>
+      <c r="G1" s="386" t="s">
+        <v>451</v>
+      </c>
+      <c r="H1" s="386" t="s">
+        <v>452</v>
+      </c>
+      <c r="I1" s="386" t="s">
+        <v>453</v>
+      </c>
+      <c r="J1" s="386" t="s">
+        <v>454</v>
+      </c>
+      <c r="K1" s="386" t="s">
+        <v>455</v>
+      </c>
+      <c r="L1" s="386" t="s">
+        <v>456</v>
+      </c>
+      <c r="M1" s="386" t="s">
+        <v>457</v>
+      </c>
+      <c r="N1" s="386" t="s">
+        <v>458</v>
+      </c>
+      <c r="O1" s="386" t="s">
+        <v>459</v>
+      </c>
+      <c r="P1" s="386" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.6">
+      <c r="A2" s="388">
+        <v>1</v>
+      </c>
+      <c r="B2" s="389" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="389" t="s">
+        <v>461</v>
+      </c>
+      <c r="D2" s="389"/>
+      <c r="E2" s="389" t="s">
+        <v>268</v>
+      </c>
+      <c r="F2" s="389" t="s">
+        <v>438</v>
+      </c>
+      <c r="G2" s="390">
+        <v>43804</v>
+      </c>
+      <c r="H2" s="389" t="s">
+        <v>462</v>
+      </c>
+      <c r="I2" s="389" t="s">
+        <v>101</v>
+      </c>
+      <c r="J2" s="389"/>
+      <c r="K2" s="389"/>
+      <c r="L2" s="389"/>
+      <c r="M2" s="389"/>
+      <c r="N2" s="389"/>
+      <c r="O2" s="389"/>
+      <c r="P2" s="389"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.6">
+      <c r="A3" s="388">
+        <v>2</v>
+      </c>
+      <c r="B3" s="389" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="389" t="s">
+        <v>463</v>
+      </c>
+      <c r="D3" s="389"/>
+      <c r="E3" s="389" t="s">
+        <v>268</v>
+      </c>
+      <c r="F3" s="389" t="s">
+        <v>438</v>
+      </c>
+      <c r="G3" s="390">
+        <v>43802</v>
+      </c>
+      <c r="H3" s="389" t="s">
+        <v>464</v>
+      </c>
+      <c r="I3" s="389" t="s">
+        <v>101</v>
+      </c>
+      <c r="J3" s="389"/>
+      <c r="K3" s="389"/>
+      <c r="L3" s="389"/>
+      <c r="M3" s="389"/>
+      <c r="N3" s="389"/>
+      <c r="O3" s="389"/>
+      <c r="P3" s="389"/>
+    </row>
+    <row r="4" spans="1:16" s="394" customFormat="1" ht="15.6">
+      <c r="A4" s="391">
+        <v>3</v>
+      </c>
+      <c r="B4" s="392" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="392" t="s">
+        <v>465</v>
+      </c>
+      <c r="D4" s="392"/>
+      <c r="E4" s="392" t="s">
+        <v>265</v>
+      </c>
+      <c r="F4" s="392" t="s">
+        <v>265</v>
+      </c>
+      <c r="G4" s="393">
+        <v>43817</v>
+      </c>
+      <c r="H4" s="392"/>
+      <c r="I4" s="392" t="s">
+        <v>101</v>
+      </c>
+      <c r="J4" s="392"/>
+      <c r="K4" s="392"/>
+      <c r="L4" s="392"/>
+      <c r="M4" s="392"/>
+      <c r="N4" s="392"/>
+      <c r="O4" s="392"/>
+      <c r="P4" s="392"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.6">
+      <c r="A5" s="388">
+        <v>4</v>
+      </c>
+      <c r="B5" s="389" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="389" t="s">
+        <v>466</v>
+      </c>
+      <c r="D5" s="389"/>
+      <c r="E5" s="389" t="s">
+        <v>265</v>
+      </c>
+      <c r="F5" s="389" t="s">
+        <v>265</v>
+      </c>
+      <c r="G5" s="390">
+        <v>43817</v>
+      </c>
+      <c r="H5" s="389"/>
+      <c r="I5" s="389" t="s">
+        <v>101</v>
+      </c>
+      <c r="J5" s="389"/>
+      <c r="K5" s="389"/>
+      <c r="L5" s="389"/>
+      <c r="M5" s="389"/>
+      <c r="N5" s="389"/>
+      <c r="O5" s="389"/>
+      <c r="P5" s="389"/>
+    </row>
+    <row r="6" spans="1:16" s="394" customFormat="1" ht="15.6">
+      <c r="A6" s="391">
+        <v>5</v>
+      </c>
+      <c r="B6" s="392" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" s="392" t="s">
+        <v>467</v>
+      </c>
+      <c r="D6" s="392"/>
+      <c r="E6" s="392" t="s">
+        <v>265</v>
+      </c>
+      <c r="F6" s="392" t="s">
+        <v>265</v>
+      </c>
+      <c r="G6" s="393">
+        <v>43817</v>
+      </c>
+      <c r="H6" s="392"/>
+      <c r="I6" s="392" t="s">
+        <v>101</v>
+      </c>
+      <c r="J6" s="392"/>
+      <c r="K6" s="392"/>
+      <c r="L6" s="392"/>
+      <c r="M6" s="392"/>
+      <c r="N6" s="392"/>
+      <c r="O6" s="392"/>
+      <c r="P6" s="392"/>
+    </row>
+    <row r="7" spans="1:16" s="394" customFormat="1" ht="15.6">
+      <c r="A7" s="391">
+        <v>6</v>
+      </c>
+      <c r="B7" s="392" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" s="392" t="s">
+        <v>468</v>
+      </c>
+      <c r="D7" s="392"/>
+      <c r="E7" s="392" t="s">
+        <v>265</v>
+      </c>
+      <c r="F7" s="392" t="s">
+        <v>265</v>
+      </c>
+      <c r="G7" s="393">
+        <v>43817</v>
+      </c>
+      <c r="H7" s="392"/>
+      <c r="I7" s="392" t="s">
+        <v>101</v>
+      </c>
+      <c r="J7" s="392"/>
+      <c r="K7" s="392"/>
+      <c r="L7" s="392"/>
+      <c r="M7" s="392"/>
+      <c r="N7" s="392"/>
+      <c r="O7" s="392"/>
+      <c r="P7" s="392"/>
+    </row>
+    <row r="8" spans="1:16" s="394" customFormat="1" ht="15.6">
+      <c r="A8" s="391">
+        <v>7</v>
+      </c>
+      <c r="B8" s="392" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" s="392" t="s">
+        <v>415</v>
+      </c>
+      <c r="D8" s="392"/>
+      <c r="E8" s="392" t="s">
+        <v>265</v>
+      </c>
+      <c r="F8" s="392" t="s">
+        <v>265</v>
+      </c>
+      <c r="G8" s="393">
+        <v>43817</v>
+      </c>
+      <c r="H8" s="392"/>
+      <c r="I8" s="392" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" s="392"/>
+      <c r="K8" s="392"/>
+      <c r="L8" s="392"/>
+      <c r="M8" s="392"/>
+      <c r="N8" s="392"/>
+      <c r="O8" s="392"/>
+      <c r="P8" s="392"/>
+    </row>
+    <row r="9" spans="1:16" s="394" customFormat="1" ht="15.6">
+      <c r="A9" s="391">
+        <v>8</v>
+      </c>
+      <c r="B9" s="392" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" s="392" t="s">
+        <v>469</v>
+      </c>
+      <c r="D9" s="392"/>
+      <c r="E9" s="392" t="s">
+        <v>268</v>
+      </c>
+      <c r="F9" s="392" t="s">
+        <v>439</v>
+      </c>
+      <c r="G9" s="393">
+        <v>43825</v>
+      </c>
+      <c r="H9" s="392"/>
+      <c r="I9" s="392" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" s="392"/>
+      <c r="K9" s="392"/>
+      <c r="L9" s="392"/>
+      <c r="M9" s="392"/>
+      <c r="N9" s="392"/>
+      <c r="O9" s="392"/>
+      <c r="P9" s="392"/>
+    </row>
+    <row r="10" spans="1:16" s="394" customFormat="1" ht="15.6">
+      <c r="A10" s="391">
+        <v>9</v>
+      </c>
+      <c r="B10" s="392" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" s="392" t="s">
+        <v>470</v>
+      </c>
+      <c r="D10" s="392"/>
+      <c r="E10" s="392" t="s">
+        <v>268</v>
+      </c>
+      <c r="F10" s="392" t="s">
+        <v>439</v>
+      </c>
+      <c r="G10" s="393">
+        <v>43825</v>
+      </c>
+      <c r="H10" s="392" t="s">
+        <v>471</v>
+      </c>
+      <c r="I10" s="392" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" s="392"/>
+      <c r="K10" s="392"/>
+      <c r="L10" s="392"/>
+      <c r="M10" s="392"/>
+      <c r="N10" s="392"/>
+      <c r="O10" s="392"/>
+      <c r="P10" s="392"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.6">
+      <c r="A11" s="388">
+        <v>10</v>
+      </c>
+      <c r="B11" s="389" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="389" t="s">
+        <v>472</v>
+      </c>
+      <c r="D11" s="389"/>
+      <c r="E11" s="389" t="s">
+        <v>268</v>
+      </c>
+      <c r="F11" s="389" t="s">
+        <v>438</v>
+      </c>
+      <c r="G11" s="390">
+        <v>43834</v>
+      </c>
+      <c r="H11" s="389"/>
+      <c r="I11" s="389" t="s">
+        <v>101</v>
+      </c>
+      <c r="J11" s="389"/>
+      <c r="K11" s="389"/>
+      <c r="L11" s="389"/>
+      <c r="M11" s="389"/>
+      <c r="N11" s="389"/>
+      <c r="O11" s="389"/>
+      <c r="P11" s="389"/>
+    </row>
+    <row r="12" spans="1:16" ht="15.6">
+      <c r="A12" s="388">
+        <v>11</v>
+      </c>
+      <c r="B12" s="389" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" s="389" t="s">
+        <v>412</v>
+      </c>
+      <c r="D12" s="389"/>
+      <c r="E12" s="389" t="s">
+        <v>268</v>
+      </c>
+      <c r="F12" s="389" t="s">
+        <v>439</v>
+      </c>
+      <c r="G12" s="390">
+        <v>43834</v>
+      </c>
+      <c r="H12" s="389"/>
+      <c r="I12" s="389" t="s">
+        <v>101</v>
+      </c>
+      <c r="J12" s="389"/>
+      <c r="K12" s="389"/>
+      <c r="L12" s="389"/>
+      <c r="M12" s="389"/>
+      <c r="N12" s="389"/>
+      <c r="O12" s="389"/>
+      <c r="P12" s="389"/>
+    </row>
+    <row r="13" spans="1:16" s="394" customFormat="1" ht="15.6">
+      <c r="A13" s="391">
+        <v>12</v>
+      </c>
+      <c r="B13" s="392" t="s">
+        <v>203</v>
+      </c>
+      <c r="C13" s="392" t="s">
+        <v>413</v>
+      </c>
+      <c r="D13" s="392"/>
+      <c r="E13" s="392" t="s">
+        <v>268</v>
+      </c>
+      <c r="F13" s="392" t="s">
+        <v>438</v>
+      </c>
+      <c r="G13" s="393">
+        <v>43836</v>
+      </c>
+      <c r="H13" s="392"/>
+      <c r="I13" s="392" t="s">
+        <v>101</v>
+      </c>
+      <c r="J13" s="392"/>
+      <c r="K13" s="392"/>
+      <c r="L13" s="392"/>
+      <c r="M13" s="392"/>
+      <c r="N13" s="392"/>
+      <c r="O13" s="392"/>
+      <c r="P13" s="392"/>
+    </row>
+    <row r="14" spans="1:16" ht="15.6">
+      <c r="A14" s="388">
+        <v>13</v>
+      </c>
+      <c r="B14" s="389" t="s">
+        <v>416</v>
+      </c>
+      <c r="C14" s="389" t="s">
+        <v>473</v>
+      </c>
+      <c r="D14" s="389"/>
+      <c r="E14" s="389" t="s">
+        <v>268</v>
+      </c>
+      <c r="F14" s="389" t="s">
+        <v>439</v>
+      </c>
+      <c r="G14" s="390">
+        <v>43834</v>
+      </c>
+      <c r="H14" s="389"/>
+      <c r="I14" s="389" t="s">
+        <v>101</v>
+      </c>
+      <c r="J14" s="389"/>
+      <c r="K14" s="389"/>
+      <c r="L14" s="389"/>
+      <c r="M14" s="389"/>
+      <c r="N14" s="389"/>
+      <c r="O14" s="389"/>
+      <c r="P14" s="389"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -20438,7 +21401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q52"/>
   <sheetViews>
@@ -20466,24 +21429,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="69.75" customHeight="1" thickBot="1">
-      <c r="A1" s="370" t="s">
+      <c r="A1" s="382" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="371"/>
-      <c r="C1" s="371"/>
-      <c r="D1" s="371"/>
-      <c r="E1" s="371"/>
-      <c r="F1" s="371"/>
-      <c r="G1" s="371"/>
-      <c r="H1" s="371"/>
-      <c r="I1" s="371"/>
-      <c r="J1" s="371"/>
-      <c r="K1" s="371"/>
-      <c r="L1" s="371"/>
-      <c r="M1" s="371"/>
-      <c r="N1" s="371"/>
-      <c r="O1" s="371"/>
-      <c r="P1" s="372"/>
+      <c r="B1" s="383"/>
+      <c r="C1" s="383"/>
+      <c r="D1" s="383"/>
+      <c r="E1" s="383"/>
+      <c r="F1" s="383"/>
+      <c r="G1" s="383"/>
+      <c r="H1" s="383"/>
+      <c r="I1" s="383"/>
+      <c r="J1" s="383"/>
+      <c r="K1" s="383"/>
+      <c r="L1" s="383"/>
+      <c r="M1" s="383"/>
+      <c r="N1" s="383"/>
+      <c r="O1" s="383"/>
+      <c r="P1" s="384"/>
     </row>
     <row r="2" spans="1:17" s="2" customFormat="1" ht="28.2" thickBot="1">
       <c r="A2" s="48"/>
@@ -22052,4 +23015,424 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="3" max="3" width="44.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="57.6">
+      <c r="A1" s="304">
+        <v>3</v>
+      </c>
+      <c r="B1" s="304" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="398" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="399"/>
+      <c r="E1" s="400" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="400" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="401">
+        <v>43801</v>
+      </c>
+      <c r="H1" s="402"/>
+      <c r="I1" s="304" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="304" t="s">
+        <v>352</v>
+      </c>
+      <c r="K1" s="401">
+        <v>43838</v>
+      </c>
+      <c r="L1" s="403" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="55.2">
+      <c r="A2" s="245">
+        <v>130</v>
+      </c>
+      <c r="B2" s="416" t="s">
+        <v>303</v>
+      </c>
+      <c r="C2" s="374" t="s">
+        <v>371</v>
+      </c>
+      <c r="D2" s="246"/>
+      <c r="E2" s="280" t="s">
+        <v>372</v>
+      </c>
+      <c r="F2" s="255" t="s">
+        <v>373</v>
+      </c>
+      <c r="G2" s="395">
+        <v>43836</v>
+      </c>
+      <c r="H2" s="252"/>
+      <c r="I2" s="396" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="252" t="s">
+        <v>393</v>
+      </c>
+      <c r="K2" s="395">
+        <v>43838</v>
+      </c>
+      <c r="L2" s="403" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="14.4">
+      <c r="A3" s="245">
+        <v>133</v>
+      </c>
+      <c r="B3" s="246" t="s">
+        <v>379</v>
+      </c>
+      <c r="C3" s="280" t="s">
+        <v>477</v>
+      </c>
+      <c r="D3" s="246"/>
+      <c r="E3" s="280" t="s">
+        <v>372</v>
+      </c>
+      <c r="F3" s="255" t="s">
+        <v>373</v>
+      </c>
+      <c r="G3" s="395">
+        <v>43836</v>
+      </c>
+      <c r="H3" s="252"/>
+      <c r="I3" s="396" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="245" t="s">
+        <v>427</v>
+      </c>
+      <c r="K3" s="395">
+        <v>43838</v>
+      </c>
+      <c r="L3" s="214" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="14.4">
+      <c r="A4" s="245">
+        <v>135</v>
+      </c>
+      <c r="B4" s="246" t="s">
+        <v>380</v>
+      </c>
+      <c r="C4" s="397" t="s">
+        <v>382</v>
+      </c>
+      <c r="D4" s="246"/>
+      <c r="E4" s="280" t="s">
+        <v>372</v>
+      </c>
+      <c r="F4" s="255" t="s">
+        <v>373</v>
+      </c>
+      <c r="G4" s="395">
+        <v>43836</v>
+      </c>
+      <c r="H4" s="252"/>
+      <c r="I4" s="396" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="245" t="s">
+        <v>389</v>
+      </c>
+      <c r="K4" s="395">
+        <v>43838</v>
+      </c>
+      <c r="L4" s="214" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="31.2">
+      <c r="A5" s="371">
+        <v>140</v>
+      </c>
+      <c r="B5" s="372" t="s">
+        <v>407</v>
+      </c>
+      <c r="C5" s="373" t="s">
+        <v>408</v>
+      </c>
+      <c r="D5" s="374"/>
+      <c r="E5" s="374" t="s">
+        <v>268</v>
+      </c>
+      <c r="F5" s="252" t="s">
+        <v>439</v>
+      </c>
+      <c r="G5" s="381">
+        <v>43834</v>
+      </c>
+      <c r="H5" s="252"/>
+      <c r="I5" s="252"/>
+      <c r="J5" s="252" t="s">
+        <v>426</v>
+      </c>
+      <c r="K5" s="385">
+        <v>43839</v>
+      </c>
+      <c r="L5" s="216" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="31.2">
+      <c r="A6" s="371">
+        <v>141</v>
+      </c>
+      <c r="B6" s="372" t="s">
+        <v>409</v>
+      </c>
+      <c r="C6" s="373" t="s">
+        <v>410</v>
+      </c>
+      <c r="D6" s="374"/>
+      <c r="E6" s="374" t="s">
+        <v>268</v>
+      </c>
+      <c r="F6" s="252" t="s">
+        <v>439</v>
+      </c>
+      <c r="G6" s="381">
+        <v>43836</v>
+      </c>
+      <c r="H6" s="252"/>
+      <c r="I6" s="252"/>
+      <c r="J6" s="252" t="s">
+        <v>426</v>
+      </c>
+      <c r="K6" s="385">
+        <v>43839</v>
+      </c>
+      <c r="L6" s="216" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="31.2">
+      <c r="A7" s="408">
+        <v>148</v>
+      </c>
+      <c r="B7" s="409" t="s">
+        <v>416</v>
+      </c>
+      <c r="C7" s="410" t="s">
+        <v>417</v>
+      </c>
+      <c r="D7" s="411"/>
+      <c r="E7" s="411" t="s">
+        <v>268</v>
+      </c>
+      <c r="F7" s="412" t="s">
+        <v>438</v>
+      </c>
+      <c r="G7" s="413">
+        <v>43834</v>
+      </c>
+      <c r="H7" s="412"/>
+      <c r="I7" s="412"/>
+      <c r="J7" s="412" t="s">
+        <v>431</v>
+      </c>
+      <c r="K7" s="414">
+        <v>43839</v>
+      </c>
+      <c r="L7" s="415" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="31.2">
+      <c r="A8" s="371">
+        <v>149</v>
+      </c>
+      <c r="B8" s="372" t="s">
+        <v>416</v>
+      </c>
+      <c r="C8" s="373" t="s">
+        <v>418</v>
+      </c>
+      <c r="D8" s="374"/>
+      <c r="E8" s="374" t="s">
+        <v>268</v>
+      </c>
+      <c r="F8" s="252" t="s">
+        <v>438</v>
+      </c>
+      <c r="G8" s="381">
+        <v>43834</v>
+      </c>
+      <c r="H8" s="252"/>
+      <c r="I8" s="252"/>
+      <c r="J8" s="252" t="s">
+        <v>432</v>
+      </c>
+      <c r="K8" s="385">
+        <v>43839</v>
+      </c>
+      <c r="L8" s="216" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="31.2">
+      <c r="A9" s="371">
+        <v>152</v>
+      </c>
+      <c r="B9" s="372" t="s">
+        <v>416</v>
+      </c>
+      <c r="C9" s="373" t="s">
+        <v>421</v>
+      </c>
+      <c r="D9" s="374"/>
+      <c r="E9" s="374" t="s">
+        <v>268</v>
+      </c>
+      <c r="F9" s="252" t="s">
+        <v>439</v>
+      </c>
+      <c r="G9" s="381">
+        <v>43836</v>
+      </c>
+      <c r="H9" s="252"/>
+      <c r="I9" s="252"/>
+      <c r="J9" s="252" t="s">
+        <v>431</v>
+      </c>
+      <c r="K9" s="385">
+        <v>43839</v>
+      </c>
+      <c r="L9" s="216" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="14.4">
+      <c r="A10" s="245">
+        <v>134</v>
+      </c>
+      <c r="B10" s="246" t="s">
+        <v>380</v>
+      </c>
+      <c r="C10" s="246" t="s">
+        <v>381</v>
+      </c>
+      <c r="D10" s="246"/>
+      <c r="E10" s="280" t="s">
+        <v>372</v>
+      </c>
+      <c r="F10" s="255" t="s">
+        <v>373</v>
+      </c>
+      <c r="G10" s="395">
+        <v>43836</v>
+      </c>
+      <c r="H10" s="252"/>
+      <c r="I10" s="396" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="245" t="s">
+        <v>387</v>
+      </c>
+      <c r="K10" s="395">
+        <v>43839</v>
+      </c>
+      <c r="L10" s="216" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="31.2">
+      <c r="A11" s="371">
+        <v>145</v>
+      </c>
+      <c r="B11" s="372" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="373" t="s">
+        <v>413</v>
+      </c>
+      <c r="D11" s="374"/>
+      <c r="E11" s="374" t="s">
+        <v>268</v>
+      </c>
+      <c r="F11" s="252" t="s">
+        <v>438</v>
+      </c>
+      <c r="G11" s="381">
+        <v>43836</v>
+      </c>
+      <c r="H11" s="252"/>
+      <c r="I11" s="252"/>
+      <c r="J11" s="252" t="s">
+        <v>346</v>
+      </c>
+      <c r="K11" s="385">
+        <v>43839</v>
+      </c>
+      <c r="L11" s="216" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="31.2">
+      <c r="A12" s="371">
+        <v>146</v>
+      </c>
+      <c r="B12" s="372" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" s="373" t="s">
+        <v>414</v>
+      </c>
+      <c r="D12" s="374"/>
+      <c r="E12" s="374" t="s">
+        <v>268</v>
+      </c>
+      <c r="F12" s="252" t="s">
+        <v>438</v>
+      </c>
+      <c r="G12" s="381">
+        <v>43836</v>
+      </c>
+      <c r="H12" s="252" t="s">
+        <v>441</v>
+      </c>
+      <c r="I12" s="252"/>
+      <c r="J12" s="252" t="s">
+        <v>425</v>
+      </c>
+      <c r="K12" s="385">
+        <v>43839</v>
+      </c>
+      <c r="L12" s="216" t="s">
+        <v>444</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I4 I10">
+      <formula1>"优先,高,适中,缓"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Docs/06 Testing/标准工时分析管理系统测试课题汇总及处理表.xlsx
+++ b/Docs/06 Testing/标准工时分析管理系统测试课题汇总及处理表.xlsx
@@ -4,23 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13140" tabRatio="751" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13140" tabRatio="751" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="课题处理状态&amp;数量" sheetId="30" r:id="rId1"/>
     <sheet name="课题记录-原数据 " sheetId="18" r:id="rId2"/>
-    <sheet name="优先对应课题" sheetId="31" r:id="rId3"/>
-    <sheet name="12.26课题记录" sheetId="27" r:id="rId4"/>
+    <sheet name="12.26课题记录" sheetId="27" state="hidden" r:id="rId3"/>
+    <sheet name="优先对应课题" sheetId="31" r:id="rId4"/>
     <sheet name="课题记录  (2)" sheetId="21" state="hidden" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="33" r:id="rId6"/>
+    <sheet name="0108NG" sheetId="34" r:id="rId6"/>
+    <sheet name="0109(0.1.6)" sheetId="33" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'0108NG'!$A$1:$P$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'课题记录  (2)'!$A$3:$H$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'课题记录-原数据 '!$A$3:$T$153</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="87" r:id="rId7"/>
+    <pivotCache cacheId="4" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -186,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="565">
   <si>
     <t>备注</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -248,6 +250,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>IT</t>
     </r>
@@ -3783,12 +3786,372 @@
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>序列</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部门</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>担当</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>测试时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>要望</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解决级别</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT担当</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>对应纳期</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应状态</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户担当</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户
+再测试日期</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试结果</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆后系统的名字没有</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPD</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>李K</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>效果不理想，还需继续优化</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录界面的风格与EPSON的色调、VI及系统的类型不是很搭</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPD</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>李K</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议使用时间为主题的背景,蓝色的再淡一些</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果不理想，还需继续优化</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘冬华</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>有记忆功能</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>有时还是需要输入账号密码</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置相关模块无</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPD</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>李K</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有看到设置相关的模块</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入[]后，还没输入任何字符就自动显示部品名</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析表录入模块</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入""后，还没输入任何字符就自动显示治工具名</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘冬华</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Master Data-治工具</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>治工具信息导出数据异常</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPD</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>邓雲燕</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善补"导出"功能</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Master Data-部品</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加搜索条件:是否通用、备注
+导入修改为部品-机种 关系表导入，无部件则插入部件并新增与机种的关系(导入已改，导出还没有)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>全体</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Master Data-治工具</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加是否通用，备注搜索条件
+导入修改为 治工具-机种 关系表导入，无治工具则插入治工具并新增与机种的关系</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>全体</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Master Data-工位</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加备注搜索
+导入修改为 工位-机种 关系表导入，无工位则插入工位并新增与机种的关系</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Master Data-关键词</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加备注搜索
+添加导入功能
+按部门区分</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>全体</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Master Data-手顺组合</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单名修改为：手顺及指标值组合
+完整显示整表
+选中序号列时可以复制和粘贴整行
+增加频率栏</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Master Data-常用指标组合</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单修改为：常用指标值组合
+ 添加导入功能
+ 按部门区分
+ 增加频率栏</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析表选择一部分数据，可以批量删除</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>左边的菜单栏需明亮一点，对比明显，字体变大，粗。 （UI给几个对比图看看）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已处理</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员删除性别，列表界面删除高级查询，增加导出</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出需要可以按部门进行筛选导出</t>
+  </si>
+  <si>
+    <t>分析表录入模块</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析表中希望添加分析表名称展示在题头醍目位置，以方便用户知晓目前编辑修改的内容；</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>VP</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾辉</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>放在分析表的表头而不是放在视频的表头
+且显示的内容应包括机种，阶段，工位</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已处理</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析表录入模块</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析表中间（ABPA tool ABP）网格线颜色太浅不易区分，容易混淆视觉；</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>见课题10（已修改颜色，线条未调整）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析表录入</t>
+  </si>
+  <si>
+    <t>分析表中敲回车键，光标总是跳到首行；
+分析表中进入编辑状态后，上下左右方向键功能失效；</t>
+    <phoneticPr fontId="69" type="noConversion"/>
+  </si>
+  <si>
+    <t>VP</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾辉</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已处理</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>NG</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳首行已处理。编辑状态不能方向键移动位置</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊驰</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊驰</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗钰</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>周述文</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊驰
+周述文</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>拒绝</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+按上、下、左、右方向键移动</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>何福睿</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>何福睿</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="86">
+  <fonts count="91">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -3844,10 +4207,12 @@
     <font>
       <sz val="11"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3993,6 +4358,7 @@
       <strike/>
       <sz val="11"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <strike/>
@@ -4111,6 +4477,7 @@
       <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4374,6 +4741,44 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -4622,7 +5027,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="417">
+  <cellXfs count="459">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -5757,15 +6162,6 @@
     <xf numFmtId="58" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="58" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5847,6 +6243,141 @@
     </xf>
     <xf numFmtId="0" fontId="73" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="83" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="89" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="89" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="83" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="83" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="83" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="83" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="83" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5854,7 +6385,40 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 26 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="14">
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="26"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="26"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="26"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="26"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="26"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="26"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <sz val="26"/>
@@ -5928,7 +6492,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C98B2B81-BA32-4394-B169-793F8C3E02A7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C98B2B81-BA32-4394-B169-793F8C3E02A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5972,7 +6536,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CBA739EC-426E-488C-8EB4-E9BFFCDD8554}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBA739EC-426E-488C-8EB4-E9BFFCDD8554}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6016,7 +6580,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{67E59D5F-3A3D-4CC8-BC62-636223D083FB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67E59D5F-3A3D-4CC8-BC62-636223D083FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6065,7 +6629,7 @@
         <xdr:cNvPr id="14" name="组合 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ED3142A9-7F63-479C-9720-07589AB2CE7F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED3142A9-7F63-479C-9720-07589AB2CE7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6084,7 +6648,7 @@
           <xdr:cNvPr id="15" name="图片 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3F21A3D8-CA0F-48DB-846B-4577426E88DB}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F21A3D8-CA0F-48DB-846B-4577426E88DB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6112,7 +6676,7 @@
           <xdr:cNvPr id="16" name="矩形 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D8A8C184-1A17-4247-BB9C-68650D799358}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8A8C184-1A17-4247-BB9C-68650D799358}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6179,7 +6743,7 @@
         <xdr:cNvPr id="7" name="组合 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9C52A969-B543-4095-8357-9B29AA726D2A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C52A969-B543-4095-8357-9B29AA726D2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6198,7 +6762,7 @@
           <xdr:cNvPr id="27" name="图片 26">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D6AEFA32-3788-40F7-BEBA-24C5E9F08CB5}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6AEFA32-3788-40F7-BEBA-24C5E9F08CB5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6226,7 +6790,7 @@
           <xdr:cNvPr id="28" name="矩形 27">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1D0E3554-6CC3-43CF-A6C2-99B0412D27C6}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D0E3554-6CC3-43CF-A6C2-99B0412D27C6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6293,7 +6857,7 @@
         <xdr:cNvPr id="17" name="组合 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82AF9E09-0798-485C-907F-F44410CAF4FB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82AF9E09-0798-485C-907F-F44410CAF4FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6312,7 +6876,7 @@
           <xdr:cNvPr id="36" name="图片 35">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07457ED1-E75B-4492-AB11-171F75C37693}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07457ED1-E75B-4492-AB11-171F75C37693}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6340,7 +6904,7 @@
           <xdr:cNvPr id="37" name="矩形 36">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CD4A936E-B663-4FEF-9170-AF86328014E3}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD4A936E-B663-4FEF-9170-AF86328014E3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6407,7 +6971,7 @@
         <xdr:cNvPr id="10" name="图片 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{71CE1696-FFAC-4D0D-9BC6-623C84080B11}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71CE1696-FFAC-4D0D-9BC6-623C84080B11}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6450,7 +7014,7 @@
         <xdr:cNvPr id="30" name="图片 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5922A382-D927-4B52-BEEB-C2668363FB35}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5922A382-D927-4B52-BEEB-C2668363FB35}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6493,7 +7057,7 @@
         <xdr:cNvPr id="62" name="图片 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BD02A9C6-4197-440B-8FC2-A69BD1CF140A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD02A9C6-4197-440B-8FC2-A69BD1CF140A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6531,7 +7095,7 @@
         <xdr:cNvPr id="56" name="图片 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3447B6E4-297B-4626-BEB1-4BD2E742BFB8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3447B6E4-297B-4626-BEB1-4BD2E742BFB8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6575,7 +7139,7 @@
         <xdr:cNvPr id="8" name="图片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{21CD05AE-AB07-4A92-90DD-14CF4D5829B5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21CD05AE-AB07-4A92-90DD-14CF4D5829B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6611,15 +7175,15 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1273479</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>591670</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="18" name="图片 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{23342E00-592E-4AA7-9123-4D5229A234A7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23342E00-592E-4AA7-9123-4D5229A234A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6658,7 +7222,7 @@
         <xdr:cNvPr id="57" name="图片 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1D352DE-53BF-42B9-B05C-32668E7F7DB2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1D352DE-53BF-42B9-B05C-32668E7F7DB2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6702,7 +7266,7 @@
         <xdr:cNvPr id="21" name="组合 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CCAA580D-E6A2-4774-A96E-7EBCE998DBC4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCAA580D-E6A2-4774-A96E-7EBCE998DBC4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6721,7 +7285,7 @@
           <xdr:cNvPr id="47" name="图片 46">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D75A2515-EDE2-40EE-B593-56435BAF7270}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D75A2515-EDE2-40EE-B593-56435BAF7270}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6749,7 +7313,7 @@
           <xdr:cNvPr id="20" name="直接箭头连接符 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F879196-4649-4521-9EDE-9B226B334913}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F879196-4649-4521-9EDE-9B226B334913}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6815,7 +7379,7 @@
         <xdr:cNvPr id="49" name="图片 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4C498E5-4FAD-466F-A44A-3D204083602A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4C498E5-4FAD-466F-A44A-3D204083602A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6859,7 +7423,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{02ACE7F6-6C9F-49AB-B04A-8A2CA1B80091}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02ACE7F6-6C9F-49AB-B04A-8A2CA1B80091}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6898,7 +7462,7 @@
         <xdr:cNvPr id="63" name="图片 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E5B4F15F-D156-49C7-88C9-0C0546D8FF38}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5B4F15F-D156-49C7-88C9-0C0546D8FF38}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6937,7 +7501,7 @@
         <xdr:cNvPr id="64" name="图片 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5B72EDCD-D450-4A03-BD8A-6526BF3EF390}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B72EDCD-D450-4A03-BD8A-6526BF3EF390}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6981,7 +7545,7 @@
         <xdr:cNvPr id="31" name="图片 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{265A18AF-7FD9-4852-A807-4A9065120A0A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{265A18AF-7FD9-4852-A807-4A9065120A0A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7025,7 +7589,7 @@
         <xdr:cNvPr id="39" name="图片 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A9C4C4A-8486-4FAD-A7B8-1DC65A159E7F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A9C4C4A-8486-4FAD-A7B8-1DC65A159E7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7068,7 +7632,7 @@
         <xdr:cNvPr id="40" name="图片 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8A319DFA-C470-418C-AEC3-79A8CCAE0C02}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A319DFA-C470-418C-AEC3-79A8CCAE0C02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7112,7 +7676,7 @@
         <xdr:cNvPr id="41" name="图片 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3CD369F4-FF89-4A08-B457-FAB4D314ABD5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CD369F4-FF89-4A08-B457-FAB4D314ABD5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7156,7 +7720,7 @@
         <xdr:cNvPr id="11" name="组合 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0AE260E9-029E-43AB-8368-B3A8C042A108}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AE260E9-029E-43AB-8368-B3A8C042A108}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7175,7 +7739,7 @@
           <xdr:cNvPr id="6" name="图片 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AF876CAB-ED8F-4688-986A-6F716B3BE4BE}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF876CAB-ED8F-4688-986A-6F716B3BE4BE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7204,7 +7768,7 @@
           <xdr:cNvPr id="9" name="矩形 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B7BD13C-8780-4606-B014-8D58A2F46294}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B7BD13C-8780-4606-B014-8D58A2F46294}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7278,7 +7842,7 @@
         <xdr:cNvPr id="19" name="组合 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5F515AF4-F953-48AF-902A-6BC975EEA1D5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F515AF4-F953-48AF-902A-6BC975EEA1D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7297,7 +7861,7 @@
           <xdr:cNvPr id="12" name="图片 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C94C0F32-E18C-492A-93BB-8425EB434BDB}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C94C0F32-E18C-492A-93BB-8425EB434BDB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7326,7 +7890,7 @@
           <xdr:cNvPr id="13" name="矩形 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{79637C81-3D3E-491D-B411-5D000451A074}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79637C81-3D3E-491D-B411-5D000451A074}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7400,7 +7964,7 @@
         <xdr:cNvPr id="24" name="组合 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FE984409-5DBC-4D7F-A372-C8129A968FFD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE984409-5DBC-4D7F-A372-C8129A968FFD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7419,7 +7983,7 @@
           <xdr:cNvPr id="22" name="图片 21">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B0871BD9-0E76-4D99-AF3E-B6E7BC1DF220}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0871BD9-0E76-4D99-AF3E-B6E7BC1DF220}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7448,7 +8012,7 @@
           <xdr:cNvPr id="23" name="矩形 22">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{79F5AD6B-1E3E-4424-A984-922AB2C06EB0}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79F5AD6B-1E3E-4424-A984-922AB2C06EB0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7522,7 +8086,7 @@
         <xdr:cNvPr id="25" name="图片 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{985C047F-BECF-4440-BA4B-F26ED3B85A92}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{985C047F-BECF-4440-BA4B-F26ED3B85A92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7566,7 +8130,7 @@
         <xdr:cNvPr id="32" name="组合 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{39F818E0-42DD-40F7-93A9-2E2B78DACA36}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39F818E0-42DD-40F7-93A9-2E2B78DACA36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7585,7 +8149,7 @@
           <xdr:cNvPr id="26" name="图片 25">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37418CA9-6E36-4C65-AA1F-7554F1F7BEAC}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37418CA9-6E36-4C65-AA1F-7554F1F7BEAC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7614,7 +8178,7 @@
           <xdr:cNvPr id="29" name="矩形 28">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A90E1BB1-B4E4-44A2-B19E-5E4993F74310}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A90E1BB1-B4E4-44A2-B19E-5E4993F74310}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7688,7 +8252,7 @@
         <xdr:cNvPr id="38" name="组合 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7ADE53DE-5AEE-4240-8BD6-C99835EE6166}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ADE53DE-5AEE-4240-8BD6-C99835EE6166}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7696,7 +8260,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7022886" y="87948300"/>
+          <a:off x="7022886" y="14204629"/>
           <a:ext cx="2575913" cy="225935"/>
           <a:chOff x="0" y="93786738"/>
           <a:chExt cx="18887425" cy="8571428"/>
@@ -7707,7 +8271,7 @@
           <xdr:cNvPr id="33" name="图片 32">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BAB102EB-9179-4433-B1E4-71FA232742BB}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAB102EB-9179-4433-B1E4-71FA232742BB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7736,7 +8300,7 @@
           <xdr:cNvPr id="34" name="矩形 33">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2A3E5A8-A3AD-4555-A10C-A9A82B4AF316}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2A3E5A8-A3AD-4555-A10C-A9A82B4AF316}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7794,7 +8358,7 @@
           <xdr:cNvPr id="35" name="文本框 34">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DEC9E465-A313-42BD-B7FE-517D6814315B}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEC9E465-A313-42BD-B7FE-517D6814315B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7866,7 +8430,7 @@
         <xdr:cNvPr id="50" name="组合 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4059CF34-0F21-48BD-947D-EB8C821901ED}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4059CF34-0F21-48BD-947D-EB8C821901ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7885,7 +8449,7 @@
           <xdr:cNvPr id="51" name="图片 50">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8F6CB871-708A-41DE-B3F1-2B704ECFA198}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F6CB871-708A-41DE-B3F1-2B704ECFA198}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7914,7 +8478,7 @@
           <xdr:cNvPr id="52" name="矩形 51">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{885CB1DE-A625-4233-8B49-45E9761E4DD3}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{885CB1DE-A625-4233-8B49-45E9761E4DD3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7972,7 +8536,7 @@
           <xdr:cNvPr id="53" name="文本框 52">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7AC064EB-9D21-4C0D-B097-4FA6497D6A79}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AC064EB-9D21-4C0D-B097-4FA6497D6A79}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8044,7 +8608,7 @@
         <xdr:cNvPr id="54" name="图片 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AC63C4F2-2AF6-4C07-B84D-94B792F27C12}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC63C4F2-2AF6-4C07-B84D-94B792F27C12}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8087,7 +8651,7 @@
         <xdr:cNvPr id="55" name="组合 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2E5966F4-05E9-4855-8924-556794098C1E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E5966F4-05E9-4855-8924-556794098C1E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8095,7 +8659,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7022886" y="90897848"/>
+          <a:off x="7022886" y="14428907"/>
           <a:ext cx="2575913" cy="1145"/>
           <a:chOff x="0" y="93786738"/>
           <a:chExt cx="18887425" cy="8571428"/>
@@ -8106,7 +8670,7 @@
           <xdr:cNvPr id="58" name="图片 57">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{659EBDDD-C8C7-4161-8812-10D2F732345B}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{659EBDDD-C8C7-4161-8812-10D2F732345B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8135,7 +8699,7 @@
           <xdr:cNvPr id="59" name="矩形 58">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{24ACAF84-4B10-451A-A5B1-8323AD1CBEEE}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24ACAF84-4B10-451A-A5B1-8323AD1CBEEE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8193,7 +8757,7 @@
           <xdr:cNvPr id="60" name="文本框 59">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{60665E06-55A3-45B9-8E76-147F8252C0AD}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60665E06-55A3-45B9-8E76-147F8252C0AD}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8265,7 +8829,7 @@
         <xdr:cNvPr id="61" name="图片 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30D01968-9869-4330-8703-81EE64B2E807}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{30D01968-9869-4330-8703-81EE64B2E807}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8309,7 +8873,7 @@
         <xdr:cNvPr id="65" name="图片 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD663A80-D315-49ED-968E-D9B45C310267}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD663A80-D315-49ED-968E-D9B45C310267}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8358,7 +8922,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8402,7 +8966,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8441,7 +9005,7 @@
         <xdr:cNvPr id="7" name="文本框 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8500,7 +9064,7 @@
         <xdr:cNvPr id="8" name="文本框 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8559,7 +9123,7 @@
         <xdr:cNvPr id="9" name="文本框 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8623,7 +9187,7 @@
         <xdr:cNvPr id="4" name="组合 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{38335C1B-0A42-4E87-BE4B-0D7C844D61A4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38335C1B-0A42-4E87-BE4B-0D7C844D61A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8642,7 +9206,7 @@
           <xdr:cNvPr id="5" name="直接连接符 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000005000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8692,7 +9256,7 @@
           <xdr:cNvPr id="10" name="文本框 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00000A000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8764,7 +9328,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D677A19C-2F90-4BC1-B75D-0B55D0799A5A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D677A19C-2F90-4BC1-B75D-0B55D0799A5A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8812,7 +9376,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CA40D1F-E98D-4779-B5DE-75CD1D518257}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CA40D1F-E98D-4779-B5DE-75CD1D518257}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8856,7 +9420,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{133DA2AF-CF85-4D35-A997-D6C79DC256CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{133DA2AF-CF85-4D35-A997-D6C79DC256CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8900,7 +9464,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF5B035E-628C-415E-B319-34B092DDAE08}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF5B035E-628C-415E-B319-34B092DDAE08}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8949,7 +9513,7 @@
         <xdr:cNvPr id="5" name="组合 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3FB9EB5F-B847-42D8-BBF5-052ADCAE8843}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FB9EB5F-B847-42D8-BBF5-052ADCAE8843}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8968,7 +9532,7 @@
           <xdr:cNvPr id="6" name="图片 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD71EF5F-5D64-41DF-A7F2-141005249294}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD71EF5F-5D64-41DF-A7F2-141005249294}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8996,7 +9560,7 @@
           <xdr:cNvPr id="7" name="矩形 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{75A4392B-E92B-4FC9-AC7D-371C5CB67A68}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75A4392B-E92B-4FC9-AC7D-371C5CB67A68}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9063,7 +9627,7 @@
         <xdr:cNvPr id="8" name="组合 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1510FA4D-5D40-451D-904C-905ED5CBFC47}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1510FA4D-5D40-451D-904C-905ED5CBFC47}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9082,7 +9646,7 @@
           <xdr:cNvPr id="9" name="图片 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C5C40D5-1862-4CBB-B6E6-707F77D56720}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C5C40D5-1862-4CBB-B6E6-707F77D56720}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9110,7 +9674,7 @@
           <xdr:cNvPr id="10" name="矩形 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B433086-303A-422F-8D3D-B19E2223A5E1}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B433086-303A-422F-8D3D-B19E2223A5E1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9177,7 +9741,7 @@
         <xdr:cNvPr id="11" name="组合 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{73C96F5D-A571-4F92-808B-8054033C1C68}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73C96F5D-A571-4F92-808B-8054033C1C68}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9196,7 +9760,7 @@
           <xdr:cNvPr id="12" name="图片 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{423F377D-F999-4903-8C47-B49A9E1BBB3F}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{423F377D-F999-4903-8C47-B49A9E1BBB3F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9225,7 +9789,7 @@
           <xdr:cNvPr id="13" name="矩形 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DABC0045-0D37-4A0E-B990-65A433DF712A}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DABC0045-0D37-4A0E-B990-65A433DF712A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9292,7 +9856,7 @@
         <xdr:cNvPr id="14" name="组合 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{695A3A22-8B01-4B94-AF82-D09D9BACA91A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{695A3A22-8B01-4B94-AF82-D09D9BACA91A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9311,7 +9875,7 @@
           <xdr:cNvPr id="15" name="图片 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B969C19A-37AF-4171-B52B-1822D75F97BA}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B969C19A-37AF-4171-B52B-1822D75F97BA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9339,7 +9903,7 @@
           <xdr:cNvPr id="16" name="矩形 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{410C8424-D8D3-4E10-8379-A832596C88C4}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{410C8424-D8D3-4E10-8379-A832596C88C4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9406,7 +9970,7 @@
         <xdr:cNvPr id="17" name="组合 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{98B9C950-5851-4D2A-9571-45E922882540}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98B9C950-5851-4D2A-9571-45E922882540}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9425,7 +9989,7 @@
           <xdr:cNvPr id="18" name="图片 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8ED41D7D-F68A-4AC2-A1B0-07C11A05D254}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ED41D7D-F68A-4AC2-A1B0-07C11A05D254}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9453,7 +10017,7 @@
           <xdr:cNvPr id="19" name="矩形 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DBBD272-C3EA-40B8-A221-2689DD5C211A}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DBBD272-C3EA-40B8-A221-2689DD5C211A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9520,7 +10084,7 @@
         <xdr:cNvPr id="20" name="组合 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0263C938-2310-4948-8135-8890B8AFE85C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0263C938-2310-4948-8135-8890B8AFE85C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9539,7 +10103,7 @@
           <xdr:cNvPr id="21" name="图片 20">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BFD97B7C-70BD-4117-B3DA-F86F086B4EC3}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFD97B7C-70BD-4117-B3DA-F86F086B4EC3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9567,7 +10131,7 @@
           <xdr:cNvPr id="22" name="矩形 21">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F7FD535A-41D0-4995-BEF3-47E84293312B}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7FD535A-41D0-4995-BEF3-47E84293312B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9634,7 +10198,7 @@
         <xdr:cNvPr id="23" name="图片 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F5D959CF-DCB6-43F2-BD17-E00A70826190}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5D959CF-DCB6-43F2-BD17-E00A70826190}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9677,7 +10241,7 @@
         <xdr:cNvPr id="24" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2D48FC70-CC73-4FFA-93EF-910DB168505F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D48FC70-CC73-4FFA-93EF-910DB168505F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9720,7 +10284,7 @@
         <xdr:cNvPr id="25" name="组合 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{01A4520C-878D-41DA-ACC8-C753AB4EEC8A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A4520C-878D-41DA-ACC8-C753AB4EEC8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9739,7 +10303,7 @@
           <xdr:cNvPr id="26" name="图片 25">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{539EBE1B-E593-4CF1-8E00-732DB21C57C7}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{539EBE1B-E593-4CF1-8E00-732DB21C57C7}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9768,7 +10332,7 @@
           <xdr:cNvPr id="27" name="矩形 26">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5E704DA5-79FB-4DCE-82CD-C7128EF5045D}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E704DA5-79FB-4DCE-82CD-C7128EF5045D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9835,7 +10399,7 @@
         <xdr:cNvPr id="28" name="图片 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F60F9300-474C-4B97-8CFA-FA6A232996BC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F60F9300-474C-4B97-8CFA-FA6A232996BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9878,7 +10442,7 @@
         <xdr:cNvPr id="29" name="图片 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{041F02E7-301A-4535-8E92-FCE7759A0E5B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{041F02E7-301A-4535-8E92-FCE7759A0E5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9921,7 +10485,7 @@
         <xdr:cNvPr id="30" name="组合 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4081C441-A16E-47A6-91AB-CE7259525E3C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4081C441-A16E-47A6-91AB-CE7259525E3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9940,7 +10504,7 @@
           <xdr:cNvPr id="31" name="图片 30">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{50922B92-5CDB-4001-81FE-970A069D1776}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50922B92-5CDB-4001-81FE-970A069D1776}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9969,7 +10533,7 @@
           <xdr:cNvPr id="32" name="矩形 31">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4D45F2F-BE07-4DD2-85CD-D54AAECFCF4A}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4D45F2F-BE07-4DD2-85CD-D54AAECFCF4A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10043,7 +10607,7 @@
         <xdr:cNvPr id="33" name="组合 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{276B5F4B-7CC1-4301-8950-5FD9EA8CAF37}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{276B5F4B-7CC1-4301-8950-5FD9EA8CAF37}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10062,7 +10626,7 @@
           <xdr:cNvPr id="34" name="图片 33">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D6B8C32B-6E2A-4807-A1D7-6F444FC24D6E}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6B8C32B-6E2A-4807-A1D7-6F444FC24D6E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10090,7 +10654,7 @@
           <xdr:cNvPr id="35" name="矩形 34">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{23D2AE0D-123E-42DC-ABED-86AA7E367A25}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23D2AE0D-123E-42DC-ABED-86AA7E367A25}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10164,7 +10728,7 @@
         <xdr:cNvPr id="36" name="图片 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BAD693BB-8FF5-4C75-9399-B6802382149F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAD693BB-8FF5-4C75-9399-B6802382149F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10207,7 +10771,7 @@
         <xdr:cNvPr id="37" name="图片 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B3E1CE8D-148A-4110-B326-60CF5214D964}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3E1CE8D-148A-4110-B326-60CF5214D964}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10250,7 +10814,7 @@
         <xdr:cNvPr id="38" name="图片 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FAD76119-757D-4D4D-9EF0-428B965CA83D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAD76119-757D-4D4D-9EF0-428B965CA83D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10288,7 +10852,7 @@
         <xdr:cNvPr id="39" name="图片 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{45F58B90-C3E8-4CBD-923D-36B5F3F410CC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45F58B90-C3E8-4CBD-923D-36B5F3F410CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10332,7 +10896,7 @@
         <xdr:cNvPr id="40" name="图片 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B687413-23BF-4281-9D42-6D9D81EC9986}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B687413-23BF-4281-9D42-6D9D81EC9986}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10376,7 +10940,7 @@
         <xdr:cNvPr id="41" name="图片 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{99954A59-2E00-4CDA-A0DC-610C9B6FF2C8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99954A59-2E00-4CDA-A0DC-610C9B6FF2C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10415,7 +10979,7 @@
         <xdr:cNvPr id="42" name="图片 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4DD4F50-D468-4FED-989B-6D6A38F1285C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4DD4F50-D468-4FED-989B-6D6A38F1285C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10459,7 +11023,7 @@
         <xdr:cNvPr id="43" name="组合 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6D60B776-8290-4A05-8D0B-E49A20D889D6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D60B776-8290-4A05-8D0B-E49A20D889D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10478,7 +11042,7 @@
           <xdr:cNvPr id="44" name="图片 43">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{57538BB3-6956-4C33-8DD0-A16EEBE15ECC}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57538BB3-6956-4C33-8DD0-A16EEBE15ECC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10506,7 +11070,7 @@
           <xdr:cNvPr id="45" name="直接箭头连接符 44">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B46ADCBE-FF68-4902-9EB2-648E3FE62B5C}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B46ADCBE-FF68-4902-9EB2-648E3FE62B5C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10572,7 +11136,7 @@
         <xdr:cNvPr id="46" name="图片 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6366B4A9-4196-44F0-8E96-85299FE69047}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6366B4A9-4196-44F0-8E96-85299FE69047}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10616,7 +11180,7 @@
         <xdr:cNvPr id="47" name="图片 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A3029897-09D5-4E82-88FE-30DA2683D8E4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3029897-09D5-4E82-88FE-30DA2683D8E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10651,7 +11215,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="DELL" refreshedDate="43839.26062361111" createdVersion="6" refreshedVersion="4" minRefreshableVersion="3" recordCount="151">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="DELL" refreshedDate="43840.19431875" createdVersion="6" refreshedVersion="4" minRefreshableVersion="3" recordCount="151">
   <cacheSource type="worksheet">
     <worksheetSource ref="A3:R1048576" sheet="课题记录-原数据 "/>
   </cacheSource>
@@ -10842,12 +11406,13 @@
       <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2019-01-03T00:00:00" maxDate="2020-01-15T00:00:00"/>
     </cacheField>
     <cacheField name="对应状态" numFmtId="0">
-      <sharedItems containsBlank="1" count="7">
+      <sharedItems containsBlank="1" count="8">
         <s v="已处理"/>
+        <s v="待确定"/>
         <s v="处理中"/>
-        <s v="待确定"/>
         <m/>
         <s v="取消"/>
+        <s v="拒绝"/>
         <s v="待确认" u="1"/>
         <s v="暂定" u="1"/>
       </sharedItems>
@@ -10933,7 +11498,7 @@
     <s v="优先"/>
     <s v="何福睿"/>
     <d v="2020-01-08T00:00:00"/>
-    <x v="1"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -10953,7 +11518,7 @@
     <s v="优先"/>
     <s v="何福睿、李拓新"/>
     <m/>
-    <x v="2"/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -11053,7 +11618,7 @@
     <s v="高"/>
     <s v="何福睿、李拓新"/>
     <m/>
-    <x v="2"/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -11093,7 +11658,7 @@
     <s v="高"/>
     <s v="何福睿"/>
     <d v="2020-01-09T00:00:00"/>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <m/>
     <m/>
@@ -11233,7 +11798,7 @@
     <s v="优先"/>
     <s v="何福睿、李拓新"/>
     <m/>
-    <x v="2"/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -11293,7 +11858,7 @@
     <s v="高"/>
     <s v="何福睿、李拓新"/>
     <m/>
-    <x v="2"/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -11313,7 +11878,7 @@
     <s v="高"/>
     <s v="何福睿、李拓新"/>
     <m/>
-    <x v="2"/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -11532,12 +12097,12 @@
     <m/>
     <s v="高"/>
     <s v="何福睿"/>
-    <d v="2020-01-07T00:00:00"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="纳期从3日延后到7日"/>
+    <d v="2020-01-10T00:00:00"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="纳期从3日延后到10日"/>
     <m/>
     <m/>
   </r>
@@ -12173,7 +12738,7 @@
     <s v="高"/>
     <s v="何福睿、李拓新"/>
     <m/>
-    <x v="2"/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -12193,7 +12758,7 @@
     <s v="高"/>
     <s v="何福睿、李拓新"/>
     <m/>
-    <x v="2"/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -12353,7 +12918,7 @@
     <m/>
     <s v="何福睿、李拓新"/>
     <d v="2019-12-29T00:00:00"/>
-    <x v="2"/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -12393,7 +12958,7 @@
     <s v="高"/>
     <s v="何福睿、李拓新"/>
     <m/>
-    <x v="2"/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -12473,7 +13038,7 @@
     <s v="适中"/>
     <s v="何福睿、李拓新"/>
     <m/>
-    <x v="2"/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -12532,12 +13097,12 @@
     <m/>
     <m/>
     <s v="何福睿"/>
-    <d v="2020-01-08T00:00:00"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="纳期从3日延后到7日"/>
+    <d v="2020-01-10T00:00:00"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="纳期从3日延后到10日"/>
     <m/>
     <m/>
   </r>
@@ -12693,7 +13258,7 @@
     <s v="优先"/>
     <s v="何福睿、李拓新"/>
     <m/>
-    <x v="2"/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -12713,7 +13278,7 @@
     <s v="适中"/>
     <s v="何福睿、李拓新"/>
     <m/>
-    <x v="2"/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -12813,7 +13378,7 @@
     <s v="适中"/>
     <s v="何福睿、李拓新"/>
     <m/>
-    <x v="2"/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -12993,7 +13558,7 @@
     <s v="优先"/>
     <s v="何福睿、李拓新"/>
     <m/>
-    <x v="2"/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -13253,7 +13818,7 @@
     <s v="高"/>
     <s v="何福睿"/>
     <m/>
-    <x v="2"/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -13313,7 +13878,7 @@
     <s v="高"/>
     <s v="何福睿"/>
     <m/>
-    <x v="2"/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -13373,7 +13938,7 @@
     <s v="高"/>
     <s v="何福睿"/>
     <m/>
-    <x v="2"/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -13473,7 +14038,7 @@
     <s v="高"/>
     <s v="熊驰_x000a_罗钰"/>
     <d v="2020-01-08T00:00:00"/>
-    <x v="1"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -13493,7 +14058,7 @@
     <s v="高"/>
     <s v="何福睿"/>
     <d v="2020-01-14T00:00:00"/>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <m/>
     <m/>
@@ -13513,7 +14078,7 @@
     <s v="高"/>
     <s v="熊驰"/>
     <m/>
-    <x v="2"/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -13533,7 +14098,7 @@
     <s v="高"/>
     <s v="熊驰"/>
     <d v="2020-01-08T00:00:00"/>
-    <x v="1"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -13553,7 +14118,7 @@
     <s v="高"/>
     <s v="何福睿"/>
     <d v="2020-01-09T00:00:00"/>
-    <x v="1"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -13573,7 +14138,7 @@
     <s v="高"/>
     <s v="华明香"/>
     <d v="2020-01-08T00:00:00"/>
-    <x v="1"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -13593,7 +14158,7 @@
     <s v="高"/>
     <s v="何福睿"/>
     <d v="2020-01-10T00:00:00"/>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <m/>
     <m/>
@@ -13613,7 +14178,7 @@
     <m/>
     <s v="何福睿"/>
     <m/>
-    <x v="2"/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -13633,7 +14198,7 @@
     <m/>
     <s v="熊驰"/>
     <d v="2020-01-09T00:00:00"/>
-    <x v="1"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -13653,7 +14218,7 @@
     <m/>
     <s v="熊驰"/>
     <d v="2020-01-09T00:00:00"/>
-    <x v="1"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -13673,7 +14238,7 @@
     <m/>
     <s v="何福睿"/>
     <m/>
-    <x v="2"/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -13693,7 +14258,7 @@
     <m/>
     <s v="罗钰_x000a_周述文"/>
     <d v="2020-01-09T00:00:00"/>
-    <x v="2"/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -13713,7 +14278,7 @@
     <m/>
     <s v="何福睿"/>
     <m/>
-    <x v="2"/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -13733,7 +14298,7 @@
     <m/>
     <s v="何福睿"/>
     <d v="2020-01-09T00:00:00"/>
-    <x v="1"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -13753,7 +14318,7 @@
     <m/>
     <s v="何福睿"/>
     <d v="2020-01-09T00:00:00"/>
-    <x v="1"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -13793,11 +14358,11 @@
     <m/>
     <s v="周述文"/>
     <d v="2020-01-09T00:00:00"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="机种不存在不能导入，正常现象"/>
     <m/>
     <m/>
   </r>
@@ -13813,7 +14378,7 @@
     <m/>
     <s v="熊驰_x000a_周述文"/>
     <d v="2020-01-09T00:00:00"/>
-    <x v="1"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -13833,7 +14398,7 @@
     <m/>
     <s v="周述文"/>
     <d v="2020-01-09T00:00:00"/>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <m/>
     <m/>
@@ -13853,7 +14418,7 @@
     <m/>
     <s v="周述文"/>
     <d v="2020-01-09T00:00:00"/>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <m/>
     <m/>
@@ -13873,7 +14438,7 @@
     <m/>
     <s v="周述文"/>
     <d v="2020-01-09T00:00:00"/>
-    <x v="1"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -13905,8 +14470,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="87" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="课题处理状态">
-  <location ref="E3:F12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="课题处理状态">
+  <location ref="E3:F14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
@@ -14075,14 +14640,15 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="8">
+      <items count="9">
+        <item sd="0" x="2"/>
         <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
         <item sd="0" x="0"/>
         <item n="IT担当漏确认课题" sd="0" x="3"/>
-        <item sd="0" m="1" x="6"/>
+        <item sd="0" m="1" x="7"/>
         <item x="4"/>
-        <item m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -14097,7 +14663,7 @@
     <field x="11"/>
     <field x="2"/>
   </rowFields>
-  <rowItems count="9">
+  <rowItems count="11">
     <i>
       <x/>
     </i>
@@ -14122,6 +14688,12 @@
     <i r="1">
       <x v="121"/>
     </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="146"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -14133,29 +14705,29 @@
     <dataField name="数量" fld="0" subtotal="count" baseField="11" baseItem="3"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="6">
+    <format dxfId="13">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="12">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="11">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="10">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="11" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -14521,7 +15093,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -14529,7 +15101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E3:F12"/>
+  <dimension ref="E3:F14"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
@@ -14555,7 +15127,7 @@
         <v>230</v>
       </c>
       <c r="F4" s="195">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="5:6" ht="30">
@@ -14571,7 +15143,7 @@
         <v>123</v>
       </c>
       <c r="F6" s="195">
-        <v>104</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="5:6" ht="30">
@@ -14616,9 +15188,25 @@
     </row>
     <row r="12" spans="5:6" ht="30">
       <c r="E12" s="194" t="s">
+        <v>561</v>
+      </c>
+      <c r="F12" s="195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="5:6" ht="30">
+      <c r="E13" s="346" t="s">
+        <v>417</v>
+      </c>
+      <c r="F13" s="195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="5:6" ht="30">
+      <c r="E14" s="194" t="s">
         <v>252</v>
       </c>
-      <c r="F12" s="195">
+      <c r="F14" s="195">
         <v>150</v>
       </c>
     </row>
@@ -14633,11 +15221,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:T190"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G134" sqref="G134"/>
+      <selection pane="bottomRight" activeCell="L86" sqref="L86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -14664,24 +15252,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" ht="69.75" customHeight="1" thickBot="1">
-      <c r="A1" s="382" t="s">
+      <c r="A1" s="455" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="383"/>
-      <c r="C1" s="383"/>
-      <c r="D1" s="383"/>
-      <c r="E1" s="383"/>
-      <c r="F1" s="383"/>
-      <c r="G1" s="383"/>
-      <c r="H1" s="383"/>
-      <c r="I1" s="383"/>
-      <c r="J1" s="383"/>
-      <c r="K1" s="383"/>
-      <c r="L1" s="383"/>
-      <c r="M1" s="383"/>
-      <c r="N1" s="383"/>
-      <c r="O1" s="383"/>
-      <c r="P1" s="384"/>
+      <c r="B1" s="456"/>
+      <c r="C1" s="456"/>
+      <c r="D1" s="456"/>
+      <c r="E1" s="456"/>
+      <c r="F1" s="456"/>
+      <c r="G1" s="456"/>
+      <c r="H1" s="456"/>
+      <c r="I1" s="456"/>
+      <c r="J1" s="456"/>
+      <c r="K1" s="456"/>
+      <c r="L1" s="456"/>
+      <c r="M1" s="456"/>
+      <c r="N1" s="456"/>
+      <c r="O1" s="456"/>
+      <c r="P1" s="457"/>
       <c r="Q1" s="120"/>
       <c r="S1" s="120"/>
       <c r="T1" s="120"/>
@@ -14856,39 +15444,39 @@
       <c r="B6" s="304" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="398" t="s">
+      <c r="C6" s="395" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="399"/>
-      <c r="E6" s="400" t="s">
+      <c r="D6" s="396"/>
+      <c r="E6" s="397" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="400" t="s">
+      <c r="F6" s="397" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="401">
+      <c r="G6" s="398">
         <v>43801</v>
       </c>
-      <c r="H6" s="402"/>
+      <c r="H6" s="399"/>
       <c r="I6" s="304" t="s">
         <v>101</v>
       </c>
       <c r="J6" s="304" t="s">
         <v>352</v>
       </c>
-      <c r="K6" s="401">
+      <c r="K6" s="398">
         <v>43838</v>
       </c>
-      <c r="L6" s="403" t="s">
+      <c r="L6" s="400" t="s">
         <v>444</v>
       </c>
-      <c r="M6" s="404"/>
-      <c r="N6" s="405"/>
+      <c r="M6" s="401"/>
+      <c r="N6" s="402"/>
       <c r="O6" s="304"/>
-      <c r="P6" s="406" t="s">
+      <c r="P6" s="403" t="s">
         <v>250</v>
       </c>
-      <c r="Q6" s="407" t="s">
+      <c r="Q6" s="404" t="s">
         <v>146</v>
       </c>
       <c r="R6" s="112" t="s">
@@ -19935,7 +20523,7 @@
       <c r="A133" s="245">
         <v>130</v>
       </c>
-      <c r="B133" s="416" t="s">
+      <c r="B133" s="413" t="s">
         <v>303</v>
       </c>
       <c r="C133" s="374" t="s">
@@ -19948,20 +20536,20 @@
       <c r="F133" s="255" t="s">
         <v>373</v>
       </c>
-      <c r="G133" s="395">
+      <c r="G133" s="392">
         <v>43836</v>
       </c>
       <c r="H133" s="252"/>
-      <c r="I133" s="396" t="s">
+      <c r="I133" s="393" t="s">
         <v>16</v>
       </c>
       <c r="J133" s="252" t="s">
         <v>393</v>
       </c>
-      <c r="K133" s="395">
+      <c r="K133" s="392">
         <v>43838</v>
       </c>
-      <c r="L133" s="403" t="s">
+      <c r="L133" s="400" t="s">
         <v>444</v>
       </c>
       <c r="M133" s="245"/>
@@ -20081,17 +20669,17 @@
       <c r="F136" s="255" t="s">
         <v>373</v>
       </c>
-      <c r="G136" s="395">
+      <c r="G136" s="392">
         <v>43836</v>
       </c>
       <c r="H136" s="252"/>
-      <c r="I136" s="396" t="s">
+      <c r="I136" s="393" t="s">
         <v>16</v>
       </c>
       <c r="J136" s="245" t="s">
         <v>427</v>
       </c>
-      <c r="K136" s="395">
+      <c r="K136" s="392">
         <v>43838</v>
       </c>
       <c r="L136" s="214" t="s">
@@ -20125,17 +20713,17 @@
       <c r="F137" s="255" t="s">
         <v>373</v>
       </c>
-      <c r="G137" s="395">
+      <c r="G137" s="392">
         <v>43836</v>
       </c>
       <c r="H137" s="252"/>
-      <c r="I137" s="396" t="s">
+      <c r="I137" s="393" t="s">
         <v>16</v>
       </c>
       <c r="J137" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="K137" s="395">
+      <c r="K137" s="392">
         <v>43839</v>
       </c>
       <c r="L137" s="216" t="s">
@@ -20157,7 +20745,7 @@
       <c r="B138" s="246" t="s">
         <v>380</v>
       </c>
-      <c r="C138" s="397" t="s">
+      <c r="C138" s="394" t="s">
         <v>382</v>
       </c>
       <c r="D138" s="246"/>
@@ -20167,17 +20755,17 @@
       <c r="F138" s="255" t="s">
         <v>373</v>
       </c>
-      <c r="G138" s="395">
+      <c r="G138" s="392">
         <v>43836</v>
       </c>
       <c r="H138" s="252"/>
-      <c r="I138" s="396" t="s">
+      <c r="I138" s="393" t="s">
         <v>16</v>
       </c>
       <c r="J138" s="245" t="s">
         <v>389</v>
       </c>
-      <c r="K138" s="395">
+      <c r="K138" s="392">
         <v>43838</v>
       </c>
       <c r="L138" s="214" t="s">
@@ -20299,7 +20887,7 @@
       <c r="J141" s="252" t="s">
         <v>426</v>
       </c>
-      <c r="K141" s="385">
+      <c r="K141" s="382">
         <v>43839</v>
       </c>
       <c r="L141" s="216" t="s">
@@ -20337,7 +20925,7 @@
       <c r="J142" s="252" t="s">
         <v>426</v>
       </c>
-      <c r="K142" s="385">
+      <c r="K142" s="382">
         <v>43839</v>
       </c>
       <c r="L142" s="216" t="s">
@@ -20491,7 +21079,7 @@
       <c r="J146" s="252" t="s">
         <v>346</v>
       </c>
-      <c r="K146" s="385">
+      <c r="K146" s="382">
         <v>43839</v>
       </c>
       <c r="L146" s="216" t="s">
@@ -20531,7 +21119,7 @@
       <c r="J147" s="252" t="s">
         <v>434</v>
       </c>
-      <c r="K147" s="385">
+      <c r="K147" s="382">
         <v>43839</v>
       </c>
       <c r="L147" s="216" t="s">
@@ -20583,43 +21171,43 @@
       <c r="R148" s="366"/>
     </row>
     <row r="149" spans="1:18" ht="28.8" hidden="1">
-      <c r="A149" s="408">
+      <c r="A149" s="405">
         <v>148</v>
       </c>
-      <c r="B149" s="409" t="s">
+      <c r="B149" s="406" t="s">
         <v>416</v>
       </c>
-      <c r="C149" s="410" t="s">
+      <c r="C149" s="407" t="s">
         <v>417</v>
       </c>
-      <c r="D149" s="411"/>
-      <c r="E149" s="411" t="s">
+      <c r="D149" s="408"/>
+      <c r="E149" s="408" t="s">
         <v>268</v>
       </c>
-      <c r="F149" s="412" t="s">
+      <c r="F149" s="409" t="s">
         <v>438</v>
       </c>
-      <c r="G149" s="413">
+      <c r="G149" s="410">
         <v>43834</v>
       </c>
-      <c r="H149" s="412"/>
-      <c r="I149" s="412"/>
-      <c r="J149" s="412" t="s">
+      <c r="H149" s="409"/>
+      <c r="I149" s="409"/>
+      <c r="J149" s="409" t="s">
         <v>431</v>
       </c>
-      <c r="K149" s="414">
+      <c r="K149" s="411">
         <v>43839</v>
       </c>
-      <c r="L149" s="415" t="s">
+      <c r="L149" s="412" t="s">
         <v>476</v>
       </c>
-      <c r="M149" s="412"/>
-      <c r="N149" s="412"/>
-      <c r="O149" s="412"/>
+      <c r="M149" s="409"/>
+      <c r="N149" s="409"/>
+      <c r="O149" s="409"/>
       <c r="P149" s="159" t="s">
         <v>475</v>
       </c>
-      <c r="Q149" s="412"/>
+      <c r="Q149" s="409"/>
       <c r="R149" s="366"/>
     </row>
     <row r="150" spans="1:18" ht="27.6" hidden="1" customHeight="1">
@@ -20647,7 +21235,7 @@
       <c r="J150" s="252" t="s">
         <v>432</v>
       </c>
-      <c r="K150" s="385">
+      <c r="K150" s="382">
         <v>43839</v>
       </c>
       <c r="L150" s="216" t="s">
@@ -20761,7 +21349,7 @@
       <c r="J153" s="252" t="s">
         <v>431</v>
       </c>
-      <c r="K153" s="385">
+      <c r="K153" s="382">
         <v>43839</v>
       </c>
       <c r="L153" s="216" t="s">
@@ -20813,13 +21401,99 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B9"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="2" max="2" width="54.88671875" customWidth="1"/>
+    <col min="3" max="3" width="61.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" ht="154.5" customHeight="1">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="133.5" customHeight="1">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="188" customFormat="1" ht="14.4">
+      <c r="A5" s="188">
+        <v>4</v>
+      </c>
+      <c r="B5" s="190" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="189" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="14.4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="14.4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="2050" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -20837,567 +21511,481 @@
     <col min="16" max="16" width="6.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="387" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A1" s="386" t="s">
+    <row r="1" spans="1:16" s="384" customFormat="1" ht="49.5" customHeight="1">
+      <c r="A1" s="383" t="s">
         <v>445</v>
       </c>
-      <c r="B1" s="386" t="s">
+      <c r="B1" s="383" t="s">
         <v>446</v>
       </c>
-      <c r="C1" s="386" t="s">
+      <c r="C1" s="383" t="s">
         <v>447</v>
       </c>
-      <c r="D1" s="386" t="s">
+      <c r="D1" s="383" t="s">
         <v>448</v>
       </c>
-      <c r="E1" s="386" t="s">
+      <c r="E1" s="383" t="s">
         <v>449</v>
       </c>
-      <c r="F1" s="386" t="s">
+      <c r="F1" s="383" t="s">
         <v>450</v>
       </c>
-      <c r="G1" s="386" t="s">
+      <c r="G1" s="383" t="s">
         <v>451</v>
       </c>
-      <c r="H1" s="386" t="s">
+      <c r="H1" s="383" t="s">
         <v>452</v>
       </c>
-      <c r="I1" s="386" t="s">
+      <c r="I1" s="383" t="s">
         <v>453</v>
       </c>
-      <c r="J1" s="386" t="s">
+      <c r="J1" s="383" t="s">
         <v>454</v>
       </c>
-      <c r="K1" s="386" t="s">
+      <c r="K1" s="383" t="s">
         <v>455</v>
       </c>
-      <c r="L1" s="386" t="s">
+      <c r="L1" s="383" t="s">
         <v>456</v>
       </c>
-      <c r="M1" s="386" t="s">
+      <c r="M1" s="383" t="s">
         <v>457</v>
       </c>
-      <c r="N1" s="386" t="s">
+      <c r="N1" s="383" t="s">
         <v>458</v>
       </c>
-      <c r="O1" s="386" t="s">
+      <c r="O1" s="383" t="s">
         <v>459</v>
       </c>
-      <c r="P1" s="386" t="s">
+      <c r="P1" s="383" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.6">
-      <c r="A2" s="388">
+      <c r="A2" s="385">
         <v>1</v>
       </c>
-      <c r="B2" s="389" t="s">
+      <c r="B2" s="386" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="389" t="s">
+      <c r="C2" s="386" t="s">
         <v>461</v>
       </c>
-      <c r="D2" s="389"/>
-      <c r="E2" s="389" t="s">
+      <c r="D2" s="386"/>
+      <c r="E2" s="386" t="s">
         <v>268</v>
       </c>
-      <c r="F2" s="389" t="s">
+      <c r="F2" s="386" t="s">
         <v>438</v>
       </c>
-      <c r="G2" s="390">
+      <c r="G2" s="387">
         <v>43804</v>
       </c>
-      <c r="H2" s="389" t="s">
+      <c r="H2" s="386" t="s">
         <v>462</v>
       </c>
-      <c r="I2" s="389" t="s">
+      <c r="I2" s="386" t="s">
         <v>101</v>
       </c>
-      <c r="J2" s="389"/>
-      <c r="K2" s="389"/>
-      <c r="L2" s="389"/>
-      <c r="M2" s="389"/>
-      <c r="N2" s="389"/>
-      <c r="O2" s="389"/>
-      <c r="P2" s="389"/>
+      <c r="J2" s="386"/>
+      <c r="K2" s="386"/>
+      <c r="L2" s="386"/>
+      <c r="M2" s="386"/>
+      <c r="N2" s="386"/>
+      <c r="O2" s="386"/>
+      <c r="P2" s="386"/>
     </row>
     <row r="3" spans="1:16" ht="15.6">
-      <c r="A3" s="388">
+      <c r="A3" s="385">
         <v>2</v>
       </c>
-      <c r="B3" s="389" t="s">
+      <c r="B3" s="386" t="s">
         <v>203</v>
       </c>
-      <c r="C3" s="389" t="s">
+      <c r="C3" s="386" t="s">
         <v>463</v>
       </c>
-      <c r="D3" s="389"/>
-      <c r="E3" s="389" t="s">
+      <c r="D3" s="386"/>
+      <c r="E3" s="386" t="s">
         <v>268</v>
       </c>
-      <c r="F3" s="389" t="s">
+      <c r="F3" s="386" t="s">
         <v>438</v>
       </c>
-      <c r="G3" s="390">
+      <c r="G3" s="387">
         <v>43802</v>
       </c>
-      <c r="H3" s="389" t="s">
+      <c r="H3" s="386" t="s">
         <v>464</v>
       </c>
-      <c r="I3" s="389" t="s">
+      <c r="I3" s="386" t="s">
         <v>101</v>
       </c>
-      <c r="J3" s="389"/>
-      <c r="K3" s="389"/>
-      <c r="L3" s="389"/>
-      <c r="M3" s="389"/>
-      <c r="N3" s="389"/>
-      <c r="O3" s="389"/>
-      <c r="P3" s="389"/>
-    </row>
-    <row r="4" spans="1:16" s="394" customFormat="1" ht="15.6">
-      <c r="A4" s="391">
+      <c r="J3" s="386"/>
+      <c r="K3" s="386"/>
+      <c r="L3" s="386"/>
+      <c r="M3" s="386"/>
+      <c r="N3" s="386"/>
+      <c r="O3" s="386"/>
+      <c r="P3" s="386"/>
+    </row>
+    <row r="4" spans="1:16" s="391" customFormat="1" ht="15.6">
+      <c r="A4" s="388">
         <v>3</v>
       </c>
-      <c r="B4" s="392" t="s">
+      <c r="B4" s="389" t="s">
         <v>203</v>
       </c>
-      <c r="C4" s="392" t="s">
+      <c r="C4" s="389" t="s">
         <v>465</v>
       </c>
-      <c r="D4" s="392"/>
-      <c r="E4" s="392" t="s">
+      <c r="D4" s="389"/>
+      <c r="E4" s="389" t="s">
         <v>265</v>
       </c>
-      <c r="F4" s="392" t="s">
+      <c r="F4" s="389" t="s">
         <v>265</v>
       </c>
-      <c r="G4" s="393">
+      <c r="G4" s="390">
         <v>43817</v>
       </c>
-      <c r="H4" s="392"/>
-      <c r="I4" s="392" t="s">
+      <c r="H4" s="389"/>
+      <c r="I4" s="389" t="s">
         <v>101</v>
       </c>
-      <c r="J4" s="392"/>
-      <c r="K4" s="392"/>
-      <c r="L4" s="392"/>
-      <c r="M4" s="392"/>
-      <c r="N4" s="392"/>
-      <c r="O4" s="392"/>
-      <c r="P4" s="392"/>
+      <c r="J4" s="389"/>
+      <c r="K4" s="389"/>
+      <c r="L4" s="389"/>
+      <c r="M4" s="389"/>
+      <c r="N4" s="389"/>
+      <c r="O4" s="389"/>
+      <c r="P4" s="389"/>
     </row>
     <row r="5" spans="1:16" ht="15.6">
-      <c r="A5" s="388">
+      <c r="A5" s="385">
         <v>4</v>
       </c>
-      <c r="B5" s="389" t="s">
+      <c r="B5" s="386" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="389" t="s">
+      <c r="C5" s="386" t="s">
         <v>466</v>
       </c>
-      <c r="D5" s="389"/>
-      <c r="E5" s="389" t="s">
+      <c r="D5" s="386"/>
+      <c r="E5" s="386" t="s">
         <v>265</v>
       </c>
-      <c r="F5" s="389" t="s">
+      <c r="F5" s="386" t="s">
         <v>265</v>
       </c>
-      <c r="G5" s="390">
+      <c r="G5" s="387">
         <v>43817</v>
       </c>
-      <c r="H5" s="389"/>
-      <c r="I5" s="389" t="s">
+      <c r="H5" s="386"/>
+      <c r="I5" s="386" t="s">
         <v>101</v>
       </c>
-      <c r="J5" s="389"/>
-      <c r="K5" s="389"/>
-      <c r="L5" s="389"/>
-      <c r="M5" s="389"/>
-      <c r="N5" s="389"/>
-      <c r="O5" s="389"/>
-      <c r="P5" s="389"/>
-    </row>
-    <row r="6" spans="1:16" s="394" customFormat="1" ht="15.6">
-      <c r="A6" s="391">
+      <c r="J5" s="386"/>
+      <c r="K5" s="386"/>
+      <c r="L5" s="386"/>
+      <c r="M5" s="386"/>
+      <c r="N5" s="386"/>
+      <c r="O5" s="386"/>
+      <c r="P5" s="386"/>
+    </row>
+    <row r="6" spans="1:16" s="391" customFormat="1" ht="15.6">
+      <c r="A6" s="388">
         <v>5</v>
       </c>
-      <c r="B6" s="392" t="s">
+      <c r="B6" s="389" t="s">
         <v>203</v>
       </c>
-      <c r="C6" s="392" t="s">
+      <c r="C6" s="389" t="s">
         <v>467</v>
       </c>
-      <c r="D6" s="392"/>
-      <c r="E6" s="392" t="s">
+      <c r="D6" s="389"/>
+      <c r="E6" s="389" t="s">
         <v>265</v>
       </c>
-      <c r="F6" s="392" t="s">
+      <c r="F6" s="389" t="s">
         <v>265</v>
       </c>
-      <c r="G6" s="393">
+      <c r="G6" s="390">
         <v>43817</v>
       </c>
-      <c r="H6" s="392"/>
-      <c r="I6" s="392" t="s">
+      <c r="H6" s="389"/>
+      <c r="I6" s="389" t="s">
         <v>101</v>
       </c>
-      <c r="J6" s="392"/>
-      <c r="K6" s="392"/>
-      <c r="L6" s="392"/>
-      <c r="M6" s="392"/>
-      <c r="N6" s="392"/>
-      <c r="O6" s="392"/>
-      <c r="P6" s="392"/>
-    </row>
-    <row r="7" spans="1:16" s="394" customFormat="1" ht="15.6">
-      <c r="A7" s="391">
+      <c r="J6" s="389"/>
+      <c r="K6" s="389"/>
+      <c r="L6" s="389"/>
+      <c r="M6" s="389"/>
+      <c r="N6" s="389"/>
+      <c r="O6" s="389"/>
+      <c r="P6" s="389"/>
+    </row>
+    <row r="7" spans="1:16" s="391" customFormat="1" ht="15.6">
+      <c r="A7" s="388">
         <v>6</v>
       </c>
-      <c r="B7" s="392" t="s">
+      <c r="B7" s="389" t="s">
         <v>203</v>
       </c>
-      <c r="C7" s="392" t="s">
+      <c r="C7" s="389" t="s">
         <v>468</v>
       </c>
-      <c r="D7" s="392"/>
-      <c r="E7" s="392" t="s">
+      <c r="D7" s="389"/>
+      <c r="E7" s="389" t="s">
         <v>265</v>
       </c>
-      <c r="F7" s="392" t="s">
+      <c r="F7" s="389" t="s">
         <v>265</v>
       </c>
-      <c r="G7" s="393">
+      <c r="G7" s="390">
         <v>43817</v>
       </c>
-      <c r="H7" s="392"/>
-      <c r="I7" s="392" t="s">
+      <c r="H7" s="389"/>
+      <c r="I7" s="389" t="s">
         <v>101</v>
       </c>
-      <c r="J7" s="392"/>
-      <c r="K7" s="392"/>
-      <c r="L7" s="392"/>
-      <c r="M7" s="392"/>
-      <c r="N7" s="392"/>
-      <c r="O7" s="392"/>
-      <c r="P7" s="392"/>
-    </row>
-    <row r="8" spans="1:16" s="394" customFormat="1" ht="15.6">
-      <c r="A8" s="391">
+      <c r="J7" s="389"/>
+      <c r="K7" s="389"/>
+      <c r="L7" s="389"/>
+      <c r="M7" s="389"/>
+      <c r="N7" s="389"/>
+      <c r="O7" s="389"/>
+      <c r="P7" s="389"/>
+    </row>
+    <row r="8" spans="1:16" s="391" customFormat="1" ht="15.6">
+      <c r="A8" s="388">
         <v>7</v>
       </c>
-      <c r="B8" s="392" t="s">
+      <c r="B8" s="389" t="s">
         <v>203</v>
       </c>
-      <c r="C8" s="392" t="s">
+      <c r="C8" s="389" t="s">
         <v>415</v>
       </c>
-      <c r="D8" s="392"/>
-      <c r="E8" s="392" t="s">
+      <c r="D8" s="389"/>
+      <c r="E8" s="389" t="s">
         <v>265</v>
       </c>
-      <c r="F8" s="392" t="s">
+      <c r="F8" s="389" t="s">
         <v>265</v>
       </c>
-      <c r="G8" s="393">
+      <c r="G8" s="390">
         <v>43817</v>
       </c>
-      <c r="H8" s="392"/>
-      <c r="I8" s="392" t="s">
+      <c r="H8" s="389"/>
+      <c r="I8" s="389" t="s">
         <v>101</v>
       </c>
-      <c r="J8" s="392"/>
-      <c r="K8" s="392"/>
-      <c r="L8" s="392"/>
-      <c r="M8" s="392"/>
-      <c r="N8" s="392"/>
-      <c r="O8" s="392"/>
-      <c r="P8" s="392"/>
-    </row>
-    <row r="9" spans="1:16" s="394" customFormat="1" ht="15.6">
-      <c r="A9" s="391">
+      <c r="J8" s="389"/>
+      <c r="K8" s="389"/>
+      <c r="L8" s="389"/>
+      <c r="M8" s="389"/>
+      <c r="N8" s="389"/>
+      <c r="O8" s="389"/>
+      <c r="P8" s="389"/>
+    </row>
+    <row r="9" spans="1:16" s="391" customFormat="1" ht="15.6">
+      <c r="A9" s="388">
         <v>8</v>
       </c>
-      <c r="B9" s="392" t="s">
+      <c r="B9" s="389" t="s">
         <v>203</v>
       </c>
-      <c r="C9" s="392" t="s">
+      <c r="C9" s="389" t="s">
         <v>469</v>
       </c>
-      <c r="D9" s="392"/>
-      <c r="E9" s="392" t="s">
+      <c r="D9" s="389"/>
+      <c r="E9" s="389" t="s">
         <v>268</v>
       </c>
-      <c r="F9" s="392" t="s">
+      <c r="F9" s="389" t="s">
         <v>439</v>
       </c>
-      <c r="G9" s="393">
+      <c r="G9" s="390">
         <v>43825</v>
       </c>
-      <c r="H9" s="392"/>
-      <c r="I9" s="392" t="s">
+      <c r="H9" s="389"/>
+      <c r="I9" s="389" t="s">
         <v>101</v>
       </c>
-      <c r="J9" s="392"/>
-      <c r="K9" s="392"/>
-      <c r="L9" s="392"/>
-      <c r="M9" s="392"/>
-      <c r="N9" s="392"/>
-      <c r="O9" s="392"/>
-      <c r="P9" s="392"/>
-    </row>
-    <row r="10" spans="1:16" s="394" customFormat="1" ht="15.6">
-      <c r="A10" s="391">
+      <c r="J9" s="389"/>
+      <c r="K9" s="389"/>
+      <c r="L9" s="389"/>
+      <c r="M9" s="389"/>
+      <c r="N9" s="389"/>
+      <c r="O9" s="389"/>
+      <c r="P9" s="389"/>
+    </row>
+    <row r="10" spans="1:16" s="391" customFormat="1" ht="15.6">
+      <c r="A10" s="388">
         <v>9</v>
       </c>
-      <c r="B10" s="392" t="s">
+      <c r="B10" s="389" t="s">
         <v>203</v>
       </c>
-      <c r="C10" s="392" t="s">
+      <c r="C10" s="389" t="s">
         <v>470</v>
       </c>
-      <c r="D10" s="392"/>
-      <c r="E10" s="392" t="s">
+      <c r="D10" s="389"/>
+      <c r="E10" s="389" t="s">
         <v>268</v>
       </c>
-      <c r="F10" s="392" t="s">
+      <c r="F10" s="389" t="s">
         <v>439</v>
       </c>
-      <c r="G10" s="393">
+      <c r="G10" s="390">
         <v>43825</v>
       </c>
-      <c r="H10" s="392" t="s">
+      <c r="H10" s="389" t="s">
         <v>471</v>
       </c>
-      <c r="I10" s="392" t="s">
+      <c r="I10" s="389" t="s">
         <v>101</v>
       </c>
-      <c r="J10" s="392"/>
-      <c r="K10" s="392"/>
-      <c r="L10" s="392"/>
-      <c r="M10" s="392"/>
-      <c r="N10" s="392"/>
-      <c r="O10" s="392"/>
-      <c r="P10" s="392"/>
+      <c r="J10" s="389"/>
+      <c r="K10" s="389"/>
+      <c r="L10" s="389"/>
+      <c r="M10" s="389"/>
+      <c r="N10" s="389"/>
+      <c r="O10" s="389"/>
+      <c r="P10" s="389"/>
     </row>
     <row r="11" spans="1:16" ht="15.6">
-      <c r="A11" s="388">
+      <c r="A11" s="385">
         <v>10</v>
       </c>
-      <c r="B11" s="389" t="s">
+      <c r="B11" s="386" t="s">
         <v>203</v>
       </c>
-      <c r="C11" s="389" t="s">
+      <c r="C11" s="386" t="s">
         <v>472</v>
       </c>
-      <c r="D11" s="389"/>
-      <c r="E11" s="389" t="s">
+      <c r="D11" s="386"/>
+      <c r="E11" s="386" t="s">
         <v>268</v>
       </c>
-      <c r="F11" s="389" t="s">
+      <c r="F11" s="386" t="s">
         <v>438</v>
       </c>
-      <c r="G11" s="390">
+      <c r="G11" s="387">
         <v>43834</v>
       </c>
-      <c r="H11" s="389"/>
-      <c r="I11" s="389" t="s">
+      <c r="H11" s="386"/>
+      <c r="I11" s="386" t="s">
         <v>101</v>
       </c>
-      <c r="J11" s="389"/>
-      <c r="K11" s="389"/>
-      <c r="L11" s="389"/>
-      <c r="M11" s="389"/>
-      <c r="N11" s="389"/>
-      <c r="O11" s="389"/>
-      <c r="P11" s="389"/>
+      <c r="J11" s="386"/>
+      <c r="K11" s="386"/>
+      <c r="L11" s="386"/>
+      <c r="M11" s="386"/>
+      <c r="N11" s="386"/>
+      <c r="O11" s="386"/>
+      <c r="P11" s="386"/>
     </row>
     <row r="12" spans="1:16" ht="15.6">
-      <c r="A12" s="388">
+      <c r="A12" s="385">
         <v>11</v>
       </c>
-      <c r="B12" s="389" t="s">
+      <c r="B12" s="386" t="s">
         <v>203</v>
       </c>
-      <c r="C12" s="389" t="s">
+      <c r="C12" s="386" t="s">
         <v>412</v>
       </c>
-      <c r="D12" s="389"/>
-      <c r="E12" s="389" t="s">
+      <c r="D12" s="386"/>
+      <c r="E12" s="386" t="s">
         <v>268</v>
       </c>
-      <c r="F12" s="389" t="s">
+      <c r="F12" s="386" t="s">
         <v>439</v>
       </c>
-      <c r="G12" s="390">
+      <c r="G12" s="387">
         <v>43834</v>
       </c>
-      <c r="H12" s="389"/>
-      <c r="I12" s="389" t="s">
+      <c r="H12" s="386"/>
+      <c r="I12" s="386" t="s">
         <v>101</v>
       </c>
-      <c r="J12" s="389"/>
-      <c r="K12" s="389"/>
-      <c r="L12" s="389"/>
-      <c r="M12" s="389"/>
-      <c r="N12" s="389"/>
-      <c r="O12" s="389"/>
-      <c r="P12" s="389"/>
-    </row>
-    <row r="13" spans="1:16" s="394" customFormat="1" ht="15.6">
-      <c r="A13" s="391">
+      <c r="J12" s="386"/>
+      <c r="K12" s="386"/>
+      <c r="L12" s="386"/>
+      <c r="M12" s="386"/>
+      <c r="N12" s="386"/>
+      <c r="O12" s="386"/>
+      <c r="P12" s="386"/>
+    </row>
+    <row r="13" spans="1:16" s="391" customFormat="1" ht="15.6">
+      <c r="A13" s="388">
         <v>12</v>
       </c>
-      <c r="B13" s="392" t="s">
+      <c r="B13" s="389" t="s">
         <v>203</v>
       </c>
-      <c r="C13" s="392" t="s">
+      <c r="C13" s="389" t="s">
         <v>413</v>
       </c>
-      <c r="D13" s="392"/>
-      <c r="E13" s="392" t="s">
+      <c r="D13" s="389"/>
+      <c r="E13" s="389" t="s">
         <v>268</v>
       </c>
-      <c r="F13" s="392" t="s">
+      <c r="F13" s="389" t="s">
         <v>438</v>
       </c>
-      <c r="G13" s="393">
+      <c r="G13" s="390">
         <v>43836</v>
       </c>
-      <c r="H13" s="392"/>
-      <c r="I13" s="392" t="s">
+      <c r="H13" s="389"/>
+      <c r="I13" s="389" t="s">
         <v>101</v>
       </c>
-      <c r="J13" s="392"/>
-      <c r="K13" s="392"/>
-      <c r="L13" s="392"/>
-      <c r="M13" s="392"/>
-      <c r="N13" s="392"/>
-      <c r="O13" s="392"/>
-      <c r="P13" s="392"/>
+      <c r="J13" s="389"/>
+      <c r="K13" s="389"/>
+      <c r="L13" s="389"/>
+      <c r="M13" s="389"/>
+      <c r="N13" s="389"/>
+      <c r="O13" s="389"/>
+      <c r="P13" s="389"/>
     </row>
     <row r="14" spans="1:16" ht="15.6">
-      <c r="A14" s="388">
+      <c r="A14" s="385">
         <v>13</v>
       </c>
-      <c r="B14" s="389" t="s">
+      <c r="B14" s="386" t="s">
         <v>416</v>
       </c>
-      <c r="C14" s="389" t="s">
+      <c r="C14" s="386" t="s">
         <v>473</v>
       </c>
-      <c r="D14" s="389"/>
-      <c r="E14" s="389" t="s">
+      <c r="D14" s="386"/>
+      <c r="E14" s="386" t="s">
         <v>268</v>
       </c>
-      <c r="F14" s="389" t="s">
+      <c r="F14" s="386" t="s">
         <v>439</v>
       </c>
-      <c r="G14" s="390">
+      <c r="G14" s="387">
         <v>43834</v>
       </c>
-      <c r="H14" s="389"/>
-      <c r="I14" s="389" t="s">
+      <c r="H14" s="386"/>
+      <c r="I14" s="386" t="s">
         <v>101</v>
       </c>
-      <c r="J14" s="389"/>
-      <c r="K14" s="389"/>
-      <c r="L14" s="389"/>
-      <c r="M14" s="389"/>
-      <c r="N14" s="389"/>
-      <c r="O14" s="389"/>
-      <c r="P14" s="389"/>
+      <c r="J14" s="386"/>
+      <c r="K14" s="386"/>
+      <c r="L14" s="386"/>
+      <c r="M14" s="386"/>
+      <c r="N14" s="386"/>
+      <c r="O14" s="386"/>
+      <c r="P14" s="386"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B9"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
-  <cols>
-    <col min="2" max="2" width="54.88671875" customWidth="1"/>
-    <col min="3" max="3" width="61.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:2" ht="154.5" customHeight="1">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="133.5" customHeight="1">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14.4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="188" customFormat="1" ht="14.4">
-      <c r="A5" s="188">
-        <v>4</v>
-      </c>
-      <c r="B5" s="190" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="14.4">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="14.4">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="189" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="14.4">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="14.4">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>300</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="2050" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -21429,24 +22017,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="69.75" customHeight="1" thickBot="1">
-      <c r="A1" s="382" t="s">
+      <c r="A1" s="455" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="383"/>
-      <c r="C1" s="383"/>
-      <c r="D1" s="383"/>
-      <c r="E1" s="383"/>
-      <c r="F1" s="383"/>
-      <c r="G1" s="383"/>
-      <c r="H1" s="383"/>
-      <c r="I1" s="383"/>
-      <c r="J1" s="383"/>
-      <c r="K1" s="383"/>
-      <c r="L1" s="383"/>
-      <c r="M1" s="383"/>
-      <c r="N1" s="383"/>
-      <c r="O1" s="383"/>
-      <c r="P1" s="384"/>
+      <c r="B1" s="456"/>
+      <c r="C1" s="456"/>
+      <c r="D1" s="456"/>
+      <c r="E1" s="456"/>
+      <c r="F1" s="456"/>
+      <c r="G1" s="456"/>
+      <c r="H1" s="456"/>
+      <c r="I1" s="456"/>
+      <c r="J1" s="456"/>
+      <c r="K1" s="456"/>
+      <c r="L1" s="456"/>
+      <c r="M1" s="456"/>
+      <c r="N1" s="456"/>
+      <c r="O1" s="456"/>
+      <c r="P1" s="457"/>
     </row>
     <row r="2" spans="1:17" s="2" customFormat="1" ht="28.2" thickBot="1">
       <c r="A2" s="48"/>
@@ -23019,10 +23607,849 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:P20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="2" max="2" width="24.5546875" customWidth="1"/>
+    <col min="3" max="3" width="52.5546875" customWidth="1"/>
+    <col min="4" max="4" width="3.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" customWidth="1"/>
+    <col min="11" max="11" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="94.2" thickBot="1">
+      <c r="A1" s="414" t="s">
+        <v>478</v>
+      </c>
+      <c r="B1" s="415" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="416" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="416" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="416" t="s">
+        <v>479</v>
+      </c>
+      <c r="F1" s="416" t="s">
+        <v>480</v>
+      </c>
+      <c r="G1" s="416" t="s">
+        <v>481</v>
+      </c>
+      <c r="H1" s="417" t="s">
+        <v>482</v>
+      </c>
+      <c r="I1" s="416" t="s">
+        <v>483</v>
+      </c>
+      <c r="J1" s="416" t="s">
+        <v>484</v>
+      </c>
+      <c r="K1" s="416" t="s">
+        <v>485</v>
+      </c>
+      <c r="L1" s="416" t="s">
+        <v>486</v>
+      </c>
+      <c r="M1" s="416" t="s">
+        <v>487</v>
+      </c>
+      <c r="N1" s="418" t="s">
+        <v>488</v>
+      </c>
+      <c r="O1" s="416" t="s">
+        <v>489</v>
+      </c>
+      <c r="P1" s="419" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="31.2" hidden="1">
+      <c r="A2" s="420">
+        <v>2</v>
+      </c>
+      <c r="B2" s="421" t="s">
+        <v>490</v>
+      </c>
+      <c r="C2" s="422" t="s">
+        <v>491</v>
+      </c>
+      <c r="D2" s="423"/>
+      <c r="E2" s="424" t="s">
+        <v>492</v>
+      </c>
+      <c r="F2" s="424" t="s">
+        <v>493</v>
+      </c>
+      <c r="G2" s="425">
+        <v>43801</v>
+      </c>
+      <c r="H2" s="426"/>
+      <c r="I2" s="420" t="s">
+        <v>101</v>
+      </c>
+      <c r="J2" s="420" t="s">
+        <v>556</v>
+      </c>
+      <c r="K2" s="427"/>
+      <c r="L2" s="428" t="s">
+        <v>123</v>
+      </c>
+      <c r="M2" s="429"/>
+      <c r="N2" s="430"/>
+      <c r="O2" s="420" t="s">
+        <v>494</v>
+      </c>
+      <c r="P2" s="431" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="46.8" hidden="1">
+      <c r="A3" s="420">
+        <v>5</v>
+      </c>
+      <c r="B3" s="421" t="s">
+        <v>496</v>
+      </c>
+      <c r="C3" s="422" t="s">
+        <v>497</v>
+      </c>
+      <c r="D3" s="432"/>
+      <c r="E3" s="424" t="s">
+        <v>498</v>
+      </c>
+      <c r="F3" s="424" t="s">
+        <v>499</v>
+      </c>
+      <c r="G3" s="425">
+        <v>43801</v>
+      </c>
+      <c r="H3" s="433" t="s">
+        <v>500</v>
+      </c>
+      <c r="I3" s="420" t="s">
+        <v>101</v>
+      </c>
+      <c r="J3" s="420" t="s">
+        <v>556</v>
+      </c>
+      <c r="K3" s="425"/>
+      <c r="L3" s="428" t="s">
+        <v>123</v>
+      </c>
+      <c r="M3" s="434"/>
+      <c r="N3" s="435"/>
+      <c r="O3" s="420" t="s">
+        <v>494</v>
+      </c>
+      <c r="P3" s="431" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="31.2" hidden="1">
+      <c r="A4" s="420">
+        <v>8</v>
+      </c>
+      <c r="B4" s="421" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="422" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="432"/>
+      <c r="E4" s="424" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="424" t="s">
+        <v>502</v>
+      </c>
+      <c r="G4" s="425">
+        <v>43804</v>
+      </c>
+      <c r="H4" s="433" t="s">
+        <v>503</v>
+      </c>
+      <c r="I4" s="420" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="420" t="s">
+        <v>557</v>
+      </c>
+      <c r="K4" s="425"/>
+      <c r="L4" s="428" t="s">
+        <v>123</v>
+      </c>
+      <c r="M4" s="434"/>
+      <c r="N4" s="435"/>
+      <c r="O4" s="420" t="s">
+        <v>494</v>
+      </c>
+      <c r="P4" s="431" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="31.2" hidden="1">
+      <c r="A5" s="420">
+        <v>11</v>
+      </c>
+      <c r="B5" s="436" t="s">
+        <v>505</v>
+      </c>
+      <c r="C5" s="422" t="s">
+        <v>506</v>
+      </c>
+      <c r="D5" s="437"/>
+      <c r="E5" s="424" t="s">
+        <v>507</v>
+      </c>
+      <c r="F5" s="424" t="s">
+        <v>508</v>
+      </c>
+      <c r="G5" s="425">
+        <v>43808</v>
+      </c>
+      <c r="H5" s="438"/>
+      <c r="I5" s="420" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="420" t="s">
+        <v>558</v>
+      </c>
+      <c r="K5" s="425"/>
+      <c r="L5" s="428" t="s">
+        <v>123</v>
+      </c>
+      <c r="M5" s="434"/>
+      <c r="N5" s="435"/>
+      <c r="O5" s="420" t="s">
+        <v>494</v>
+      </c>
+      <c r="P5" s="431" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.6">
+      <c r="A6" s="420">
+        <v>38</v>
+      </c>
+      <c r="B6" s="436" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="442" t="s">
+        <v>510</v>
+      </c>
+      <c r="D6" s="443"/>
+      <c r="E6" s="444" t="s">
+        <v>507</v>
+      </c>
+      <c r="F6" s="444" t="s">
+        <v>502</v>
+      </c>
+      <c r="G6" s="445">
+        <v>43808</v>
+      </c>
+      <c r="H6" s="446"/>
+      <c r="I6" s="440" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="440" t="s">
+        <v>346</v>
+      </c>
+      <c r="K6" s="445"/>
+      <c r="L6" s="458" t="s">
+        <v>123</v>
+      </c>
+      <c r="M6" s="447"/>
+      <c r="N6" s="448"/>
+      <c r="O6" s="440" t="s">
+        <v>494</v>
+      </c>
+      <c r="P6" s="371"/>
+    </row>
+    <row r="7" spans="1:16" ht="15.6">
+      <c r="A7" s="420">
+        <v>39</v>
+      </c>
+      <c r="B7" s="436" t="s">
+        <v>511</v>
+      </c>
+      <c r="C7" s="442" t="s">
+        <v>512</v>
+      </c>
+      <c r="D7" s="443"/>
+      <c r="E7" s="444" t="s">
+        <v>507</v>
+      </c>
+      <c r="F7" s="444" t="s">
+        <v>513</v>
+      </c>
+      <c r="G7" s="445">
+        <v>43808</v>
+      </c>
+      <c r="H7" s="446"/>
+      <c r="I7" s="440" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="440" t="s">
+        <v>346</v>
+      </c>
+      <c r="K7" s="445"/>
+      <c r="L7" s="458" t="s">
+        <v>123</v>
+      </c>
+      <c r="M7" s="447"/>
+      <c r="N7" s="448"/>
+      <c r="O7" s="440" t="s">
+        <v>494</v>
+      </c>
+      <c r="P7" s="371"/>
+    </row>
+    <row r="8" spans="1:16" ht="15.6" hidden="1">
+      <c r="A8" s="420">
+        <v>43</v>
+      </c>
+      <c r="B8" s="436" t="s">
+        <v>514</v>
+      </c>
+      <c r="C8" s="422" t="s">
+        <v>515</v>
+      </c>
+      <c r="D8" s="437"/>
+      <c r="E8" s="424" t="s">
+        <v>516</v>
+      </c>
+      <c r="F8" s="424" t="s">
+        <v>517</v>
+      </c>
+      <c r="G8" s="425">
+        <v>43804</v>
+      </c>
+      <c r="H8" s="438" t="s">
+        <v>518</v>
+      </c>
+      <c r="I8" s="420" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="439" t="s">
+        <v>559</v>
+      </c>
+      <c r="K8" s="425"/>
+      <c r="L8" s="428" t="s">
+        <v>123</v>
+      </c>
+      <c r="M8" s="434"/>
+      <c r="N8" s="435"/>
+      <c r="O8" s="420" t="s">
+        <v>494</v>
+      </c>
+      <c r="P8" s="431"/>
+    </row>
+    <row r="9" spans="1:16" ht="46.8" hidden="1">
+      <c r="A9" s="420">
+        <v>46</v>
+      </c>
+      <c r="B9" s="436" t="s">
+        <v>519</v>
+      </c>
+      <c r="C9" s="422" t="s">
+        <v>520</v>
+      </c>
+      <c r="D9" s="437"/>
+      <c r="E9" s="424" t="s">
+        <v>521</v>
+      </c>
+      <c r="F9" s="424" t="s">
+        <v>265</v>
+      </c>
+      <c r="G9" s="425">
+        <v>43817</v>
+      </c>
+      <c r="H9" s="438"/>
+      <c r="I9" s="420"/>
+      <c r="J9" s="428" t="s">
+        <v>560</v>
+      </c>
+      <c r="K9" s="425"/>
+      <c r="L9" s="428" t="s">
+        <v>444</v>
+      </c>
+      <c r="M9" s="434"/>
+      <c r="N9" s="435"/>
+      <c r="O9" s="420" t="s">
+        <v>494</v>
+      </c>
+      <c r="P9" s="431"/>
+    </row>
+    <row r="10" spans="1:16" ht="46.8" hidden="1">
+      <c r="A10" s="420">
+        <v>50</v>
+      </c>
+      <c r="B10" s="436" t="s">
+        <v>522</v>
+      </c>
+      <c r="C10" s="422" t="s">
+        <v>523</v>
+      </c>
+      <c r="D10" s="437"/>
+      <c r="E10" s="424" t="s">
+        <v>521</v>
+      </c>
+      <c r="F10" s="424" t="s">
+        <v>524</v>
+      </c>
+      <c r="G10" s="425">
+        <v>43817</v>
+      </c>
+      <c r="H10" s="438"/>
+      <c r="I10" s="420"/>
+      <c r="J10" s="428" t="s">
+        <v>560</v>
+      </c>
+      <c r="K10" s="425">
+        <v>43828</v>
+      </c>
+      <c r="L10" s="428" t="s">
+        <v>123</v>
+      </c>
+      <c r="M10" s="434"/>
+      <c r="N10" s="435"/>
+      <c r="O10" s="420" t="s">
+        <v>494</v>
+      </c>
+      <c r="P10" s="431"/>
+    </row>
+    <row r="11" spans="1:16" ht="46.8" hidden="1">
+      <c r="A11" s="420">
+        <v>51</v>
+      </c>
+      <c r="B11" s="436" t="s">
+        <v>525</v>
+      </c>
+      <c r="C11" s="422" t="s">
+        <v>526</v>
+      </c>
+      <c r="D11" s="437"/>
+      <c r="E11" s="424" t="s">
+        <v>521</v>
+      </c>
+      <c r="F11" s="424" t="s">
+        <v>521</v>
+      </c>
+      <c r="G11" s="425">
+        <v>43817</v>
+      </c>
+      <c r="H11" s="438"/>
+      <c r="I11" s="420"/>
+      <c r="J11" s="428" t="s">
+        <v>560</v>
+      </c>
+      <c r="K11" s="425">
+        <v>43828</v>
+      </c>
+      <c r="L11" s="428" t="s">
+        <v>123</v>
+      </c>
+      <c r="M11" s="434"/>
+      <c r="N11" s="435"/>
+      <c r="O11" s="420" t="s">
+        <v>494</v>
+      </c>
+      <c r="P11" s="431"/>
+    </row>
+    <row r="12" spans="1:16" ht="46.8" hidden="1">
+      <c r="A12" s="420">
+        <v>53</v>
+      </c>
+      <c r="B12" s="436" t="s">
+        <v>527</v>
+      </c>
+      <c r="C12" s="422" t="s">
+        <v>528</v>
+      </c>
+      <c r="D12" s="437"/>
+      <c r="E12" s="424" t="s">
+        <v>529</v>
+      </c>
+      <c r="F12" s="424" t="s">
+        <v>529</v>
+      </c>
+      <c r="G12" s="425">
+        <v>43817</v>
+      </c>
+      <c r="H12" s="438"/>
+      <c r="I12" s="420"/>
+      <c r="J12" s="428" t="s">
+        <v>560</v>
+      </c>
+      <c r="K12" s="425">
+        <v>43828</v>
+      </c>
+      <c r="L12" s="428" t="s">
+        <v>123</v>
+      </c>
+      <c r="M12" s="434"/>
+      <c r="N12" s="435"/>
+      <c r="O12" s="420" t="s">
+        <v>494</v>
+      </c>
+      <c r="P12" s="431"/>
+    </row>
+    <row r="13" spans="1:16" ht="62.4" hidden="1">
+      <c r="A13" s="420">
+        <v>54</v>
+      </c>
+      <c r="B13" s="436" t="s">
+        <v>530</v>
+      </c>
+      <c r="C13" s="422" t="s">
+        <v>531</v>
+      </c>
+      <c r="D13" s="437"/>
+      <c r="E13" s="424" t="s">
+        <v>529</v>
+      </c>
+      <c r="F13" s="424" t="s">
+        <v>529</v>
+      </c>
+      <c r="G13" s="425">
+        <v>43817</v>
+      </c>
+      <c r="H13" s="438"/>
+      <c r="I13" s="420"/>
+      <c r="J13" s="428" t="s">
+        <v>560</v>
+      </c>
+      <c r="K13" s="425">
+        <v>43828</v>
+      </c>
+      <c r="L13" s="428" t="s">
+        <v>123</v>
+      </c>
+      <c r="M13" s="434"/>
+      <c r="N13" s="435"/>
+      <c r="O13" s="420" t="s">
+        <v>494</v>
+      </c>
+      <c r="P13" s="431"/>
+    </row>
+    <row r="14" spans="1:16" ht="62.4" hidden="1">
+      <c r="A14" s="420">
+        <v>55</v>
+      </c>
+      <c r="B14" s="436" t="s">
+        <v>532</v>
+      </c>
+      <c r="C14" s="422" t="s">
+        <v>533</v>
+      </c>
+      <c r="D14" s="437"/>
+      <c r="E14" s="424" t="s">
+        <v>529</v>
+      </c>
+      <c r="F14" s="424" t="s">
+        <v>529</v>
+      </c>
+      <c r="G14" s="425">
+        <v>43817</v>
+      </c>
+      <c r="H14" s="438"/>
+      <c r="I14" s="420"/>
+      <c r="J14" s="428" t="s">
+        <v>560</v>
+      </c>
+      <c r="K14" s="425">
+        <v>43828</v>
+      </c>
+      <c r="L14" s="428" t="s">
+        <v>123</v>
+      </c>
+      <c r="M14" s="434"/>
+      <c r="N14" s="435"/>
+      <c r="O14" s="420" t="s">
+        <v>494</v>
+      </c>
+      <c r="P14" s="431"/>
+    </row>
+    <row r="15" spans="1:16" ht="15.6">
+      <c r="A15" s="420">
+        <v>75</v>
+      </c>
+      <c r="B15" s="436" t="s">
+        <v>203</v>
+      </c>
+      <c r="C15" s="422" t="s">
+        <v>534</v>
+      </c>
+      <c r="D15" s="437"/>
+      <c r="E15" s="424" t="s">
+        <v>529</v>
+      </c>
+      <c r="F15" s="424" t="s">
+        <v>529</v>
+      </c>
+      <c r="G15" s="425">
+        <v>43817</v>
+      </c>
+      <c r="H15" s="438"/>
+      <c r="I15" s="420"/>
+      <c r="J15" s="420" t="s">
+        <v>346</v>
+      </c>
+      <c r="K15" s="425">
+        <v>43828</v>
+      </c>
+      <c r="L15" s="428" t="s">
+        <v>123</v>
+      </c>
+      <c r="M15" s="434"/>
+      <c r="N15" s="435"/>
+      <c r="O15" s="420" t="s">
+        <v>494</v>
+      </c>
+      <c r="P15" s="431"/>
+    </row>
+    <row r="16" spans="1:16" ht="31.2" hidden="1">
+      <c r="A16" s="420">
+        <v>95</v>
+      </c>
+      <c r="B16" s="436" t="s">
+        <v>535</v>
+      </c>
+      <c r="C16" s="422" t="s">
+        <v>536</v>
+      </c>
+      <c r="D16" s="437"/>
+      <c r="E16" s="424" t="s">
+        <v>529</v>
+      </c>
+      <c r="F16" s="424" t="s">
+        <v>529</v>
+      </c>
+      <c r="G16" s="425">
+        <v>43817</v>
+      </c>
+      <c r="H16" s="438"/>
+      <c r="I16" s="420"/>
+      <c r="J16" s="420" t="s">
+        <v>556</v>
+      </c>
+      <c r="K16" s="425"/>
+      <c r="L16" s="428" t="s">
+        <v>537</v>
+      </c>
+      <c r="M16" s="434"/>
+      <c r="N16" s="435"/>
+      <c r="O16" s="420" t="s">
+        <v>494</v>
+      </c>
+      <c r="P16" s="431"/>
+    </row>
+    <row r="17" spans="1:16" ht="31.2" hidden="1">
+      <c r="A17" s="420">
+        <v>104</v>
+      </c>
+      <c r="B17" s="436" t="s">
+        <v>225</v>
+      </c>
+      <c r="C17" s="422" t="s">
+        <v>538</v>
+      </c>
+      <c r="D17" s="437"/>
+      <c r="E17" s="424" t="s">
+        <v>529</v>
+      </c>
+      <c r="F17" s="424" t="s">
+        <v>529</v>
+      </c>
+      <c r="G17" s="425">
+        <v>43817</v>
+      </c>
+      <c r="H17" s="438" t="s">
+        <v>539</v>
+      </c>
+      <c r="I17" s="420"/>
+      <c r="J17" s="428" t="s">
+        <v>560</v>
+      </c>
+      <c r="K17" s="425">
+        <v>43828</v>
+      </c>
+      <c r="L17" s="428" t="s">
+        <v>123</v>
+      </c>
+      <c r="M17" s="434"/>
+      <c r="N17" s="435"/>
+      <c r="O17" s="420" t="s">
+        <v>494</v>
+      </c>
+      <c r="P17" s="431"/>
+    </row>
+    <row r="18" spans="1:16" ht="93.6">
+      <c r="A18" s="420">
+        <v>111</v>
+      </c>
+      <c r="B18" s="436" t="s">
+        <v>540</v>
+      </c>
+      <c r="C18" s="422" t="s">
+        <v>541</v>
+      </c>
+      <c r="D18" s="437"/>
+      <c r="E18" s="424" t="s">
+        <v>542</v>
+      </c>
+      <c r="F18" s="424" t="s">
+        <v>543</v>
+      </c>
+      <c r="G18" s="425">
+        <v>43822</v>
+      </c>
+      <c r="H18" s="438" t="s">
+        <v>544</v>
+      </c>
+      <c r="I18" s="420"/>
+      <c r="J18" s="420" t="s">
+        <v>346</v>
+      </c>
+      <c r="K18" s="425">
+        <v>43828</v>
+      </c>
+      <c r="L18" s="428" t="s">
+        <v>545</v>
+      </c>
+      <c r="M18" s="434"/>
+      <c r="N18" s="435"/>
+      <c r="O18" s="420" t="s">
+        <v>494</v>
+      </c>
+      <c r="P18" s="431"/>
+    </row>
+    <row r="19" spans="1:16" ht="31.2">
+      <c r="A19" s="440">
+        <v>112</v>
+      </c>
+      <c r="B19" s="441" t="s">
+        <v>546</v>
+      </c>
+      <c r="C19" s="442" t="s">
+        <v>547</v>
+      </c>
+      <c r="D19" s="443"/>
+      <c r="E19" s="444" t="s">
+        <v>542</v>
+      </c>
+      <c r="F19" s="444" t="s">
+        <v>543</v>
+      </c>
+      <c r="G19" s="445">
+        <v>43822</v>
+      </c>
+      <c r="H19" s="446"/>
+      <c r="I19" s="440"/>
+      <c r="J19" s="440" t="s">
+        <v>563</v>
+      </c>
+      <c r="K19" s="445">
+        <v>43833</v>
+      </c>
+      <c r="L19" s="447" t="s">
+        <v>123</v>
+      </c>
+      <c r="M19" s="447"/>
+      <c r="N19" s="448"/>
+      <c r="O19" s="440" t="s">
+        <v>494</v>
+      </c>
+      <c r="P19" s="371" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="46.8">
+      <c r="A20" s="420">
+        <v>125</v>
+      </c>
+      <c r="B20" s="449" t="s">
+        <v>549</v>
+      </c>
+      <c r="C20" s="450" t="s">
+        <v>550</v>
+      </c>
+      <c r="D20" s="451"/>
+      <c r="E20" s="452" t="s">
+        <v>551</v>
+      </c>
+      <c r="F20" s="452" t="s">
+        <v>552</v>
+      </c>
+      <c r="G20" s="453">
+        <v>43825</v>
+      </c>
+      <c r="H20" s="454" t="s">
+        <v>562</v>
+      </c>
+      <c r="I20" s="434" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="434" t="s">
+        <v>564</v>
+      </c>
+      <c r="K20" s="434"/>
+      <c r="L20" s="434" t="s">
+        <v>553</v>
+      </c>
+      <c r="M20" s="434"/>
+      <c r="N20" s="434"/>
+      <c r="O20" s="434" t="s">
+        <v>554</v>
+      </c>
+      <c r="P20" s="431" t="s">
+        <v>555</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:P20">
+    <filterColumn colId="9">
+      <filters>
+        <filter val="何福睿"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O19">
+      <formula1>"OK,NG"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I20">
+      <formula1>"优先,高,适中,缓"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2">
+      <formula1>"已处理,处理中,待确定,新发现课题"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L8 L10:L15 L17 L19">
+      <formula1>"已处理,未处理"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -23030,37 +24457,37 @@
     <col min="3" max="3" width="44.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="57.6">
+    <row r="1" spans="1:12" ht="14.4">
       <c r="A1" s="304">
         <v>3</v>
       </c>
       <c r="B1" s="304" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="398" t="s">
+      <c r="C1" s="395" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="399"/>
-      <c r="E1" s="400" t="s">
+      <c r="D1" s="396"/>
+      <c r="E1" s="397" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="400" t="s">
+      <c r="F1" s="397" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="401">
+      <c r="G1" s="398">
         <v>43801</v>
       </c>
-      <c r="H1" s="402"/>
+      <c r="H1" s="399"/>
       <c r="I1" s="304" t="s">
         <v>101</v>
       </c>
       <c r="J1" s="304" t="s">
         <v>352</v>
       </c>
-      <c r="K1" s="401">
+      <c r="K1" s="398">
         <v>43838</v>
       </c>
-      <c r="L1" s="403" t="s">
+      <c r="L1" s="400" t="s">
         <v>444</v>
       </c>
     </row>
@@ -23068,7 +24495,7 @@
       <c r="A2" s="245">
         <v>130</v>
       </c>
-      <c r="B2" s="416" t="s">
+      <c r="B2" s="413" t="s">
         <v>303</v>
       </c>
       <c r="C2" s="374" t="s">
@@ -23081,20 +24508,20 @@
       <c r="F2" s="255" t="s">
         <v>373</v>
       </c>
-      <c r="G2" s="395">
+      <c r="G2" s="392">
         <v>43836</v>
       </c>
       <c r="H2" s="252"/>
-      <c r="I2" s="396" t="s">
+      <c r="I2" s="393" t="s">
         <v>16</v>
       </c>
       <c r="J2" s="252" t="s">
         <v>393</v>
       </c>
-      <c r="K2" s="395">
+      <c r="K2" s="392">
         <v>43838</v>
       </c>
-      <c r="L2" s="403" t="s">
+      <c r="L2" s="400" t="s">
         <v>444</v>
       </c>
     </row>
@@ -23115,17 +24542,17 @@
       <c r="F3" s="255" t="s">
         <v>373</v>
       </c>
-      <c r="G3" s="395">
+      <c r="G3" s="392">
         <v>43836</v>
       </c>
       <c r="H3" s="252"/>
-      <c r="I3" s="396" t="s">
+      <c r="I3" s="393" t="s">
         <v>16</v>
       </c>
       <c r="J3" s="245" t="s">
         <v>427</v>
       </c>
-      <c r="K3" s="395">
+      <c r="K3" s="392">
         <v>43838</v>
       </c>
       <c r="L3" s="214" t="s">
@@ -23139,7 +24566,7 @@
       <c r="B4" s="246" t="s">
         <v>380</v>
       </c>
-      <c r="C4" s="397" t="s">
+      <c r="C4" s="394" t="s">
         <v>382</v>
       </c>
       <c r="D4" s="246"/>
@@ -23149,17 +24576,17 @@
       <c r="F4" s="255" t="s">
         <v>373</v>
       </c>
-      <c r="G4" s="395">
+      <c r="G4" s="392">
         <v>43836</v>
       </c>
       <c r="H4" s="252"/>
-      <c r="I4" s="396" t="s">
+      <c r="I4" s="393" t="s">
         <v>16</v>
       </c>
       <c r="J4" s="245" t="s">
         <v>389</v>
       </c>
-      <c r="K4" s="395">
+      <c r="K4" s="392">
         <v>43838</v>
       </c>
       <c r="L4" s="214" t="s">
@@ -23191,7 +24618,7 @@
       <c r="J5" s="252" t="s">
         <v>426</v>
       </c>
-      <c r="K5" s="385">
+      <c r="K5" s="382">
         <v>43839</v>
       </c>
       <c r="L5" s="216" t="s">
@@ -23223,7 +24650,7 @@
       <c r="J6" s="252" t="s">
         <v>426</v>
       </c>
-      <c r="K6" s="385">
+      <c r="K6" s="382">
         <v>43839</v>
       </c>
       <c r="L6" s="216" t="s">
@@ -23231,34 +24658,34 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="31.2">
-      <c r="A7" s="408">
+      <c r="A7" s="405">
         <v>148</v>
       </c>
-      <c r="B7" s="409" t="s">
+      <c r="B7" s="406" t="s">
         <v>416</v>
       </c>
-      <c r="C7" s="410" t="s">
+      <c r="C7" s="407" t="s">
         <v>417</v>
       </c>
-      <c r="D7" s="411"/>
-      <c r="E7" s="411" t="s">
+      <c r="D7" s="408"/>
+      <c r="E7" s="408" t="s">
         <v>268</v>
       </c>
-      <c r="F7" s="412" t="s">
+      <c r="F7" s="409" t="s">
         <v>438</v>
       </c>
-      <c r="G7" s="413">
+      <c r="G7" s="410">
         <v>43834</v>
       </c>
-      <c r="H7" s="412"/>
-      <c r="I7" s="412"/>
-      <c r="J7" s="412" t="s">
+      <c r="H7" s="409"/>
+      <c r="I7" s="409"/>
+      <c r="J7" s="409" t="s">
         <v>431</v>
       </c>
-      <c r="K7" s="414">
+      <c r="K7" s="411">
         <v>43839</v>
       </c>
-      <c r="L7" s="415" t="s">
+      <c r="L7" s="412" t="s">
         <v>476</v>
       </c>
     </row>
@@ -23287,7 +24714,7 @@
       <c r="J8" s="252" t="s">
         <v>432</v>
       </c>
-      <c r="K8" s="385">
+      <c r="K8" s="382">
         <v>43839</v>
       </c>
       <c r="L8" s="216" t="s">
@@ -23319,7 +24746,7 @@
       <c r="J9" s="252" t="s">
         <v>431</v>
       </c>
-      <c r="K9" s="385">
+      <c r="K9" s="382">
         <v>43839</v>
       </c>
       <c r="L9" s="216" t="s">
@@ -23343,17 +24770,17 @@
       <c r="F10" s="255" t="s">
         <v>373</v>
       </c>
-      <c r="G10" s="395">
+      <c r="G10" s="392">
         <v>43836</v>
       </c>
       <c r="H10" s="252"/>
-      <c r="I10" s="396" t="s">
+      <c r="I10" s="393" t="s">
         <v>16</v>
       </c>
       <c r="J10" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="K10" s="395">
+      <c r="K10" s="392">
         <v>43839</v>
       </c>
       <c r="L10" s="216" t="s">
@@ -23385,7 +24812,7 @@
       <c r="J11" s="252" t="s">
         <v>346</v>
       </c>
-      <c r="K11" s="385">
+      <c r="K11" s="382">
         <v>43839</v>
       </c>
       <c r="L11" s="216" t="s">
@@ -23419,7 +24846,7 @@
       <c r="J12" s="252" t="s">
         <v>425</v>
       </c>
-      <c r="K12" s="385">
+      <c r="K12" s="382">
         <v>43839</v>
       </c>
       <c r="L12" s="216" t="s">
